--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>BZLFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11737900</v>
+        <v>11486800</v>
       </c>
       <c r="E8" s="3">
-        <v>11093500</v>
+        <v>11182200</v>
       </c>
       <c r="F8" s="3">
-        <v>9604400</v>
+        <v>10568200</v>
       </c>
       <c r="G8" s="3">
-        <v>8389900</v>
+        <v>9149700</v>
       </c>
       <c r="H8" s="3">
-        <v>7959200</v>
+        <v>7992700</v>
       </c>
       <c r="I8" s="3">
-        <v>7883200</v>
+        <v>7582300</v>
       </c>
       <c r="J8" s="3">
+        <v>7509900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6928400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6728100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8858100</v>
+        <v>8662100</v>
       </c>
       <c r="E9" s="3">
-        <v>8391100</v>
+        <v>8438700</v>
       </c>
       <c r="F9" s="3">
-        <v>7265700</v>
+        <v>7993800</v>
       </c>
       <c r="G9" s="3">
-        <v>6369900</v>
+        <v>6921700</v>
       </c>
       <c r="H9" s="3">
-        <v>6023500</v>
+        <v>6068300</v>
       </c>
       <c r="I9" s="3">
-        <v>5996400</v>
+        <v>5738300</v>
       </c>
       <c r="J9" s="3">
+        <v>5712500</v>
+      </c>
+      <c r="K9" s="3">
         <v>5324100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5143000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2879900</v>
+        <v>2824700</v>
       </c>
       <c r="E10" s="3">
-        <v>2702400</v>
+        <v>2743500</v>
       </c>
       <c r="F10" s="3">
-        <v>2338700</v>
+        <v>2574400</v>
       </c>
       <c r="G10" s="3">
-        <v>2020000</v>
+        <v>2228000</v>
       </c>
       <c r="H10" s="3">
-        <v>1935700</v>
+        <v>1924400</v>
       </c>
       <c r="I10" s="3">
-        <v>1886700</v>
+        <v>1844100</v>
       </c>
       <c r="J10" s="3">
+        <v>1797400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1604400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1585200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29900</v>
+        <v>21700</v>
       </c>
       <c r="E14" s="3">
-        <v>47400</v>
+        <v>28400</v>
       </c>
       <c r="F14" s="3">
-        <v>44000</v>
+        <v>45200</v>
       </c>
       <c r="G14" s="3">
-        <v>28100</v>
+        <v>41900</v>
       </c>
       <c r="H14" s="3">
-        <v>33700</v>
+        <v>26700</v>
       </c>
       <c r="I14" s="3">
-        <v>31000</v>
+        <v>32100</v>
       </c>
       <c r="J14" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K14" s="3">
         <v>13800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>185800</v>
+        <v>329200</v>
       </c>
       <c r="E15" s="3">
-        <v>165400</v>
+        <v>177000</v>
       </c>
       <c r="F15" s="3">
-        <v>140500</v>
+        <v>157500</v>
       </c>
       <c r="G15" s="3">
-        <v>117500</v>
+        <v>133900</v>
       </c>
       <c r="H15" s="3">
-        <v>111600</v>
+        <v>112000</v>
       </c>
       <c r="I15" s="3">
-        <v>108900</v>
+        <v>106300</v>
       </c>
       <c r="J15" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K15" s="3">
         <v>91400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>94700</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11117600</v>
+        <v>10836000</v>
       </c>
       <c r="E17" s="3">
-        <v>10504000</v>
+        <v>10591300</v>
       </c>
       <c r="F17" s="3">
-        <v>9074800</v>
+        <v>10006600</v>
       </c>
       <c r="G17" s="3">
-        <v>7916100</v>
+        <v>8645100</v>
       </c>
       <c r="H17" s="3">
-        <v>7517300</v>
+        <v>7541300</v>
       </c>
       <c r="I17" s="3">
-        <v>7468000</v>
+        <v>7161400</v>
       </c>
       <c r="J17" s="3">
+        <v>7114500</v>
+      </c>
+      <c r="K17" s="3">
         <v>6537100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6360400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>620300</v>
+        <v>650800</v>
       </c>
       <c r="E18" s="3">
-        <v>589500</v>
+        <v>590900</v>
       </c>
       <c r="F18" s="3">
-        <v>529700</v>
+        <v>561600</v>
       </c>
       <c r="G18" s="3">
-        <v>473800</v>
+        <v>504600</v>
       </c>
       <c r="H18" s="3">
-        <v>441900</v>
+        <v>451400</v>
       </c>
       <c r="I18" s="3">
-        <v>415100</v>
+        <v>421000</v>
       </c>
       <c r="J18" s="3">
+        <v>395500</v>
+      </c>
+      <c r="K18" s="3">
         <v>391300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>367800</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10900</v>
+        <v>5900</v>
       </c>
       <c r="E20" s="3">
-        <v>7500</v>
+        <v>5900</v>
       </c>
       <c r="F20" s="3">
         <v>5200</v>
       </c>
       <c r="G20" s="3">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="H20" s="3">
-        <v>1800</v>
+        <v>-600</v>
       </c>
       <c r="I20" s="3">
-        <v>13200</v>
+        <v>-700</v>
       </c>
       <c r="J20" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-69800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>818000</v>
+        <v>984100</v>
       </c>
       <c r="E21" s="3">
-        <v>763300</v>
+        <v>772900</v>
       </c>
       <c r="F21" s="3">
-        <v>676100</v>
+        <v>723500</v>
       </c>
       <c r="G21" s="3">
-        <v>593500</v>
+        <v>641300</v>
       </c>
       <c r="H21" s="3">
-        <v>555900</v>
+        <v>562100</v>
       </c>
       <c r="I21" s="3">
-        <v>537800</v>
+        <v>525900</v>
       </c>
       <c r="J21" s="3">
+        <v>509300</v>
+      </c>
+      <c r="K21" s="3">
         <v>491300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>405300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>82000</v>
+        <v>98400</v>
       </c>
       <c r="E22" s="3">
-        <v>67900</v>
+        <v>73600</v>
       </c>
       <c r="F22" s="3">
-        <v>65700</v>
+        <v>62700</v>
       </c>
       <c r="G22" s="3">
-        <v>58200</v>
+        <v>61200</v>
       </c>
       <c r="H22" s="3">
-        <v>56100</v>
+        <v>53300</v>
       </c>
       <c r="I22" s="3">
-        <v>53500</v>
+        <v>51000</v>
       </c>
       <c r="J22" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K22" s="3">
         <v>44200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>42900</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>549200</v>
+        <v>558300</v>
       </c>
       <c r="E23" s="3">
-        <v>529100</v>
+        <v>523200</v>
       </c>
       <c r="F23" s="3">
-        <v>469200</v>
+        <v>504100</v>
       </c>
       <c r="G23" s="3">
-        <v>417200</v>
+        <v>446900</v>
       </c>
       <c r="H23" s="3">
-        <v>387600</v>
+        <v>397400</v>
       </c>
       <c r="I23" s="3">
-        <v>374800</v>
+        <v>369200</v>
       </c>
       <c r="J23" s="3">
+        <v>357000</v>
+      </c>
+      <c r="K23" s="3">
         <v>341000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>255100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>127100</v>
+        <v>128200</v>
       </c>
       <c r="E24" s="3">
-        <v>127700</v>
+        <v>121100</v>
       </c>
       <c r="F24" s="3">
-        <v>125400</v>
+        <v>121700</v>
       </c>
       <c r="G24" s="3">
-        <v>116400</v>
+        <v>119500</v>
       </c>
       <c r="H24" s="3">
-        <v>115200</v>
+        <v>110800</v>
       </c>
       <c r="I24" s="3">
-        <v>107400</v>
+        <v>109700</v>
       </c>
       <c r="J24" s="3">
+        <v>102300</v>
+      </c>
+      <c r="K24" s="3">
         <v>93700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>92000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>422100</v>
+        <v>430100</v>
       </c>
       <c r="E26" s="3">
-        <v>401400</v>
+        <v>402100</v>
       </c>
       <c r="F26" s="3">
-        <v>343800</v>
+        <v>382400</v>
       </c>
       <c r="G26" s="3">
-        <v>300800</v>
+        <v>327500</v>
       </c>
       <c r="H26" s="3">
-        <v>272400</v>
+        <v>286600</v>
       </c>
       <c r="I26" s="3">
-        <v>267400</v>
+        <v>259500</v>
       </c>
       <c r="J26" s="3">
+        <v>254700</v>
+      </c>
+      <c r="K26" s="3">
         <v>247300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>163000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>422100</v>
+        <v>430100</v>
       </c>
       <c r="E27" s="3">
-        <v>401400</v>
+        <v>402100</v>
       </c>
       <c r="F27" s="3">
-        <v>343800</v>
+        <v>382400</v>
       </c>
       <c r="G27" s="3">
-        <v>300800</v>
+        <v>327500</v>
       </c>
       <c r="H27" s="3">
-        <v>272400</v>
+        <v>286600</v>
       </c>
       <c r="I27" s="3">
-        <v>267400</v>
+        <v>259500</v>
       </c>
       <c r="J27" s="3">
+        <v>254700</v>
+      </c>
+      <c r="K27" s="3">
         <v>247300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>163000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10900</v>
+        <v>-5900</v>
       </c>
       <c r="E32" s="3">
-        <v>-7500</v>
+        <v>-5900</v>
       </c>
       <c r="F32" s="3">
         <v>-5200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1600</v>
+        <v>-3600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1800</v>
+        <v>600</v>
       </c>
       <c r="I32" s="3">
-        <v>-13200</v>
+        <v>700</v>
       </c>
       <c r="J32" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K32" s="3">
         <v>6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>69800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>422100</v>
+        <v>430100</v>
       </c>
       <c r="E33" s="3">
-        <v>401400</v>
+        <v>402100</v>
       </c>
       <c r="F33" s="3">
-        <v>343800</v>
+        <v>382400</v>
       </c>
       <c r="G33" s="3">
-        <v>300800</v>
+        <v>327500</v>
       </c>
       <c r="H33" s="3">
-        <v>272400</v>
+        <v>286600</v>
       </c>
       <c r="I33" s="3">
-        <v>267400</v>
+        <v>259500</v>
       </c>
       <c r="J33" s="3">
+        <v>254700</v>
+      </c>
+      <c r="K33" s="3">
         <v>247300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>163000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>422100</v>
+        <v>430100</v>
       </c>
       <c r="E35" s="3">
-        <v>401400</v>
+        <v>402100</v>
       </c>
       <c r="F35" s="3">
-        <v>343800</v>
+        <v>382400</v>
       </c>
       <c r="G35" s="3">
-        <v>300800</v>
+        <v>327500</v>
       </c>
       <c r="H35" s="3">
-        <v>272400</v>
+        <v>286600</v>
       </c>
       <c r="I35" s="3">
-        <v>267400</v>
+        <v>259500</v>
       </c>
       <c r="J35" s="3">
+        <v>254700</v>
+      </c>
+      <c r="K35" s="3">
         <v>247300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>163000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,188 +1645,207 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>617600</v>
+        <v>753600</v>
       </c>
       <c r="E41" s="3">
-        <v>431300</v>
+        <v>589700</v>
       </c>
       <c r="F41" s="3">
-        <v>365100</v>
+        <v>411800</v>
       </c>
       <c r="G41" s="3">
-        <v>364300</v>
+        <v>348600</v>
       </c>
       <c r="H41" s="3">
-        <v>386000</v>
+        <v>347900</v>
       </c>
       <c r="I41" s="3">
-        <v>94500</v>
+        <v>368600</v>
       </c>
       <c r="J41" s="3">
+        <v>90200</v>
+      </c>
+      <c r="K41" s="3">
         <v>204500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>5400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>14000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1628700</v>
+        <v>1469600</v>
       </c>
       <c r="E43" s="3">
-        <v>1537000</v>
+        <v>1555100</v>
       </c>
       <c r="F43" s="3">
-        <v>1420900</v>
+        <v>1467600</v>
       </c>
       <c r="G43" s="3">
-        <v>1146100</v>
+        <v>1356700</v>
       </c>
       <c r="H43" s="3">
-        <v>2031500</v>
+        <v>1094300</v>
       </c>
       <c r="I43" s="3">
-        <v>1798400</v>
+        <v>1939700</v>
       </c>
       <c r="J43" s="3">
+        <v>1717200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2783800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>803800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1569000</v>
+        <v>1453100</v>
       </c>
       <c r="E44" s="3">
-        <v>1376700</v>
+        <v>1498100</v>
       </c>
       <c r="F44" s="3">
-        <v>1242300</v>
+        <v>1314500</v>
       </c>
       <c r="G44" s="3">
-        <v>2053500</v>
+        <v>1186100</v>
       </c>
       <c r="H44" s="3">
-        <v>911800</v>
+        <v>1960700</v>
       </c>
       <c r="I44" s="3">
-        <v>834000</v>
+        <v>870600</v>
       </c>
       <c r="J44" s="3">
+        <v>796300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2263200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>696100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>112200</v>
+        <v>91000</v>
       </c>
       <c r="E45" s="3">
-        <v>144700</v>
+        <v>107100</v>
       </c>
       <c r="F45" s="3">
-        <v>99000</v>
+        <v>138100</v>
       </c>
       <c r="G45" s="3">
-        <v>354600</v>
+        <v>94600</v>
       </c>
       <c r="H45" s="3">
-        <v>234600</v>
+        <v>338600</v>
       </c>
       <c r="I45" s="3">
-        <v>222600</v>
+        <v>224000</v>
       </c>
       <c r="J45" s="3">
+        <v>212600</v>
+      </c>
+      <c r="K45" s="3">
         <v>399000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>171600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3927400</v>
+        <v>3767300</v>
       </c>
       <c r="E46" s="3">
-        <v>3489700</v>
+        <v>3750000</v>
       </c>
       <c r="F46" s="3">
-        <v>3127300</v>
+        <v>3332000</v>
       </c>
       <c r="G46" s="3">
-        <v>2639100</v>
+        <v>2986000</v>
       </c>
       <c r="H46" s="3">
-        <v>2439500</v>
+        <v>2519900</v>
       </c>
       <c r="I46" s="3">
-        <v>2050800</v>
+        <v>2329300</v>
       </c>
       <c r="J46" s="3">
+        <v>1958100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1918400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1769100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1767,71 +1871,80 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>158200</v>
+        <v>680400</v>
       </c>
       <c r="E48" s="3">
-        <v>161900</v>
+        <v>151100</v>
       </c>
       <c r="F48" s="3">
-        <v>159400</v>
+        <v>154500</v>
       </c>
       <c r="G48" s="3">
-        <v>145600</v>
+        <v>152200</v>
       </c>
       <c r="H48" s="3">
-        <v>293300</v>
+        <v>139000</v>
       </c>
       <c r="I48" s="3">
-        <v>153600</v>
+        <v>280100</v>
       </c>
       <c r="J48" s="3">
+        <v>146600</v>
+      </c>
+      <c r="K48" s="3">
         <v>431300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>143500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3080100</v>
+        <v>2827900</v>
       </c>
       <c r="E49" s="3">
-        <v>3040300</v>
+        <v>2941000</v>
       </c>
       <c r="F49" s="3">
-        <v>2517900</v>
+        <v>2902900</v>
       </c>
       <c r="G49" s="3">
-        <v>2128100</v>
+        <v>2404100</v>
       </c>
       <c r="H49" s="3">
-        <v>3838500</v>
+        <v>2031900</v>
       </c>
       <c r="I49" s="3">
-        <v>1883500</v>
+        <v>3665100</v>
       </c>
       <c r="J49" s="3">
+        <v>1798400</v>
+      </c>
+      <c r="K49" s="3">
         <v>3466300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1654900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17200</v>
+        <v>32100</v>
       </c>
       <c r="E52" s="3">
-        <v>17300</v>
+        <v>16400</v>
       </c>
       <c r="F52" s="3">
-        <v>22200</v>
+        <v>16500</v>
       </c>
       <c r="G52" s="3">
-        <v>28300</v>
+        <v>21200</v>
       </c>
       <c r="H52" s="3">
-        <v>26100</v>
+        <v>27000</v>
       </c>
       <c r="I52" s="3">
-        <v>17700</v>
+        <v>24900</v>
       </c>
       <c r="J52" s="3">
-        <v>41600</v>
+        <v>16900</v>
       </c>
       <c r="K52" s="3">
         <v>41600</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>41600</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7183000</v>
+        <v>7307600</v>
       </c>
       <c r="E54" s="3">
-        <v>6709200</v>
+        <v>6858400</v>
       </c>
       <c r="F54" s="3">
-        <v>5826800</v>
+        <v>6406000</v>
       </c>
       <c r="G54" s="3">
-        <v>4941100</v>
+        <v>5563600</v>
       </c>
       <c r="H54" s="3">
-        <v>4531600</v>
+        <v>4717900</v>
       </c>
       <c r="I54" s="3">
-        <v>4105600</v>
+        <v>4326800</v>
       </c>
       <c r="J54" s="3">
+        <v>3920100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3816000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3609800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1478800</v>
+        <v>1318200</v>
       </c>
       <c r="E57" s="3">
-        <v>1334300</v>
+        <v>1412000</v>
       </c>
       <c r="F57" s="3">
-        <v>1178800</v>
+        <v>1274000</v>
       </c>
       <c r="G57" s="3">
-        <v>950700</v>
+        <v>1125500</v>
       </c>
       <c r="H57" s="3">
-        <v>2217900</v>
+        <v>907800</v>
       </c>
       <c r="I57" s="3">
-        <v>882900</v>
+        <v>2117700</v>
       </c>
       <c r="J57" s="3">
+        <v>843000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2013400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>846300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>528000</v>
+        <v>833500</v>
       </c>
       <c r="E58" s="3">
-        <v>473700</v>
+        <v>504100</v>
       </c>
       <c r="F58" s="3">
-        <v>312500</v>
+        <v>452300</v>
       </c>
       <c r="G58" s="3">
-        <v>454900</v>
+        <v>298400</v>
       </c>
       <c r="H58" s="3">
-        <v>362100</v>
+        <v>434400</v>
       </c>
       <c r="I58" s="3">
-        <v>88300</v>
+        <v>345800</v>
       </c>
       <c r="J58" s="3">
+        <v>84300</v>
+      </c>
+      <c r="K58" s="3">
         <v>595500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>87800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>748100</v>
+        <v>654400</v>
       </c>
       <c r="E59" s="3">
-        <v>724900</v>
+        <v>714300</v>
       </c>
       <c r="F59" s="3">
-        <v>627400</v>
+        <v>692100</v>
       </c>
       <c r="G59" s="3">
-        <v>588600</v>
+        <v>599100</v>
       </c>
       <c r="H59" s="3">
-        <v>523600</v>
+        <v>562000</v>
       </c>
       <c r="I59" s="3">
-        <v>523800</v>
+        <v>499900</v>
       </c>
       <c r="J59" s="3">
+        <v>500200</v>
+      </c>
+      <c r="K59" s="3">
         <v>869000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>376700</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2755000</v>
+        <v>2806000</v>
       </c>
       <c r="E60" s="3">
-        <v>2532900</v>
+        <v>2630500</v>
       </c>
       <c r="F60" s="3">
-        <v>2118700</v>
+        <v>2418400</v>
       </c>
       <c r="G60" s="3">
-        <v>1994300</v>
+        <v>2022900</v>
       </c>
       <c r="H60" s="3">
-        <v>1787100</v>
+        <v>1904200</v>
       </c>
       <c r="I60" s="3">
-        <v>1495000</v>
+        <v>1706300</v>
       </c>
       <c r="J60" s="3">
+        <v>1427500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1571700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1310900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1882700</v>
+        <v>2064400</v>
       </c>
       <c r="E61" s="3">
-        <v>1938200</v>
+        <v>1797700</v>
       </c>
       <c r="F61" s="3">
-        <v>1659500</v>
+        <v>1850600</v>
       </c>
       <c r="G61" s="3">
-        <v>1368800</v>
+        <v>1584500</v>
       </c>
       <c r="H61" s="3">
-        <v>1180700</v>
+        <v>1307000</v>
       </c>
       <c r="I61" s="3">
-        <v>1101200</v>
+        <v>1127400</v>
       </c>
       <c r="J61" s="3">
+        <v>1051500</v>
+      </c>
+      <c r="K61" s="3">
         <v>774700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>893800</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>354600</v>
+        <v>284000</v>
       </c>
       <c r="E62" s="3">
-        <v>365300</v>
+        <v>338600</v>
       </c>
       <c r="F62" s="3">
-        <v>351900</v>
+        <v>348800</v>
       </c>
       <c r="G62" s="3">
-        <v>264100</v>
+        <v>336000</v>
       </c>
       <c r="H62" s="3">
-        <v>291800</v>
+        <v>252200</v>
       </c>
       <c r="I62" s="3">
-        <v>294200</v>
+        <v>278600</v>
       </c>
       <c r="J62" s="3">
+        <v>280900</v>
+      </c>
+      <c r="K62" s="3">
         <v>649800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>342900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4992300</v>
+        <v>5154500</v>
       </c>
       <c r="E66" s="3">
-        <v>4836400</v>
+        <v>4766800</v>
       </c>
       <c r="F66" s="3">
-        <v>4130000</v>
+        <v>4617900</v>
       </c>
       <c r="G66" s="3">
-        <v>3627200</v>
+        <v>3943400</v>
       </c>
       <c r="H66" s="3">
-        <v>3259600</v>
+        <v>3463400</v>
       </c>
       <c r="I66" s="3">
-        <v>2890500</v>
+        <v>3112300</v>
       </c>
       <c r="J66" s="3">
+        <v>2759900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2671200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2547600</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1849900</v>
+        <v>1933300</v>
       </c>
       <c r="E72" s="3">
-        <v>1536400</v>
+        <v>1766300</v>
       </c>
       <c r="F72" s="3">
-        <v>1301700</v>
+        <v>1467000</v>
       </c>
       <c r="G72" s="3">
-        <v>1192200</v>
+        <v>1242900</v>
       </c>
       <c r="H72" s="3">
-        <v>1062400</v>
+        <v>1138400</v>
       </c>
       <c r="I72" s="3">
-        <v>1067700</v>
+        <v>1014400</v>
       </c>
       <c r="J72" s="3">
+        <v>1019500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1894000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>683700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2190700</v>
+        <v>2153200</v>
       </c>
       <c r="E76" s="3">
-        <v>1872800</v>
+        <v>2091700</v>
       </c>
       <c r="F76" s="3">
-        <v>1696800</v>
+        <v>1788200</v>
       </c>
       <c r="G76" s="3">
-        <v>1313900</v>
+        <v>1620100</v>
       </c>
       <c r="H76" s="3">
-        <v>1272000</v>
+        <v>1254500</v>
       </c>
       <c r="I76" s="3">
-        <v>1215100</v>
+        <v>1214500</v>
       </c>
       <c r="J76" s="3">
+        <v>1160200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1144800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1062300</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>422100</v>
+        <v>430100</v>
       </c>
       <c r="E81" s="3">
-        <v>401400</v>
+        <v>402100</v>
       </c>
       <c r="F81" s="3">
-        <v>343800</v>
+        <v>382400</v>
       </c>
       <c r="G81" s="3">
-        <v>300800</v>
+        <v>327500</v>
       </c>
       <c r="H81" s="3">
-        <v>272400</v>
+        <v>286600</v>
       </c>
       <c r="I81" s="3">
-        <v>267400</v>
+        <v>259500</v>
       </c>
       <c r="J81" s="3">
+        <v>254700</v>
+      </c>
+      <c r="K81" s="3">
         <v>247300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>163000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>185800</v>
+        <v>329200</v>
       </c>
       <c r="E83" s="3">
-        <v>165400</v>
+        <v>177000</v>
       </c>
       <c r="F83" s="3">
-        <v>140500</v>
+        <v>157500</v>
       </c>
       <c r="G83" s="3">
-        <v>117500</v>
+        <v>133900</v>
       </c>
       <c r="H83" s="3">
-        <v>111600</v>
+        <v>112000</v>
       </c>
       <c r="I83" s="3">
-        <v>108900</v>
+        <v>106300</v>
       </c>
       <c r="J83" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K83" s="3">
         <v>105500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>107700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>620500</v>
+        <v>824300</v>
       </c>
       <c r="E89" s="3">
-        <v>614900</v>
+        <v>591200</v>
       </c>
       <c r="F89" s="3">
-        <v>525500</v>
+        <v>585700</v>
       </c>
       <c r="G89" s="3">
-        <v>426400</v>
+        <v>500600</v>
       </c>
       <c r="H89" s="3">
-        <v>423800</v>
+        <v>406200</v>
       </c>
       <c r="I89" s="3">
-        <v>439600</v>
+        <v>403700</v>
       </c>
       <c r="J89" s="3">
+        <v>418700</v>
+      </c>
+      <c r="K89" s="3">
         <v>343000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>414300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40200</v>
+        <v>-45400</v>
       </c>
       <c r="E91" s="3">
-        <v>-43700</v>
+        <v>-38300</v>
       </c>
       <c r="F91" s="3">
-        <v>-32800</v>
+        <v>-41600</v>
       </c>
       <c r="G91" s="3">
-        <v>-32100</v>
+        <v>-31300</v>
       </c>
       <c r="H91" s="3">
-        <v>-32400</v>
+        <v>-30500</v>
       </c>
       <c r="I91" s="3">
-        <v>-34300</v>
+        <v>-30900</v>
       </c>
       <c r="J91" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-29700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-183300</v>
+        <v>-200300</v>
       </c>
       <c r="E94" s="3">
-        <v>-782400</v>
+        <v>-174600</v>
       </c>
       <c r="F94" s="3">
-        <v>-230800</v>
+        <v>-745400</v>
       </c>
       <c r="G94" s="3">
-        <v>-450000</v>
+        <v>-219800</v>
       </c>
       <c r="H94" s="3">
-        <v>-227100</v>
+        <v>-428700</v>
       </c>
       <c r="I94" s="3">
-        <v>-358900</v>
+        <v>-216400</v>
       </c>
       <c r="J94" s="3">
+        <v>-341900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-326400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-179900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-196800</v>
+        <v>-206000</v>
       </c>
       <c r="E96" s="3">
-        <v>-178700</v>
+        <v>-187400</v>
       </c>
       <c r="F96" s="3">
-        <v>-162100</v>
+        <v>-170200</v>
       </c>
       <c r="G96" s="3">
-        <v>-150100</v>
+        <v>-154400</v>
       </c>
       <c r="H96" s="3">
-        <v>-136500</v>
+        <v>-143000</v>
       </c>
       <c r="I96" s="3">
-        <v>-118700</v>
+        <v>-130100</v>
       </c>
       <c r="J96" s="3">
+        <v>-113100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-110800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-90700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-396800</v>
+        <v>-606200</v>
       </c>
       <c r="E100" s="3">
-        <v>151000</v>
+        <v>-378000</v>
       </c>
       <c r="F100" s="3">
-        <v>-250200</v>
+        <v>143900</v>
       </c>
       <c r="G100" s="3">
-        <v>28200</v>
+        <v>-238300</v>
       </c>
       <c r="H100" s="3">
-        <v>-184900</v>
+        <v>26800</v>
       </c>
       <c r="I100" s="3">
-        <v>-89200</v>
+        <v>-176100</v>
       </c>
       <c r="J100" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-270600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>800</v>
+        <v>-22000</v>
       </c>
       <c r="E101" s="3">
-        <v>-2100</v>
+        <v>700</v>
       </c>
       <c r="F101" s="3">
-        <v>53700</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
-        <v>-9200</v>
+        <v>51100</v>
       </c>
       <c r="H101" s="3">
-        <v>-2100</v>
+        <v>-8700</v>
       </c>
       <c r="I101" s="3">
-        <v>-3100</v>
+        <v>-2000</v>
       </c>
       <c r="J101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>41200</v>
+        <v>-4200</v>
       </c>
       <c r="E102" s="3">
-        <v>-18600</v>
+        <v>39300</v>
       </c>
       <c r="F102" s="3">
-        <v>98300</v>
+        <v>-17700</v>
       </c>
       <c r="G102" s="3">
-        <v>-4700</v>
+        <v>93600</v>
       </c>
       <c r="H102" s="3">
-        <v>9700</v>
+        <v>-4400</v>
       </c>
       <c r="I102" s="3">
-        <v>-11600</v>
+        <v>9200</v>
       </c>
       <c r="J102" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K102" s="3">
         <v>14000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-39400</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11486800</v>
+        <v>12318600</v>
       </c>
       <c r="E8" s="3">
-        <v>11182200</v>
+        <v>11992000</v>
       </c>
       <c r="F8" s="3">
-        <v>10568200</v>
+        <v>11333600</v>
       </c>
       <c r="G8" s="3">
-        <v>9149700</v>
+        <v>9812300</v>
       </c>
       <c r="H8" s="3">
-        <v>7992700</v>
+        <v>8571500</v>
       </c>
       <c r="I8" s="3">
-        <v>7582300</v>
+        <v>8131400</v>
       </c>
       <c r="J8" s="3">
-        <v>7509900</v>
+        <v>8053800</v>
       </c>
       <c r="K8" s="3">
         <v>6928400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8662100</v>
+        <v>9289400</v>
       </c>
       <c r="E9" s="3">
-        <v>8438700</v>
+        <v>9049800</v>
       </c>
       <c r="F9" s="3">
-        <v>7993800</v>
+        <v>8572700</v>
       </c>
       <c r="G9" s="3">
-        <v>6921700</v>
+        <v>7423000</v>
       </c>
       <c r="H9" s="3">
-        <v>6068300</v>
+        <v>6507800</v>
       </c>
       <c r="I9" s="3">
-        <v>5738300</v>
+        <v>6153800</v>
       </c>
       <c r="J9" s="3">
-        <v>5712500</v>
+        <v>6126200</v>
       </c>
       <c r="K9" s="3">
         <v>5324100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2824700</v>
+        <v>3029200</v>
       </c>
       <c r="E10" s="3">
-        <v>2743500</v>
+        <v>2942200</v>
       </c>
       <c r="F10" s="3">
-        <v>2574400</v>
+        <v>2760800</v>
       </c>
       <c r="G10" s="3">
-        <v>2228000</v>
+        <v>2389300</v>
       </c>
       <c r="H10" s="3">
-        <v>1924400</v>
+        <v>2063700</v>
       </c>
       <c r="I10" s="3">
-        <v>1844100</v>
+        <v>1977600</v>
       </c>
       <c r="J10" s="3">
-        <v>1797400</v>
+        <v>1927600</v>
       </c>
       <c r="K10" s="3">
         <v>1604400</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>21700</v>
+        <v>23200</v>
       </c>
       <c r="E14" s="3">
-        <v>28400</v>
+        <v>30500</v>
       </c>
       <c r="F14" s="3">
-        <v>45200</v>
+        <v>48500</v>
       </c>
       <c r="G14" s="3">
-        <v>41900</v>
+        <v>44900</v>
       </c>
       <c r="H14" s="3">
-        <v>26700</v>
+        <v>28700</v>
       </c>
       <c r="I14" s="3">
-        <v>32100</v>
+        <v>34500</v>
       </c>
       <c r="J14" s="3">
-        <v>29600</v>
+        <v>31700</v>
       </c>
       <c r="K14" s="3">
         <v>13800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>329200</v>
+        <v>353000</v>
       </c>
       <c r="E15" s="3">
-        <v>177000</v>
+        <v>189800</v>
       </c>
       <c r="F15" s="3">
-        <v>157500</v>
+        <v>168900</v>
       </c>
       <c r="G15" s="3">
-        <v>133900</v>
+        <v>143600</v>
       </c>
       <c r="H15" s="3">
-        <v>112000</v>
+        <v>120100</v>
       </c>
       <c r="I15" s="3">
-        <v>106300</v>
+        <v>114000</v>
       </c>
       <c r="J15" s="3">
-        <v>103700</v>
+        <v>111200</v>
       </c>
       <c r="K15" s="3">
         <v>91400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10836000</v>
+        <v>11620700</v>
       </c>
       <c r="E17" s="3">
-        <v>10591300</v>
+        <v>11358300</v>
       </c>
       <c r="F17" s="3">
-        <v>10006600</v>
+        <v>10731300</v>
       </c>
       <c r="G17" s="3">
-        <v>8645100</v>
+        <v>9271200</v>
       </c>
       <c r="H17" s="3">
-        <v>7541300</v>
+        <v>8087500</v>
       </c>
       <c r="I17" s="3">
-        <v>7161400</v>
+        <v>7680000</v>
       </c>
       <c r="J17" s="3">
-        <v>7114500</v>
+        <v>7629700</v>
       </c>
       <c r="K17" s="3">
         <v>6537100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>650800</v>
+        <v>697900</v>
       </c>
       <c r="E18" s="3">
-        <v>590900</v>
+        <v>633700</v>
       </c>
       <c r="F18" s="3">
-        <v>561600</v>
+        <v>602300</v>
       </c>
       <c r="G18" s="3">
-        <v>504600</v>
+        <v>541100</v>
       </c>
       <c r="H18" s="3">
+        <v>484100</v>
+      </c>
+      <c r="I18" s="3">
         <v>451400</v>
       </c>
-      <c r="I18" s="3">
-        <v>421000</v>
-      </c>
       <c r="J18" s="3">
-        <v>395500</v>
+        <v>424100</v>
       </c>
       <c r="K18" s="3">
         <v>391300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="E20" s="3">
-        <v>5900</v>
+        <v>6300</v>
       </c>
       <c r="F20" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="G20" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="H20" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I20" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J20" s="3">
-        <v>10700</v>
+        <v>11500</v>
       </c>
       <c r="K20" s="3">
         <v>-6100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>984100</v>
+        <v>1055700</v>
       </c>
       <c r="E21" s="3">
-        <v>772900</v>
+        <v>829000</v>
       </c>
       <c r="F21" s="3">
-        <v>723500</v>
+        <v>776000</v>
       </c>
       <c r="G21" s="3">
-        <v>641300</v>
+        <v>687900</v>
       </c>
       <c r="H21" s="3">
-        <v>562100</v>
+        <v>602900</v>
       </c>
       <c r="I21" s="3">
-        <v>525900</v>
+        <v>564100</v>
       </c>
       <c r="J21" s="3">
-        <v>509300</v>
+        <v>546300</v>
       </c>
       <c r="K21" s="3">
         <v>491300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>98400</v>
+        <v>105500</v>
       </c>
       <c r="E22" s="3">
-        <v>73600</v>
+        <v>79000</v>
       </c>
       <c r="F22" s="3">
-        <v>62700</v>
+        <v>67200</v>
       </c>
       <c r="G22" s="3">
-        <v>61200</v>
+        <v>65600</v>
       </c>
       <c r="H22" s="3">
-        <v>53300</v>
+        <v>57200</v>
       </c>
       <c r="I22" s="3">
-        <v>51000</v>
+        <v>54700</v>
       </c>
       <c r="J22" s="3">
-        <v>49100</v>
+        <v>52700</v>
       </c>
       <c r="K22" s="3">
         <v>44200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>558300</v>
+        <v>598700</v>
       </c>
       <c r="E23" s="3">
-        <v>523200</v>
+        <v>561100</v>
       </c>
       <c r="F23" s="3">
-        <v>504100</v>
+        <v>540600</v>
       </c>
       <c r="G23" s="3">
-        <v>446900</v>
+        <v>479300</v>
       </c>
       <c r="H23" s="3">
-        <v>397400</v>
+        <v>426200</v>
       </c>
       <c r="I23" s="3">
-        <v>369200</v>
+        <v>396000</v>
       </c>
       <c r="J23" s="3">
-        <v>357000</v>
+        <v>382900</v>
       </c>
       <c r="K23" s="3">
         <v>341000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>128200</v>
+        <v>137500</v>
       </c>
       <c r="E24" s="3">
-        <v>121100</v>
+        <v>129800</v>
       </c>
       <c r="F24" s="3">
-        <v>121700</v>
+        <v>130500</v>
       </c>
       <c r="G24" s="3">
-        <v>119500</v>
+        <v>128100</v>
       </c>
       <c r="H24" s="3">
-        <v>110800</v>
+        <v>118900</v>
       </c>
       <c r="I24" s="3">
-        <v>109700</v>
+        <v>117700</v>
       </c>
       <c r="J24" s="3">
-        <v>102300</v>
+        <v>109800</v>
       </c>
       <c r="K24" s="3">
         <v>93700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>430100</v>
+        <v>461200</v>
       </c>
       <c r="E26" s="3">
-        <v>402100</v>
+        <v>431200</v>
       </c>
       <c r="F26" s="3">
-        <v>382400</v>
+        <v>410100</v>
       </c>
       <c r="G26" s="3">
-        <v>327500</v>
+        <v>351200</v>
       </c>
       <c r="H26" s="3">
-        <v>286600</v>
+        <v>307300</v>
       </c>
       <c r="I26" s="3">
-        <v>259500</v>
+        <v>278300</v>
       </c>
       <c r="J26" s="3">
-        <v>254700</v>
+        <v>273100</v>
       </c>
       <c r="K26" s="3">
         <v>247300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>430100</v>
+        <v>461200</v>
       </c>
       <c r="E27" s="3">
-        <v>402100</v>
+        <v>431200</v>
       </c>
       <c r="F27" s="3">
-        <v>382400</v>
+        <v>410100</v>
       </c>
       <c r="G27" s="3">
-        <v>327500</v>
+        <v>351200</v>
       </c>
       <c r="H27" s="3">
-        <v>286600</v>
+        <v>307300</v>
       </c>
       <c r="I27" s="3">
-        <v>259500</v>
+        <v>278300</v>
       </c>
       <c r="J27" s="3">
-        <v>254700</v>
+        <v>273100</v>
       </c>
       <c r="K27" s="3">
         <v>247300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5900</v>
+        <v>-6300</v>
       </c>
       <c r="E32" s="3">
-        <v>-5900</v>
+        <v>-6300</v>
       </c>
       <c r="F32" s="3">
-        <v>-5200</v>
+        <v>-5500</v>
       </c>
       <c r="G32" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="H32" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I32" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="J32" s="3">
-        <v>-10700</v>
+        <v>-11500</v>
       </c>
       <c r="K32" s="3">
         <v>6100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>430100</v>
+        <v>461200</v>
       </c>
       <c r="E33" s="3">
-        <v>402100</v>
+        <v>431200</v>
       </c>
       <c r="F33" s="3">
-        <v>382400</v>
+        <v>410100</v>
       </c>
       <c r="G33" s="3">
-        <v>327500</v>
+        <v>351200</v>
       </c>
       <c r="H33" s="3">
-        <v>286600</v>
+        <v>307300</v>
       </c>
       <c r="I33" s="3">
-        <v>259500</v>
+        <v>278300</v>
       </c>
       <c r="J33" s="3">
-        <v>254700</v>
+        <v>273100</v>
       </c>
       <c r="K33" s="3">
         <v>247300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>430100</v>
+        <v>461200</v>
       </c>
       <c r="E35" s="3">
-        <v>402100</v>
+        <v>431200</v>
       </c>
       <c r="F35" s="3">
-        <v>382400</v>
+        <v>410100</v>
       </c>
       <c r="G35" s="3">
-        <v>327500</v>
+        <v>351200</v>
       </c>
       <c r="H35" s="3">
-        <v>286600</v>
+        <v>307300</v>
       </c>
       <c r="I35" s="3">
-        <v>259500</v>
+        <v>278300</v>
       </c>
       <c r="J35" s="3">
-        <v>254700</v>
+        <v>273100</v>
       </c>
       <c r="K35" s="3">
         <v>247300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>753600</v>
+        <v>806300</v>
       </c>
       <c r="E41" s="3">
-        <v>589700</v>
+        <v>630900</v>
       </c>
       <c r="F41" s="3">
-        <v>411800</v>
+        <v>440600</v>
       </c>
       <c r="G41" s="3">
-        <v>348600</v>
+        <v>373000</v>
       </c>
       <c r="H41" s="3">
-        <v>347900</v>
+        <v>372200</v>
       </c>
       <c r="I41" s="3">
-        <v>368600</v>
+        <v>394400</v>
       </c>
       <c r="J41" s="3">
-        <v>90200</v>
+        <v>96500</v>
       </c>
       <c r="K41" s="3">
         <v>204500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1469600</v>
+        <v>1572400</v>
       </c>
       <c r="E43" s="3">
-        <v>1555100</v>
+        <v>1663900</v>
       </c>
       <c r="F43" s="3">
-        <v>1467600</v>
+        <v>1570300</v>
       </c>
       <c r="G43" s="3">
-        <v>1356700</v>
+        <v>1451700</v>
       </c>
       <c r="H43" s="3">
-        <v>1094300</v>
+        <v>1170900</v>
       </c>
       <c r="I43" s="3">
-        <v>1939700</v>
+        <v>2075500</v>
       </c>
       <c r="J43" s="3">
-        <v>1717200</v>
+        <v>1837400</v>
       </c>
       <c r="K43" s="3">
         <v>2783800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1453100</v>
+        <v>1554800</v>
       </c>
       <c r="E44" s="3">
-        <v>1498100</v>
+        <v>1602900</v>
       </c>
       <c r="F44" s="3">
-        <v>1314500</v>
+        <v>1406500</v>
       </c>
       <c r="G44" s="3">
-        <v>1186100</v>
+        <v>1269100</v>
       </c>
       <c r="H44" s="3">
-        <v>1960700</v>
+        <v>2097900</v>
       </c>
       <c r="I44" s="3">
-        <v>870600</v>
+        <v>931600</v>
       </c>
       <c r="J44" s="3">
-        <v>796300</v>
+        <v>852000</v>
       </c>
       <c r="K44" s="3">
         <v>2263200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>91000</v>
+        <v>97300</v>
       </c>
       <c r="E45" s="3">
-        <v>107100</v>
+        <v>114600</v>
       </c>
       <c r="F45" s="3">
-        <v>138100</v>
+        <v>147800</v>
       </c>
       <c r="G45" s="3">
-        <v>94600</v>
+        <v>101200</v>
       </c>
       <c r="H45" s="3">
-        <v>338600</v>
+        <v>362300</v>
       </c>
       <c r="I45" s="3">
-        <v>224000</v>
+        <v>239700</v>
       </c>
       <c r="J45" s="3">
-        <v>212600</v>
+        <v>227400</v>
       </c>
       <c r="K45" s="3">
         <v>399000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3767300</v>
+        <v>4030900</v>
       </c>
       <c r="E46" s="3">
-        <v>3750000</v>
+        <v>4012400</v>
       </c>
       <c r="F46" s="3">
-        <v>3332000</v>
+        <v>3565200</v>
       </c>
       <c r="G46" s="3">
-        <v>2986000</v>
+        <v>3195000</v>
       </c>
       <c r="H46" s="3">
-        <v>2519900</v>
+        <v>2696300</v>
       </c>
       <c r="I46" s="3">
-        <v>2329300</v>
+        <v>2492300</v>
       </c>
       <c r="J46" s="3">
-        <v>1958100</v>
+        <v>2095200</v>
       </c>
       <c r="K46" s="3">
         <v>1918400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>680400</v>
+        <v>728000</v>
       </c>
       <c r="E48" s="3">
-        <v>151100</v>
+        <v>161700</v>
       </c>
       <c r="F48" s="3">
-        <v>154500</v>
+        <v>165400</v>
       </c>
       <c r="G48" s="3">
-        <v>152200</v>
+        <v>162900</v>
       </c>
       <c r="H48" s="3">
-        <v>139000</v>
+        <v>148700</v>
       </c>
       <c r="I48" s="3">
-        <v>280100</v>
+        <v>299700</v>
       </c>
       <c r="J48" s="3">
-        <v>146600</v>
+        <v>156900</v>
       </c>
       <c r="K48" s="3">
         <v>431300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2827900</v>
+        <v>3025800</v>
       </c>
       <c r="E49" s="3">
-        <v>2941000</v>
+        <v>3146800</v>
       </c>
       <c r="F49" s="3">
-        <v>2902900</v>
+        <v>3106100</v>
       </c>
       <c r="G49" s="3">
-        <v>2404100</v>
+        <v>2572400</v>
       </c>
       <c r="H49" s="3">
-        <v>2031900</v>
+        <v>2174200</v>
       </c>
       <c r="I49" s="3">
-        <v>3665100</v>
+        <v>3921600</v>
       </c>
       <c r="J49" s="3">
-        <v>1798400</v>
+        <v>1924300</v>
       </c>
       <c r="K49" s="3">
         <v>3466300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32100</v>
+        <v>34300</v>
       </c>
       <c r="E52" s="3">
-        <v>16400</v>
+        <v>17600</v>
       </c>
       <c r="F52" s="3">
-        <v>16500</v>
+        <v>17700</v>
       </c>
       <c r="G52" s="3">
-        <v>21200</v>
+        <v>22700</v>
       </c>
       <c r="H52" s="3">
-        <v>27000</v>
+        <v>28900</v>
       </c>
       <c r="I52" s="3">
-        <v>24900</v>
+        <v>26700</v>
       </c>
       <c r="J52" s="3">
-        <v>16900</v>
+        <v>18100</v>
       </c>
       <c r="K52" s="3">
         <v>41600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7307600</v>
+        <v>7819100</v>
       </c>
       <c r="E54" s="3">
-        <v>6858400</v>
+        <v>7338400</v>
       </c>
       <c r="F54" s="3">
-        <v>6406000</v>
+        <v>6854400</v>
       </c>
       <c r="G54" s="3">
-        <v>5563600</v>
+        <v>5952900</v>
       </c>
       <c r="H54" s="3">
-        <v>4717900</v>
+        <v>5048100</v>
       </c>
       <c r="I54" s="3">
-        <v>4326800</v>
+        <v>4629600</v>
       </c>
       <c r="J54" s="3">
-        <v>3920100</v>
+        <v>4194400</v>
       </c>
       <c r="K54" s="3">
         <v>3816000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1318200</v>
+        <v>1410500</v>
       </c>
       <c r="E57" s="3">
-        <v>1412000</v>
+        <v>1510900</v>
       </c>
       <c r="F57" s="3">
-        <v>1274000</v>
+        <v>1363200</v>
       </c>
       <c r="G57" s="3">
-        <v>1125500</v>
+        <v>1204300</v>
       </c>
       <c r="H57" s="3">
-        <v>907800</v>
+        <v>971300</v>
       </c>
       <c r="I57" s="3">
-        <v>2117700</v>
+        <v>2265900</v>
       </c>
       <c r="J57" s="3">
-        <v>843000</v>
+        <v>902000</v>
       </c>
       <c r="K57" s="3">
         <v>2013400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>833500</v>
+        <v>891800</v>
       </c>
       <c r="E58" s="3">
-        <v>504100</v>
+        <v>539400</v>
       </c>
       <c r="F58" s="3">
-        <v>452300</v>
+        <v>483900</v>
       </c>
       <c r="G58" s="3">
-        <v>298400</v>
+        <v>319200</v>
       </c>
       <c r="H58" s="3">
-        <v>434400</v>
+        <v>464800</v>
       </c>
       <c r="I58" s="3">
-        <v>345800</v>
+        <v>370000</v>
       </c>
       <c r="J58" s="3">
-        <v>84300</v>
+        <v>90200</v>
       </c>
       <c r="K58" s="3">
         <v>595500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>654400</v>
+        <v>700200</v>
       </c>
       <c r="E59" s="3">
-        <v>714300</v>
+        <v>764300</v>
       </c>
       <c r="F59" s="3">
-        <v>692100</v>
+        <v>740600</v>
       </c>
       <c r="G59" s="3">
-        <v>599100</v>
+        <v>641000</v>
       </c>
       <c r="H59" s="3">
-        <v>562000</v>
+        <v>601400</v>
       </c>
       <c r="I59" s="3">
-        <v>499900</v>
+        <v>534900</v>
       </c>
       <c r="J59" s="3">
-        <v>500200</v>
+        <v>535200</v>
       </c>
       <c r="K59" s="3">
         <v>869000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2806000</v>
+        <v>3002400</v>
       </c>
       <c r="E60" s="3">
-        <v>2630500</v>
+        <v>2814600</v>
       </c>
       <c r="F60" s="3">
-        <v>2418400</v>
+        <v>2587700</v>
       </c>
       <c r="G60" s="3">
-        <v>2022900</v>
+        <v>2164500</v>
       </c>
       <c r="H60" s="3">
-        <v>1904200</v>
+        <v>2037500</v>
       </c>
       <c r="I60" s="3">
-        <v>1706300</v>
+        <v>1825700</v>
       </c>
       <c r="J60" s="3">
-        <v>1427500</v>
+        <v>1527400</v>
       </c>
       <c r="K60" s="3">
         <v>1571700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2064400</v>
+        <v>2208900</v>
       </c>
       <c r="E61" s="3">
-        <v>1797700</v>
+        <v>1923500</v>
       </c>
       <c r="F61" s="3">
-        <v>1850600</v>
+        <v>1980100</v>
       </c>
       <c r="G61" s="3">
-        <v>1584500</v>
+        <v>1695400</v>
       </c>
       <c r="H61" s="3">
-        <v>1307000</v>
+        <v>1398500</v>
       </c>
       <c r="I61" s="3">
-        <v>1127400</v>
+        <v>1206300</v>
       </c>
       <c r="J61" s="3">
-        <v>1051500</v>
+        <v>1125000</v>
       </c>
       <c r="K61" s="3">
         <v>774700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>284000</v>
+        <v>303900</v>
       </c>
       <c r="E62" s="3">
-        <v>338600</v>
+        <v>362300</v>
       </c>
       <c r="F62" s="3">
-        <v>348800</v>
+        <v>373300</v>
       </c>
       <c r="G62" s="3">
-        <v>336000</v>
+        <v>359500</v>
       </c>
       <c r="H62" s="3">
-        <v>252200</v>
+        <v>269800</v>
       </c>
       <c r="I62" s="3">
-        <v>278600</v>
+        <v>298100</v>
       </c>
       <c r="J62" s="3">
-        <v>280900</v>
+        <v>300600</v>
       </c>
       <c r="K62" s="3">
         <v>649800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5154500</v>
+        <v>5515200</v>
       </c>
       <c r="E66" s="3">
-        <v>4766800</v>
+        <v>5100400</v>
       </c>
       <c r="F66" s="3">
-        <v>4617900</v>
+        <v>4941100</v>
       </c>
       <c r="G66" s="3">
-        <v>3943400</v>
+        <v>4219400</v>
       </c>
       <c r="H66" s="3">
-        <v>3463400</v>
+        <v>3705700</v>
       </c>
       <c r="I66" s="3">
-        <v>3112300</v>
+        <v>3330100</v>
       </c>
       <c r="J66" s="3">
-        <v>2759900</v>
+        <v>2953000</v>
       </c>
       <c r="K66" s="3">
         <v>2671200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1933300</v>
+        <v>2068600</v>
       </c>
       <c r="E72" s="3">
-        <v>1766300</v>
+        <v>1889900</v>
       </c>
       <c r="F72" s="3">
-        <v>1467000</v>
+        <v>1569600</v>
       </c>
       <c r="G72" s="3">
-        <v>1242900</v>
+        <v>1329900</v>
       </c>
       <c r="H72" s="3">
-        <v>1138400</v>
+        <v>1218000</v>
       </c>
       <c r="I72" s="3">
-        <v>1014400</v>
+        <v>1085400</v>
       </c>
       <c r="J72" s="3">
-        <v>1019500</v>
+        <v>1090800</v>
       </c>
       <c r="K72" s="3">
         <v>1894000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2153200</v>
+        <v>2303900</v>
       </c>
       <c r="E76" s="3">
-        <v>2091700</v>
+        <v>2238100</v>
       </c>
       <c r="F76" s="3">
-        <v>1788200</v>
+        <v>1913300</v>
       </c>
       <c r="G76" s="3">
-        <v>1620100</v>
+        <v>1733500</v>
       </c>
       <c r="H76" s="3">
-        <v>1254500</v>
+        <v>1342300</v>
       </c>
       <c r="I76" s="3">
-        <v>1214500</v>
+        <v>1299500</v>
       </c>
       <c r="J76" s="3">
-        <v>1160200</v>
+        <v>1241400</v>
       </c>
       <c r="K76" s="3">
         <v>1144800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>430100</v>
+        <v>461200</v>
       </c>
       <c r="E81" s="3">
-        <v>402100</v>
+        <v>431200</v>
       </c>
       <c r="F81" s="3">
-        <v>382400</v>
+        <v>410100</v>
       </c>
       <c r="G81" s="3">
-        <v>327500</v>
+        <v>351200</v>
       </c>
       <c r="H81" s="3">
-        <v>286600</v>
+        <v>307300</v>
       </c>
       <c r="I81" s="3">
-        <v>259500</v>
+        <v>278300</v>
       </c>
       <c r="J81" s="3">
-        <v>254700</v>
+        <v>273100</v>
       </c>
       <c r="K81" s="3">
         <v>247300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>329200</v>
+        <v>353000</v>
       </c>
       <c r="E83" s="3">
-        <v>177000</v>
+        <v>189800</v>
       </c>
       <c r="F83" s="3">
-        <v>157500</v>
+        <v>168900</v>
       </c>
       <c r="G83" s="3">
-        <v>133900</v>
+        <v>143600</v>
       </c>
       <c r="H83" s="3">
-        <v>112000</v>
+        <v>120100</v>
       </c>
       <c r="I83" s="3">
-        <v>106300</v>
+        <v>114000</v>
       </c>
       <c r="J83" s="3">
-        <v>103700</v>
+        <v>111200</v>
       </c>
       <c r="K83" s="3">
         <v>105500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>824300</v>
+        <v>884000</v>
       </c>
       <c r="E89" s="3">
-        <v>591200</v>
+        <v>634000</v>
       </c>
       <c r="F89" s="3">
-        <v>585700</v>
+        <v>628200</v>
       </c>
       <c r="G89" s="3">
-        <v>500600</v>
+        <v>536900</v>
       </c>
       <c r="H89" s="3">
-        <v>406200</v>
+        <v>435600</v>
       </c>
       <c r="I89" s="3">
-        <v>403700</v>
+        <v>433000</v>
       </c>
       <c r="J89" s="3">
-        <v>418700</v>
+        <v>449100</v>
       </c>
       <c r="K89" s="3">
         <v>343000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-45400</v>
+        <v>-48700</v>
       </c>
       <c r="E91" s="3">
-        <v>-38300</v>
+        <v>-41100</v>
       </c>
       <c r="F91" s="3">
-        <v>-41600</v>
+        <v>-44600</v>
       </c>
       <c r="G91" s="3">
-        <v>-31300</v>
+        <v>-33500</v>
       </c>
       <c r="H91" s="3">
-        <v>-30500</v>
+        <v>-32800</v>
       </c>
       <c r="I91" s="3">
-        <v>-30900</v>
+        <v>-33200</v>
       </c>
       <c r="J91" s="3">
-        <v>-32600</v>
+        <v>-35000</v>
       </c>
       <c r="K91" s="3">
         <v>-29700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200300</v>
+        <v>-214800</v>
       </c>
       <c r="E94" s="3">
-        <v>-174600</v>
+        <v>-187300</v>
       </c>
       <c r="F94" s="3">
-        <v>-745400</v>
+        <v>-799300</v>
       </c>
       <c r="G94" s="3">
-        <v>-219800</v>
+        <v>-235800</v>
       </c>
       <c r="H94" s="3">
-        <v>-428700</v>
+        <v>-459800</v>
       </c>
       <c r="I94" s="3">
-        <v>-216400</v>
+        <v>-232100</v>
       </c>
       <c r="J94" s="3">
-        <v>-341900</v>
+        <v>-366700</v>
       </c>
       <c r="K94" s="3">
         <v>-326400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-206000</v>
+        <v>-221000</v>
       </c>
       <c r="E96" s="3">
-        <v>-187400</v>
+        <v>-201000</v>
       </c>
       <c r="F96" s="3">
-        <v>-170200</v>
+        <v>-182500</v>
       </c>
       <c r="G96" s="3">
-        <v>-154400</v>
+        <v>-165600</v>
       </c>
       <c r="H96" s="3">
-        <v>-143000</v>
+        <v>-153300</v>
       </c>
       <c r="I96" s="3">
-        <v>-130100</v>
+        <v>-139500</v>
       </c>
       <c r="J96" s="3">
-        <v>-113100</v>
+        <v>-121200</v>
       </c>
       <c r="K96" s="3">
         <v>-110800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-606200</v>
+        <v>-650100</v>
       </c>
       <c r="E100" s="3">
-        <v>-378000</v>
+        <v>-405400</v>
       </c>
       <c r="F100" s="3">
-        <v>143900</v>
+        <v>154300</v>
       </c>
       <c r="G100" s="3">
-        <v>-238300</v>
+        <v>-255600</v>
       </c>
       <c r="H100" s="3">
-        <v>26800</v>
+        <v>28800</v>
       </c>
       <c r="I100" s="3">
-        <v>-176100</v>
+        <v>-188900</v>
       </c>
       <c r="J100" s="3">
-        <v>-85000</v>
+        <v>-91100</v>
       </c>
       <c r="K100" s="3">
         <v>900</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22000</v>
+        <v>-23600</v>
       </c>
       <c r="E101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="G101" s="3">
-        <v>51100</v>
+        <v>54800</v>
       </c>
       <c r="H101" s="3">
-        <v>-8700</v>
+        <v>-9400</v>
       </c>
       <c r="I101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="J101" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="K101" s="3">
         <v>-3500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4200</v>
+        <v>-4500</v>
       </c>
       <c r="E102" s="3">
-        <v>39300</v>
+        <v>42100</v>
       </c>
       <c r="F102" s="3">
-        <v>-17700</v>
+        <v>-19000</v>
       </c>
       <c r="G102" s="3">
-        <v>93600</v>
+        <v>100400</v>
       </c>
       <c r="H102" s="3">
-        <v>-4400</v>
+        <v>-4800</v>
       </c>
       <c r="I102" s="3">
-        <v>9200</v>
+        <v>9900</v>
       </c>
       <c r="J102" s="3">
-        <v>-11100</v>
+        <v>-11900</v>
       </c>
       <c r="K102" s="3">
         <v>14000</v>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12318600</v>
+        <v>12417600</v>
       </c>
       <c r="E8" s="3">
-        <v>11992000</v>
+        <v>12088300</v>
       </c>
       <c r="F8" s="3">
-        <v>11333600</v>
+        <v>11424600</v>
       </c>
       <c r="G8" s="3">
-        <v>9812300</v>
+        <v>9891100</v>
       </c>
       <c r="H8" s="3">
-        <v>8571500</v>
+        <v>8640400</v>
       </c>
       <c r="I8" s="3">
-        <v>8131400</v>
+        <v>8196800</v>
       </c>
       <c r="J8" s="3">
-        <v>8053800</v>
+        <v>8118500</v>
       </c>
       <c r="K8" s="3">
         <v>6928400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9289400</v>
+        <v>9364000</v>
       </c>
       <c r="E9" s="3">
-        <v>9049800</v>
+        <v>9122500</v>
       </c>
       <c r="F9" s="3">
-        <v>8572700</v>
+        <v>8641600</v>
       </c>
       <c r="G9" s="3">
-        <v>7423000</v>
+        <v>7482600</v>
       </c>
       <c r="H9" s="3">
-        <v>6507800</v>
+        <v>6560100</v>
       </c>
       <c r="I9" s="3">
-        <v>6153800</v>
+        <v>6203300</v>
       </c>
       <c r="J9" s="3">
-        <v>6126200</v>
+        <v>6175400</v>
       </c>
       <c r="K9" s="3">
         <v>5324100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3029200</v>
+        <v>3053600</v>
       </c>
       <c r="E10" s="3">
-        <v>2942200</v>
+        <v>2965800</v>
       </c>
       <c r="F10" s="3">
-        <v>2760800</v>
+        <v>2783000</v>
       </c>
       <c r="G10" s="3">
-        <v>2389300</v>
+        <v>2408500</v>
       </c>
       <c r="H10" s="3">
-        <v>2063700</v>
+        <v>2080300</v>
       </c>
       <c r="I10" s="3">
-        <v>1977600</v>
+        <v>1993500</v>
       </c>
       <c r="J10" s="3">
-        <v>1927600</v>
+        <v>1943000</v>
       </c>
       <c r="K10" s="3">
         <v>1604400</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="E14" s="3">
-        <v>30500</v>
+        <v>30800</v>
       </c>
       <c r="F14" s="3">
-        <v>48500</v>
+        <v>48900</v>
       </c>
       <c r="G14" s="3">
-        <v>44900</v>
+        <v>45300</v>
       </c>
       <c r="H14" s="3">
-        <v>28700</v>
+        <v>28900</v>
       </c>
       <c r="I14" s="3">
-        <v>34500</v>
+        <v>34700</v>
       </c>
       <c r="J14" s="3">
-        <v>31700</v>
+        <v>32000</v>
       </c>
       <c r="K14" s="3">
         <v>13800</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>353000</v>
+        <v>355900</v>
       </c>
       <c r="E15" s="3">
-        <v>189800</v>
+        <v>191300</v>
       </c>
       <c r="F15" s="3">
-        <v>168900</v>
+        <v>170300</v>
       </c>
       <c r="G15" s="3">
-        <v>143600</v>
+        <v>144700</v>
       </c>
       <c r="H15" s="3">
-        <v>120100</v>
+        <v>121000</v>
       </c>
       <c r="I15" s="3">
-        <v>114000</v>
+        <v>114900</v>
       </c>
       <c r="J15" s="3">
-        <v>111200</v>
+        <v>112100</v>
       </c>
       <c r="K15" s="3">
         <v>91400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11620700</v>
+        <v>11714100</v>
       </c>
       <c r="E17" s="3">
-        <v>11358300</v>
+        <v>11449500</v>
       </c>
       <c r="F17" s="3">
-        <v>10731300</v>
+        <v>10817500</v>
       </c>
       <c r="G17" s="3">
-        <v>9271200</v>
+        <v>9345600</v>
       </c>
       <c r="H17" s="3">
-        <v>8087500</v>
+        <v>8152400</v>
       </c>
       <c r="I17" s="3">
-        <v>7680000</v>
+        <v>7741700</v>
       </c>
       <c r="J17" s="3">
-        <v>7629700</v>
+        <v>7691000</v>
       </c>
       <c r="K17" s="3">
         <v>6537100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>697900</v>
+        <v>703500</v>
       </c>
       <c r="E18" s="3">
-        <v>633700</v>
+        <v>638800</v>
       </c>
       <c r="F18" s="3">
-        <v>602300</v>
+        <v>607100</v>
       </c>
       <c r="G18" s="3">
-        <v>541100</v>
+        <v>545500</v>
       </c>
       <c r="H18" s="3">
-        <v>484100</v>
+        <v>488000</v>
       </c>
       <c r="I18" s="3">
-        <v>451400</v>
+        <v>455100</v>
       </c>
       <c r="J18" s="3">
-        <v>424100</v>
+        <v>427500</v>
       </c>
       <c r="K18" s="3">
         <v>391300</v>
@@ -1056,16 +1056,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E20" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F20" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G20" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H20" s="3">
         <v>-700</v>
@@ -1074,7 +1074,7 @@
         <v>-800</v>
       </c>
       <c r="J20" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="K20" s="3">
         <v>-6100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1055700</v>
+        <v>1066900</v>
       </c>
       <c r="E21" s="3">
-        <v>829000</v>
+        <v>837100</v>
       </c>
       <c r="F21" s="3">
-        <v>776000</v>
+        <v>783500</v>
       </c>
       <c r="G21" s="3">
-        <v>687900</v>
+        <v>694500</v>
       </c>
       <c r="H21" s="3">
-        <v>602900</v>
+        <v>608700</v>
       </c>
       <c r="I21" s="3">
-        <v>564100</v>
+        <v>569500</v>
       </c>
       <c r="J21" s="3">
-        <v>546300</v>
+        <v>551500</v>
       </c>
       <c r="K21" s="3">
         <v>491300</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105500</v>
+        <v>106400</v>
       </c>
       <c r="E22" s="3">
-        <v>79000</v>
+        <v>79600</v>
       </c>
       <c r="F22" s="3">
-        <v>67200</v>
+        <v>67800</v>
       </c>
       <c r="G22" s="3">
-        <v>65600</v>
+        <v>66200</v>
       </c>
       <c r="H22" s="3">
-        <v>57200</v>
+        <v>57600</v>
       </c>
       <c r="I22" s="3">
-        <v>54700</v>
+        <v>55100</v>
       </c>
       <c r="J22" s="3">
-        <v>52700</v>
+        <v>53100</v>
       </c>
       <c r="K22" s="3">
         <v>44200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>598700</v>
+        <v>603500</v>
       </c>
       <c r="E23" s="3">
-        <v>561100</v>
+        <v>565600</v>
       </c>
       <c r="F23" s="3">
-        <v>540600</v>
+        <v>544900</v>
       </c>
       <c r="G23" s="3">
-        <v>479300</v>
+        <v>483200</v>
       </c>
       <c r="H23" s="3">
-        <v>426200</v>
+        <v>429600</v>
       </c>
       <c r="I23" s="3">
-        <v>396000</v>
+        <v>399200</v>
       </c>
       <c r="J23" s="3">
-        <v>382900</v>
+        <v>386000</v>
       </c>
       <c r="K23" s="3">
         <v>341000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>137500</v>
+        <v>138600</v>
       </c>
       <c r="E24" s="3">
-        <v>129800</v>
+        <v>130900</v>
       </c>
       <c r="F24" s="3">
-        <v>130500</v>
+        <v>131500</v>
       </c>
       <c r="G24" s="3">
-        <v>128100</v>
+        <v>129100</v>
       </c>
       <c r="H24" s="3">
-        <v>118900</v>
+        <v>119800</v>
       </c>
       <c r="I24" s="3">
-        <v>117700</v>
+        <v>118600</v>
       </c>
       <c r="J24" s="3">
-        <v>109800</v>
+        <v>110600</v>
       </c>
       <c r="K24" s="3">
         <v>93700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>461200</v>
+        <v>464900</v>
       </c>
       <c r="E26" s="3">
-        <v>431200</v>
+        <v>434700</v>
       </c>
       <c r="F26" s="3">
-        <v>410100</v>
+        <v>413400</v>
       </c>
       <c r="G26" s="3">
-        <v>351200</v>
+        <v>354000</v>
       </c>
       <c r="H26" s="3">
-        <v>307300</v>
+        <v>309800</v>
       </c>
       <c r="I26" s="3">
-        <v>278300</v>
+        <v>280500</v>
       </c>
       <c r="J26" s="3">
-        <v>273100</v>
+        <v>275300</v>
       </c>
       <c r="K26" s="3">
         <v>247300</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>461200</v>
+        <v>464900</v>
       </c>
       <c r="E27" s="3">
-        <v>431200</v>
+        <v>434700</v>
       </c>
       <c r="F27" s="3">
-        <v>410100</v>
+        <v>413400</v>
       </c>
       <c r="G27" s="3">
-        <v>351200</v>
+        <v>354000</v>
       </c>
       <c r="H27" s="3">
-        <v>307300</v>
+        <v>309800</v>
       </c>
       <c r="I27" s="3">
-        <v>278300</v>
+        <v>280500</v>
       </c>
       <c r="J27" s="3">
-        <v>273100</v>
+        <v>275300</v>
       </c>
       <c r="K27" s="3">
         <v>247300</v>
@@ -1452,16 +1452,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="E32" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F32" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="G32" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H32" s="3">
         <v>700</v>
@@ -1470,7 +1470,7 @@
         <v>800</v>
       </c>
       <c r="J32" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="K32" s="3">
         <v>6100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>461200</v>
+        <v>464900</v>
       </c>
       <c r="E33" s="3">
-        <v>431200</v>
+        <v>434700</v>
       </c>
       <c r="F33" s="3">
-        <v>410100</v>
+        <v>413400</v>
       </c>
       <c r="G33" s="3">
-        <v>351200</v>
+        <v>354000</v>
       </c>
       <c r="H33" s="3">
-        <v>307300</v>
+        <v>309800</v>
       </c>
       <c r="I33" s="3">
-        <v>278300</v>
+        <v>280500</v>
       </c>
       <c r="J33" s="3">
-        <v>273100</v>
+        <v>275300</v>
       </c>
       <c r="K33" s="3">
         <v>247300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>461200</v>
+        <v>464900</v>
       </c>
       <c r="E35" s="3">
-        <v>431200</v>
+        <v>434700</v>
       </c>
       <c r="F35" s="3">
-        <v>410100</v>
+        <v>413400</v>
       </c>
       <c r="G35" s="3">
-        <v>351200</v>
+        <v>354000</v>
       </c>
       <c r="H35" s="3">
-        <v>307300</v>
+        <v>309800</v>
       </c>
       <c r="I35" s="3">
-        <v>278300</v>
+        <v>280500</v>
       </c>
       <c r="J35" s="3">
-        <v>273100</v>
+        <v>275300</v>
       </c>
       <c r="K35" s="3">
         <v>247300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>806300</v>
+        <v>812800</v>
       </c>
       <c r="E41" s="3">
-        <v>630900</v>
+        <v>636000</v>
       </c>
       <c r="F41" s="3">
-        <v>440600</v>
+        <v>444200</v>
       </c>
       <c r="G41" s="3">
-        <v>373000</v>
+        <v>376000</v>
       </c>
       <c r="H41" s="3">
-        <v>372200</v>
+        <v>375200</v>
       </c>
       <c r="I41" s="3">
-        <v>394400</v>
+        <v>397600</v>
       </c>
       <c r="J41" s="3">
-        <v>96500</v>
+        <v>97300</v>
       </c>
       <c r="K41" s="3">
         <v>204500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1572400</v>
+        <v>1585000</v>
       </c>
       <c r="E43" s="3">
-        <v>1663900</v>
+        <v>1677300</v>
       </c>
       <c r="F43" s="3">
-        <v>1570300</v>
+        <v>1582900</v>
       </c>
       <c r="G43" s="3">
-        <v>1451700</v>
+        <v>1463300</v>
       </c>
       <c r="H43" s="3">
-        <v>1170900</v>
+        <v>1180300</v>
       </c>
       <c r="I43" s="3">
-        <v>2075500</v>
+        <v>2092200</v>
       </c>
       <c r="J43" s="3">
-        <v>1837400</v>
+        <v>1852100</v>
       </c>
       <c r="K43" s="3">
         <v>2783800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1554800</v>
+        <v>1567300</v>
       </c>
       <c r="E44" s="3">
-        <v>1602900</v>
+        <v>1615800</v>
       </c>
       <c r="F44" s="3">
-        <v>1406500</v>
+        <v>1417800</v>
       </c>
       <c r="G44" s="3">
-        <v>1269100</v>
+        <v>1279300</v>
       </c>
       <c r="H44" s="3">
-        <v>2097900</v>
+        <v>2114800</v>
       </c>
       <c r="I44" s="3">
-        <v>931600</v>
+        <v>939000</v>
       </c>
       <c r="J44" s="3">
-        <v>852000</v>
+        <v>858900</v>
       </c>
       <c r="K44" s="3">
         <v>2263200</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>97300</v>
+        <v>98100</v>
       </c>
       <c r="E45" s="3">
-        <v>114600</v>
+        <v>115600</v>
       </c>
       <c r="F45" s="3">
-        <v>147800</v>
+        <v>149000</v>
       </c>
       <c r="G45" s="3">
-        <v>101200</v>
+        <v>102000</v>
       </c>
       <c r="H45" s="3">
-        <v>362300</v>
+        <v>365200</v>
       </c>
       <c r="I45" s="3">
-        <v>239700</v>
+        <v>241600</v>
       </c>
       <c r="J45" s="3">
-        <v>227400</v>
+        <v>229300</v>
       </c>
       <c r="K45" s="3">
         <v>399000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4030900</v>
+        <v>4063300</v>
       </c>
       <c r="E46" s="3">
-        <v>4012400</v>
+        <v>4044700</v>
       </c>
       <c r="F46" s="3">
-        <v>3565200</v>
+        <v>3593800</v>
       </c>
       <c r="G46" s="3">
-        <v>3195000</v>
+        <v>3220700</v>
       </c>
       <c r="H46" s="3">
-        <v>2696300</v>
+        <v>2717900</v>
       </c>
       <c r="I46" s="3">
-        <v>2492300</v>
+        <v>2512400</v>
       </c>
       <c r="J46" s="3">
-        <v>2095200</v>
+        <v>2112000</v>
       </c>
       <c r="K46" s="3">
         <v>1918400</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>728000</v>
+        <v>733900</v>
       </c>
       <c r="E48" s="3">
-        <v>161700</v>
+        <v>163000</v>
       </c>
       <c r="F48" s="3">
-        <v>165400</v>
+        <v>166700</v>
       </c>
       <c r="G48" s="3">
-        <v>162900</v>
+        <v>164200</v>
       </c>
       <c r="H48" s="3">
-        <v>148700</v>
+        <v>149900</v>
       </c>
       <c r="I48" s="3">
-        <v>299700</v>
+        <v>302100</v>
       </c>
       <c r="J48" s="3">
-        <v>156900</v>
+        <v>158200</v>
       </c>
       <c r="K48" s="3">
         <v>431300</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3025800</v>
+        <v>3050100</v>
       </c>
       <c r="E49" s="3">
-        <v>3146800</v>
+        <v>3172100</v>
       </c>
       <c r="F49" s="3">
-        <v>3106100</v>
+        <v>3131100</v>
       </c>
       <c r="G49" s="3">
-        <v>2572400</v>
+        <v>2593000</v>
       </c>
       <c r="H49" s="3">
-        <v>2174200</v>
+        <v>2191600</v>
       </c>
       <c r="I49" s="3">
-        <v>3921600</v>
+        <v>3953100</v>
       </c>
       <c r="J49" s="3">
-        <v>1924300</v>
+        <v>1939700</v>
       </c>
       <c r="K49" s="3">
         <v>3466300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34300</v>
+        <v>34600</v>
       </c>
       <c r="E52" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="F52" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="G52" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="H52" s="3">
-        <v>28900</v>
+        <v>29200</v>
       </c>
       <c r="I52" s="3">
-        <v>26700</v>
+        <v>26900</v>
       </c>
       <c r="J52" s="3">
-        <v>18100</v>
+        <v>18200</v>
       </c>
       <c r="K52" s="3">
         <v>41600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7819100</v>
+        <v>7881900</v>
       </c>
       <c r="E54" s="3">
-        <v>7338400</v>
+        <v>7397400</v>
       </c>
       <c r="F54" s="3">
-        <v>6854400</v>
+        <v>6909400</v>
       </c>
       <c r="G54" s="3">
-        <v>5952900</v>
+        <v>6000800</v>
       </c>
       <c r="H54" s="3">
-        <v>5048100</v>
+        <v>5088600</v>
       </c>
       <c r="I54" s="3">
-        <v>4629600</v>
+        <v>4666800</v>
       </c>
       <c r="J54" s="3">
-        <v>4194400</v>
+        <v>4228100</v>
       </c>
       <c r="K54" s="3">
         <v>3816000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1410500</v>
+        <v>1421800</v>
       </c>
       <c r="E57" s="3">
-        <v>1510900</v>
+        <v>1523000</v>
       </c>
       <c r="F57" s="3">
-        <v>1363200</v>
+        <v>1374100</v>
       </c>
       <c r="G57" s="3">
-        <v>1204300</v>
+        <v>1214000</v>
       </c>
       <c r="H57" s="3">
-        <v>971300</v>
+        <v>979100</v>
       </c>
       <c r="I57" s="3">
-        <v>2265900</v>
+        <v>2284100</v>
       </c>
       <c r="J57" s="3">
-        <v>902000</v>
+        <v>909200</v>
       </c>
       <c r="K57" s="3">
         <v>2013400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>891800</v>
+        <v>899000</v>
       </c>
       <c r="E58" s="3">
-        <v>539400</v>
+        <v>543700</v>
       </c>
       <c r="F58" s="3">
-        <v>483900</v>
+        <v>487800</v>
       </c>
       <c r="G58" s="3">
-        <v>319200</v>
+        <v>321800</v>
       </c>
       <c r="H58" s="3">
-        <v>464800</v>
+        <v>468500</v>
       </c>
       <c r="I58" s="3">
-        <v>370000</v>
+        <v>372900</v>
       </c>
       <c r="J58" s="3">
-        <v>90200</v>
+        <v>90900</v>
       </c>
       <c r="K58" s="3">
         <v>595500</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>700200</v>
+        <v>705800</v>
       </c>
       <c r="E59" s="3">
-        <v>764300</v>
+        <v>770500</v>
       </c>
       <c r="F59" s="3">
-        <v>740600</v>
+        <v>746500</v>
       </c>
       <c r="G59" s="3">
-        <v>641000</v>
+        <v>646100</v>
       </c>
       <c r="H59" s="3">
-        <v>601400</v>
+        <v>606200</v>
       </c>
       <c r="I59" s="3">
-        <v>534900</v>
+        <v>539200</v>
       </c>
       <c r="J59" s="3">
-        <v>535200</v>
+        <v>539500</v>
       </c>
       <c r="K59" s="3">
         <v>869000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3002400</v>
+        <v>3026500</v>
       </c>
       <c r="E60" s="3">
-        <v>2814600</v>
+        <v>2837200</v>
       </c>
       <c r="F60" s="3">
-        <v>2587700</v>
+        <v>2608500</v>
       </c>
       <c r="G60" s="3">
-        <v>2164500</v>
+        <v>2181900</v>
       </c>
       <c r="H60" s="3">
-        <v>2037500</v>
+        <v>2053800</v>
       </c>
       <c r="I60" s="3">
-        <v>1825700</v>
+        <v>1840400</v>
       </c>
       <c r="J60" s="3">
-        <v>1527400</v>
+        <v>1539600</v>
       </c>
       <c r="K60" s="3">
         <v>1571700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2208900</v>
+        <v>2226600</v>
       </c>
       <c r="E61" s="3">
-        <v>1923500</v>
+        <v>1938900</v>
       </c>
       <c r="F61" s="3">
-        <v>1980100</v>
+        <v>1996000</v>
       </c>
       <c r="G61" s="3">
-        <v>1695400</v>
+        <v>1709000</v>
       </c>
       <c r="H61" s="3">
-        <v>1398500</v>
+        <v>1409700</v>
       </c>
       <c r="I61" s="3">
-        <v>1206300</v>
+        <v>1216000</v>
       </c>
       <c r="J61" s="3">
-        <v>1125000</v>
+        <v>1134100</v>
       </c>
       <c r="K61" s="3">
         <v>774700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>303900</v>
+        <v>306400</v>
       </c>
       <c r="E62" s="3">
-        <v>362300</v>
+        <v>365200</v>
       </c>
       <c r="F62" s="3">
-        <v>373300</v>
+        <v>376300</v>
       </c>
       <c r="G62" s="3">
-        <v>359500</v>
+        <v>362400</v>
       </c>
       <c r="H62" s="3">
-        <v>269800</v>
+        <v>272000</v>
       </c>
       <c r="I62" s="3">
-        <v>298100</v>
+        <v>300500</v>
       </c>
       <c r="J62" s="3">
-        <v>300600</v>
+        <v>303000</v>
       </c>
       <c r="K62" s="3">
         <v>649800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5515200</v>
+        <v>5559500</v>
       </c>
       <c r="E66" s="3">
-        <v>5100400</v>
+        <v>5141300</v>
       </c>
       <c r="F66" s="3">
-        <v>4941100</v>
+        <v>4980800</v>
       </c>
       <c r="G66" s="3">
-        <v>4219400</v>
+        <v>4253300</v>
       </c>
       <c r="H66" s="3">
-        <v>3705700</v>
+        <v>3735500</v>
       </c>
       <c r="I66" s="3">
-        <v>3330100</v>
+        <v>3356900</v>
       </c>
       <c r="J66" s="3">
-        <v>2953000</v>
+        <v>2976700</v>
       </c>
       <c r="K66" s="3">
         <v>2671200</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2068600</v>
+        <v>2085200</v>
       </c>
       <c r="E72" s="3">
-        <v>1889900</v>
+        <v>1905100</v>
       </c>
       <c r="F72" s="3">
-        <v>1569600</v>
+        <v>1582200</v>
       </c>
       <c r="G72" s="3">
-        <v>1329900</v>
+        <v>1340600</v>
       </c>
       <c r="H72" s="3">
-        <v>1218000</v>
+        <v>1227800</v>
       </c>
       <c r="I72" s="3">
-        <v>1085400</v>
+        <v>1094100</v>
       </c>
       <c r="J72" s="3">
-        <v>1090800</v>
+        <v>1099600</v>
       </c>
       <c r="K72" s="3">
         <v>1894000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2303900</v>
+        <v>2322400</v>
       </c>
       <c r="E76" s="3">
-        <v>2238100</v>
+        <v>2256100</v>
       </c>
       <c r="F76" s="3">
-        <v>1913300</v>
+        <v>1928700</v>
       </c>
       <c r="G76" s="3">
-        <v>1733500</v>
+        <v>1747500</v>
       </c>
       <c r="H76" s="3">
-        <v>1342300</v>
+        <v>1353100</v>
       </c>
       <c r="I76" s="3">
-        <v>1299500</v>
+        <v>1310000</v>
       </c>
       <c r="J76" s="3">
-        <v>1241400</v>
+        <v>1251400</v>
       </c>
       <c r="K76" s="3">
         <v>1144800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>461200</v>
+        <v>464900</v>
       </c>
       <c r="E81" s="3">
-        <v>431200</v>
+        <v>434700</v>
       </c>
       <c r="F81" s="3">
-        <v>410100</v>
+        <v>413400</v>
       </c>
       <c r="G81" s="3">
-        <v>351200</v>
+        <v>354000</v>
       </c>
       <c r="H81" s="3">
-        <v>307300</v>
+        <v>309800</v>
       </c>
       <c r="I81" s="3">
-        <v>278300</v>
+        <v>280500</v>
       </c>
       <c r="J81" s="3">
-        <v>273100</v>
+        <v>275300</v>
       </c>
       <c r="K81" s="3">
         <v>247300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>353000</v>
+        <v>355900</v>
       </c>
       <c r="E83" s="3">
-        <v>189800</v>
+        <v>191300</v>
       </c>
       <c r="F83" s="3">
-        <v>168900</v>
+        <v>170300</v>
       </c>
       <c r="G83" s="3">
-        <v>143600</v>
+        <v>144700</v>
       </c>
       <c r="H83" s="3">
-        <v>120100</v>
+        <v>121000</v>
       </c>
       <c r="I83" s="3">
-        <v>114000</v>
+        <v>114900</v>
       </c>
       <c r="J83" s="3">
-        <v>111200</v>
+        <v>112100</v>
       </c>
       <c r="K83" s="3">
         <v>105500</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>884000</v>
+        <v>891100</v>
       </c>
       <c r="E89" s="3">
-        <v>634000</v>
+        <v>639100</v>
       </c>
       <c r="F89" s="3">
-        <v>628200</v>
+        <v>633200</v>
       </c>
       <c r="G89" s="3">
-        <v>536900</v>
+        <v>541200</v>
       </c>
       <c r="H89" s="3">
-        <v>435600</v>
+        <v>439100</v>
       </c>
       <c r="I89" s="3">
-        <v>433000</v>
+        <v>436400</v>
       </c>
       <c r="J89" s="3">
-        <v>449100</v>
+        <v>452700</v>
       </c>
       <c r="K89" s="3">
         <v>343000</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-48700</v>
+        <v>-49100</v>
       </c>
       <c r="E91" s="3">
-        <v>-41100</v>
+        <v>-41400</v>
       </c>
       <c r="F91" s="3">
-        <v>-44600</v>
+        <v>-45000</v>
       </c>
       <c r="G91" s="3">
-        <v>-33500</v>
+        <v>-33800</v>
       </c>
       <c r="H91" s="3">
-        <v>-32800</v>
+        <v>-33000</v>
       </c>
       <c r="I91" s="3">
-        <v>-33200</v>
+        <v>-33400</v>
       </c>
       <c r="J91" s="3">
-        <v>-35000</v>
+        <v>-35300</v>
       </c>
       <c r="K91" s="3">
         <v>-29700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-214800</v>
+        <v>-216500</v>
       </c>
       <c r="E94" s="3">
-        <v>-187300</v>
+        <v>-188800</v>
       </c>
       <c r="F94" s="3">
-        <v>-799300</v>
+        <v>-805800</v>
       </c>
       <c r="G94" s="3">
-        <v>-235800</v>
+        <v>-237700</v>
       </c>
       <c r="H94" s="3">
-        <v>-459800</v>
+        <v>-463500</v>
       </c>
       <c r="I94" s="3">
-        <v>-232100</v>
+        <v>-233900</v>
       </c>
       <c r="J94" s="3">
-        <v>-366700</v>
+        <v>-369600</v>
       </c>
       <c r="K94" s="3">
         <v>-326400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-221000</v>
+        <v>-222700</v>
       </c>
       <c r="E96" s="3">
-        <v>-201000</v>
+        <v>-202600</v>
       </c>
       <c r="F96" s="3">
-        <v>-182500</v>
+        <v>-184000</v>
       </c>
       <c r="G96" s="3">
-        <v>-165600</v>
+        <v>-167000</v>
       </c>
       <c r="H96" s="3">
-        <v>-153300</v>
+        <v>-154600</v>
       </c>
       <c r="I96" s="3">
-        <v>-139500</v>
+        <v>-140600</v>
       </c>
       <c r="J96" s="3">
-        <v>-121200</v>
+        <v>-122200</v>
       </c>
       <c r="K96" s="3">
         <v>-110800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-650100</v>
+        <v>-655300</v>
       </c>
       <c r="E100" s="3">
-        <v>-405400</v>
+        <v>-408600</v>
       </c>
       <c r="F100" s="3">
-        <v>154300</v>
+        <v>155500</v>
       </c>
       <c r="G100" s="3">
-        <v>-255600</v>
+        <v>-257600</v>
       </c>
       <c r="H100" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="I100" s="3">
-        <v>-188900</v>
+        <v>-190400</v>
       </c>
       <c r="J100" s="3">
-        <v>-91100</v>
+        <v>-91900</v>
       </c>
       <c r="K100" s="3">
         <v>900</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23600</v>
+        <v>-23800</v>
       </c>
       <c r="E101" s="3">
         <v>800</v>
@@ -3472,10 +3472,10 @@
         <v>-2100</v>
       </c>
       <c r="G101" s="3">
-        <v>54800</v>
+        <v>55300</v>
       </c>
       <c r="H101" s="3">
-        <v>-9400</v>
+        <v>-9500</v>
       </c>
       <c r="I101" s="3">
         <v>-2100</v>
@@ -3499,22 +3499,22 @@
         <v>-4500</v>
       </c>
       <c r="E102" s="3">
-        <v>42100</v>
+        <v>42500</v>
       </c>
       <c r="F102" s="3">
-        <v>-19000</v>
+        <v>-19200</v>
       </c>
       <c r="G102" s="3">
-        <v>100400</v>
+        <v>101200</v>
       </c>
       <c r="H102" s="3">
         <v>-4800</v>
       </c>
       <c r="I102" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="J102" s="3">
-        <v>-11900</v>
+        <v>-12000</v>
       </c>
       <c r="K102" s="3">
         <v>14000</v>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>BZLFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12417600</v>
+        <v>13884500</v>
       </c>
       <c r="E8" s="3">
-        <v>12088300</v>
+        <v>12807300</v>
       </c>
       <c r="F8" s="3">
-        <v>11424600</v>
+        <v>12467700</v>
       </c>
       <c r="G8" s="3">
-        <v>9891100</v>
+        <v>11783200</v>
       </c>
       <c r="H8" s="3">
-        <v>8640400</v>
+        <v>10201600</v>
       </c>
       <c r="I8" s="3">
-        <v>8196800</v>
+        <v>8911600</v>
       </c>
       <c r="J8" s="3">
+        <v>8454000</v>
+      </c>
+      <c r="K8" s="3">
         <v>8118500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6928400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6728100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9364000</v>
+        <v>10335000</v>
       </c>
       <c r="E9" s="3">
-        <v>9122500</v>
+        <v>9657900</v>
       </c>
       <c r="F9" s="3">
-        <v>8641600</v>
+        <v>9408800</v>
       </c>
       <c r="G9" s="3">
-        <v>7482600</v>
+        <v>8912800</v>
       </c>
       <c r="H9" s="3">
-        <v>6560100</v>
+        <v>7717500</v>
       </c>
       <c r="I9" s="3">
-        <v>6203300</v>
+        <v>6766000</v>
       </c>
       <c r="J9" s="3">
+        <v>6398000</v>
+      </c>
+      <c r="K9" s="3">
         <v>6175400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5324100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5143000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3053600</v>
+        <v>3549400</v>
       </c>
       <c r="E10" s="3">
-        <v>2965800</v>
+        <v>3149400</v>
       </c>
       <c r="F10" s="3">
-        <v>2783000</v>
+        <v>3058900</v>
       </c>
       <c r="G10" s="3">
-        <v>2408500</v>
+        <v>2870400</v>
       </c>
       <c r="H10" s="3">
-        <v>2080300</v>
+        <v>2484100</v>
       </c>
       <c r="I10" s="3">
-        <v>1993500</v>
+        <v>2145600</v>
       </c>
       <c r="J10" s="3">
+        <v>2056100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1943000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1604400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1585200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>23400</v>
+        <v>81700</v>
       </c>
       <c r="E14" s="3">
-        <v>30800</v>
+        <v>24200</v>
       </c>
       <c r="F14" s="3">
-        <v>48900</v>
+        <v>31700</v>
       </c>
       <c r="G14" s="3">
-        <v>45300</v>
+        <v>50400</v>
       </c>
       <c r="H14" s="3">
-        <v>28900</v>
+        <v>46700</v>
       </c>
       <c r="I14" s="3">
-        <v>34700</v>
+        <v>29800</v>
       </c>
       <c r="J14" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K14" s="3">
         <v>32000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>355900</v>
+        <v>373600</v>
       </c>
       <c r="E15" s="3">
-        <v>191300</v>
+        <v>367100</v>
       </c>
       <c r="F15" s="3">
-        <v>170300</v>
+        <v>197300</v>
       </c>
       <c r="G15" s="3">
-        <v>144700</v>
+        <v>175600</v>
       </c>
       <c r="H15" s="3">
-        <v>121000</v>
+        <v>149300</v>
       </c>
       <c r="I15" s="3">
-        <v>114900</v>
+        <v>124800</v>
       </c>
       <c r="J15" s="3">
+        <v>118500</v>
+      </c>
+      <c r="K15" s="3">
         <v>112100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>91400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>94700</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11714100</v>
+        <v>13035100</v>
       </c>
       <c r="E17" s="3">
-        <v>11449500</v>
+        <v>12081700</v>
       </c>
       <c r="F17" s="3">
-        <v>10817500</v>
+        <v>11808900</v>
       </c>
       <c r="G17" s="3">
-        <v>9345600</v>
+        <v>11157000</v>
       </c>
       <c r="H17" s="3">
-        <v>8152400</v>
+        <v>9639000</v>
       </c>
       <c r="I17" s="3">
-        <v>7741700</v>
+        <v>8408300</v>
       </c>
       <c r="J17" s="3">
+        <v>7984700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7691000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6537100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6360400</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>703500</v>
+        <v>849300</v>
       </c>
       <c r="E18" s="3">
-        <v>638800</v>
+        <v>725600</v>
       </c>
       <c r="F18" s="3">
-        <v>607100</v>
+        <v>658900</v>
       </c>
       <c r="G18" s="3">
-        <v>545500</v>
+        <v>626200</v>
       </c>
       <c r="H18" s="3">
-        <v>488000</v>
+        <v>562600</v>
       </c>
       <c r="I18" s="3">
-        <v>455100</v>
+        <v>503300</v>
       </c>
       <c r="J18" s="3">
+        <v>469400</v>
+      </c>
+      <c r="K18" s="3">
         <v>427500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>391300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>367800</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6400</v>
+        <v>5400</v>
       </c>
       <c r="E20" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="F20" s="3">
-        <v>5600</v>
+        <v>6600</v>
       </c>
       <c r="G20" s="3">
-        <v>3900</v>
+        <v>5800</v>
       </c>
       <c r="H20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-69800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1066900</v>
+        <v>1227000</v>
       </c>
       <c r="E21" s="3">
-        <v>837100</v>
+        <v>1097900</v>
       </c>
       <c r="F21" s="3">
-        <v>783500</v>
+        <v>862100</v>
       </c>
       <c r="G21" s="3">
-        <v>694500</v>
+        <v>806900</v>
       </c>
       <c r="H21" s="3">
-        <v>608700</v>
+        <v>715300</v>
       </c>
       <c r="I21" s="3">
-        <v>569500</v>
+        <v>627000</v>
       </c>
       <c r="J21" s="3">
+        <v>586600</v>
+      </c>
+      <c r="K21" s="3">
         <v>551500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>491300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>405300</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>106400</v>
+        <v>91600</v>
       </c>
       <c r="E22" s="3">
-        <v>79600</v>
+        <v>109700</v>
       </c>
       <c r="F22" s="3">
-        <v>67800</v>
+        <v>82100</v>
       </c>
       <c r="G22" s="3">
-        <v>66200</v>
+        <v>69900</v>
       </c>
       <c r="H22" s="3">
-        <v>57600</v>
+        <v>68200</v>
       </c>
       <c r="I22" s="3">
-        <v>55100</v>
+        <v>59500</v>
       </c>
       <c r="J22" s="3">
+        <v>56900</v>
+      </c>
+      <c r="K22" s="3">
         <v>53100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>42900</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>603500</v>
+        <v>763100</v>
       </c>
       <c r="E23" s="3">
-        <v>565600</v>
+        <v>622500</v>
       </c>
       <c r="F23" s="3">
-        <v>544900</v>
+        <v>583300</v>
       </c>
       <c r="G23" s="3">
-        <v>483200</v>
+        <v>562000</v>
       </c>
       <c r="H23" s="3">
-        <v>429600</v>
+        <v>498300</v>
       </c>
       <c r="I23" s="3">
-        <v>399200</v>
+        <v>443100</v>
       </c>
       <c r="J23" s="3">
+        <v>411700</v>
+      </c>
+      <c r="K23" s="3">
         <v>386000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>341000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>255100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>138600</v>
+        <v>172600</v>
       </c>
       <c r="E24" s="3">
-        <v>130900</v>
+        <v>142900</v>
       </c>
       <c r="F24" s="3">
-        <v>131500</v>
+        <v>135000</v>
       </c>
       <c r="G24" s="3">
-        <v>129100</v>
+        <v>135700</v>
       </c>
       <c r="H24" s="3">
-        <v>119800</v>
+        <v>133200</v>
       </c>
       <c r="I24" s="3">
-        <v>118600</v>
+        <v>123600</v>
       </c>
       <c r="J24" s="3">
+        <v>122400</v>
+      </c>
+      <c r="K24" s="3">
         <v>110600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>93700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>92000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>464900</v>
+        <v>590500</v>
       </c>
       <c r="E26" s="3">
-        <v>434700</v>
+        <v>479500</v>
       </c>
       <c r="F26" s="3">
-        <v>413400</v>
+        <v>448300</v>
       </c>
       <c r="G26" s="3">
-        <v>354000</v>
+        <v>426400</v>
       </c>
       <c r="H26" s="3">
-        <v>309800</v>
+        <v>365100</v>
       </c>
       <c r="I26" s="3">
-        <v>280500</v>
+        <v>319500</v>
       </c>
       <c r="J26" s="3">
+        <v>289300</v>
+      </c>
+      <c r="K26" s="3">
         <v>275300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>247300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>163000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>464900</v>
+        <v>590500</v>
       </c>
       <c r="E27" s="3">
-        <v>434700</v>
+        <v>479500</v>
       </c>
       <c r="F27" s="3">
-        <v>413400</v>
+        <v>448300</v>
       </c>
       <c r="G27" s="3">
-        <v>354000</v>
+        <v>426400</v>
       </c>
       <c r="H27" s="3">
-        <v>309800</v>
+        <v>365100</v>
       </c>
       <c r="I27" s="3">
-        <v>280500</v>
+        <v>319500</v>
       </c>
       <c r="J27" s="3">
+        <v>289300</v>
+      </c>
+      <c r="K27" s="3">
         <v>275300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>247300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>163000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6400</v>
+        <v>-5400</v>
       </c>
       <c r="E32" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="F32" s="3">
-        <v>-5600</v>
+        <v>-6600</v>
       </c>
       <c r="G32" s="3">
-        <v>-3900</v>
+        <v>-5800</v>
       </c>
       <c r="H32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>69800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>464900</v>
+        <v>590500</v>
       </c>
       <c r="E33" s="3">
-        <v>434700</v>
+        <v>479500</v>
       </c>
       <c r="F33" s="3">
-        <v>413400</v>
+        <v>448300</v>
       </c>
       <c r="G33" s="3">
-        <v>354000</v>
+        <v>426400</v>
       </c>
       <c r="H33" s="3">
-        <v>309800</v>
+        <v>365100</v>
       </c>
       <c r="I33" s="3">
-        <v>280500</v>
+        <v>319500</v>
       </c>
       <c r="J33" s="3">
+        <v>289300</v>
+      </c>
+      <c r="K33" s="3">
         <v>275300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>247300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>163000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>464900</v>
+        <v>590500</v>
       </c>
       <c r="E35" s="3">
-        <v>434700</v>
+        <v>479500</v>
       </c>
       <c r="F35" s="3">
-        <v>413400</v>
+        <v>448300</v>
       </c>
       <c r="G35" s="3">
-        <v>354000</v>
+        <v>426400</v>
       </c>
       <c r="H35" s="3">
-        <v>309800</v>
+        <v>365100</v>
       </c>
       <c r="I35" s="3">
-        <v>280500</v>
+        <v>319500</v>
       </c>
       <c r="J35" s="3">
+        <v>289300</v>
+      </c>
+      <c r="K35" s="3">
         <v>275300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>247300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>163000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>812800</v>
+        <v>1296700</v>
       </c>
       <c r="E41" s="3">
-        <v>636000</v>
+        <v>838300</v>
       </c>
       <c r="F41" s="3">
-        <v>444200</v>
+        <v>656000</v>
       </c>
       <c r="G41" s="3">
-        <v>376000</v>
+        <v>458100</v>
       </c>
       <c r="H41" s="3">
-        <v>375200</v>
+        <v>387800</v>
       </c>
       <c r="I41" s="3">
-        <v>397600</v>
+        <v>387000</v>
       </c>
       <c r="J41" s="3">
+        <v>410000</v>
+      </c>
+      <c r="K41" s="3">
         <v>97300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>204500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>83700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1706,146 +1795,161 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>5400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1585000</v>
+        <v>1925800</v>
       </c>
       <c r="E43" s="3">
-        <v>1677300</v>
+        <v>1634800</v>
       </c>
       <c r="F43" s="3">
-        <v>1582900</v>
+        <v>1729900</v>
       </c>
       <c r="G43" s="3">
-        <v>1463300</v>
+        <v>1632600</v>
       </c>
       <c r="H43" s="3">
-        <v>1180300</v>
+        <v>1509300</v>
       </c>
       <c r="I43" s="3">
-        <v>2092200</v>
+        <v>1217300</v>
       </c>
       <c r="J43" s="3">
+        <v>2157800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1852100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2783800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>803800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1567300</v>
+        <v>1966700</v>
       </c>
       <c r="E44" s="3">
-        <v>1615800</v>
+        <v>1616500</v>
       </c>
       <c r="F44" s="3">
-        <v>1417800</v>
+        <v>1666500</v>
       </c>
       <c r="G44" s="3">
-        <v>1279300</v>
+        <v>1462300</v>
       </c>
       <c r="H44" s="3">
-        <v>2114800</v>
+        <v>1319500</v>
       </c>
       <c r="I44" s="3">
-        <v>939000</v>
+        <v>2181200</v>
       </c>
       <c r="J44" s="3">
+        <v>968500</v>
+      </c>
+      <c r="K44" s="3">
         <v>858900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2263200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>696100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>98100</v>
+        <v>17300</v>
       </c>
       <c r="E45" s="3">
-        <v>115600</v>
+        <v>101200</v>
       </c>
       <c r="F45" s="3">
-        <v>149000</v>
+        <v>119200</v>
       </c>
       <c r="G45" s="3">
-        <v>102000</v>
+        <v>153700</v>
       </c>
       <c r="H45" s="3">
-        <v>365200</v>
+        <v>105200</v>
       </c>
       <c r="I45" s="3">
-        <v>241600</v>
+        <v>376700</v>
       </c>
       <c r="J45" s="3">
+        <v>249200</v>
+      </c>
+      <c r="K45" s="3">
         <v>229300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>399000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>171600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4063300</v>
+        <v>5206400</v>
       </c>
       <c r="E46" s="3">
-        <v>4044700</v>
+        <v>4190800</v>
       </c>
       <c r="F46" s="3">
-        <v>3593800</v>
+        <v>4171600</v>
       </c>
       <c r="G46" s="3">
-        <v>3220700</v>
+        <v>3706700</v>
       </c>
       <c r="H46" s="3">
-        <v>2717900</v>
+        <v>3321700</v>
       </c>
       <c r="I46" s="3">
-        <v>2512400</v>
+        <v>2803200</v>
       </c>
       <c r="J46" s="3">
+        <v>2591200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2112000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1918400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1769100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1874,77 +1978,86 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>733900</v>
+        <v>791100</v>
       </c>
       <c r="E48" s="3">
-        <v>163000</v>
+        <v>756900</v>
       </c>
       <c r="F48" s="3">
-        <v>166700</v>
+        <v>168100</v>
       </c>
       <c r="G48" s="3">
-        <v>164200</v>
+        <v>171900</v>
       </c>
       <c r="H48" s="3">
-        <v>149900</v>
+        <v>169300</v>
       </c>
       <c r="I48" s="3">
-        <v>302100</v>
+        <v>154600</v>
       </c>
       <c r="J48" s="3">
+        <v>311600</v>
+      </c>
+      <c r="K48" s="3">
         <v>158200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>431300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>143500</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3050100</v>
+        <v>3353200</v>
       </c>
       <c r="E49" s="3">
-        <v>3172100</v>
+        <v>3145800</v>
       </c>
       <c r="F49" s="3">
-        <v>3131100</v>
+        <v>3271600</v>
       </c>
       <c r="G49" s="3">
-        <v>2593000</v>
+        <v>3229300</v>
       </c>
       <c r="H49" s="3">
-        <v>2191600</v>
+        <v>2674400</v>
       </c>
       <c r="I49" s="3">
-        <v>3953100</v>
+        <v>2260400</v>
       </c>
       <c r="J49" s="3">
+        <v>4077100</v>
+      </c>
+      <c r="K49" s="3">
         <v>1939700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3466300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1654900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34600</v>
+        <v>27300</v>
       </c>
       <c r="E52" s="3">
-        <v>17700</v>
+        <v>35700</v>
       </c>
       <c r="F52" s="3">
-        <v>17800</v>
+        <v>18300</v>
       </c>
       <c r="G52" s="3">
-        <v>22900</v>
+        <v>18400</v>
       </c>
       <c r="H52" s="3">
-        <v>29200</v>
+        <v>23600</v>
       </c>
       <c r="I52" s="3">
-        <v>26900</v>
+        <v>30100</v>
       </c>
       <c r="J52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K52" s="3">
         <v>18200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>41600</v>
       </c>
       <c r="L52" s="3">
         <v>41600</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>41600</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7881900</v>
+        <v>9378100</v>
       </c>
       <c r="E54" s="3">
-        <v>7397400</v>
+        <v>8129300</v>
       </c>
       <c r="F54" s="3">
-        <v>6909400</v>
+        <v>7629600</v>
       </c>
       <c r="G54" s="3">
-        <v>6000800</v>
+        <v>7126300</v>
       </c>
       <c r="H54" s="3">
-        <v>5088600</v>
+        <v>6189100</v>
       </c>
       <c r="I54" s="3">
-        <v>4666800</v>
+        <v>5248300</v>
       </c>
       <c r="J54" s="3">
+        <v>4813300</v>
+      </c>
+      <c r="K54" s="3">
         <v>4228100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3816000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3609800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1421800</v>
+        <v>2521600</v>
       </c>
       <c r="E57" s="3">
-        <v>1523000</v>
+        <v>1466400</v>
       </c>
       <c r="F57" s="3">
-        <v>1374100</v>
+        <v>1570800</v>
       </c>
       <c r="G57" s="3">
-        <v>1214000</v>
+        <v>1417300</v>
       </c>
       <c r="H57" s="3">
-        <v>979100</v>
+        <v>1252100</v>
       </c>
       <c r="I57" s="3">
-        <v>2284100</v>
+        <v>1009800</v>
       </c>
       <c r="J57" s="3">
+        <v>2355800</v>
+      </c>
+      <c r="K57" s="3">
         <v>909200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2013400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>846300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>899000</v>
+        <v>993600</v>
       </c>
       <c r="E58" s="3">
-        <v>543700</v>
+        <v>927200</v>
       </c>
       <c r="F58" s="3">
-        <v>487800</v>
+        <v>560800</v>
       </c>
       <c r="G58" s="3">
-        <v>321800</v>
+        <v>503100</v>
       </c>
       <c r="H58" s="3">
-        <v>468500</v>
+        <v>331900</v>
       </c>
       <c r="I58" s="3">
-        <v>372900</v>
+        <v>483200</v>
       </c>
       <c r="J58" s="3">
+        <v>384600</v>
+      </c>
+      <c r="K58" s="3">
         <v>90900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>595500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>87800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>705800</v>
+        <v>148000</v>
       </c>
       <c r="E59" s="3">
-        <v>770500</v>
+        <v>727900</v>
       </c>
       <c r="F59" s="3">
-        <v>746500</v>
+        <v>794700</v>
       </c>
       <c r="G59" s="3">
-        <v>646100</v>
+        <v>769900</v>
       </c>
       <c r="H59" s="3">
-        <v>606200</v>
+        <v>666400</v>
       </c>
       <c r="I59" s="3">
-        <v>539200</v>
+        <v>625200</v>
       </c>
       <c r="J59" s="3">
+        <v>556100</v>
+      </c>
+      <c r="K59" s="3">
         <v>539500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>869000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>376700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3026500</v>
+        <v>3663300</v>
       </c>
       <c r="E60" s="3">
-        <v>2837200</v>
+        <v>3121500</v>
       </c>
       <c r="F60" s="3">
-        <v>2608500</v>
+        <v>2926300</v>
       </c>
       <c r="G60" s="3">
-        <v>2181900</v>
+        <v>2690400</v>
       </c>
       <c r="H60" s="3">
-        <v>2053800</v>
+        <v>2250400</v>
       </c>
       <c r="I60" s="3">
-        <v>1840400</v>
+        <v>2118300</v>
       </c>
       <c r="J60" s="3">
+        <v>1898200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1539600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1571700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1310900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2226600</v>
+        <v>2723900</v>
       </c>
       <c r="E61" s="3">
-        <v>1938900</v>
+        <v>2296500</v>
       </c>
       <c r="F61" s="3">
-        <v>1996000</v>
+        <v>1999800</v>
       </c>
       <c r="G61" s="3">
-        <v>1709000</v>
+        <v>2058700</v>
       </c>
       <c r="H61" s="3">
-        <v>1409700</v>
+        <v>1762600</v>
       </c>
       <c r="I61" s="3">
-        <v>1216000</v>
+        <v>1453900</v>
       </c>
       <c r="J61" s="3">
+        <v>1254100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1134100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>774700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>893800</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>306400</v>
+        <v>355700</v>
       </c>
       <c r="E62" s="3">
-        <v>365200</v>
+        <v>316000</v>
       </c>
       <c r="F62" s="3">
-        <v>376300</v>
+        <v>376700</v>
       </c>
       <c r="G62" s="3">
-        <v>362400</v>
+        <v>388100</v>
       </c>
       <c r="H62" s="3">
-        <v>272000</v>
+        <v>373800</v>
       </c>
       <c r="I62" s="3">
-        <v>300500</v>
+        <v>280500</v>
       </c>
       <c r="J62" s="3">
+        <v>309900</v>
+      </c>
+      <c r="K62" s="3">
         <v>303000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>649800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>342900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5559500</v>
+        <v>6742800</v>
       </c>
       <c r="E66" s="3">
-        <v>5141300</v>
+        <v>5734000</v>
       </c>
       <c r="F66" s="3">
-        <v>4980800</v>
+        <v>5302700</v>
       </c>
       <c r="G66" s="3">
-        <v>4253300</v>
+        <v>5137100</v>
       </c>
       <c r="H66" s="3">
-        <v>3735500</v>
+        <v>4386800</v>
       </c>
       <c r="I66" s="3">
-        <v>3356900</v>
+        <v>3852800</v>
       </c>
       <c r="J66" s="3">
+        <v>3462200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2976700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2671200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2547600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2085200</v>
+        <v>2491000</v>
       </c>
       <c r="E72" s="3">
-        <v>1905100</v>
+        <v>2150700</v>
       </c>
       <c r="F72" s="3">
-        <v>1582200</v>
+        <v>1964900</v>
       </c>
       <c r="G72" s="3">
-        <v>1340600</v>
+        <v>1631900</v>
       </c>
       <c r="H72" s="3">
-        <v>1227800</v>
+        <v>1382700</v>
       </c>
       <c r="I72" s="3">
-        <v>1094100</v>
+        <v>1266400</v>
       </c>
       <c r="J72" s="3">
+        <v>1128500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1099600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1894000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>683700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2322400</v>
+        <v>2635300</v>
       </c>
       <c r="E76" s="3">
-        <v>2256100</v>
+        <v>2395300</v>
       </c>
       <c r="F76" s="3">
-        <v>1928700</v>
+        <v>2326900</v>
       </c>
       <c r="G76" s="3">
-        <v>1747500</v>
+        <v>1989200</v>
       </c>
       <c r="H76" s="3">
-        <v>1353100</v>
+        <v>1802300</v>
       </c>
       <c r="I76" s="3">
-        <v>1310000</v>
+        <v>1395600</v>
       </c>
       <c r="J76" s="3">
+        <v>1351100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1251400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1144800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1062300</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>464900</v>
+        <v>590500</v>
       </c>
       <c r="E81" s="3">
-        <v>434700</v>
+        <v>479500</v>
       </c>
       <c r="F81" s="3">
-        <v>413400</v>
+        <v>448300</v>
       </c>
       <c r="G81" s="3">
-        <v>354000</v>
+        <v>426400</v>
       </c>
       <c r="H81" s="3">
-        <v>309800</v>
+        <v>365100</v>
       </c>
       <c r="I81" s="3">
-        <v>280500</v>
+        <v>319500</v>
       </c>
       <c r="J81" s="3">
+        <v>289300</v>
+      </c>
+      <c r="K81" s="3">
         <v>275300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>247300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>163000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>355900</v>
+        <v>373600</v>
       </c>
       <c r="E83" s="3">
-        <v>191300</v>
+        <v>367100</v>
       </c>
       <c r="F83" s="3">
-        <v>170300</v>
+        <v>197300</v>
       </c>
       <c r="G83" s="3">
-        <v>144700</v>
+        <v>175600</v>
       </c>
       <c r="H83" s="3">
-        <v>121000</v>
+        <v>149300</v>
       </c>
       <c r="I83" s="3">
-        <v>114900</v>
+        <v>124800</v>
       </c>
       <c r="J83" s="3">
+        <v>118500</v>
+      </c>
+      <c r="K83" s="3">
         <v>112100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>105500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>107700</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>891100</v>
+        <v>1085100</v>
       </c>
       <c r="E89" s="3">
-        <v>639100</v>
+        <v>919100</v>
       </c>
       <c r="F89" s="3">
-        <v>633200</v>
+        <v>659100</v>
       </c>
       <c r="G89" s="3">
-        <v>541200</v>
+        <v>653100</v>
       </c>
       <c r="H89" s="3">
-        <v>439100</v>
+        <v>558200</v>
       </c>
       <c r="I89" s="3">
-        <v>436400</v>
+        <v>452900</v>
       </c>
       <c r="J89" s="3">
+        <v>450100</v>
+      </c>
+      <c r="K89" s="3">
         <v>452700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>343000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>414300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-49100</v>
+        <v>-45500</v>
       </c>
       <c r="E91" s="3">
-        <v>-41400</v>
+        <v>-50700</v>
       </c>
       <c r="F91" s="3">
-        <v>-45000</v>
+        <v>-42700</v>
       </c>
       <c r="G91" s="3">
-        <v>-33800</v>
+        <v>-46400</v>
       </c>
       <c r="H91" s="3">
-        <v>-33000</v>
+        <v>-34900</v>
       </c>
       <c r="I91" s="3">
-        <v>-33400</v>
+        <v>-34100</v>
       </c>
       <c r="J91" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-35300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-216500</v>
+        <v>-521800</v>
       </c>
       <c r="E94" s="3">
-        <v>-188800</v>
+        <v>-223300</v>
       </c>
       <c r="F94" s="3">
-        <v>-805800</v>
+        <v>-194700</v>
       </c>
       <c r="G94" s="3">
-        <v>-237700</v>
+        <v>-831100</v>
       </c>
       <c r="H94" s="3">
-        <v>-463500</v>
+        <v>-245100</v>
       </c>
       <c r="I94" s="3">
-        <v>-233900</v>
+        <v>-478000</v>
       </c>
       <c r="J94" s="3">
+        <v>-241300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-369600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-326400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-179900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-222700</v>
+        <v>-235500</v>
       </c>
       <c r="E96" s="3">
-        <v>-202600</v>
+        <v>-229700</v>
       </c>
       <c r="F96" s="3">
-        <v>-184000</v>
+        <v>-209000</v>
       </c>
       <c r="G96" s="3">
-        <v>-167000</v>
+        <v>-189800</v>
       </c>
       <c r="H96" s="3">
-        <v>-154600</v>
+        <v>-172200</v>
       </c>
       <c r="I96" s="3">
-        <v>-140600</v>
+        <v>-159400</v>
       </c>
       <c r="J96" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-122200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-110800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-90700</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-655300</v>
+        <v>-167800</v>
       </c>
       <c r="E100" s="3">
-        <v>-408600</v>
+        <v>-675900</v>
       </c>
       <c r="F100" s="3">
-        <v>155500</v>
+        <v>-421400</v>
       </c>
       <c r="G100" s="3">
-        <v>-257600</v>
+        <v>160400</v>
       </c>
       <c r="H100" s="3">
-        <v>29000</v>
+        <v>-265700</v>
       </c>
       <c r="I100" s="3">
-        <v>-190400</v>
+        <v>29900</v>
       </c>
       <c r="J100" s="3">
+        <v>-196400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-91900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-270600</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-23800</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
-        <v>-2100</v>
-      </c>
       <c r="G101" s="3">
-        <v>55300</v>
+        <v>-2200</v>
       </c>
       <c r="H101" s="3">
-        <v>-9500</v>
+        <v>57000</v>
       </c>
       <c r="I101" s="3">
-        <v>-2100</v>
+        <v>-9700</v>
       </c>
       <c r="J101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4500</v>
+        <v>396700</v>
       </c>
       <c r="E102" s="3">
-        <v>42500</v>
+        <v>-4700</v>
       </c>
       <c r="F102" s="3">
-        <v>-19200</v>
+        <v>43800</v>
       </c>
       <c r="G102" s="3">
-        <v>101200</v>
+        <v>-19800</v>
       </c>
       <c r="H102" s="3">
-        <v>-4800</v>
+        <v>104400</v>
       </c>
       <c r="I102" s="3">
-        <v>10000</v>
+        <v>-4900</v>
       </c>
       <c r="J102" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39400</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13884500</v>
+        <v>14308300</v>
       </c>
       <c r="E8" s="3">
-        <v>12807300</v>
+        <v>13198300</v>
       </c>
       <c r="F8" s="3">
-        <v>12467700</v>
+        <v>12848300</v>
       </c>
       <c r="G8" s="3">
-        <v>11783200</v>
+        <v>12142900</v>
       </c>
       <c r="H8" s="3">
-        <v>10201600</v>
+        <v>10513000</v>
       </c>
       <c r="I8" s="3">
-        <v>8911600</v>
+        <v>9183600</v>
       </c>
       <c r="J8" s="3">
-        <v>8454000</v>
+        <v>8712100</v>
       </c>
       <c r="K8" s="3">
         <v>8118500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10335000</v>
+        <v>10650500</v>
       </c>
       <c r="E9" s="3">
-        <v>9657900</v>
+        <v>9952800</v>
       </c>
       <c r="F9" s="3">
-        <v>9408800</v>
+        <v>9696100</v>
       </c>
       <c r="G9" s="3">
-        <v>8912800</v>
+        <v>9184900</v>
       </c>
       <c r="H9" s="3">
-        <v>7717500</v>
+        <v>7953100</v>
       </c>
       <c r="I9" s="3">
-        <v>6766000</v>
+        <v>6972500</v>
       </c>
       <c r="J9" s="3">
-        <v>6398000</v>
+        <v>6593300</v>
       </c>
       <c r="K9" s="3">
         <v>6175400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3549400</v>
+        <v>3657800</v>
       </c>
       <c r="E10" s="3">
-        <v>3149400</v>
+        <v>3245600</v>
       </c>
       <c r="F10" s="3">
-        <v>3058900</v>
+        <v>3152300</v>
       </c>
       <c r="G10" s="3">
-        <v>2870400</v>
+        <v>2958000</v>
       </c>
       <c r="H10" s="3">
-        <v>2484100</v>
+        <v>2559900</v>
       </c>
       <c r="I10" s="3">
-        <v>2145600</v>
+        <v>2211100</v>
       </c>
       <c r="J10" s="3">
-        <v>2056100</v>
+        <v>2118800</v>
       </c>
       <c r="K10" s="3">
         <v>1943000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>81700</v>
+        <v>84200</v>
       </c>
       <c r="E14" s="3">
-        <v>24200</v>
+        <v>24900</v>
       </c>
       <c r="F14" s="3">
-        <v>31700</v>
+        <v>32700</v>
       </c>
       <c r="G14" s="3">
-        <v>50400</v>
+        <v>51900</v>
       </c>
       <c r="H14" s="3">
-        <v>46700</v>
+        <v>48100</v>
       </c>
       <c r="I14" s="3">
-        <v>29800</v>
+        <v>30700</v>
       </c>
       <c r="J14" s="3">
-        <v>35800</v>
+        <v>36900</v>
       </c>
       <c r="K14" s="3">
         <v>32000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>373600</v>
+        <v>385100</v>
       </c>
       <c r="E15" s="3">
-        <v>367100</v>
+        <v>378300</v>
       </c>
       <c r="F15" s="3">
-        <v>197300</v>
+        <v>203400</v>
       </c>
       <c r="G15" s="3">
-        <v>175600</v>
+        <v>181000</v>
       </c>
       <c r="H15" s="3">
-        <v>149300</v>
+        <v>153800</v>
       </c>
       <c r="I15" s="3">
-        <v>124800</v>
+        <v>128600</v>
       </c>
       <c r="J15" s="3">
-        <v>118500</v>
+        <v>122100</v>
       </c>
       <c r="K15" s="3">
         <v>112100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13035100</v>
+        <v>13433100</v>
       </c>
       <c r="E17" s="3">
-        <v>12081700</v>
+        <v>12450600</v>
       </c>
       <c r="F17" s="3">
-        <v>11808900</v>
+        <v>12169400</v>
       </c>
       <c r="G17" s="3">
-        <v>11157000</v>
+        <v>11497600</v>
       </c>
       <c r="H17" s="3">
-        <v>9639000</v>
+        <v>9933200</v>
       </c>
       <c r="I17" s="3">
-        <v>8408300</v>
+        <v>8665000</v>
       </c>
       <c r="J17" s="3">
-        <v>7984700</v>
+        <v>8228400</v>
       </c>
       <c r="K17" s="3">
         <v>7691000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>849300</v>
+        <v>875200</v>
       </c>
       <c r="E18" s="3">
-        <v>725600</v>
+        <v>747700</v>
       </c>
       <c r="F18" s="3">
-        <v>658900</v>
+        <v>679000</v>
       </c>
       <c r="G18" s="3">
-        <v>626200</v>
+        <v>645300</v>
       </c>
       <c r="H18" s="3">
-        <v>562600</v>
+        <v>579800</v>
       </c>
       <c r="I18" s="3">
-        <v>503300</v>
+        <v>518600</v>
       </c>
       <c r="J18" s="3">
-        <v>469400</v>
+        <v>483700</v>
       </c>
       <c r="K18" s="3">
         <v>427500</v>
@@ -1089,19 +1089,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E20" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="F20" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="G20" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H20" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I20" s="3">
         <v>-700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1227000</v>
+        <v>1265900</v>
       </c>
       <c r="E21" s="3">
-        <v>1097900</v>
+        <v>1132900</v>
       </c>
       <c r="F21" s="3">
-        <v>862100</v>
+        <v>889200</v>
       </c>
       <c r="G21" s="3">
-        <v>806900</v>
+        <v>832300</v>
       </c>
       <c r="H21" s="3">
-        <v>715300</v>
+        <v>737700</v>
       </c>
       <c r="I21" s="3">
-        <v>627000</v>
+        <v>646600</v>
       </c>
       <c r="J21" s="3">
-        <v>586600</v>
+        <v>605000</v>
       </c>
       <c r="K21" s="3">
         <v>551500</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>91600</v>
+        <v>94400</v>
       </c>
       <c r="E22" s="3">
-        <v>109700</v>
+        <v>113100</v>
       </c>
       <c r="F22" s="3">
-        <v>82100</v>
+        <v>84600</v>
       </c>
       <c r="G22" s="3">
-        <v>69900</v>
+        <v>72000</v>
       </c>
       <c r="H22" s="3">
-        <v>68200</v>
+        <v>70300</v>
       </c>
       <c r="I22" s="3">
-        <v>59500</v>
+        <v>61300</v>
       </c>
       <c r="J22" s="3">
-        <v>56900</v>
+        <v>58600</v>
       </c>
       <c r="K22" s="3">
         <v>53100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>763100</v>
+        <v>786400</v>
       </c>
       <c r="E23" s="3">
-        <v>622500</v>
+        <v>641500</v>
       </c>
       <c r="F23" s="3">
-        <v>583300</v>
+        <v>601100</v>
       </c>
       <c r="G23" s="3">
-        <v>562000</v>
+        <v>579200</v>
       </c>
       <c r="H23" s="3">
-        <v>498300</v>
+        <v>513500</v>
       </c>
       <c r="I23" s="3">
-        <v>443100</v>
+        <v>456700</v>
       </c>
       <c r="J23" s="3">
-        <v>411700</v>
+        <v>424200</v>
       </c>
       <c r="K23" s="3">
         <v>386000</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>172600</v>
+        <v>177900</v>
       </c>
       <c r="E24" s="3">
-        <v>142900</v>
+        <v>147300</v>
       </c>
       <c r="F24" s="3">
-        <v>135000</v>
+        <v>139100</v>
       </c>
       <c r="G24" s="3">
-        <v>135700</v>
+        <v>139800</v>
       </c>
       <c r="H24" s="3">
-        <v>133200</v>
+        <v>137300</v>
       </c>
       <c r="I24" s="3">
-        <v>123600</v>
+        <v>127400</v>
       </c>
       <c r="J24" s="3">
-        <v>122400</v>
+        <v>126100</v>
       </c>
       <c r="K24" s="3">
         <v>110600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>590500</v>
+        <v>608500</v>
       </c>
       <c r="E26" s="3">
-        <v>479500</v>
+        <v>494200</v>
       </c>
       <c r="F26" s="3">
-        <v>448300</v>
+        <v>462000</v>
       </c>
       <c r="G26" s="3">
-        <v>426400</v>
+        <v>439400</v>
       </c>
       <c r="H26" s="3">
-        <v>365100</v>
+        <v>376300</v>
       </c>
       <c r="I26" s="3">
-        <v>319500</v>
+        <v>329300</v>
       </c>
       <c r="J26" s="3">
-        <v>289300</v>
+        <v>298200</v>
       </c>
       <c r="K26" s="3">
         <v>275300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>590500</v>
+        <v>608500</v>
       </c>
       <c r="E27" s="3">
-        <v>479500</v>
+        <v>494200</v>
       </c>
       <c r="F27" s="3">
-        <v>448300</v>
+        <v>462000</v>
       </c>
       <c r="G27" s="3">
-        <v>426400</v>
+        <v>439400</v>
       </c>
       <c r="H27" s="3">
-        <v>365100</v>
+        <v>376300</v>
       </c>
       <c r="I27" s="3">
-        <v>319500</v>
+        <v>329300</v>
       </c>
       <c r="J27" s="3">
-        <v>289300</v>
+        <v>298200</v>
       </c>
       <c r="K27" s="3">
         <v>275300</v>
@@ -1521,19 +1521,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="E32" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="F32" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="G32" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="H32" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="I32" s="3">
         <v>700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>590500</v>
+        <v>608500</v>
       </c>
       <c r="E33" s="3">
-        <v>479500</v>
+        <v>494200</v>
       </c>
       <c r="F33" s="3">
-        <v>448300</v>
+        <v>462000</v>
       </c>
       <c r="G33" s="3">
-        <v>426400</v>
+        <v>439400</v>
       </c>
       <c r="H33" s="3">
-        <v>365100</v>
+        <v>376300</v>
       </c>
       <c r="I33" s="3">
-        <v>319500</v>
+        <v>329300</v>
       </c>
       <c r="J33" s="3">
-        <v>289300</v>
+        <v>298200</v>
       </c>
       <c r="K33" s="3">
         <v>275300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>590500</v>
+        <v>608500</v>
       </c>
       <c r="E35" s="3">
-        <v>479500</v>
+        <v>494200</v>
       </c>
       <c r="F35" s="3">
-        <v>448300</v>
+        <v>462000</v>
       </c>
       <c r="G35" s="3">
-        <v>426400</v>
+        <v>439400</v>
       </c>
       <c r="H35" s="3">
-        <v>365100</v>
+        <v>376300</v>
       </c>
       <c r="I35" s="3">
-        <v>319500</v>
+        <v>329300</v>
       </c>
       <c r="J35" s="3">
-        <v>289300</v>
+        <v>298200</v>
       </c>
       <c r="K35" s="3">
         <v>275300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1296700</v>
+        <v>1336300</v>
       </c>
       <c r="E41" s="3">
-        <v>838300</v>
+        <v>863900</v>
       </c>
       <c r="F41" s="3">
-        <v>656000</v>
+        <v>676000</v>
       </c>
       <c r="G41" s="3">
-        <v>458100</v>
+        <v>472100</v>
       </c>
       <c r="H41" s="3">
-        <v>387800</v>
+        <v>399600</v>
       </c>
       <c r="I41" s="3">
-        <v>387000</v>
+        <v>398800</v>
       </c>
       <c r="J41" s="3">
-        <v>410000</v>
+        <v>422600</v>
       </c>
       <c r="K41" s="3">
         <v>97300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1925800</v>
+        <v>1848600</v>
       </c>
       <c r="E43" s="3">
-        <v>1634800</v>
+        <v>1684700</v>
       </c>
       <c r="F43" s="3">
-        <v>1729900</v>
+        <v>1782800</v>
       </c>
       <c r="G43" s="3">
-        <v>1632600</v>
+        <v>1682400</v>
       </c>
       <c r="H43" s="3">
-        <v>1509300</v>
+        <v>1555300</v>
       </c>
       <c r="I43" s="3">
-        <v>1217300</v>
+        <v>1254500</v>
       </c>
       <c r="J43" s="3">
-        <v>2157800</v>
+        <v>2223700</v>
       </c>
       <c r="K43" s="3">
         <v>1852100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1966700</v>
+        <v>2026700</v>
       </c>
       <c r="E44" s="3">
-        <v>1616500</v>
+        <v>1665900</v>
       </c>
       <c r="F44" s="3">
-        <v>1666500</v>
+        <v>1717400</v>
       </c>
       <c r="G44" s="3">
-        <v>1462300</v>
+        <v>1507000</v>
       </c>
       <c r="H44" s="3">
-        <v>1319500</v>
+        <v>1359800</v>
       </c>
       <c r="I44" s="3">
-        <v>2181200</v>
+        <v>2247800</v>
       </c>
       <c r="J44" s="3">
-        <v>968500</v>
+        <v>998100</v>
       </c>
       <c r="K44" s="3">
         <v>858900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17300</v>
+        <v>153800</v>
       </c>
       <c r="E45" s="3">
-        <v>101200</v>
+        <v>104300</v>
       </c>
       <c r="F45" s="3">
-        <v>119200</v>
+        <v>122800</v>
       </c>
       <c r="G45" s="3">
-        <v>153700</v>
+        <v>158400</v>
       </c>
       <c r="H45" s="3">
-        <v>105200</v>
+        <v>108400</v>
       </c>
       <c r="I45" s="3">
-        <v>376700</v>
+        <v>388200</v>
       </c>
       <c r="J45" s="3">
-        <v>249200</v>
+        <v>256800</v>
       </c>
       <c r="K45" s="3">
         <v>229300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5206400</v>
+        <v>5365400</v>
       </c>
       <c r="E46" s="3">
-        <v>4190800</v>
+        <v>4318800</v>
       </c>
       <c r="F46" s="3">
-        <v>4171600</v>
+        <v>4299000</v>
       </c>
       <c r="G46" s="3">
-        <v>3706700</v>
+        <v>3819800</v>
       </c>
       <c r="H46" s="3">
-        <v>3321700</v>
+        <v>3423200</v>
       </c>
       <c r="I46" s="3">
-        <v>2803200</v>
+        <v>2888800</v>
       </c>
       <c r="J46" s="3">
-        <v>2591200</v>
+        <v>2670300</v>
       </c>
       <c r="K46" s="3">
         <v>2112000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>791100</v>
+        <v>815200</v>
       </c>
       <c r="E48" s="3">
-        <v>756900</v>
+        <v>780000</v>
       </c>
       <c r="F48" s="3">
-        <v>168100</v>
+        <v>173200</v>
       </c>
       <c r="G48" s="3">
-        <v>171900</v>
+        <v>177200</v>
       </c>
       <c r="H48" s="3">
-        <v>169300</v>
+        <v>174500</v>
       </c>
       <c r="I48" s="3">
-        <v>154600</v>
+        <v>159300</v>
       </c>
       <c r="J48" s="3">
-        <v>311600</v>
+        <v>321100</v>
       </c>
       <c r="K48" s="3">
         <v>158200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3353200</v>
+        <v>3455600</v>
       </c>
       <c r="E49" s="3">
-        <v>3145800</v>
+        <v>3241900</v>
       </c>
       <c r="F49" s="3">
-        <v>3271600</v>
+        <v>3371500</v>
       </c>
       <c r="G49" s="3">
-        <v>3229300</v>
+        <v>3327900</v>
       </c>
       <c r="H49" s="3">
-        <v>2674400</v>
+        <v>2756100</v>
       </c>
       <c r="I49" s="3">
-        <v>2260400</v>
+        <v>2329400</v>
       </c>
       <c r="J49" s="3">
-        <v>4077100</v>
+        <v>4201600</v>
       </c>
       <c r="K49" s="3">
         <v>1939700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27300</v>
+        <v>28200</v>
       </c>
       <c r="E52" s="3">
-        <v>35700</v>
+        <v>36800</v>
       </c>
       <c r="F52" s="3">
-        <v>18300</v>
+        <v>18800</v>
       </c>
       <c r="G52" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="H52" s="3">
-        <v>23600</v>
+        <v>24300</v>
       </c>
       <c r="I52" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="J52" s="3">
-        <v>27700</v>
+        <v>28600</v>
       </c>
       <c r="K52" s="3">
         <v>18200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9378100</v>
+        <v>9664400</v>
       </c>
       <c r="E54" s="3">
-        <v>8129300</v>
+        <v>8377500</v>
       </c>
       <c r="F54" s="3">
-        <v>7629600</v>
+        <v>7862500</v>
       </c>
       <c r="G54" s="3">
-        <v>7126300</v>
+        <v>7343900</v>
       </c>
       <c r="H54" s="3">
-        <v>6189100</v>
+        <v>6378000</v>
       </c>
       <c r="I54" s="3">
-        <v>5248300</v>
+        <v>5408600</v>
       </c>
       <c r="J54" s="3">
-        <v>4813300</v>
+        <v>4960200</v>
       </c>
       <c r="K54" s="3">
         <v>4228100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2521600</v>
+        <v>1528900</v>
       </c>
       <c r="E57" s="3">
-        <v>1466400</v>
+        <v>1511200</v>
       </c>
       <c r="F57" s="3">
-        <v>1570800</v>
+        <v>1618700</v>
       </c>
       <c r="G57" s="3">
-        <v>1417300</v>
+        <v>1460500</v>
       </c>
       <c r="H57" s="3">
-        <v>1252100</v>
+        <v>1290300</v>
       </c>
       <c r="I57" s="3">
-        <v>1009800</v>
+        <v>1040700</v>
       </c>
       <c r="J57" s="3">
-        <v>2355800</v>
+        <v>2427800</v>
       </c>
       <c r="K57" s="3">
         <v>909200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>993600</v>
+        <v>1024000</v>
       </c>
       <c r="E58" s="3">
-        <v>927200</v>
+        <v>955500</v>
       </c>
       <c r="F58" s="3">
-        <v>560800</v>
+        <v>577900</v>
       </c>
       <c r="G58" s="3">
-        <v>503100</v>
+        <v>518500</v>
       </c>
       <c r="H58" s="3">
-        <v>331900</v>
+        <v>342000</v>
       </c>
       <c r="I58" s="3">
-        <v>483200</v>
+        <v>498000</v>
       </c>
       <c r="J58" s="3">
-        <v>384600</v>
+        <v>396400</v>
       </c>
       <c r="K58" s="3">
         <v>90900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>148000</v>
+        <v>1222200</v>
       </c>
       <c r="E59" s="3">
-        <v>727900</v>
+        <v>750100</v>
       </c>
       <c r="F59" s="3">
-        <v>794700</v>
+        <v>818900</v>
       </c>
       <c r="G59" s="3">
-        <v>769900</v>
+        <v>793500</v>
       </c>
       <c r="H59" s="3">
-        <v>666400</v>
+        <v>686800</v>
       </c>
       <c r="I59" s="3">
-        <v>625200</v>
+        <v>644300</v>
       </c>
       <c r="J59" s="3">
-        <v>556100</v>
+        <v>573100</v>
       </c>
       <c r="K59" s="3">
         <v>539500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3663300</v>
+        <v>3775100</v>
       </c>
       <c r="E60" s="3">
-        <v>3121500</v>
+        <v>3216800</v>
       </c>
       <c r="F60" s="3">
-        <v>2926300</v>
+        <v>3015600</v>
       </c>
       <c r="G60" s="3">
-        <v>2690400</v>
+        <v>2772500</v>
       </c>
       <c r="H60" s="3">
-        <v>2250400</v>
+        <v>2319100</v>
       </c>
       <c r="I60" s="3">
-        <v>2118300</v>
+        <v>2182900</v>
       </c>
       <c r="J60" s="3">
-        <v>1898200</v>
+        <v>1956100</v>
       </c>
       <c r="K60" s="3">
         <v>1539600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2723900</v>
+        <v>2807000</v>
       </c>
       <c r="E61" s="3">
-        <v>2296500</v>
+        <v>2366600</v>
       </c>
       <c r="F61" s="3">
-        <v>1999800</v>
+        <v>2060800</v>
       </c>
       <c r="G61" s="3">
-        <v>2058700</v>
+        <v>2121500</v>
       </c>
       <c r="H61" s="3">
-        <v>1762600</v>
+        <v>1816400</v>
       </c>
       <c r="I61" s="3">
-        <v>1453900</v>
+        <v>1498300</v>
       </c>
       <c r="J61" s="3">
-        <v>1254100</v>
+        <v>1292400</v>
       </c>
       <c r="K61" s="3">
         <v>1134100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>355700</v>
+        <v>366500</v>
       </c>
       <c r="E62" s="3">
-        <v>316000</v>
+        <v>325600</v>
       </c>
       <c r="F62" s="3">
-        <v>376700</v>
+        <v>388200</v>
       </c>
       <c r="G62" s="3">
-        <v>388100</v>
+        <v>399900</v>
       </c>
       <c r="H62" s="3">
-        <v>373800</v>
+        <v>385200</v>
       </c>
       <c r="I62" s="3">
-        <v>280500</v>
+        <v>289100</v>
       </c>
       <c r="J62" s="3">
-        <v>309900</v>
+        <v>319400</v>
       </c>
       <c r="K62" s="3">
         <v>303000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6742800</v>
+        <v>6948600</v>
       </c>
       <c r="E66" s="3">
-        <v>5734000</v>
+        <v>5909100</v>
       </c>
       <c r="F66" s="3">
-        <v>5302700</v>
+        <v>5464600</v>
       </c>
       <c r="G66" s="3">
-        <v>5137100</v>
+        <v>5293900</v>
       </c>
       <c r="H66" s="3">
-        <v>4386800</v>
+        <v>4520700</v>
       </c>
       <c r="I66" s="3">
-        <v>3852800</v>
+        <v>3970400</v>
       </c>
       <c r="J66" s="3">
-        <v>3462200</v>
+        <v>3567900</v>
       </c>
       <c r="K66" s="3">
         <v>2976700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2491000</v>
+        <v>2573100</v>
       </c>
       <c r="E72" s="3">
-        <v>2150700</v>
+        <v>2216300</v>
       </c>
       <c r="F72" s="3">
-        <v>1964900</v>
+        <v>2024900</v>
       </c>
       <c r="G72" s="3">
-        <v>1631900</v>
+        <v>1681700</v>
       </c>
       <c r="H72" s="3">
-        <v>1382700</v>
+        <v>1424900</v>
       </c>
       <c r="I72" s="3">
-        <v>1266400</v>
+        <v>1305000</v>
       </c>
       <c r="J72" s="3">
-        <v>1128500</v>
+        <v>1162900</v>
       </c>
       <c r="K72" s="3">
         <v>1099600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2635300</v>
+        <v>2715700</v>
       </c>
       <c r="E76" s="3">
-        <v>2395300</v>
+        <v>2468400</v>
       </c>
       <c r="F76" s="3">
-        <v>2326900</v>
+        <v>2397900</v>
       </c>
       <c r="G76" s="3">
-        <v>1989200</v>
+        <v>2049900</v>
       </c>
       <c r="H76" s="3">
-        <v>1802300</v>
+        <v>1857300</v>
       </c>
       <c r="I76" s="3">
-        <v>1395600</v>
+        <v>1438200</v>
       </c>
       <c r="J76" s="3">
-        <v>1351100</v>
+        <v>1392300</v>
       </c>
       <c r="K76" s="3">
         <v>1251400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>590500</v>
+        <v>608500</v>
       </c>
       <c r="E81" s="3">
-        <v>479500</v>
+        <v>494200</v>
       </c>
       <c r="F81" s="3">
-        <v>448300</v>
+        <v>462000</v>
       </c>
       <c r="G81" s="3">
-        <v>426400</v>
+        <v>439400</v>
       </c>
       <c r="H81" s="3">
-        <v>365100</v>
+        <v>376300</v>
       </c>
       <c r="I81" s="3">
-        <v>319500</v>
+        <v>329300</v>
       </c>
       <c r="J81" s="3">
-        <v>289300</v>
+        <v>298200</v>
       </c>
       <c r="K81" s="3">
         <v>275300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>373600</v>
+        <v>385100</v>
       </c>
       <c r="E83" s="3">
-        <v>367100</v>
+        <v>378300</v>
       </c>
       <c r="F83" s="3">
-        <v>197300</v>
+        <v>203400</v>
       </c>
       <c r="G83" s="3">
-        <v>175600</v>
+        <v>181000</v>
       </c>
       <c r="H83" s="3">
-        <v>149300</v>
+        <v>153800</v>
       </c>
       <c r="I83" s="3">
-        <v>124800</v>
+        <v>128600</v>
       </c>
       <c r="J83" s="3">
-        <v>118500</v>
+        <v>122100</v>
       </c>
       <c r="K83" s="3">
         <v>112100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1085100</v>
+        <v>1118200</v>
       </c>
       <c r="E89" s="3">
-        <v>919100</v>
+        <v>947100</v>
       </c>
       <c r="F89" s="3">
-        <v>659100</v>
+        <v>679300</v>
       </c>
       <c r="G89" s="3">
-        <v>653100</v>
+        <v>673000</v>
       </c>
       <c r="H89" s="3">
-        <v>558200</v>
+        <v>575200</v>
       </c>
       <c r="I89" s="3">
-        <v>452900</v>
+        <v>466700</v>
       </c>
       <c r="J89" s="3">
-        <v>450100</v>
+        <v>463900</v>
       </c>
       <c r="K89" s="3">
         <v>452700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-45500</v>
+        <v>-46800</v>
       </c>
       <c r="E91" s="3">
-        <v>-50700</v>
+        <v>-52200</v>
       </c>
       <c r="F91" s="3">
-        <v>-42700</v>
+        <v>-44000</v>
       </c>
       <c r="G91" s="3">
-        <v>-46400</v>
+        <v>-47800</v>
       </c>
       <c r="H91" s="3">
-        <v>-34900</v>
+        <v>-35900</v>
       </c>
       <c r="I91" s="3">
-        <v>-34100</v>
+        <v>-35100</v>
       </c>
       <c r="J91" s="3">
-        <v>-34500</v>
+        <v>-35500</v>
       </c>
       <c r="K91" s="3">
         <v>-35300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-521800</v>
+        <v>-537700</v>
       </c>
       <c r="E94" s="3">
-        <v>-223300</v>
+        <v>-230100</v>
       </c>
       <c r="F94" s="3">
-        <v>-194700</v>
+        <v>-200700</v>
       </c>
       <c r="G94" s="3">
-        <v>-831100</v>
+        <v>-856400</v>
       </c>
       <c r="H94" s="3">
-        <v>-245100</v>
+        <v>-252600</v>
       </c>
       <c r="I94" s="3">
-        <v>-478000</v>
+        <v>-492600</v>
       </c>
       <c r="J94" s="3">
-        <v>-241300</v>
+        <v>-248600</v>
       </c>
       <c r="K94" s="3">
         <v>-369600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-235500</v>
+        <v>-242700</v>
       </c>
       <c r="E96" s="3">
-        <v>-229700</v>
+        <v>-236700</v>
       </c>
       <c r="F96" s="3">
-        <v>-209000</v>
+        <v>-215400</v>
       </c>
       <c r="G96" s="3">
-        <v>-189800</v>
+        <v>-195600</v>
       </c>
       <c r="H96" s="3">
-        <v>-172200</v>
+        <v>-177500</v>
       </c>
       <c r="I96" s="3">
-        <v>-159400</v>
+        <v>-164300</v>
       </c>
       <c r="J96" s="3">
-        <v>-145000</v>
+        <v>-149400</v>
       </c>
       <c r="K96" s="3">
         <v>-122200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-167800</v>
+        <v>-172900</v>
       </c>
       <c r="E100" s="3">
-        <v>-675900</v>
+        <v>-696500</v>
       </c>
       <c r="F100" s="3">
-        <v>-421400</v>
+        <v>-434300</v>
       </c>
       <c r="G100" s="3">
-        <v>160400</v>
+        <v>165300</v>
       </c>
       <c r="H100" s="3">
-        <v>-265700</v>
+        <v>-273800</v>
       </c>
       <c r="I100" s="3">
-        <v>29900</v>
+        <v>30800</v>
       </c>
       <c r="J100" s="3">
-        <v>-196400</v>
+        <v>-202400</v>
       </c>
       <c r="K100" s="3">
         <v>-91900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E101" s="3">
-        <v>-24600</v>
+        <v>-25300</v>
       </c>
       <c r="F101" s="3">
         <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H101" s="3">
-        <v>57000</v>
+        <v>58700</v>
       </c>
       <c r="I101" s="3">
-        <v>-9700</v>
+        <v>-10000</v>
       </c>
       <c r="J101" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K101" s="3">
         <v>-3200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>396700</v>
+        <v>408800</v>
       </c>
       <c r="E102" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="F102" s="3">
-        <v>43800</v>
+        <v>45100</v>
       </c>
       <c r="G102" s="3">
-        <v>-19800</v>
+        <v>-20400</v>
       </c>
       <c r="H102" s="3">
-        <v>104400</v>
+        <v>107500</v>
       </c>
       <c r="I102" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="J102" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="K102" s="3">
         <v>-12000</v>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14308300</v>
+        <v>13789400</v>
       </c>
       <c r="E8" s="3">
-        <v>13198300</v>
+        <v>12719700</v>
       </c>
       <c r="F8" s="3">
-        <v>12848300</v>
+        <v>12382400</v>
       </c>
       <c r="G8" s="3">
-        <v>12142900</v>
+        <v>11702500</v>
       </c>
       <c r="H8" s="3">
-        <v>10513000</v>
+        <v>10131700</v>
       </c>
       <c r="I8" s="3">
-        <v>9183600</v>
+        <v>8850600</v>
       </c>
       <c r="J8" s="3">
-        <v>8712100</v>
+        <v>8396200</v>
       </c>
       <c r="K8" s="3">
         <v>8118500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10650500</v>
+        <v>10264300</v>
       </c>
       <c r="E9" s="3">
-        <v>9952800</v>
+        <v>9591800</v>
       </c>
       <c r="F9" s="3">
-        <v>9696100</v>
+        <v>9344400</v>
       </c>
       <c r="G9" s="3">
-        <v>9184900</v>
+        <v>8851800</v>
       </c>
       <c r="H9" s="3">
-        <v>7953100</v>
+        <v>7664600</v>
       </c>
       <c r="I9" s="3">
-        <v>6972500</v>
+        <v>6719700</v>
       </c>
       <c r="J9" s="3">
-        <v>6593300</v>
+        <v>6354200</v>
       </c>
       <c r="K9" s="3">
         <v>6175400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3657800</v>
+        <v>3525100</v>
       </c>
       <c r="E10" s="3">
-        <v>3245600</v>
+        <v>3127900</v>
       </c>
       <c r="F10" s="3">
-        <v>3152300</v>
+        <v>3038000</v>
       </c>
       <c r="G10" s="3">
-        <v>2958000</v>
+        <v>2850700</v>
       </c>
       <c r="H10" s="3">
-        <v>2559900</v>
+        <v>2467100</v>
       </c>
       <c r="I10" s="3">
-        <v>2211100</v>
+        <v>2130900</v>
       </c>
       <c r="J10" s="3">
-        <v>2118800</v>
+        <v>2042000</v>
       </c>
       <c r="K10" s="3">
         <v>1943000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>84200</v>
+        <v>81100</v>
       </c>
       <c r="E14" s="3">
-        <v>24900</v>
+        <v>24000</v>
       </c>
       <c r="F14" s="3">
-        <v>32700</v>
+        <v>31500</v>
       </c>
       <c r="G14" s="3">
-        <v>51900</v>
+        <v>50100</v>
       </c>
       <c r="H14" s="3">
-        <v>48100</v>
+        <v>46400</v>
       </c>
       <c r="I14" s="3">
-        <v>30700</v>
+        <v>29600</v>
       </c>
       <c r="J14" s="3">
-        <v>36900</v>
+        <v>35600</v>
       </c>
       <c r="K14" s="3">
         <v>32000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>385100</v>
+        <v>371100</v>
       </c>
       <c r="E15" s="3">
-        <v>378300</v>
+        <v>364500</v>
       </c>
       <c r="F15" s="3">
-        <v>203400</v>
+        <v>196000</v>
       </c>
       <c r="G15" s="3">
-        <v>181000</v>
+        <v>174400</v>
       </c>
       <c r="H15" s="3">
-        <v>153800</v>
+        <v>148200</v>
       </c>
       <c r="I15" s="3">
-        <v>128600</v>
+        <v>124000</v>
       </c>
       <c r="J15" s="3">
-        <v>122100</v>
+        <v>117700</v>
       </c>
       <c r="K15" s="3">
         <v>112100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13433100</v>
+        <v>12945900</v>
       </c>
       <c r="E17" s="3">
-        <v>12450600</v>
+        <v>11999000</v>
       </c>
       <c r="F17" s="3">
-        <v>12169400</v>
+        <v>11728000</v>
       </c>
       <c r="G17" s="3">
-        <v>11497600</v>
+        <v>11080700</v>
       </c>
       <c r="H17" s="3">
-        <v>9933200</v>
+        <v>9573000</v>
       </c>
       <c r="I17" s="3">
-        <v>8665000</v>
+        <v>8350800</v>
       </c>
       <c r="J17" s="3">
-        <v>8228400</v>
+        <v>7930000</v>
       </c>
       <c r="K17" s="3">
         <v>7691000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>875200</v>
+        <v>843500</v>
       </c>
       <c r="E18" s="3">
-        <v>747700</v>
+        <v>720600</v>
       </c>
       <c r="F18" s="3">
-        <v>679000</v>
+        <v>654300</v>
       </c>
       <c r="G18" s="3">
-        <v>645300</v>
+        <v>621900</v>
       </c>
       <c r="H18" s="3">
-        <v>579800</v>
+        <v>558700</v>
       </c>
       <c r="I18" s="3">
-        <v>518600</v>
+        <v>499800</v>
       </c>
       <c r="J18" s="3">
-        <v>483700</v>
+        <v>466100</v>
       </c>
       <c r="K18" s="3">
         <v>427500</v>
@@ -1089,19 +1089,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="F20" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="G20" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="H20" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I20" s="3">
         <v>-700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1265900</v>
+        <v>1223100</v>
       </c>
       <c r="E21" s="3">
-        <v>1132900</v>
+        <v>1094800</v>
       </c>
       <c r="F21" s="3">
-        <v>889200</v>
+        <v>858600</v>
       </c>
       <c r="G21" s="3">
-        <v>832300</v>
+        <v>803500</v>
       </c>
       <c r="H21" s="3">
-        <v>737700</v>
+        <v>712200</v>
       </c>
       <c r="I21" s="3">
-        <v>646600</v>
+        <v>624200</v>
       </c>
       <c r="J21" s="3">
-        <v>605000</v>
+        <v>584000</v>
       </c>
       <c r="K21" s="3">
         <v>551500</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>94400</v>
+        <v>91000</v>
       </c>
       <c r="E22" s="3">
-        <v>113100</v>
+        <v>109000</v>
       </c>
       <c r="F22" s="3">
-        <v>84600</v>
+        <v>81600</v>
       </c>
       <c r="G22" s="3">
-        <v>72000</v>
+        <v>69400</v>
       </c>
       <c r="H22" s="3">
-        <v>70300</v>
+        <v>67800</v>
       </c>
       <c r="I22" s="3">
-        <v>61300</v>
+        <v>59100</v>
       </c>
       <c r="J22" s="3">
-        <v>58600</v>
+        <v>56500</v>
       </c>
       <c r="K22" s="3">
         <v>53100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>786400</v>
+        <v>757900</v>
       </c>
       <c r="E23" s="3">
-        <v>641500</v>
+        <v>618200</v>
       </c>
       <c r="F23" s="3">
-        <v>601100</v>
+        <v>579300</v>
       </c>
       <c r="G23" s="3">
-        <v>579200</v>
+        <v>558200</v>
       </c>
       <c r="H23" s="3">
-        <v>513500</v>
+        <v>494900</v>
       </c>
       <c r="I23" s="3">
-        <v>456700</v>
+        <v>440100</v>
       </c>
       <c r="J23" s="3">
-        <v>424200</v>
+        <v>408900</v>
       </c>
       <c r="K23" s="3">
         <v>386000</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>177900</v>
+        <v>171400</v>
       </c>
       <c r="E24" s="3">
-        <v>147300</v>
+        <v>142000</v>
       </c>
       <c r="F24" s="3">
-        <v>139100</v>
+        <v>134100</v>
       </c>
       <c r="G24" s="3">
-        <v>139800</v>
+        <v>134700</v>
       </c>
       <c r="H24" s="3">
-        <v>137300</v>
+        <v>132300</v>
       </c>
       <c r="I24" s="3">
-        <v>127400</v>
+        <v>122700</v>
       </c>
       <c r="J24" s="3">
-        <v>126100</v>
+        <v>121500</v>
       </c>
       <c r="K24" s="3">
         <v>110600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>608500</v>
+        <v>586400</v>
       </c>
       <c r="E26" s="3">
-        <v>494200</v>
+        <v>476200</v>
       </c>
       <c r="F26" s="3">
-        <v>462000</v>
+        <v>445300</v>
       </c>
       <c r="G26" s="3">
-        <v>439400</v>
+        <v>423500</v>
       </c>
       <c r="H26" s="3">
-        <v>376300</v>
+        <v>362600</v>
       </c>
       <c r="I26" s="3">
-        <v>329300</v>
+        <v>317400</v>
       </c>
       <c r="J26" s="3">
-        <v>298200</v>
+        <v>287400</v>
       </c>
       <c r="K26" s="3">
         <v>275300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>608500</v>
+        <v>586400</v>
       </c>
       <c r="E27" s="3">
-        <v>494200</v>
+        <v>476200</v>
       </c>
       <c r="F27" s="3">
-        <v>462000</v>
+        <v>445300</v>
       </c>
       <c r="G27" s="3">
-        <v>439400</v>
+        <v>423500</v>
       </c>
       <c r="H27" s="3">
-        <v>376300</v>
+        <v>362600</v>
       </c>
       <c r="I27" s="3">
-        <v>329300</v>
+        <v>317400</v>
       </c>
       <c r="J27" s="3">
-        <v>298200</v>
+        <v>287400</v>
       </c>
       <c r="K27" s="3">
         <v>275300</v>
@@ -1521,19 +1521,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="F32" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="G32" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="H32" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="I32" s="3">
         <v>700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>608500</v>
+        <v>586400</v>
       </c>
       <c r="E33" s="3">
-        <v>494200</v>
+        <v>476200</v>
       </c>
       <c r="F33" s="3">
-        <v>462000</v>
+        <v>445300</v>
       </c>
       <c r="G33" s="3">
-        <v>439400</v>
+        <v>423500</v>
       </c>
       <c r="H33" s="3">
-        <v>376300</v>
+        <v>362600</v>
       </c>
       <c r="I33" s="3">
-        <v>329300</v>
+        <v>317400</v>
       </c>
       <c r="J33" s="3">
-        <v>298200</v>
+        <v>287400</v>
       </c>
       <c r="K33" s="3">
         <v>275300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>608500</v>
+        <v>586400</v>
       </c>
       <c r="E35" s="3">
-        <v>494200</v>
+        <v>476200</v>
       </c>
       <c r="F35" s="3">
-        <v>462000</v>
+        <v>445300</v>
       </c>
       <c r="G35" s="3">
-        <v>439400</v>
+        <v>423500</v>
       </c>
       <c r="H35" s="3">
-        <v>376300</v>
+        <v>362600</v>
       </c>
       <c r="I35" s="3">
-        <v>329300</v>
+        <v>317400</v>
       </c>
       <c r="J35" s="3">
-        <v>298200</v>
+        <v>287400</v>
       </c>
       <c r="K35" s="3">
         <v>275300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1336300</v>
+        <v>1287800</v>
       </c>
       <c r="E41" s="3">
-        <v>863900</v>
+        <v>832600</v>
       </c>
       <c r="F41" s="3">
-        <v>676000</v>
+        <v>651500</v>
       </c>
       <c r="G41" s="3">
-        <v>472100</v>
+        <v>455000</v>
       </c>
       <c r="H41" s="3">
-        <v>399600</v>
+        <v>385100</v>
       </c>
       <c r="I41" s="3">
-        <v>398800</v>
+        <v>384300</v>
       </c>
       <c r="J41" s="3">
-        <v>422600</v>
+        <v>407200</v>
       </c>
       <c r="K41" s="3">
         <v>97300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1848600</v>
+        <v>1781500</v>
       </c>
       <c r="E43" s="3">
-        <v>1684700</v>
+        <v>1623600</v>
       </c>
       <c r="F43" s="3">
-        <v>1782800</v>
+        <v>1718100</v>
       </c>
       <c r="G43" s="3">
-        <v>1682400</v>
+        <v>1621400</v>
       </c>
       <c r="H43" s="3">
-        <v>1555300</v>
+        <v>1498900</v>
       </c>
       <c r="I43" s="3">
-        <v>1254500</v>
+        <v>1209000</v>
       </c>
       <c r="J43" s="3">
-        <v>2223700</v>
+        <v>2143100</v>
       </c>
       <c r="K43" s="3">
         <v>1852100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2026700</v>
+        <v>1953200</v>
       </c>
       <c r="E44" s="3">
-        <v>1665900</v>
+        <v>1605500</v>
       </c>
       <c r="F44" s="3">
-        <v>1717400</v>
+        <v>1655100</v>
       </c>
       <c r="G44" s="3">
-        <v>1507000</v>
+        <v>1452300</v>
       </c>
       <c r="H44" s="3">
-        <v>1359800</v>
+        <v>1310500</v>
       </c>
       <c r="I44" s="3">
-        <v>2247800</v>
+        <v>2166200</v>
       </c>
       <c r="J44" s="3">
-        <v>998100</v>
+        <v>961900</v>
       </c>
       <c r="K44" s="3">
         <v>858900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>153800</v>
+        <v>148200</v>
       </c>
       <c r="E45" s="3">
-        <v>104300</v>
+        <v>100500</v>
       </c>
       <c r="F45" s="3">
-        <v>122800</v>
+        <v>118400</v>
       </c>
       <c r="G45" s="3">
-        <v>158400</v>
+        <v>152600</v>
       </c>
       <c r="H45" s="3">
-        <v>108400</v>
+        <v>104500</v>
       </c>
       <c r="I45" s="3">
-        <v>388200</v>
+        <v>374100</v>
       </c>
       <c r="J45" s="3">
-        <v>256800</v>
+        <v>247500</v>
       </c>
       <c r="K45" s="3">
         <v>229300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5365400</v>
+        <v>5170800</v>
       </c>
       <c r="E46" s="3">
-        <v>4318800</v>
+        <v>4162200</v>
       </c>
       <c r="F46" s="3">
-        <v>4299000</v>
+        <v>4143100</v>
       </c>
       <c r="G46" s="3">
-        <v>3819800</v>
+        <v>3681300</v>
       </c>
       <c r="H46" s="3">
-        <v>3423200</v>
+        <v>3299000</v>
       </c>
       <c r="I46" s="3">
-        <v>2888800</v>
+        <v>2784000</v>
       </c>
       <c r="J46" s="3">
-        <v>2670300</v>
+        <v>2573500</v>
       </c>
       <c r="K46" s="3">
         <v>2112000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>815200</v>
+        <v>785700</v>
       </c>
       <c r="E48" s="3">
-        <v>780000</v>
+        <v>751700</v>
       </c>
       <c r="F48" s="3">
-        <v>173200</v>
+        <v>166900</v>
       </c>
       <c r="G48" s="3">
-        <v>177200</v>
+        <v>170700</v>
       </c>
       <c r="H48" s="3">
-        <v>174500</v>
+        <v>168200</v>
       </c>
       <c r="I48" s="3">
-        <v>159300</v>
+        <v>153600</v>
       </c>
       <c r="J48" s="3">
-        <v>321100</v>
+        <v>309400</v>
       </c>
       <c r="K48" s="3">
         <v>158200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3455600</v>
+        <v>3330200</v>
       </c>
       <c r="E49" s="3">
-        <v>3241900</v>
+        <v>3124300</v>
       </c>
       <c r="F49" s="3">
-        <v>3371500</v>
+        <v>3249200</v>
       </c>
       <c r="G49" s="3">
-        <v>3327900</v>
+        <v>3207200</v>
       </c>
       <c r="H49" s="3">
-        <v>2756100</v>
+        <v>2656100</v>
       </c>
       <c r="I49" s="3">
-        <v>2329400</v>
+        <v>2244900</v>
       </c>
       <c r="J49" s="3">
-        <v>4201600</v>
+        <v>4049200</v>
       </c>
       <c r="K49" s="3">
         <v>1939700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28200</v>
+        <v>27100</v>
       </c>
       <c r="E52" s="3">
-        <v>36800</v>
+        <v>35500</v>
       </c>
       <c r="F52" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="G52" s="3">
-        <v>19000</v>
+        <v>18300</v>
       </c>
       <c r="H52" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="I52" s="3">
-        <v>31000</v>
+        <v>29900</v>
       </c>
       <c r="J52" s="3">
-        <v>28600</v>
+        <v>27500</v>
       </c>
       <c r="K52" s="3">
         <v>18200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9664400</v>
+        <v>9313900</v>
       </c>
       <c r="E54" s="3">
-        <v>8377500</v>
+        <v>8073600</v>
       </c>
       <c r="F54" s="3">
-        <v>7862500</v>
+        <v>7577400</v>
       </c>
       <c r="G54" s="3">
-        <v>7343900</v>
+        <v>7077500</v>
       </c>
       <c r="H54" s="3">
-        <v>6378000</v>
+        <v>6146700</v>
       </c>
       <c r="I54" s="3">
-        <v>5408600</v>
+        <v>5212400</v>
       </c>
       <c r="J54" s="3">
-        <v>4960200</v>
+        <v>4780400</v>
       </c>
       <c r="K54" s="3">
         <v>4228100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1528900</v>
+        <v>1473400</v>
       </c>
       <c r="E57" s="3">
-        <v>1511200</v>
+        <v>1456400</v>
       </c>
       <c r="F57" s="3">
-        <v>1618700</v>
+        <v>1560000</v>
       </c>
       <c r="G57" s="3">
-        <v>1460500</v>
+        <v>1407600</v>
       </c>
       <c r="H57" s="3">
-        <v>1290300</v>
+        <v>1243500</v>
       </c>
       <c r="I57" s="3">
-        <v>1040700</v>
+        <v>1002900</v>
       </c>
       <c r="J57" s="3">
-        <v>2427800</v>
+        <v>2339700</v>
       </c>
       <c r="K57" s="3">
         <v>909200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1024000</v>
+        <v>986800</v>
       </c>
       <c r="E58" s="3">
-        <v>955500</v>
+        <v>920800</v>
       </c>
       <c r="F58" s="3">
-        <v>577900</v>
+        <v>557000</v>
       </c>
       <c r="G58" s="3">
-        <v>518500</v>
+        <v>499700</v>
       </c>
       <c r="H58" s="3">
-        <v>342000</v>
+        <v>329600</v>
       </c>
       <c r="I58" s="3">
-        <v>498000</v>
+        <v>479900</v>
       </c>
       <c r="J58" s="3">
-        <v>396400</v>
+        <v>382000</v>
       </c>
       <c r="K58" s="3">
         <v>90900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1222200</v>
+        <v>1177900</v>
       </c>
       <c r="E59" s="3">
-        <v>750100</v>
+        <v>722900</v>
       </c>
       <c r="F59" s="3">
-        <v>818900</v>
+        <v>789200</v>
       </c>
       <c r="G59" s="3">
-        <v>793500</v>
+        <v>764700</v>
       </c>
       <c r="H59" s="3">
-        <v>686800</v>
+        <v>661800</v>
       </c>
       <c r="I59" s="3">
-        <v>644300</v>
+        <v>620900</v>
       </c>
       <c r="J59" s="3">
-        <v>573100</v>
+        <v>552300</v>
       </c>
       <c r="K59" s="3">
         <v>539500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3775100</v>
+        <v>3638200</v>
       </c>
       <c r="E60" s="3">
-        <v>3216800</v>
+        <v>3100200</v>
       </c>
       <c r="F60" s="3">
-        <v>3015600</v>
+        <v>2906200</v>
       </c>
       <c r="G60" s="3">
-        <v>2772500</v>
+        <v>2671900</v>
       </c>
       <c r="H60" s="3">
-        <v>2319100</v>
+        <v>2235000</v>
       </c>
       <c r="I60" s="3">
-        <v>2182900</v>
+        <v>2103800</v>
       </c>
       <c r="J60" s="3">
-        <v>1956100</v>
+        <v>1885200</v>
       </c>
       <c r="K60" s="3">
         <v>1539600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2807000</v>
+        <v>2705200</v>
       </c>
       <c r="E61" s="3">
-        <v>2366600</v>
+        <v>2280800</v>
       </c>
       <c r="F61" s="3">
-        <v>2060800</v>
+        <v>1986100</v>
       </c>
       <c r="G61" s="3">
-        <v>2121500</v>
+        <v>2044600</v>
       </c>
       <c r="H61" s="3">
-        <v>1816400</v>
+        <v>1750600</v>
       </c>
       <c r="I61" s="3">
-        <v>1498300</v>
+        <v>1444000</v>
       </c>
       <c r="J61" s="3">
-        <v>1292400</v>
+        <v>1245500</v>
       </c>
       <c r="K61" s="3">
         <v>1134100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>366500</v>
+        <v>353200</v>
       </c>
       <c r="E62" s="3">
-        <v>325600</v>
+        <v>313800</v>
       </c>
       <c r="F62" s="3">
-        <v>388200</v>
+        <v>374100</v>
       </c>
       <c r="G62" s="3">
-        <v>399900</v>
+        <v>385400</v>
       </c>
       <c r="H62" s="3">
-        <v>385200</v>
+        <v>371200</v>
       </c>
       <c r="I62" s="3">
-        <v>289100</v>
+        <v>278600</v>
       </c>
       <c r="J62" s="3">
-        <v>319400</v>
+        <v>307800</v>
       </c>
       <c r="K62" s="3">
         <v>303000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6948600</v>
+        <v>6696600</v>
       </c>
       <c r="E66" s="3">
-        <v>5909100</v>
+        <v>5694800</v>
       </c>
       <c r="F66" s="3">
-        <v>5464600</v>
+        <v>5266400</v>
       </c>
       <c r="G66" s="3">
-        <v>5293900</v>
+        <v>5101900</v>
       </c>
       <c r="H66" s="3">
-        <v>4520700</v>
+        <v>4356800</v>
       </c>
       <c r="I66" s="3">
-        <v>3970400</v>
+        <v>3826400</v>
       </c>
       <c r="J66" s="3">
-        <v>3567900</v>
+        <v>3438500</v>
       </c>
       <c r="K66" s="3">
         <v>2976700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2573100</v>
+        <v>2479800</v>
       </c>
       <c r="E72" s="3">
-        <v>2216300</v>
+        <v>2136000</v>
       </c>
       <c r="F72" s="3">
-        <v>2024900</v>
+        <v>1951400</v>
       </c>
       <c r="G72" s="3">
-        <v>1681700</v>
+        <v>1620700</v>
       </c>
       <c r="H72" s="3">
-        <v>1424900</v>
+        <v>1373200</v>
       </c>
       <c r="I72" s="3">
-        <v>1305000</v>
+        <v>1257700</v>
       </c>
       <c r="J72" s="3">
-        <v>1162900</v>
+        <v>1120800</v>
       </c>
       <c r="K72" s="3">
         <v>1099600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2715700</v>
+        <v>2617200</v>
       </c>
       <c r="E76" s="3">
-        <v>2468400</v>
+        <v>2378900</v>
       </c>
       <c r="F76" s="3">
-        <v>2397900</v>
+        <v>2310900</v>
       </c>
       <c r="G76" s="3">
-        <v>2049900</v>
+        <v>1975600</v>
       </c>
       <c r="H76" s="3">
-        <v>1857300</v>
+        <v>1790000</v>
       </c>
       <c r="I76" s="3">
-        <v>1438200</v>
+        <v>1386000</v>
       </c>
       <c r="J76" s="3">
-        <v>1392300</v>
+        <v>1341800</v>
       </c>
       <c r="K76" s="3">
         <v>1251400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>608500</v>
+        <v>586400</v>
       </c>
       <c r="E81" s="3">
-        <v>494200</v>
+        <v>476200</v>
       </c>
       <c r="F81" s="3">
-        <v>462000</v>
+        <v>445300</v>
       </c>
       <c r="G81" s="3">
-        <v>439400</v>
+        <v>423500</v>
       </c>
       <c r="H81" s="3">
-        <v>376300</v>
+        <v>362600</v>
       </c>
       <c r="I81" s="3">
-        <v>329300</v>
+        <v>317400</v>
       </c>
       <c r="J81" s="3">
-        <v>298200</v>
+        <v>287400</v>
       </c>
       <c r="K81" s="3">
         <v>275300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>385100</v>
+        <v>371100</v>
       </c>
       <c r="E83" s="3">
-        <v>378300</v>
+        <v>364500</v>
       </c>
       <c r="F83" s="3">
-        <v>203400</v>
+        <v>196000</v>
       </c>
       <c r="G83" s="3">
-        <v>181000</v>
+        <v>174400</v>
       </c>
       <c r="H83" s="3">
-        <v>153800</v>
+        <v>148200</v>
       </c>
       <c r="I83" s="3">
-        <v>128600</v>
+        <v>124000</v>
       </c>
       <c r="J83" s="3">
-        <v>122100</v>
+        <v>117700</v>
       </c>
       <c r="K83" s="3">
         <v>112100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1118200</v>
+        <v>1077700</v>
       </c>
       <c r="E89" s="3">
-        <v>947100</v>
+        <v>912800</v>
       </c>
       <c r="F89" s="3">
-        <v>679300</v>
+        <v>654600</v>
       </c>
       <c r="G89" s="3">
-        <v>673000</v>
+        <v>648600</v>
       </c>
       <c r="H89" s="3">
-        <v>575200</v>
+        <v>554400</v>
       </c>
       <c r="I89" s="3">
-        <v>466700</v>
+        <v>449800</v>
       </c>
       <c r="J89" s="3">
-        <v>463900</v>
+        <v>447100</v>
       </c>
       <c r="K89" s="3">
         <v>452700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-46800</v>
+        <v>-45100</v>
       </c>
       <c r="E91" s="3">
-        <v>-52200</v>
+        <v>-50300</v>
       </c>
       <c r="F91" s="3">
-        <v>-44000</v>
+        <v>-42400</v>
       </c>
       <c r="G91" s="3">
-        <v>-47800</v>
+        <v>-46100</v>
       </c>
       <c r="H91" s="3">
-        <v>-35900</v>
+        <v>-34600</v>
       </c>
       <c r="I91" s="3">
-        <v>-35100</v>
+        <v>-33800</v>
       </c>
       <c r="J91" s="3">
-        <v>-35500</v>
+        <v>-34200</v>
       </c>
       <c r="K91" s="3">
         <v>-35300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-537700</v>
+        <v>-518200</v>
       </c>
       <c r="E94" s="3">
-        <v>-230100</v>
+        <v>-221800</v>
       </c>
       <c r="F94" s="3">
-        <v>-200700</v>
+        <v>-193400</v>
       </c>
       <c r="G94" s="3">
-        <v>-856400</v>
+        <v>-825400</v>
       </c>
       <c r="H94" s="3">
-        <v>-252600</v>
+        <v>-243400</v>
       </c>
       <c r="I94" s="3">
-        <v>-492600</v>
+        <v>-474700</v>
       </c>
       <c r="J94" s="3">
-        <v>-248600</v>
+        <v>-239600</v>
       </c>
       <c r="K94" s="3">
         <v>-369600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-242700</v>
+        <v>-233900</v>
       </c>
       <c r="E96" s="3">
-        <v>-236700</v>
+        <v>-228200</v>
       </c>
       <c r="F96" s="3">
-        <v>-215400</v>
+        <v>-207600</v>
       </c>
       <c r="G96" s="3">
-        <v>-195600</v>
+        <v>-188500</v>
       </c>
       <c r="H96" s="3">
-        <v>-177500</v>
+        <v>-171000</v>
       </c>
       <c r="I96" s="3">
-        <v>-164300</v>
+        <v>-158300</v>
       </c>
       <c r="J96" s="3">
-        <v>-149400</v>
+        <v>-144000</v>
       </c>
       <c r="K96" s="3">
         <v>-122200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-172900</v>
+        <v>-166700</v>
       </c>
       <c r="E100" s="3">
-        <v>-696500</v>
+        <v>-671300</v>
       </c>
       <c r="F100" s="3">
-        <v>-434300</v>
+        <v>-418500</v>
       </c>
       <c r="G100" s="3">
-        <v>165300</v>
+        <v>159300</v>
       </c>
       <c r="H100" s="3">
-        <v>-273800</v>
+        <v>-263900</v>
       </c>
       <c r="I100" s="3">
-        <v>30800</v>
+        <v>29700</v>
       </c>
       <c r="J100" s="3">
-        <v>-202400</v>
+        <v>-195000</v>
       </c>
       <c r="K100" s="3">
         <v>-91900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-25300</v>
+        <v>-24400</v>
       </c>
       <c r="F101" s="3">
         <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="H101" s="3">
-        <v>58700</v>
+        <v>56600</v>
       </c>
       <c r="I101" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="J101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K101" s="3">
         <v>-3200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>408800</v>
+        <v>394000</v>
       </c>
       <c r="E102" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="F102" s="3">
-        <v>45100</v>
+        <v>43500</v>
       </c>
       <c r="G102" s="3">
-        <v>-20400</v>
+        <v>-19600</v>
       </c>
       <c r="H102" s="3">
-        <v>107500</v>
+        <v>103600</v>
       </c>
       <c r="I102" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="J102" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="K102" s="3">
         <v>-12000</v>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13789400</v>
+        <v>13458900</v>
       </c>
       <c r="E8" s="3">
-        <v>12719700</v>
+        <v>12414800</v>
       </c>
       <c r="F8" s="3">
-        <v>12382400</v>
+        <v>12085600</v>
       </c>
       <c r="G8" s="3">
-        <v>11702500</v>
+        <v>11422000</v>
       </c>
       <c r="H8" s="3">
-        <v>10131700</v>
+        <v>9888900</v>
       </c>
       <c r="I8" s="3">
-        <v>8850600</v>
+        <v>8638400</v>
       </c>
       <c r="J8" s="3">
-        <v>8396200</v>
+        <v>8194900</v>
       </c>
       <c r="K8" s="3">
         <v>8118500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10264300</v>
+        <v>10018300</v>
       </c>
       <c r="E9" s="3">
-        <v>9591800</v>
+        <v>9361900</v>
       </c>
       <c r="F9" s="3">
-        <v>9344400</v>
+        <v>9120400</v>
       </c>
       <c r="G9" s="3">
-        <v>8851800</v>
+        <v>8639600</v>
       </c>
       <c r="H9" s="3">
-        <v>7664600</v>
+        <v>7480900</v>
       </c>
       <c r="I9" s="3">
-        <v>6719700</v>
+        <v>6558600</v>
       </c>
       <c r="J9" s="3">
-        <v>6354200</v>
+        <v>6201900</v>
       </c>
       <c r="K9" s="3">
         <v>6175400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3525100</v>
+        <v>3440600</v>
       </c>
       <c r="E10" s="3">
-        <v>3127900</v>
+        <v>3052900</v>
       </c>
       <c r="F10" s="3">
-        <v>3038000</v>
+        <v>2965200</v>
       </c>
       <c r="G10" s="3">
-        <v>2850700</v>
+        <v>2782400</v>
       </c>
       <c r="H10" s="3">
-        <v>2467100</v>
+        <v>2408000</v>
       </c>
       <c r="I10" s="3">
-        <v>2130900</v>
+        <v>2079800</v>
       </c>
       <c r="J10" s="3">
-        <v>2042000</v>
+        <v>1993100</v>
       </c>
       <c r="K10" s="3">
         <v>1943000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>81100</v>
+        <v>79200</v>
       </c>
       <c r="E14" s="3">
-        <v>24000</v>
+        <v>23400</v>
       </c>
       <c r="F14" s="3">
-        <v>31500</v>
+        <v>30700</v>
       </c>
       <c r="G14" s="3">
-        <v>50100</v>
+        <v>48900</v>
       </c>
       <c r="H14" s="3">
-        <v>46400</v>
+        <v>45300</v>
       </c>
       <c r="I14" s="3">
-        <v>29600</v>
+        <v>28900</v>
       </c>
       <c r="J14" s="3">
-        <v>35600</v>
+        <v>34700</v>
       </c>
       <c r="K14" s="3">
         <v>32000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>371100</v>
+        <v>362200</v>
       </c>
       <c r="E15" s="3">
-        <v>364500</v>
+        <v>355800</v>
       </c>
       <c r="F15" s="3">
-        <v>196000</v>
+        <v>191300</v>
       </c>
       <c r="G15" s="3">
-        <v>174400</v>
+        <v>170200</v>
       </c>
       <c r="H15" s="3">
-        <v>148200</v>
+        <v>144700</v>
       </c>
       <c r="I15" s="3">
-        <v>124000</v>
+        <v>121000</v>
       </c>
       <c r="J15" s="3">
-        <v>117700</v>
+        <v>114900</v>
       </c>
       <c r="K15" s="3">
         <v>112100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12945900</v>
+        <v>12635600</v>
       </c>
       <c r="E17" s="3">
-        <v>11999000</v>
+        <v>11711400</v>
       </c>
       <c r="F17" s="3">
-        <v>11728000</v>
+        <v>11446900</v>
       </c>
       <c r="G17" s="3">
-        <v>11080700</v>
+        <v>10815100</v>
       </c>
       <c r="H17" s="3">
-        <v>9573000</v>
+        <v>9343500</v>
       </c>
       <c r="I17" s="3">
-        <v>8350800</v>
+        <v>8150600</v>
       </c>
       <c r="J17" s="3">
-        <v>7930000</v>
+        <v>7739900</v>
       </c>
       <c r="K17" s="3">
         <v>7691000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>843500</v>
+        <v>823300</v>
       </c>
       <c r="E18" s="3">
-        <v>720600</v>
+        <v>703400</v>
       </c>
       <c r="F18" s="3">
-        <v>654300</v>
+        <v>638700</v>
       </c>
       <c r="G18" s="3">
-        <v>621900</v>
+        <v>607000</v>
       </c>
       <c r="H18" s="3">
-        <v>558700</v>
+        <v>545400</v>
       </c>
       <c r="I18" s="3">
-        <v>499800</v>
+        <v>487800</v>
       </c>
       <c r="J18" s="3">
-        <v>466100</v>
+        <v>455000</v>
       </c>
       <c r="K18" s="3">
         <v>427500</v>
@@ -1089,19 +1089,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E20" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="F20" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="G20" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H20" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I20" s="3">
         <v>-700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1223100</v>
+        <v>1191500</v>
       </c>
       <c r="E21" s="3">
-        <v>1094800</v>
+        <v>1066300</v>
       </c>
       <c r="F21" s="3">
-        <v>858600</v>
+        <v>836700</v>
       </c>
       <c r="G21" s="3">
-        <v>803500</v>
+        <v>783200</v>
       </c>
       <c r="H21" s="3">
-        <v>712200</v>
+        <v>694200</v>
       </c>
       <c r="I21" s="3">
-        <v>624200</v>
+        <v>608400</v>
       </c>
       <c r="J21" s="3">
-        <v>584000</v>
+        <v>569300</v>
       </c>
       <c r="K21" s="3">
         <v>551500</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>91000</v>
+        <v>88800</v>
       </c>
       <c r="E22" s="3">
-        <v>109000</v>
+        <v>106400</v>
       </c>
       <c r="F22" s="3">
-        <v>81600</v>
+        <v>79600</v>
       </c>
       <c r="G22" s="3">
-        <v>69400</v>
+        <v>67800</v>
       </c>
       <c r="H22" s="3">
-        <v>67800</v>
+        <v>66200</v>
       </c>
       <c r="I22" s="3">
-        <v>59100</v>
+        <v>57600</v>
       </c>
       <c r="J22" s="3">
-        <v>56500</v>
+        <v>55100</v>
       </c>
       <c r="K22" s="3">
         <v>53100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>757900</v>
+        <v>739700</v>
       </c>
       <c r="E23" s="3">
-        <v>618200</v>
+        <v>603400</v>
       </c>
       <c r="F23" s="3">
-        <v>579300</v>
+        <v>565500</v>
       </c>
       <c r="G23" s="3">
-        <v>558200</v>
+        <v>544800</v>
       </c>
       <c r="H23" s="3">
-        <v>494900</v>
+        <v>483100</v>
       </c>
       <c r="I23" s="3">
-        <v>440100</v>
+        <v>429500</v>
       </c>
       <c r="J23" s="3">
-        <v>408900</v>
+        <v>399100</v>
       </c>
       <c r="K23" s="3">
         <v>386000</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>171400</v>
+        <v>167300</v>
       </c>
       <c r="E24" s="3">
-        <v>142000</v>
+        <v>138600</v>
       </c>
       <c r="F24" s="3">
-        <v>134100</v>
+        <v>130800</v>
       </c>
       <c r="G24" s="3">
-        <v>134700</v>
+        <v>131500</v>
       </c>
       <c r="H24" s="3">
-        <v>132300</v>
+        <v>129100</v>
       </c>
       <c r="I24" s="3">
-        <v>122700</v>
+        <v>119800</v>
       </c>
       <c r="J24" s="3">
-        <v>121500</v>
+        <v>118600</v>
       </c>
       <c r="K24" s="3">
         <v>110600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>586400</v>
+        <v>572400</v>
       </c>
       <c r="E26" s="3">
-        <v>476200</v>
+        <v>464800</v>
       </c>
       <c r="F26" s="3">
-        <v>445300</v>
+        <v>434600</v>
       </c>
       <c r="G26" s="3">
-        <v>423500</v>
+        <v>413300</v>
       </c>
       <c r="H26" s="3">
-        <v>362600</v>
+        <v>353900</v>
       </c>
       <c r="I26" s="3">
-        <v>317400</v>
+        <v>309700</v>
       </c>
       <c r="J26" s="3">
-        <v>287400</v>
+        <v>280500</v>
       </c>
       <c r="K26" s="3">
         <v>275300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>586400</v>
+        <v>572400</v>
       </c>
       <c r="E27" s="3">
-        <v>476200</v>
+        <v>464800</v>
       </c>
       <c r="F27" s="3">
-        <v>445300</v>
+        <v>434600</v>
       </c>
       <c r="G27" s="3">
-        <v>423500</v>
+        <v>413300</v>
       </c>
       <c r="H27" s="3">
-        <v>362600</v>
+        <v>353900</v>
       </c>
       <c r="I27" s="3">
-        <v>317400</v>
+        <v>309700</v>
       </c>
       <c r="J27" s="3">
-        <v>287400</v>
+        <v>280500</v>
       </c>
       <c r="K27" s="3">
         <v>275300</v>
@@ -1521,19 +1521,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="E32" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="F32" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="G32" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="H32" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="I32" s="3">
         <v>700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>586400</v>
+        <v>572400</v>
       </c>
       <c r="E33" s="3">
-        <v>476200</v>
+        <v>464800</v>
       </c>
       <c r="F33" s="3">
-        <v>445300</v>
+        <v>434600</v>
       </c>
       <c r="G33" s="3">
-        <v>423500</v>
+        <v>413300</v>
       </c>
       <c r="H33" s="3">
-        <v>362600</v>
+        <v>353900</v>
       </c>
       <c r="I33" s="3">
-        <v>317400</v>
+        <v>309700</v>
       </c>
       <c r="J33" s="3">
-        <v>287400</v>
+        <v>280500</v>
       </c>
       <c r="K33" s="3">
         <v>275300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>586400</v>
+        <v>572400</v>
       </c>
       <c r="E35" s="3">
-        <v>476200</v>
+        <v>464800</v>
       </c>
       <c r="F35" s="3">
-        <v>445300</v>
+        <v>434600</v>
       </c>
       <c r="G35" s="3">
-        <v>423500</v>
+        <v>413300</v>
       </c>
       <c r="H35" s="3">
-        <v>362600</v>
+        <v>353900</v>
       </c>
       <c r="I35" s="3">
-        <v>317400</v>
+        <v>309700</v>
       </c>
       <c r="J35" s="3">
-        <v>287400</v>
+        <v>280500</v>
       </c>
       <c r="K35" s="3">
         <v>275300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1287800</v>
+        <v>1257000</v>
       </c>
       <c r="E41" s="3">
-        <v>832600</v>
+        <v>812600</v>
       </c>
       <c r="F41" s="3">
-        <v>651500</v>
+        <v>635900</v>
       </c>
       <c r="G41" s="3">
-        <v>455000</v>
+        <v>444100</v>
       </c>
       <c r="H41" s="3">
-        <v>385100</v>
+        <v>375900</v>
       </c>
       <c r="I41" s="3">
-        <v>384300</v>
+        <v>375100</v>
       </c>
       <c r="J41" s="3">
-        <v>407200</v>
+        <v>397500</v>
       </c>
       <c r="K41" s="3">
         <v>97300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1781500</v>
+        <v>1738800</v>
       </c>
       <c r="E43" s="3">
-        <v>1623600</v>
+        <v>1584700</v>
       </c>
       <c r="F43" s="3">
-        <v>1718100</v>
+        <v>1676900</v>
       </c>
       <c r="G43" s="3">
-        <v>1621400</v>
+        <v>1582500</v>
       </c>
       <c r="H43" s="3">
-        <v>1498900</v>
+        <v>1463000</v>
       </c>
       <c r="I43" s="3">
-        <v>1209000</v>
+        <v>1180000</v>
       </c>
       <c r="J43" s="3">
-        <v>2143100</v>
+        <v>2091700</v>
       </c>
       <c r="K43" s="3">
         <v>1852100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1953200</v>
+        <v>1906400</v>
       </c>
       <c r="E44" s="3">
-        <v>1605500</v>
+        <v>1567000</v>
       </c>
       <c r="F44" s="3">
-        <v>1655100</v>
+        <v>1615400</v>
       </c>
       <c r="G44" s="3">
-        <v>1452300</v>
+        <v>1417500</v>
       </c>
       <c r="H44" s="3">
-        <v>1310500</v>
+        <v>1279100</v>
       </c>
       <c r="I44" s="3">
-        <v>2166200</v>
+        <v>2114300</v>
       </c>
       <c r="J44" s="3">
-        <v>961900</v>
+        <v>938800</v>
       </c>
       <c r="K44" s="3">
         <v>858900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>148200</v>
+        <v>144700</v>
       </c>
       <c r="E45" s="3">
-        <v>100500</v>
+        <v>98100</v>
       </c>
       <c r="F45" s="3">
-        <v>118400</v>
+        <v>115500</v>
       </c>
       <c r="G45" s="3">
-        <v>152600</v>
+        <v>149000</v>
       </c>
       <c r="H45" s="3">
-        <v>104500</v>
+        <v>102000</v>
       </c>
       <c r="I45" s="3">
-        <v>374100</v>
+        <v>365100</v>
       </c>
       <c r="J45" s="3">
-        <v>247500</v>
+        <v>241600</v>
       </c>
       <c r="K45" s="3">
         <v>229300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5170800</v>
+        <v>5046900</v>
       </c>
       <c r="E46" s="3">
-        <v>4162200</v>
+        <v>4062400</v>
       </c>
       <c r="F46" s="3">
-        <v>4143100</v>
+        <v>4043700</v>
       </c>
       <c r="G46" s="3">
-        <v>3681300</v>
+        <v>3593000</v>
       </c>
       <c r="H46" s="3">
-        <v>3299000</v>
+        <v>3219900</v>
       </c>
       <c r="I46" s="3">
-        <v>2784000</v>
+        <v>2717300</v>
       </c>
       <c r="J46" s="3">
-        <v>2573500</v>
+        <v>2511800</v>
       </c>
       <c r="K46" s="3">
         <v>2112000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>785700</v>
+        <v>766800</v>
       </c>
       <c r="E48" s="3">
-        <v>751700</v>
+        <v>733700</v>
       </c>
       <c r="F48" s="3">
-        <v>166900</v>
+        <v>162900</v>
       </c>
       <c r="G48" s="3">
-        <v>170700</v>
+        <v>166700</v>
       </c>
       <c r="H48" s="3">
-        <v>168200</v>
+        <v>164100</v>
       </c>
       <c r="I48" s="3">
-        <v>153600</v>
+        <v>149900</v>
       </c>
       <c r="J48" s="3">
-        <v>309400</v>
+        <v>302000</v>
       </c>
       <c r="K48" s="3">
         <v>158200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3330200</v>
+        <v>3250400</v>
       </c>
       <c r="E49" s="3">
-        <v>3124300</v>
+        <v>3049400</v>
       </c>
       <c r="F49" s="3">
-        <v>3249200</v>
+        <v>3171300</v>
       </c>
       <c r="G49" s="3">
-        <v>3207200</v>
+        <v>3130300</v>
       </c>
       <c r="H49" s="3">
-        <v>2656100</v>
+        <v>2592500</v>
       </c>
       <c r="I49" s="3">
-        <v>2244900</v>
+        <v>2191100</v>
       </c>
       <c r="J49" s="3">
-        <v>4049200</v>
+        <v>3952200</v>
       </c>
       <c r="K49" s="3">
         <v>1939700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27100</v>
+        <v>26500</v>
       </c>
       <c r="E52" s="3">
-        <v>35500</v>
+        <v>34600</v>
       </c>
       <c r="F52" s="3">
-        <v>18100</v>
+        <v>17700</v>
       </c>
       <c r="G52" s="3">
-        <v>18300</v>
+        <v>17800</v>
       </c>
       <c r="H52" s="3">
-        <v>23500</v>
+        <v>22900</v>
       </c>
       <c r="I52" s="3">
-        <v>29900</v>
+        <v>29200</v>
       </c>
       <c r="J52" s="3">
-        <v>27500</v>
+        <v>26900</v>
       </c>
       <c r="K52" s="3">
         <v>18200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9313900</v>
+        <v>9090600</v>
       </c>
       <c r="E54" s="3">
-        <v>8073600</v>
+        <v>7880100</v>
       </c>
       <c r="F54" s="3">
-        <v>7577400</v>
+        <v>7395700</v>
       </c>
       <c r="G54" s="3">
-        <v>7077500</v>
+        <v>6907900</v>
       </c>
       <c r="H54" s="3">
-        <v>6146700</v>
+        <v>5999400</v>
       </c>
       <c r="I54" s="3">
-        <v>5212400</v>
+        <v>5087500</v>
       </c>
       <c r="J54" s="3">
-        <v>4780400</v>
+        <v>4665800</v>
       </c>
       <c r="K54" s="3">
         <v>4228100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1473400</v>
+        <v>1438100</v>
       </c>
       <c r="E57" s="3">
-        <v>1456400</v>
+        <v>1421500</v>
       </c>
       <c r="F57" s="3">
-        <v>1560000</v>
+        <v>1522600</v>
       </c>
       <c r="G57" s="3">
-        <v>1407600</v>
+        <v>1373800</v>
       </c>
       <c r="H57" s="3">
-        <v>1243500</v>
+        <v>1213700</v>
       </c>
       <c r="I57" s="3">
-        <v>1002900</v>
+        <v>978900</v>
       </c>
       <c r="J57" s="3">
-        <v>2339700</v>
+        <v>2283600</v>
       </c>
       <c r="K57" s="3">
         <v>909200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>986800</v>
+        <v>963200</v>
       </c>
       <c r="E58" s="3">
-        <v>920800</v>
+        <v>898800</v>
       </c>
       <c r="F58" s="3">
-        <v>557000</v>
+        <v>543600</v>
       </c>
       <c r="G58" s="3">
-        <v>499700</v>
+        <v>487700</v>
       </c>
       <c r="H58" s="3">
-        <v>329600</v>
+        <v>321700</v>
       </c>
       <c r="I58" s="3">
-        <v>479900</v>
+        <v>468400</v>
       </c>
       <c r="J58" s="3">
-        <v>382000</v>
+        <v>372800</v>
       </c>
       <c r="K58" s="3">
         <v>90900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1177900</v>
+        <v>1149700</v>
       </c>
       <c r="E59" s="3">
-        <v>722900</v>
+        <v>705600</v>
       </c>
       <c r="F59" s="3">
-        <v>789200</v>
+        <v>770300</v>
       </c>
       <c r="G59" s="3">
-        <v>764700</v>
+        <v>746300</v>
       </c>
       <c r="H59" s="3">
-        <v>661800</v>
+        <v>646000</v>
       </c>
       <c r="I59" s="3">
-        <v>620900</v>
+        <v>606000</v>
       </c>
       <c r="J59" s="3">
-        <v>552300</v>
+        <v>539100</v>
       </c>
       <c r="K59" s="3">
         <v>539500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3638200</v>
+        <v>3551000</v>
       </c>
       <c r="E60" s="3">
-        <v>3100200</v>
+        <v>3025900</v>
       </c>
       <c r="F60" s="3">
-        <v>2906200</v>
+        <v>2836600</v>
       </c>
       <c r="G60" s="3">
-        <v>2671900</v>
+        <v>2607900</v>
       </c>
       <c r="H60" s="3">
-        <v>2235000</v>
+        <v>2181400</v>
       </c>
       <c r="I60" s="3">
-        <v>2103800</v>
+        <v>2053400</v>
       </c>
       <c r="J60" s="3">
-        <v>1885200</v>
+        <v>1840000</v>
       </c>
       <c r="K60" s="3">
         <v>1539600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2705200</v>
+        <v>2640400</v>
       </c>
       <c r="E61" s="3">
-        <v>2280800</v>
+        <v>2226100</v>
       </c>
       <c r="F61" s="3">
-        <v>1986100</v>
+        <v>1938500</v>
       </c>
       <c r="G61" s="3">
-        <v>2044600</v>
+        <v>1995600</v>
       </c>
       <c r="H61" s="3">
-        <v>1750600</v>
+        <v>1708600</v>
       </c>
       <c r="I61" s="3">
-        <v>1444000</v>
+        <v>1409400</v>
       </c>
       <c r="J61" s="3">
-        <v>1245500</v>
+        <v>1215700</v>
       </c>
       <c r="K61" s="3">
         <v>1134100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>353200</v>
+        <v>344800</v>
       </c>
       <c r="E62" s="3">
-        <v>313800</v>
+        <v>306300</v>
       </c>
       <c r="F62" s="3">
-        <v>374100</v>
+        <v>365100</v>
       </c>
       <c r="G62" s="3">
-        <v>385400</v>
+        <v>376200</v>
       </c>
       <c r="H62" s="3">
-        <v>371200</v>
+        <v>362300</v>
       </c>
       <c r="I62" s="3">
-        <v>278600</v>
+        <v>271900</v>
       </c>
       <c r="J62" s="3">
-        <v>307800</v>
+        <v>300400</v>
       </c>
       <c r="K62" s="3">
         <v>303000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6696600</v>
+        <v>6536100</v>
       </c>
       <c r="E66" s="3">
-        <v>5694800</v>
+        <v>5558300</v>
       </c>
       <c r="F66" s="3">
-        <v>5266400</v>
+        <v>5140200</v>
       </c>
       <c r="G66" s="3">
-        <v>5101900</v>
+        <v>4979600</v>
       </c>
       <c r="H66" s="3">
-        <v>4356800</v>
+        <v>4252300</v>
       </c>
       <c r="I66" s="3">
-        <v>3826400</v>
+        <v>3734700</v>
       </c>
       <c r="J66" s="3">
-        <v>3438500</v>
+        <v>3356100</v>
       </c>
       <c r="K66" s="3">
         <v>2976700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2479800</v>
+        <v>2420300</v>
       </c>
       <c r="E72" s="3">
-        <v>2136000</v>
+        <v>2084800</v>
       </c>
       <c r="F72" s="3">
-        <v>1951400</v>
+        <v>1904700</v>
       </c>
       <c r="G72" s="3">
-        <v>1620700</v>
+        <v>1581900</v>
       </c>
       <c r="H72" s="3">
-        <v>1373200</v>
+        <v>1340300</v>
       </c>
       <c r="I72" s="3">
-        <v>1257700</v>
+        <v>1227500</v>
       </c>
       <c r="J72" s="3">
-        <v>1120800</v>
+        <v>1093900</v>
       </c>
       <c r="K72" s="3">
         <v>1099600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2617200</v>
+        <v>2554500</v>
       </c>
       <c r="E76" s="3">
-        <v>2378900</v>
+        <v>2321800</v>
       </c>
       <c r="F76" s="3">
-        <v>2310900</v>
+        <v>2255500</v>
       </c>
       <c r="G76" s="3">
-        <v>1975600</v>
+        <v>1928200</v>
       </c>
       <c r="H76" s="3">
-        <v>1790000</v>
+        <v>1747100</v>
       </c>
       <c r="I76" s="3">
-        <v>1386000</v>
+        <v>1352800</v>
       </c>
       <c r="J76" s="3">
-        <v>1341800</v>
+        <v>1309700</v>
       </c>
       <c r="K76" s="3">
         <v>1251400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>586400</v>
+        <v>572400</v>
       </c>
       <c r="E81" s="3">
-        <v>476200</v>
+        <v>464800</v>
       </c>
       <c r="F81" s="3">
-        <v>445300</v>
+        <v>434600</v>
       </c>
       <c r="G81" s="3">
-        <v>423500</v>
+        <v>413300</v>
       </c>
       <c r="H81" s="3">
-        <v>362600</v>
+        <v>353900</v>
       </c>
       <c r="I81" s="3">
-        <v>317400</v>
+        <v>309700</v>
       </c>
       <c r="J81" s="3">
-        <v>287400</v>
+        <v>280500</v>
       </c>
       <c r="K81" s="3">
         <v>275300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>371100</v>
+        <v>362200</v>
       </c>
       <c r="E83" s="3">
-        <v>364500</v>
+        <v>355800</v>
       </c>
       <c r="F83" s="3">
-        <v>196000</v>
+        <v>191300</v>
       </c>
       <c r="G83" s="3">
-        <v>174400</v>
+        <v>170200</v>
       </c>
       <c r="H83" s="3">
-        <v>148200</v>
+        <v>144700</v>
       </c>
       <c r="I83" s="3">
-        <v>124000</v>
+        <v>121000</v>
       </c>
       <c r="J83" s="3">
-        <v>117700</v>
+        <v>114900</v>
       </c>
       <c r="K83" s="3">
         <v>112100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1077700</v>
+        <v>1051800</v>
       </c>
       <c r="E89" s="3">
-        <v>912800</v>
+        <v>890900</v>
       </c>
       <c r="F89" s="3">
-        <v>654600</v>
+        <v>638900</v>
       </c>
       <c r="G89" s="3">
-        <v>648600</v>
+        <v>633100</v>
       </c>
       <c r="H89" s="3">
-        <v>554400</v>
+        <v>541100</v>
       </c>
       <c r="I89" s="3">
-        <v>449800</v>
+        <v>439000</v>
       </c>
       <c r="J89" s="3">
-        <v>447100</v>
+        <v>436300</v>
       </c>
       <c r="K89" s="3">
         <v>452700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-45100</v>
+        <v>-44100</v>
       </c>
       <c r="E91" s="3">
-        <v>-50300</v>
+        <v>-49100</v>
       </c>
       <c r="F91" s="3">
-        <v>-42400</v>
+        <v>-41400</v>
       </c>
       <c r="G91" s="3">
-        <v>-46100</v>
+        <v>-45000</v>
       </c>
       <c r="H91" s="3">
-        <v>-34600</v>
+        <v>-33800</v>
       </c>
       <c r="I91" s="3">
-        <v>-33800</v>
+        <v>-33000</v>
       </c>
       <c r="J91" s="3">
-        <v>-34200</v>
+        <v>-33400</v>
       </c>
       <c r="K91" s="3">
         <v>-35300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-518200</v>
+        <v>-505800</v>
       </c>
       <c r="E94" s="3">
-        <v>-221800</v>
+        <v>-216400</v>
       </c>
       <c r="F94" s="3">
-        <v>-193400</v>
+        <v>-188700</v>
       </c>
       <c r="G94" s="3">
-        <v>-825400</v>
+        <v>-805600</v>
       </c>
       <c r="H94" s="3">
-        <v>-243400</v>
+        <v>-237600</v>
       </c>
       <c r="I94" s="3">
-        <v>-474700</v>
+        <v>-463400</v>
       </c>
       <c r="J94" s="3">
-        <v>-239600</v>
+        <v>-233900</v>
       </c>
       <c r="K94" s="3">
         <v>-369600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-233900</v>
+        <v>-228300</v>
       </c>
       <c r="E96" s="3">
-        <v>-228200</v>
+        <v>-222700</v>
       </c>
       <c r="F96" s="3">
-        <v>-207600</v>
+        <v>-202600</v>
       </c>
       <c r="G96" s="3">
-        <v>-188500</v>
+        <v>-184000</v>
       </c>
       <c r="H96" s="3">
-        <v>-171000</v>
+        <v>-166900</v>
       </c>
       <c r="I96" s="3">
-        <v>-158300</v>
+        <v>-154500</v>
       </c>
       <c r="J96" s="3">
-        <v>-144000</v>
+        <v>-140600</v>
       </c>
       <c r="K96" s="3">
         <v>-122200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-166700</v>
+        <v>-162700</v>
       </c>
       <c r="E100" s="3">
-        <v>-671300</v>
+        <v>-655200</v>
       </c>
       <c r="F100" s="3">
-        <v>-418500</v>
+        <v>-408500</v>
       </c>
       <c r="G100" s="3">
-        <v>159300</v>
+        <v>155500</v>
       </c>
       <c r="H100" s="3">
-        <v>-263900</v>
+        <v>-257600</v>
       </c>
       <c r="I100" s="3">
-        <v>29700</v>
+        <v>29000</v>
       </c>
       <c r="J100" s="3">
-        <v>-195000</v>
+        <v>-190300</v>
       </c>
       <c r="K100" s="3">
         <v>-91900</v>
@@ -3714,22 +3714,22 @@
         <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-24400</v>
+        <v>-23800</v>
       </c>
       <c r="F101" s="3">
         <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H101" s="3">
-        <v>56600</v>
+        <v>55200</v>
       </c>
       <c r="I101" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="J101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K101" s="3">
         <v>-3200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>394000</v>
+        <v>384600</v>
       </c>
       <c r="E102" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="F102" s="3">
-        <v>43500</v>
+        <v>42500</v>
       </c>
       <c r="G102" s="3">
-        <v>-19600</v>
+        <v>-19200</v>
       </c>
       <c r="H102" s="3">
-        <v>103600</v>
+        <v>101200</v>
       </c>
       <c r="I102" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="J102" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="K102" s="3">
         <v>-12000</v>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>BZLFY</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13458900</v>
+        <v>13180700</v>
       </c>
       <c r="E8" s="3">
-        <v>12414800</v>
+        <v>12158200</v>
       </c>
       <c r="F8" s="3">
-        <v>12085600</v>
+        <v>11835800</v>
       </c>
       <c r="G8" s="3">
-        <v>11422000</v>
+        <v>11186000</v>
       </c>
       <c r="H8" s="3">
-        <v>9888900</v>
+        <v>9684500</v>
       </c>
       <c r="I8" s="3">
-        <v>8638400</v>
+        <v>8459900</v>
       </c>
       <c r="J8" s="3">
-        <v>8194900</v>
+        <v>8025600</v>
       </c>
       <c r="K8" s="3">
         <v>8118500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10018300</v>
+        <v>9811200</v>
       </c>
       <c r="E9" s="3">
-        <v>9361900</v>
+        <v>9168400</v>
       </c>
       <c r="F9" s="3">
-        <v>9120400</v>
+        <v>8931900</v>
       </c>
       <c r="G9" s="3">
-        <v>8639600</v>
+        <v>8461100</v>
       </c>
       <c r="H9" s="3">
-        <v>7480900</v>
+        <v>7326300</v>
       </c>
       <c r="I9" s="3">
-        <v>6558600</v>
+        <v>6423000</v>
       </c>
       <c r="J9" s="3">
-        <v>6201900</v>
+        <v>6073700</v>
       </c>
       <c r="K9" s="3">
         <v>6175400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3440600</v>
+        <v>3369500</v>
       </c>
       <c r="E10" s="3">
-        <v>3052900</v>
+        <v>2989800</v>
       </c>
       <c r="F10" s="3">
-        <v>2965200</v>
+        <v>2903900</v>
       </c>
       <c r="G10" s="3">
-        <v>2782400</v>
+        <v>2724900</v>
       </c>
       <c r="H10" s="3">
-        <v>2408000</v>
+        <v>2358200</v>
       </c>
       <c r="I10" s="3">
-        <v>2079800</v>
+        <v>2036900</v>
       </c>
       <c r="J10" s="3">
-        <v>1993100</v>
+        <v>1951900</v>
       </c>
       <c r="K10" s="3">
         <v>1943000</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>79200</v>
+        <v>77600</v>
       </c>
       <c r="E14" s="3">
-        <v>23400</v>
+        <v>22900</v>
       </c>
       <c r="F14" s="3">
-        <v>30700</v>
+        <v>30100</v>
       </c>
       <c r="G14" s="3">
-        <v>48900</v>
+        <v>47800</v>
       </c>
       <c r="H14" s="3">
-        <v>45300</v>
+        <v>44300</v>
       </c>
       <c r="I14" s="3">
-        <v>28900</v>
+        <v>28300</v>
       </c>
       <c r="J14" s="3">
-        <v>34700</v>
+        <v>34000</v>
       </c>
       <c r="K14" s="3">
         <v>32000</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>362200</v>
+        <v>354700</v>
       </c>
       <c r="E15" s="3">
-        <v>355800</v>
+        <v>348400</v>
       </c>
       <c r="F15" s="3">
-        <v>191300</v>
+        <v>187300</v>
       </c>
       <c r="G15" s="3">
-        <v>170200</v>
+        <v>166700</v>
       </c>
       <c r="H15" s="3">
-        <v>144700</v>
+        <v>141700</v>
       </c>
       <c r="I15" s="3">
-        <v>121000</v>
+        <v>118500</v>
       </c>
       <c r="J15" s="3">
-        <v>114900</v>
+        <v>112500</v>
       </c>
       <c r="K15" s="3">
         <v>112100</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12635600</v>
+        <v>12374500</v>
       </c>
       <c r="E17" s="3">
-        <v>11711400</v>
+        <v>11469400</v>
       </c>
       <c r="F17" s="3">
-        <v>11446900</v>
+        <v>11210400</v>
       </c>
       <c r="G17" s="3">
-        <v>10815100</v>
+        <v>10591500</v>
       </c>
       <c r="H17" s="3">
-        <v>9343500</v>
+        <v>9150400</v>
       </c>
       <c r="I17" s="3">
-        <v>8150600</v>
+        <v>7982100</v>
       </c>
       <c r="J17" s="3">
-        <v>7739900</v>
+        <v>7580000</v>
       </c>
       <c r="K17" s="3">
         <v>7691000</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>823300</v>
+        <v>806300</v>
       </c>
       <c r="E18" s="3">
-        <v>703400</v>
+        <v>688800</v>
       </c>
       <c r="F18" s="3">
-        <v>638700</v>
+        <v>625500</v>
       </c>
       <c r="G18" s="3">
-        <v>607000</v>
+        <v>594400</v>
       </c>
       <c r="H18" s="3">
-        <v>545400</v>
+        <v>534100</v>
       </c>
       <c r="I18" s="3">
-        <v>487800</v>
+        <v>477800</v>
       </c>
       <c r="J18" s="3">
-        <v>455000</v>
+        <v>445600</v>
       </c>
       <c r="K18" s="3">
         <v>427500</v>
@@ -1089,19 +1089,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E20" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="F20" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="G20" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="H20" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I20" s="3">
         <v>-700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1191500</v>
+        <v>1170000</v>
       </c>
       <c r="E21" s="3">
-        <v>1066300</v>
+        <v>1047400</v>
       </c>
       <c r="F21" s="3">
-        <v>836700</v>
+        <v>821100</v>
       </c>
       <c r="G21" s="3">
-        <v>783200</v>
+        <v>768500</v>
       </c>
       <c r="H21" s="3">
-        <v>694200</v>
+        <v>681100</v>
       </c>
       <c r="I21" s="3">
-        <v>608400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>569300</v>
+        <v>596900</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>551500</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>88800</v>
+        <v>86900</v>
       </c>
       <c r="E22" s="3">
-        <v>106400</v>
+        <v>104200</v>
       </c>
       <c r="F22" s="3">
-        <v>79600</v>
+        <v>78000</v>
       </c>
       <c r="G22" s="3">
-        <v>67800</v>
+        <v>66400</v>
       </c>
       <c r="H22" s="3">
-        <v>66200</v>
+        <v>64800</v>
       </c>
       <c r="I22" s="3">
-        <v>57600</v>
+        <v>56400</v>
       </c>
       <c r="J22" s="3">
-        <v>55100</v>
+        <v>54000</v>
       </c>
       <c r="K22" s="3">
         <v>53100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>739700</v>
+        <v>724400</v>
       </c>
       <c r="E23" s="3">
-        <v>603400</v>
+        <v>590900</v>
       </c>
       <c r="F23" s="3">
-        <v>565500</v>
+        <v>553800</v>
       </c>
       <c r="G23" s="3">
-        <v>544800</v>
+        <v>533600</v>
       </c>
       <c r="H23" s="3">
-        <v>483100</v>
+        <v>473100</v>
       </c>
       <c r="I23" s="3">
-        <v>429500</v>
+        <v>420700</v>
       </c>
       <c r="J23" s="3">
-        <v>399100</v>
+        <v>390800</v>
       </c>
       <c r="K23" s="3">
         <v>386000</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>167300</v>
+        <v>163900</v>
       </c>
       <c r="E24" s="3">
-        <v>138600</v>
+        <v>135700</v>
       </c>
       <c r="F24" s="3">
-        <v>130800</v>
+        <v>128100</v>
       </c>
       <c r="G24" s="3">
-        <v>131500</v>
+        <v>128800</v>
       </c>
       <c r="H24" s="3">
-        <v>129100</v>
+        <v>126400</v>
       </c>
       <c r="I24" s="3">
-        <v>119800</v>
+        <v>117300</v>
       </c>
       <c r="J24" s="3">
-        <v>118600</v>
+        <v>116100</v>
       </c>
       <c r="K24" s="3">
         <v>110600</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>572400</v>
+        <v>560500</v>
       </c>
       <c r="E26" s="3">
-        <v>464800</v>
+        <v>455200</v>
       </c>
       <c r="F26" s="3">
-        <v>434600</v>
+        <v>425600</v>
       </c>
       <c r="G26" s="3">
-        <v>413300</v>
+        <v>404800</v>
       </c>
       <c r="H26" s="3">
-        <v>353900</v>
+        <v>346600</v>
       </c>
       <c r="I26" s="3">
-        <v>309700</v>
+        <v>303300</v>
       </c>
       <c r="J26" s="3">
-        <v>280500</v>
+        <v>274700</v>
       </c>
       <c r="K26" s="3">
         <v>275300</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>572400</v>
+        <v>560500</v>
       </c>
       <c r="E27" s="3">
-        <v>464800</v>
+        <v>455200</v>
       </c>
       <c r="F27" s="3">
-        <v>434600</v>
+        <v>425600</v>
       </c>
       <c r="G27" s="3">
-        <v>413300</v>
+        <v>404800</v>
       </c>
       <c r="H27" s="3">
-        <v>353900</v>
+        <v>346600</v>
       </c>
       <c r="I27" s="3">
-        <v>309700</v>
+        <v>303300</v>
       </c>
       <c r="J27" s="3">
-        <v>280500</v>
+        <v>274700</v>
       </c>
       <c r="K27" s="3">
         <v>275300</v>
@@ -1521,19 +1521,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="E32" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="F32" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="G32" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="H32" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="I32" s="3">
         <v>700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>572400</v>
+        <v>560500</v>
       </c>
       <c r="E33" s="3">
-        <v>464800</v>
+        <v>455200</v>
       </c>
       <c r="F33" s="3">
-        <v>434600</v>
+        <v>425600</v>
       </c>
       <c r="G33" s="3">
-        <v>413300</v>
+        <v>404800</v>
       </c>
       <c r="H33" s="3">
-        <v>353900</v>
+        <v>346600</v>
       </c>
       <c r="I33" s="3">
-        <v>309700</v>
+        <v>303300</v>
       </c>
       <c r="J33" s="3">
-        <v>280500</v>
+        <v>274700</v>
       </c>
       <c r="K33" s="3">
         <v>275300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>572400</v>
+        <v>560500</v>
       </c>
       <c r="E35" s="3">
-        <v>464800</v>
+        <v>455200</v>
       </c>
       <c r="F35" s="3">
-        <v>434600</v>
+        <v>425600</v>
       </c>
       <c r="G35" s="3">
-        <v>413300</v>
+        <v>404800</v>
       </c>
       <c r="H35" s="3">
-        <v>353900</v>
+        <v>346600</v>
       </c>
       <c r="I35" s="3">
-        <v>309700</v>
+        <v>303300</v>
       </c>
       <c r="J35" s="3">
-        <v>280500</v>
+        <v>274700</v>
       </c>
       <c r="K35" s="3">
         <v>275300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1257000</v>
+        <v>1012800</v>
       </c>
       <c r="E41" s="3">
-        <v>812600</v>
+        <v>1231000</v>
       </c>
       <c r="F41" s="3">
-        <v>635900</v>
+        <v>795800</v>
       </c>
       <c r="G41" s="3">
-        <v>444100</v>
+        <v>622700</v>
       </c>
       <c r="H41" s="3">
-        <v>375900</v>
+        <v>434900</v>
       </c>
       <c r="I41" s="3">
-        <v>375100</v>
+        <v>368100</v>
       </c>
       <c r="J41" s="3">
-        <v>397500</v>
+        <v>367400</v>
       </c>
       <c r="K41" s="3">
         <v>97300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1738800</v>
+        <v>1875900</v>
       </c>
       <c r="E43" s="3">
-        <v>1584700</v>
+        <v>1702900</v>
       </c>
       <c r="F43" s="3">
-        <v>1676900</v>
+        <v>1551900</v>
       </c>
       <c r="G43" s="3">
-        <v>1582500</v>
+        <v>1642300</v>
       </c>
       <c r="H43" s="3">
-        <v>1463000</v>
+        <v>1549800</v>
       </c>
       <c r="I43" s="3">
-        <v>1180000</v>
+        <v>1432800</v>
       </c>
       <c r="J43" s="3">
-        <v>2091700</v>
+        <v>1155600</v>
       </c>
       <c r="K43" s="3">
         <v>1852100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1906400</v>
+        <v>1921500</v>
       </c>
       <c r="E44" s="3">
-        <v>1567000</v>
+        <v>1867000</v>
       </c>
       <c r="F44" s="3">
-        <v>1615400</v>
+        <v>1534600</v>
       </c>
       <c r="G44" s="3">
-        <v>1417500</v>
+        <v>1582000</v>
       </c>
       <c r="H44" s="3">
-        <v>1279100</v>
+        <v>1388200</v>
       </c>
       <c r="I44" s="3">
-        <v>2114300</v>
+        <v>1252600</v>
       </c>
       <c r="J44" s="3">
-        <v>938800</v>
+        <v>2070600</v>
       </c>
       <c r="K44" s="3">
         <v>858900</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>144700</v>
+        <v>19400</v>
       </c>
       <c r="E45" s="3">
-        <v>98100</v>
+        <v>141700</v>
       </c>
       <c r="F45" s="3">
-        <v>115500</v>
+        <v>96100</v>
       </c>
       <c r="G45" s="3">
-        <v>149000</v>
+        <v>113200</v>
       </c>
       <c r="H45" s="3">
-        <v>102000</v>
+        <v>145900</v>
       </c>
       <c r="I45" s="3">
-        <v>365100</v>
+        <v>99900</v>
       </c>
       <c r="J45" s="3">
-        <v>241600</v>
+        <v>357600</v>
       </c>
       <c r="K45" s="3">
         <v>229300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5046900</v>
+        <v>4829500</v>
       </c>
       <c r="E46" s="3">
-        <v>4062400</v>
+        <v>4942600</v>
       </c>
       <c r="F46" s="3">
-        <v>4043700</v>
+        <v>3978400</v>
       </c>
       <c r="G46" s="3">
-        <v>3593000</v>
+        <v>3960200</v>
       </c>
       <c r="H46" s="3">
-        <v>3219900</v>
+        <v>3518800</v>
       </c>
       <c r="I46" s="3">
-        <v>2717300</v>
+        <v>3153400</v>
       </c>
       <c r="J46" s="3">
-        <v>2511800</v>
+        <v>2661100</v>
       </c>
       <c r="K46" s="3">
         <v>2112000</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>766800</v>
+        <v>742000</v>
       </c>
       <c r="E48" s="3">
-        <v>733700</v>
+        <v>751000</v>
       </c>
       <c r="F48" s="3">
-        <v>162900</v>
+        <v>718500</v>
       </c>
       <c r="G48" s="3">
-        <v>166700</v>
+        <v>159600</v>
       </c>
       <c r="H48" s="3">
-        <v>164100</v>
+        <v>163200</v>
       </c>
       <c r="I48" s="3">
-        <v>149900</v>
+        <v>160700</v>
       </c>
       <c r="J48" s="3">
-        <v>302000</v>
+        <v>146800</v>
       </c>
       <c r="K48" s="3">
         <v>158200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3250400</v>
+        <v>3606800</v>
       </c>
       <c r="E49" s="3">
-        <v>3049400</v>
+        <v>3183200</v>
       </c>
       <c r="F49" s="3">
-        <v>3171300</v>
+        <v>2986400</v>
       </c>
       <c r="G49" s="3">
-        <v>3130300</v>
+        <v>3105800</v>
       </c>
       <c r="H49" s="3">
-        <v>2592500</v>
+        <v>3065700</v>
       </c>
       <c r="I49" s="3">
-        <v>2191100</v>
+        <v>2538900</v>
       </c>
       <c r="J49" s="3">
-        <v>3952200</v>
+        <v>2145800</v>
       </c>
       <c r="K49" s="3">
         <v>1939700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26500</v>
+        <v>95600</v>
       </c>
       <c r="E52" s="3">
-        <v>34600</v>
+        <v>25900</v>
       </c>
       <c r="F52" s="3">
-        <v>17700</v>
+        <v>33900</v>
       </c>
       <c r="G52" s="3">
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="H52" s="3">
-        <v>22900</v>
+        <v>17500</v>
       </c>
       <c r="I52" s="3">
-        <v>29200</v>
+        <v>22400</v>
       </c>
       <c r="J52" s="3">
-        <v>26900</v>
+        <v>28500</v>
       </c>
       <c r="K52" s="3">
         <v>18200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9090600</v>
+        <v>9273900</v>
       </c>
       <c r="E54" s="3">
-        <v>7880100</v>
+        <v>8902700</v>
       </c>
       <c r="F54" s="3">
-        <v>7395700</v>
+        <v>7717300</v>
       </c>
       <c r="G54" s="3">
-        <v>6907900</v>
+        <v>7242900</v>
       </c>
       <c r="H54" s="3">
-        <v>5999400</v>
+        <v>6765100</v>
       </c>
       <c r="I54" s="3">
-        <v>5087500</v>
+        <v>5875400</v>
       </c>
       <c r="J54" s="3">
-        <v>4665800</v>
+        <v>4982300</v>
       </c>
       <c r="K54" s="3">
         <v>4228100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1438100</v>
+        <v>2504600</v>
       </c>
       <c r="E57" s="3">
-        <v>1421500</v>
+        <v>1408400</v>
       </c>
       <c r="F57" s="3">
-        <v>1522600</v>
+        <v>1392100</v>
       </c>
       <c r="G57" s="3">
-        <v>1373800</v>
+        <v>1491200</v>
       </c>
       <c r="H57" s="3">
-        <v>1213700</v>
+        <v>1345400</v>
       </c>
       <c r="I57" s="3">
-        <v>978900</v>
+        <v>1188600</v>
       </c>
       <c r="J57" s="3">
-        <v>2283600</v>
+        <v>958700</v>
       </c>
       <c r="K57" s="3">
         <v>909200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>963200</v>
+        <v>1033200</v>
       </c>
       <c r="E58" s="3">
-        <v>898800</v>
+        <v>943300</v>
       </c>
       <c r="F58" s="3">
-        <v>543600</v>
+        <v>880200</v>
       </c>
       <c r="G58" s="3">
-        <v>487700</v>
+        <v>532400</v>
       </c>
       <c r="H58" s="3">
-        <v>321700</v>
+        <v>477600</v>
       </c>
       <c r="I58" s="3">
-        <v>468400</v>
+        <v>315100</v>
       </c>
       <c r="J58" s="3">
-        <v>372800</v>
+        <v>458700</v>
       </c>
       <c r="K58" s="3">
         <v>90900</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1149700</v>
+        <v>79500</v>
       </c>
       <c r="E59" s="3">
-        <v>705600</v>
+        <v>1125900</v>
       </c>
       <c r="F59" s="3">
-        <v>770300</v>
+        <v>691000</v>
       </c>
       <c r="G59" s="3">
-        <v>746300</v>
+        <v>754400</v>
       </c>
       <c r="H59" s="3">
-        <v>646000</v>
+        <v>730900</v>
       </c>
       <c r="I59" s="3">
-        <v>606000</v>
+        <v>632600</v>
       </c>
       <c r="J59" s="3">
-        <v>539100</v>
+        <v>593500</v>
       </c>
       <c r="K59" s="3">
         <v>539500</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3551000</v>
+        <v>3617300</v>
       </c>
       <c r="E60" s="3">
-        <v>3025900</v>
+        <v>3477600</v>
       </c>
       <c r="F60" s="3">
-        <v>2836600</v>
+        <v>2963300</v>
       </c>
       <c r="G60" s="3">
-        <v>2607900</v>
+        <v>2778000</v>
       </c>
       <c r="H60" s="3">
-        <v>2181400</v>
+        <v>2554000</v>
       </c>
       <c r="I60" s="3">
-        <v>2053400</v>
+        <v>2136300</v>
       </c>
       <c r="J60" s="3">
-        <v>1840000</v>
+        <v>2010900</v>
       </c>
       <c r="K60" s="3">
         <v>1539600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2640400</v>
+        <v>2337700</v>
       </c>
       <c r="E61" s="3">
-        <v>2226100</v>
+        <v>2585800</v>
       </c>
       <c r="F61" s="3">
-        <v>1938500</v>
+        <v>2180100</v>
       </c>
       <c r="G61" s="3">
-        <v>1995600</v>
+        <v>1898400</v>
       </c>
       <c r="H61" s="3">
-        <v>1708600</v>
+        <v>1954300</v>
       </c>
       <c r="I61" s="3">
-        <v>1409400</v>
+        <v>1673300</v>
       </c>
       <c r="J61" s="3">
-        <v>1215700</v>
+        <v>1380200</v>
       </c>
       <c r="K61" s="3">
         <v>1134100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>344800</v>
+        <v>445800</v>
       </c>
       <c r="E62" s="3">
-        <v>306300</v>
+        <v>337600</v>
       </c>
       <c r="F62" s="3">
-        <v>365100</v>
+        <v>300000</v>
       </c>
       <c r="G62" s="3">
-        <v>376200</v>
+        <v>357600</v>
       </c>
       <c r="H62" s="3">
-        <v>362300</v>
+        <v>368400</v>
       </c>
       <c r="I62" s="3">
-        <v>271900</v>
+        <v>354800</v>
       </c>
       <c r="J62" s="3">
-        <v>300400</v>
+        <v>266300</v>
       </c>
       <c r="K62" s="3">
         <v>303000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6536100</v>
+        <v>6400900</v>
       </c>
       <c r="E66" s="3">
-        <v>5558300</v>
+        <v>6401000</v>
       </c>
       <c r="F66" s="3">
-        <v>5140200</v>
+        <v>5443400</v>
       </c>
       <c r="G66" s="3">
-        <v>4979600</v>
+        <v>5033900</v>
       </c>
       <c r="H66" s="3">
-        <v>4252300</v>
+        <v>4876700</v>
       </c>
       <c r="I66" s="3">
-        <v>3734700</v>
+        <v>4164400</v>
       </c>
       <c r="J66" s="3">
-        <v>3356100</v>
+        <v>3657500</v>
       </c>
       <c r="K66" s="3">
         <v>2976700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2420300</v>
+        <v>2829400</v>
       </c>
       <c r="E72" s="3">
-        <v>2084800</v>
+        <v>2370300</v>
       </c>
       <c r="F72" s="3">
-        <v>1904700</v>
+        <v>2041700</v>
       </c>
       <c r="G72" s="3">
-        <v>1581900</v>
+        <v>1865300</v>
       </c>
       <c r="H72" s="3">
-        <v>1340300</v>
+        <v>1549200</v>
       </c>
       <c r="I72" s="3">
-        <v>1227500</v>
+        <v>1312600</v>
       </c>
       <c r="J72" s="3">
-        <v>1093900</v>
+        <v>1202200</v>
       </c>
       <c r="K72" s="3">
         <v>1099600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2554500</v>
+        <v>2873000</v>
       </c>
       <c r="E76" s="3">
-        <v>2321800</v>
+        <v>2501700</v>
       </c>
       <c r="F76" s="3">
-        <v>2255500</v>
+        <v>2273900</v>
       </c>
       <c r="G76" s="3">
-        <v>1928200</v>
+        <v>2208900</v>
       </c>
       <c r="H76" s="3">
-        <v>1747100</v>
+        <v>1888400</v>
       </c>
       <c r="I76" s="3">
-        <v>1352800</v>
+        <v>1711000</v>
       </c>
       <c r="J76" s="3">
-        <v>1309700</v>
+        <v>1324800</v>
       </c>
       <c r="K76" s="3">
         <v>1251400</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>572400</v>
+        <v>560500</v>
       </c>
       <c r="E81" s="3">
-        <v>464800</v>
+        <v>455200</v>
       </c>
       <c r="F81" s="3">
-        <v>434600</v>
+        <v>425600</v>
       </c>
       <c r="G81" s="3">
-        <v>413300</v>
+        <v>404800</v>
       </c>
       <c r="H81" s="3">
-        <v>353900</v>
+        <v>346600</v>
       </c>
       <c r="I81" s="3">
-        <v>309700</v>
+        <v>303300</v>
       </c>
       <c r="J81" s="3">
-        <v>280500</v>
+        <v>274700</v>
       </c>
       <c r="K81" s="3">
         <v>275300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>362200</v>
+        <v>354700</v>
       </c>
       <c r="E83" s="3">
-        <v>355800</v>
+        <v>348400</v>
       </c>
       <c r="F83" s="3">
-        <v>191300</v>
+        <v>187300</v>
       </c>
       <c r="G83" s="3">
-        <v>170200</v>
+        <v>166700</v>
       </c>
       <c r="H83" s="3">
-        <v>144700</v>
+        <v>141700</v>
       </c>
       <c r="I83" s="3">
-        <v>121000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>114900</v>
+        <v>118500</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>112100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1051800</v>
+        <v>1030100</v>
       </c>
       <c r="E89" s="3">
-        <v>890900</v>
+        <v>872500</v>
       </c>
       <c r="F89" s="3">
-        <v>638900</v>
+        <v>625700</v>
       </c>
       <c r="G89" s="3">
-        <v>633100</v>
+        <v>620000</v>
       </c>
       <c r="H89" s="3">
-        <v>541100</v>
+        <v>529900</v>
       </c>
       <c r="I89" s="3">
-        <v>439000</v>
+        <v>429900</v>
       </c>
       <c r="J89" s="3">
-        <v>436300</v>
+        <v>427300</v>
       </c>
       <c r="K89" s="3">
         <v>452700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-44100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-49100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-41400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-45000</v>
-      </c>
       <c r="H91" s="3">
-        <v>-33800</v>
+        <v>-33100</v>
       </c>
       <c r="I91" s="3">
-        <v>-33000</v>
+        <v>-32300</v>
       </c>
       <c r="J91" s="3">
-        <v>-33400</v>
+        <v>-32700</v>
       </c>
       <c r="K91" s="3">
         <v>-35300</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-505800</v>
+        <v>-495400</v>
       </c>
       <c r="E94" s="3">
-        <v>-216400</v>
+        <v>-212000</v>
       </c>
       <c r="F94" s="3">
-        <v>-188700</v>
+        <v>-184800</v>
       </c>
       <c r="G94" s="3">
-        <v>-805600</v>
+        <v>-788900</v>
       </c>
       <c r="H94" s="3">
-        <v>-237600</v>
+        <v>-232700</v>
       </c>
       <c r="I94" s="3">
-        <v>-463400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-233900</v>
+        <v>-453800</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-369600</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-228300</v>
+        <v>-223600</v>
       </c>
       <c r="E96" s="3">
-        <v>-222700</v>
+        <v>-218100</v>
       </c>
       <c r="F96" s="3">
-        <v>-202600</v>
+        <v>-198400</v>
       </c>
       <c r="G96" s="3">
-        <v>-184000</v>
+        <v>-180200</v>
       </c>
       <c r="H96" s="3">
-        <v>-166900</v>
+        <v>-163500</v>
       </c>
       <c r="I96" s="3">
-        <v>-154500</v>
+        <v>-151300</v>
       </c>
       <c r="J96" s="3">
-        <v>-140600</v>
+        <v>-137700</v>
       </c>
       <c r="K96" s="3">
         <v>-122200</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-162700</v>
+        <v>-159300</v>
       </c>
       <c r="E100" s="3">
-        <v>-655200</v>
+        <v>-641600</v>
       </c>
       <c r="F100" s="3">
-        <v>-408500</v>
+        <v>-400100</v>
       </c>
       <c r="G100" s="3">
-        <v>155500</v>
+        <v>152300</v>
       </c>
       <c r="H100" s="3">
-        <v>-257600</v>
+        <v>-252200</v>
       </c>
       <c r="I100" s="3">
-        <v>29000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-190300</v>
+        <v>28400</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-91900</v>
@@ -3714,7 +3714,7 @@
         <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-23800</v>
+        <v>-23300</v>
       </c>
       <c r="F101" s="3">
         <v>800</v>
@@ -3723,13 +3723,13 @@
         <v>-2100</v>
       </c>
       <c r="H101" s="3">
-        <v>55200</v>
+        <v>54100</v>
       </c>
       <c r="I101" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-2100</v>
+        <v>-9300</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-3200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>384600</v>
+        <v>376600</v>
       </c>
       <c r="E102" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="F102" s="3">
-        <v>42500</v>
+        <v>41600</v>
       </c>
       <c r="G102" s="3">
-        <v>-19200</v>
+        <v>-18800</v>
       </c>
       <c r="H102" s="3">
-        <v>101200</v>
+        <v>99100</v>
       </c>
       <c r="I102" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="J102" s="3">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="K102" s="3">
         <v>-12000</v>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>BZLFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13180700</v>
+        <v>12546800</v>
       </c>
       <c r="E8" s="3">
-        <v>12158200</v>
+        <v>12334500</v>
       </c>
       <c r="F8" s="3">
-        <v>11835800</v>
+        <v>11377600</v>
       </c>
       <c r="G8" s="3">
-        <v>11186000</v>
+        <v>11076000</v>
       </c>
       <c r="H8" s="3">
-        <v>9684500</v>
+        <v>10467800</v>
       </c>
       <c r="I8" s="3">
-        <v>8459900</v>
+        <v>9062800</v>
       </c>
       <c r="J8" s="3">
+        <v>7916800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8025600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8118500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6928400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6728100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9811200</v>
+        <v>9469500</v>
       </c>
       <c r="E9" s="3">
-        <v>9168400</v>
+        <v>9181300</v>
       </c>
       <c r="F9" s="3">
-        <v>8931900</v>
+        <v>8579800</v>
       </c>
       <c r="G9" s="3">
-        <v>8461100</v>
+        <v>8358500</v>
       </c>
       <c r="H9" s="3">
-        <v>7326300</v>
+        <v>7917900</v>
       </c>
       <c r="I9" s="3">
-        <v>6423000</v>
+        <v>6856000</v>
       </c>
       <c r="J9" s="3">
+        <v>6010700</v>
+      </c>
+      <c r="K9" s="3">
         <v>6073700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6175400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5324100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5143000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3369500</v>
+        <v>3077300</v>
       </c>
       <c r="E10" s="3">
-        <v>2989800</v>
+        <v>3153200</v>
       </c>
       <c r="F10" s="3">
-        <v>2903900</v>
+        <v>2797800</v>
       </c>
       <c r="G10" s="3">
-        <v>2724900</v>
+        <v>2717400</v>
       </c>
       <c r="H10" s="3">
-        <v>2358200</v>
+        <v>2550000</v>
       </c>
       <c r="I10" s="3">
-        <v>2036900</v>
+        <v>2206800</v>
       </c>
       <c r="J10" s="3">
+        <v>1906100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1951900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1943000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1604400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1585200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>77600</v>
+        <v>28100</v>
       </c>
       <c r="E14" s="3">
-        <v>22900</v>
+        <v>72600</v>
       </c>
       <c r="F14" s="3">
-        <v>30100</v>
+        <v>21500</v>
       </c>
       <c r="G14" s="3">
-        <v>47800</v>
+        <v>28200</v>
       </c>
       <c r="H14" s="3">
-        <v>44300</v>
+        <v>44800</v>
       </c>
       <c r="I14" s="3">
-        <v>28300</v>
+        <v>41500</v>
       </c>
       <c r="J14" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K14" s="3">
         <v>34000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>32000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>354700</v>
+        <v>338800</v>
       </c>
       <c r="E15" s="3">
-        <v>348400</v>
+        <v>331900</v>
       </c>
       <c r="F15" s="3">
-        <v>187300</v>
+        <v>326100</v>
       </c>
       <c r="G15" s="3">
-        <v>166700</v>
+        <v>175300</v>
       </c>
       <c r="H15" s="3">
-        <v>141700</v>
+        <v>156000</v>
       </c>
       <c r="I15" s="3">
-        <v>118500</v>
+        <v>132600</v>
       </c>
       <c r="J15" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K15" s="3">
         <v>112500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>112100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>91400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>94700</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12374500</v>
+        <v>11786400</v>
       </c>
       <c r="E17" s="3">
-        <v>11469400</v>
+        <v>11580000</v>
       </c>
       <c r="F17" s="3">
-        <v>11210400</v>
+        <v>10733000</v>
       </c>
       <c r="G17" s="3">
-        <v>10591500</v>
+        <v>10490700</v>
       </c>
       <c r="H17" s="3">
-        <v>9150400</v>
+        <v>9911600</v>
       </c>
       <c r="I17" s="3">
-        <v>7982100</v>
+        <v>8563000</v>
       </c>
       <c r="J17" s="3">
+        <v>7469700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7580000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7691000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6537100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6360400</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>806300</v>
+        <v>760400</v>
       </c>
       <c r="E18" s="3">
-        <v>688800</v>
+        <v>754500</v>
       </c>
       <c r="F18" s="3">
-        <v>625500</v>
+        <v>644600</v>
       </c>
       <c r="G18" s="3">
-        <v>594400</v>
+        <v>585300</v>
       </c>
       <c r="H18" s="3">
-        <v>534100</v>
+        <v>556300</v>
       </c>
       <c r="I18" s="3">
-        <v>477800</v>
+        <v>499800</v>
       </c>
       <c r="J18" s="3">
+        <v>447100</v>
+      </c>
+      <c r="K18" s="3">
         <v>445600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>427500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>391300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>367800</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H20" s="3">
         <v>5100</v>
       </c>
-      <c r="E20" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3800</v>
-      </c>
       <c r="I20" s="3">
-        <v>-700</v>
+        <v>3500</v>
       </c>
       <c r="J20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-69800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1170000</v>
+        <v>1108400</v>
       </c>
       <c r="E21" s="3">
-        <v>1047400</v>
+        <v>1092600</v>
       </c>
       <c r="F21" s="3">
-        <v>821100</v>
+        <v>977900</v>
       </c>
       <c r="G21" s="3">
-        <v>768500</v>
+        <v>767200</v>
       </c>
       <c r="H21" s="3">
-        <v>681100</v>
+        <v>718100</v>
       </c>
       <c r="I21" s="3">
-        <v>596900</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>636500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>557800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>551500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>491300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>405300</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>86900</v>
+        <v>74400</v>
       </c>
       <c r="E22" s="3">
-        <v>104200</v>
+        <v>81400</v>
       </c>
       <c r="F22" s="3">
-        <v>78000</v>
+        <v>97500</v>
       </c>
       <c r="G22" s="3">
-        <v>66400</v>
+        <v>73000</v>
       </c>
       <c r="H22" s="3">
-        <v>64800</v>
+        <v>62100</v>
       </c>
       <c r="I22" s="3">
-        <v>56400</v>
+        <v>60600</v>
       </c>
       <c r="J22" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K22" s="3">
         <v>54000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>44200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>42900</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>724400</v>
+        <v>693800</v>
       </c>
       <c r="E23" s="3">
-        <v>590900</v>
+        <v>677900</v>
       </c>
       <c r="F23" s="3">
-        <v>553800</v>
+        <v>553000</v>
       </c>
       <c r="G23" s="3">
-        <v>533600</v>
+        <v>518200</v>
       </c>
       <c r="H23" s="3">
-        <v>473100</v>
+        <v>499300</v>
       </c>
       <c r="I23" s="3">
-        <v>420700</v>
+        <v>442700</v>
       </c>
       <c r="J23" s="3">
+        <v>393700</v>
+      </c>
+      <c r="K23" s="3">
         <v>390800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>386000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>341000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>255100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>163900</v>
+        <v>153600</v>
       </c>
       <c r="E24" s="3">
-        <v>135700</v>
+        <v>153300</v>
       </c>
       <c r="F24" s="3">
-        <v>128100</v>
+        <v>127000</v>
       </c>
       <c r="G24" s="3">
-        <v>128800</v>
+        <v>119900</v>
       </c>
       <c r="H24" s="3">
-        <v>126400</v>
+        <v>120500</v>
       </c>
       <c r="I24" s="3">
-        <v>117300</v>
+        <v>118300</v>
       </c>
       <c r="J24" s="3">
+        <v>109800</v>
+      </c>
+      <c r="K24" s="3">
         <v>116100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>110600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>93700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>92000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>560500</v>
+        <v>540200</v>
       </c>
       <c r="E26" s="3">
-        <v>455200</v>
+        <v>524600</v>
       </c>
       <c r="F26" s="3">
-        <v>425600</v>
+        <v>426000</v>
       </c>
       <c r="G26" s="3">
-        <v>404800</v>
+        <v>398300</v>
       </c>
       <c r="H26" s="3">
-        <v>346600</v>
+        <v>378800</v>
       </c>
       <c r="I26" s="3">
-        <v>303300</v>
+        <v>324400</v>
       </c>
       <c r="J26" s="3">
+        <v>283900</v>
+      </c>
+      <c r="K26" s="3">
         <v>274700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>275300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>247300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>163000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>560500</v>
+        <v>540200</v>
       </c>
       <c r="E27" s="3">
-        <v>455200</v>
+        <v>524600</v>
       </c>
       <c r="F27" s="3">
-        <v>425600</v>
+        <v>426000</v>
       </c>
       <c r="G27" s="3">
-        <v>404800</v>
+        <v>398300</v>
       </c>
       <c r="H27" s="3">
-        <v>346600</v>
+        <v>378800</v>
       </c>
       <c r="I27" s="3">
-        <v>303300</v>
+        <v>324400</v>
       </c>
       <c r="J27" s="3">
+        <v>283900</v>
+      </c>
+      <c r="K27" s="3">
         <v>274700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>275300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>247300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>163000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H32" s="3">
         <v>-5100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3800</v>
-      </c>
       <c r="I32" s="3">
-        <v>700</v>
+        <v>-3500</v>
       </c>
       <c r="J32" s="3">
+        <v>600</v>
+      </c>
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>69800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>560500</v>
+        <v>540200</v>
       </c>
       <c r="E33" s="3">
-        <v>455200</v>
+        <v>524600</v>
       </c>
       <c r="F33" s="3">
-        <v>425600</v>
+        <v>426000</v>
       </c>
       <c r="G33" s="3">
-        <v>404800</v>
+        <v>398300</v>
       </c>
       <c r="H33" s="3">
-        <v>346600</v>
+        <v>378800</v>
       </c>
       <c r="I33" s="3">
-        <v>303300</v>
+        <v>324400</v>
       </c>
       <c r="J33" s="3">
+        <v>283900</v>
+      </c>
+      <c r="K33" s="3">
         <v>274700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>275300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>247300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>163000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>560500</v>
+        <v>540200</v>
       </c>
       <c r="E35" s="3">
-        <v>455200</v>
+        <v>524600</v>
       </c>
       <c r="F35" s="3">
-        <v>425600</v>
+        <v>426000</v>
       </c>
       <c r="G35" s="3">
-        <v>404800</v>
+        <v>398300</v>
       </c>
       <c r="H35" s="3">
-        <v>346600</v>
+        <v>378800</v>
       </c>
       <c r="I35" s="3">
-        <v>303300</v>
+        <v>324400</v>
       </c>
       <c r="J35" s="3">
+        <v>283900</v>
+      </c>
+      <c r="K35" s="3">
         <v>274700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>275300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>247300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>163000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1012800</v>
+        <v>947700</v>
       </c>
       <c r="E41" s="3">
-        <v>1231000</v>
+        <v>1152000</v>
       </c>
       <c r="F41" s="3">
-        <v>795800</v>
+        <v>744700</v>
       </c>
       <c r="G41" s="3">
-        <v>622700</v>
+        <v>582700</v>
       </c>
       <c r="H41" s="3">
-        <v>434900</v>
+        <v>407000</v>
       </c>
       <c r="I41" s="3">
-        <v>368100</v>
+        <v>344500</v>
       </c>
       <c r="J41" s="3">
+        <v>343800</v>
+      </c>
+      <c r="K41" s="3">
         <v>367400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>204500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>83700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1798,158 +1887,173 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>5400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1875900</v>
+        <v>1649500</v>
       </c>
       <c r="E43" s="3">
-        <v>1702900</v>
+        <v>1593600</v>
       </c>
       <c r="F43" s="3">
-        <v>1551900</v>
+        <v>1452300</v>
       </c>
       <c r="G43" s="3">
-        <v>1642300</v>
+        <v>1536800</v>
       </c>
       <c r="H43" s="3">
-        <v>1549800</v>
+        <v>1450300</v>
       </c>
       <c r="I43" s="3">
-        <v>1432800</v>
+        <v>1340800</v>
       </c>
       <c r="J43" s="3">
+        <v>1081400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1155600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1852100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2783800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>803800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1921500</v>
+        <v>1798100</v>
       </c>
       <c r="E44" s="3">
-        <v>1867000</v>
+        <v>1747100</v>
       </c>
       <c r="F44" s="3">
-        <v>1534600</v>
+        <v>1436100</v>
       </c>
       <c r="G44" s="3">
-        <v>1582000</v>
+        <v>1480500</v>
       </c>
       <c r="H44" s="3">
-        <v>1388200</v>
+        <v>1299100</v>
       </c>
       <c r="I44" s="3">
-        <v>1252600</v>
+        <v>1172200</v>
       </c>
       <c r="J44" s="3">
+        <v>1937700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2070600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>858900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2263200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>696100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19400</v>
+        <v>124100</v>
       </c>
       <c r="E45" s="3">
-        <v>141700</v>
+        <v>132600</v>
       </c>
       <c r="F45" s="3">
-        <v>96100</v>
+        <v>89900</v>
       </c>
       <c r="G45" s="3">
-        <v>113200</v>
+        <v>105900</v>
       </c>
       <c r="H45" s="3">
-        <v>145900</v>
+        <v>136500</v>
       </c>
       <c r="I45" s="3">
-        <v>99900</v>
+        <v>93400</v>
       </c>
       <c r="J45" s="3">
+        <v>334600</v>
+      </c>
+      <c r="K45" s="3">
         <v>357600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>229300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>399000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>171600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4829500</v>
+        <v>4519500</v>
       </c>
       <c r="E46" s="3">
-        <v>4942600</v>
+        <v>4625300</v>
       </c>
       <c r="F46" s="3">
-        <v>3978400</v>
+        <v>3723000</v>
       </c>
       <c r="G46" s="3">
-        <v>3960200</v>
+        <v>3705900</v>
       </c>
       <c r="H46" s="3">
-        <v>3518800</v>
+        <v>3292900</v>
       </c>
       <c r="I46" s="3">
-        <v>3153400</v>
+        <v>2950900</v>
       </c>
       <c r="J46" s="3">
+        <v>2490300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2661100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2112000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1918400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1769100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1981,83 +2085,92 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>700</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>742000</v>
+        <v>694400</v>
       </c>
       <c r="E48" s="3">
-        <v>751000</v>
+        <v>702800</v>
       </c>
       <c r="F48" s="3">
-        <v>718500</v>
+        <v>672400</v>
       </c>
       <c r="G48" s="3">
-        <v>159600</v>
+        <v>149300</v>
       </c>
       <c r="H48" s="3">
-        <v>163200</v>
+        <v>152700</v>
       </c>
       <c r="I48" s="3">
-        <v>160700</v>
+        <v>150400</v>
       </c>
       <c r="J48" s="3">
+        <v>137400</v>
+      </c>
+      <c r="K48" s="3">
         <v>146800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>158200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>431300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>143500</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3606800</v>
+        <v>3375200</v>
       </c>
       <c r="E49" s="3">
-        <v>3183200</v>
+        <v>2978900</v>
       </c>
       <c r="F49" s="3">
-        <v>2986400</v>
+        <v>2794700</v>
       </c>
       <c r="G49" s="3">
-        <v>3105800</v>
+        <v>2906400</v>
       </c>
       <c r="H49" s="3">
-        <v>3065700</v>
+        <v>2868800</v>
       </c>
       <c r="I49" s="3">
-        <v>2538900</v>
+        <v>2375900</v>
       </c>
       <c r="J49" s="3">
+        <v>2008100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2145800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1939700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3466300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1654900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>95600</v>
+        <v>89400</v>
       </c>
       <c r="E52" s="3">
-        <v>25900</v>
+        <v>24300</v>
       </c>
       <c r="F52" s="3">
-        <v>33900</v>
+        <v>31700</v>
       </c>
       <c r="G52" s="3">
-        <v>17300</v>
+        <v>16200</v>
       </c>
       <c r="H52" s="3">
-        <v>17500</v>
+        <v>16300</v>
       </c>
       <c r="I52" s="3">
-        <v>22400</v>
+        <v>21000</v>
       </c>
       <c r="J52" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K52" s="3">
         <v>28500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>18200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>41600</v>
       </c>
       <c r="M52" s="3">
         <v>41600</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>41600</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9273900</v>
+        <v>8678500</v>
       </c>
       <c r="E54" s="3">
-        <v>8902700</v>
+        <v>8331200</v>
       </c>
       <c r="F54" s="3">
-        <v>7717300</v>
+        <v>7221800</v>
       </c>
       <c r="G54" s="3">
-        <v>7242900</v>
+        <v>6777900</v>
       </c>
       <c r="H54" s="3">
-        <v>6765100</v>
+        <v>6330800</v>
       </c>
       <c r="I54" s="3">
-        <v>5875400</v>
+        <v>5498200</v>
       </c>
       <c r="J54" s="3">
+        <v>4662500</v>
+      </c>
+      <c r="K54" s="3">
         <v>4982300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4228100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3816000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3609800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2504600</v>
+        <v>1484100</v>
       </c>
       <c r="E57" s="3">
-        <v>1408400</v>
+        <v>1318000</v>
       </c>
       <c r="F57" s="3">
-        <v>1392100</v>
+        <v>1302700</v>
       </c>
       <c r="G57" s="3">
-        <v>1491200</v>
+        <v>1395400</v>
       </c>
       <c r="H57" s="3">
-        <v>1345400</v>
+        <v>1259100</v>
       </c>
       <c r="I57" s="3">
-        <v>1188600</v>
+        <v>1112300</v>
       </c>
       <c r="J57" s="3">
+        <v>897100</v>
+      </c>
+      <c r="K57" s="3">
         <v>958700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>909200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2013400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>846300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1033200</v>
+        <v>966900</v>
       </c>
       <c r="E58" s="3">
-        <v>943300</v>
+        <v>882700</v>
       </c>
       <c r="F58" s="3">
-        <v>880200</v>
+        <v>823700</v>
       </c>
       <c r="G58" s="3">
-        <v>532400</v>
+        <v>498200</v>
       </c>
       <c r="H58" s="3">
-        <v>477600</v>
+        <v>447000</v>
       </c>
       <c r="I58" s="3">
-        <v>315100</v>
+        <v>294800</v>
       </c>
       <c r="J58" s="3">
+        <v>429300</v>
+      </c>
+      <c r="K58" s="3">
         <v>458700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>90900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>595500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>87800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>79500</v>
+        <v>934100</v>
       </c>
       <c r="E59" s="3">
-        <v>1125900</v>
+        <v>1053600</v>
       </c>
       <c r="F59" s="3">
-        <v>691000</v>
+        <v>646700</v>
       </c>
       <c r="G59" s="3">
-        <v>754400</v>
+        <v>706000</v>
       </c>
       <c r="H59" s="3">
-        <v>730900</v>
+        <v>684000</v>
       </c>
       <c r="I59" s="3">
-        <v>632600</v>
+        <v>592000</v>
       </c>
       <c r="J59" s="3">
+        <v>555400</v>
+      </c>
+      <c r="K59" s="3">
         <v>593500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>539500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>869000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>376700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3617300</v>
+        <v>3385100</v>
       </c>
       <c r="E60" s="3">
-        <v>3477600</v>
+        <v>3254300</v>
       </c>
       <c r="F60" s="3">
-        <v>2963300</v>
+        <v>2773100</v>
       </c>
       <c r="G60" s="3">
-        <v>2778000</v>
+        <v>2599600</v>
       </c>
       <c r="H60" s="3">
-        <v>2554000</v>
+        <v>2390000</v>
       </c>
       <c r="I60" s="3">
-        <v>2136300</v>
+        <v>1999200</v>
       </c>
       <c r="J60" s="3">
+        <v>1881800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2010900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1539600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1571700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1310900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2337700</v>
+        <v>2187600</v>
       </c>
       <c r="E61" s="3">
-        <v>2585800</v>
+        <v>2419800</v>
       </c>
       <c r="F61" s="3">
-        <v>2180100</v>
+        <v>2040200</v>
       </c>
       <c r="G61" s="3">
-        <v>1898400</v>
+        <v>1776500</v>
       </c>
       <c r="H61" s="3">
-        <v>1954300</v>
+        <v>1828900</v>
       </c>
       <c r="I61" s="3">
-        <v>1673300</v>
+        <v>1565900</v>
       </c>
       <c r="J61" s="3">
+        <v>1291600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1380200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1134100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>774700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>893800</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>445800</v>
+        <v>417200</v>
       </c>
       <c r="E62" s="3">
-        <v>337600</v>
+        <v>316000</v>
       </c>
       <c r="F62" s="3">
-        <v>300000</v>
+        <v>280700</v>
       </c>
       <c r="G62" s="3">
-        <v>357600</v>
+        <v>334600</v>
       </c>
       <c r="H62" s="3">
-        <v>368400</v>
+        <v>344700</v>
       </c>
       <c r="I62" s="3">
-        <v>354800</v>
+        <v>332100</v>
       </c>
       <c r="J62" s="3">
+        <v>249200</v>
+      </c>
+      <c r="K62" s="3">
         <v>266300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>303000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>649800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>342900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6400900</v>
+        <v>5990000</v>
       </c>
       <c r="E66" s="3">
-        <v>6401000</v>
+        <v>5990100</v>
       </c>
       <c r="F66" s="3">
-        <v>5443400</v>
+        <v>5093900</v>
       </c>
       <c r="G66" s="3">
-        <v>5033900</v>
+        <v>4710800</v>
       </c>
       <c r="H66" s="3">
-        <v>4876700</v>
+        <v>4563600</v>
       </c>
       <c r="I66" s="3">
-        <v>4164400</v>
+        <v>3897100</v>
       </c>
       <c r="J66" s="3">
+        <v>3422700</v>
+      </c>
+      <c r="K66" s="3">
         <v>3657500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2976700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2671200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2547600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2829400</v>
+        <v>2647300</v>
       </c>
       <c r="E72" s="3">
-        <v>2370300</v>
+        <v>2218100</v>
       </c>
       <c r="F72" s="3">
-        <v>2041700</v>
+        <v>1910600</v>
       </c>
       <c r="G72" s="3">
-        <v>1865300</v>
+        <v>1745600</v>
       </c>
       <c r="H72" s="3">
-        <v>1549200</v>
+        <v>1449700</v>
       </c>
       <c r="I72" s="3">
-        <v>1312600</v>
+        <v>1228300</v>
       </c>
       <c r="J72" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1202200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1099600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1894000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>683700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2873000</v>
+        <v>2688500</v>
       </c>
       <c r="E76" s="3">
-        <v>2501700</v>
+        <v>2341100</v>
       </c>
       <c r="F76" s="3">
-        <v>2273900</v>
+        <v>2127900</v>
       </c>
       <c r="G76" s="3">
-        <v>2208900</v>
+        <v>2067100</v>
       </c>
       <c r="H76" s="3">
-        <v>1888400</v>
+        <v>1767100</v>
       </c>
       <c r="I76" s="3">
-        <v>1711000</v>
+        <v>1601100</v>
       </c>
       <c r="J76" s="3">
+        <v>1239800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1324800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1251400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1144800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1062300</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>560500</v>
+        <v>540200</v>
       </c>
       <c r="E81" s="3">
-        <v>455200</v>
+        <v>524600</v>
       </c>
       <c r="F81" s="3">
-        <v>425600</v>
+        <v>426000</v>
       </c>
       <c r="G81" s="3">
-        <v>404800</v>
+        <v>398300</v>
       </c>
       <c r="H81" s="3">
-        <v>346600</v>
+        <v>378800</v>
       </c>
       <c r="I81" s="3">
-        <v>303300</v>
+        <v>324400</v>
       </c>
       <c r="J81" s="3">
+        <v>283900</v>
+      </c>
+      <c r="K81" s="3">
         <v>274700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>275300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>247300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>163000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>354700</v>
+        <v>338800</v>
       </c>
       <c r="E83" s="3">
-        <v>348400</v>
+        <v>331900</v>
       </c>
       <c r="F83" s="3">
-        <v>187300</v>
+        <v>326100</v>
       </c>
       <c r="G83" s="3">
-        <v>166700</v>
+        <v>175300</v>
       </c>
       <c r="H83" s="3">
-        <v>141700</v>
+        <v>156000</v>
       </c>
       <c r="I83" s="3">
-        <v>118500</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>132600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>112100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>105500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>107700</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1030100</v>
+        <v>894300</v>
       </c>
       <c r="E89" s="3">
-        <v>872500</v>
+        <v>964000</v>
       </c>
       <c r="F89" s="3">
-        <v>625700</v>
+        <v>816500</v>
       </c>
       <c r="G89" s="3">
-        <v>620000</v>
+        <v>585600</v>
       </c>
       <c r="H89" s="3">
-        <v>529900</v>
+        <v>580200</v>
       </c>
       <c r="I89" s="3">
-        <v>429900</v>
+        <v>495900</v>
       </c>
       <c r="J89" s="3">
+        <v>402300</v>
+      </c>
+      <c r="K89" s="3">
         <v>427300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>452700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>343000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>414300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-43100</v>
+        <v>-39900</v>
       </c>
       <c r="E91" s="3">
-        <v>-48100</v>
+        <v>-40400</v>
       </c>
       <c r="F91" s="3">
-        <v>-40500</v>
+        <v>-45000</v>
       </c>
       <c r="G91" s="3">
-        <v>-44100</v>
+        <v>-37900</v>
       </c>
       <c r="H91" s="3">
-        <v>-33100</v>
+        <v>-41200</v>
       </c>
       <c r="I91" s="3">
-        <v>-32300</v>
+        <v>-31000</v>
       </c>
       <c r="J91" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-32700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-495400</v>
+        <v>-558700</v>
       </c>
       <c r="E94" s="3">
-        <v>-212000</v>
+        <v>-463600</v>
       </c>
       <c r="F94" s="3">
-        <v>-184800</v>
+        <v>-198400</v>
       </c>
       <c r="G94" s="3">
-        <v>-788900</v>
+        <v>-173000</v>
       </c>
       <c r="H94" s="3">
-        <v>-232700</v>
+        <v>-738300</v>
       </c>
       <c r="I94" s="3">
-        <v>-453800</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-217800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-424600</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-369600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-326400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-179900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-223600</v>
+        <v>-220100</v>
       </c>
       <c r="E96" s="3">
-        <v>-218100</v>
+        <v>-209200</v>
       </c>
       <c r="F96" s="3">
-        <v>-198400</v>
+        <v>-204100</v>
       </c>
       <c r="G96" s="3">
-        <v>-180200</v>
+        <v>-185700</v>
       </c>
       <c r="H96" s="3">
-        <v>-163500</v>
+        <v>-168600</v>
       </c>
       <c r="I96" s="3">
-        <v>-151300</v>
+        <v>-153000</v>
       </c>
       <c r="J96" s="3">
+        <v>-141600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-137700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-122200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-110800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-90700</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-159300</v>
+        <v>-559600</v>
       </c>
       <c r="E100" s="3">
-        <v>-641600</v>
+        <v>-149100</v>
       </c>
       <c r="F100" s="3">
-        <v>-400100</v>
+        <v>-600400</v>
       </c>
       <c r="G100" s="3">
-        <v>152300</v>
+        <v>-374400</v>
       </c>
       <c r="H100" s="3">
-        <v>-252200</v>
+        <v>142500</v>
       </c>
       <c r="I100" s="3">
-        <v>28400</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-236100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-91900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-270600</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1200</v>
+        <v>-25400</v>
       </c>
       <c r="E101" s="3">
-        <v>-23300</v>
+        <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>800</v>
+        <v>-21800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>54100</v>
+        <v>-2000</v>
       </c>
       <c r="I101" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>50600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>376600</v>
+        <v>-249300</v>
       </c>
       <c r="E102" s="3">
+        <v>352400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>38900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>92700</v>
+      </c>
+      <c r="J102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
-        <v>41600</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>99100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39400</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12546800</v>
+        <v>12166200</v>
       </c>
       <c r="E8" s="3">
-        <v>12334500</v>
+        <v>11960400</v>
       </c>
       <c r="F8" s="3">
-        <v>11377600</v>
+        <v>11032600</v>
       </c>
       <c r="G8" s="3">
-        <v>11076000</v>
+        <v>10740000</v>
       </c>
       <c r="H8" s="3">
-        <v>10467800</v>
+        <v>10150300</v>
       </c>
       <c r="I8" s="3">
-        <v>9062800</v>
+        <v>8787900</v>
       </c>
       <c r="J8" s="3">
-        <v>7916800</v>
+        <v>7676700</v>
       </c>
       <c r="K8" s="3">
         <v>8025600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9469500</v>
+        <v>9182300</v>
       </c>
       <c r="E9" s="3">
-        <v>9181300</v>
+        <v>8902900</v>
       </c>
       <c r="F9" s="3">
-        <v>8579800</v>
+        <v>8319600</v>
       </c>
       <c r="G9" s="3">
-        <v>8358500</v>
+        <v>8105000</v>
       </c>
       <c r="H9" s="3">
-        <v>7917900</v>
+        <v>7677700</v>
       </c>
       <c r="I9" s="3">
-        <v>6856000</v>
+        <v>6648000</v>
       </c>
       <c r="J9" s="3">
-        <v>6010700</v>
+        <v>5828400</v>
       </c>
       <c r="K9" s="3">
         <v>6073700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3077300</v>
+        <v>2984000</v>
       </c>
       <c r="E10" s="3">
-        <v>3153200</v>
+        <v>3057600</v>
       </c>
       <c r="F10" s="3">
-        <v>2797800</v>
+        <v>2713000</v>
       </c>
       <c r="G10" s="3">
-        <v>2717400</v>
+        <v>2635000</v>
       </c>
       <c r="H10" s="3">
-        <v>2550000</v>
+        <v>2472600</v>
       </c>
       <c r="I10" s="3">
-        <v>2206800</v>
+        <v>2139900</v>
       </c>
       <c r="J10" s="3">
-        <v>1906100</v>
+        <v>1848300</v>
       </c>
       <c r="K10" s="3">
         <v>1951900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="E14" s="3">
-        <v>72600</v>
+        <v>70400</v>
       </c>
       <c r="F14" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="G14" s="3">
-        <v>28200</v>
+        <v>27300</v>
       </c>
       <c r="H14" s="3">
-        <v>44800</v>
+        <v>43400</v>
       </c>
       <c r="I14" s="3">
-        <v>41500</v>
+        <v>40200</v>
       </c>
       <c r="J14" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="K14" s="3">
         <v>34000</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>338800</v>
+        <v>328500</v>
       </c>
       <c r="E15" s="3">
-        <v>331900</v>
+        <v>321900</v>
       </c>
       <c r="F15" s="3">
-        <v>326100</v>
+        <v>316200</v>
       </c>
       <c r="G15" s="3">
-        <v>175300</v>
+        <v>170000</v>
       </c>
       <c r="H15" s="3">
-        <v>156000</v>
+        <v>151300</v>
       </c>
       <c r="I15" s="3">
-        <v>132600</v>
+        <v>128600</v>
       </c>
       <c r="J15" s="3">
-        <v>110900</v>
+        <v>107500</v>
       </c>
       <c r="K15" s="3">
         <v>112500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11786400</v>
+        <v>11428900</v>
       </c>
       <c r="E17" s="3">
-        <v>11580000</v>
+        <v>11228800</v>
       </c>
       <c r="F17" s="3">
-        <v>10733000</v>
+        <v>10407500</v>
       </c>
       <c r="G17" s="3">
-        <v>10490700</v>
+        <v>10172500</v>
       </c>
       <c r="H17" s="3">
-        <v>9911600</v>
+        <v>9610900</v>
       </c>
       <c r="I17" s="3">
-        <v>8563000</v>
+        <v>8303200</v>
       </c>
       <c r="J17" s="3">
-        <v>7469700</v>
+        <v>7243100</v>
       </c>
       <c r="K17" s="3">
         <v>7580000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>760400</v>
+        <v>737300</v>
       </c>
       <c r="E18" s="3">
-        <v>754500</v>
+        <v>731600</v>
       </c>
       <c r="F18" s="3">
-        <v>644600</v>
+        <v>625000</v>
       </c>
       <c r="G18" s="3">
-        <v>585300</v>
+        <v>567600</v>
       </c>
       <c r="H18" s="3">
-        <v>556300</v>
+        <v>539400</v>
       </c>
       <c r="I18" s="3">
-        <v>499800</v>
+        <v>484600</v>
       </c>
       <c r="J18" s="3">
-        <v>447100</v>
+        <v>433500</v>
       </c>
       <c r="K18" s="3">
         <v>445600</v>
@@ -1122,22 +1122,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="E20" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="F20" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="H20" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J20" s="3">
         <v>-600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1108400</v>
+        <v>1072500</v>
       </c>
       <c r="E21" s="3">
-        <v>1092600</v>
+        <v>1057200</v>
       </c>
       <c r="F21" s="3">
-        <v>977900</v>
+        <v>946100</v>
       </c>
       <c r="G21" s="3">
-        <v>767200</v>
+        <v>742800</v>
       </c>
       <c r="H21" s="3">
-        <v>718100</v>
+        <v>695300</v>
       </c>
       <c r="I21" s="3">
-        <v>636500</v>
+        <v>616300</v>
       </c>
       <c r="J21" s="3">
-        <v>557800</v>
+        <v>540200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>74400</v>
+        <v>72200</v>
       </c>
       <c r="E22" s="3">
-        <v>81400</v>
+        <v>78900</v>
       </c>
       <c r="F22" s="3">
-        <v>97500</v>
+        <v>94500</v>
       </c>
       <c r="G22" s="3">
-        <v>73000</v>
+        <v>70700</v>
       </c>
       <c r="H22" s="3">
-        <v>62100</v>
+        <v>60200</v>
       </c>
       <c r="I22" s="3">
-        <v>60600</v>
+        <v>58800</v>
       </c>
       <c r="J22" s="3">
-        <v>52800</v>
+        <v>51200</v>
       </c>
       <c r="K22" s="3">
         <v>54000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>693800</v>
+        <v>672700</v>
       </c>
       <c r="E23" s="3">
-        <v>677900</v>
+        <v>657300</v>
       </c>
       <c r="F23" s="3">
-        <v>553000</v>
+        <v>536200</v>
       </c>
       <c r="G23" s="3">
-        <v>518200</v>
+        <v>502500</v>
       </c>
       <c r="H23" s="3">
-        <v>499300</v>
+        <v>484200</v>
       </c>
       <c r="I23" s="3">
-        <v>442700</v>
+        <v>429300</v>
       </c>
       <c r="J23" s="3">
-        <v>393700</v>
+        <v>381700</v>
       </c>
       <c r="K23" s="3">
         <v>390800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>153600</v>
+        <v>148900</v>
       </c>
       <c r="E24" s="3">
-        <v>153300</v>
+        <v>148700</v>
       </c>
       <c r="F24" s="3">
-        <v>127000</v>
+        <v>123100</v>
       </c>
       <c r="G24" s="3">
-        <v>119900</v>
+        <v>116300</v>
       </c>
       <c r="H24" s="3">
-        <v>120500</v>
+        <v>116900</v>
       </c>
       <c r="I24" s="3">
-        <v>118300</v>
+        <v>114700</v>
       </c>
       <c r="J24" s="3">
-        <v>109800</v>
+        <v>106500</v>
       </c>
       <c r="K24" s="3">
         <v>116100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>540200</v>
+        <v>523800</v>
       </c>
       <c r="E26" s="3">
-        <v>524600</v>
+        <v>508600</v>
       </c>
       <c r="F26" s="3">
-        <v>426000</v>
+        <v>413100</v>
       </c>
       <c r="G26" s="3">
-        <v>398300</v>
+        <v>386200</v>
       </c>
       <c r="H26" s="3">
-        <v>378800</v>
+        <v>367300</v>
       </c>
       <c r="I26" s="3">
-        <v>324400</v>
+        <v>314500</v>
       </c>
       <c r="J26" s="3">
-        <v>283900</v>
+        <v>275300</v>
       </c>
       <c r="K26" s="3">
         <v>274700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>540200</v>
+        <v>523800</v>
       </c>
       <c r="E27" s="3">
-        <v>524600</v>
+        <v>508600</v>
       </c>
       <c r="F27" s="3">
-        <v>426000</v>
+        <v>413100</v>
       </c>
       <c r="G27" s="3">
-        <v>398300</v>
+        <v>386200</v>
       </c>
       <c r="H27" s="3">
-        <v>378800</v>
+        <v>367300</v>
       </c>
       <c r="I27" s="3">
-        <v>324400</v>
+        <v>314500</v>
       </c>
       <c r="J27" s="3">
-        <v>283900</v>
+        <v>275300</v>
       </c>
       <c r="K27" s="3">
         <v>274700</v>
@@ -1590,22 +1590,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4800</v>
+        <v>-4600</v>
       </c>
       <c r="F32" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="H32" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="I32" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="J32" s="3">
         <v>600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>540200</v>
+        <v>523800</v>
       </c>
       <c r="E33" s="3">
-        <v>524600</v>
+        <v>508600</v>
       </c>
       <c r="F33" s="3">
-        <v>426000</v>
+        <v>413100</v>
       </c>
       <c r="G33" s="3">
-        <v>398300</v>
+        <v>386200</v>
       </c>
       <c r="H33" s="3">
-        <v>378800</v>
+        <v>367300</v>
       </c>
       <c r="I33" s="3">
-        <v>324400</v>
+        <v>314500</v>
       </c>
       <c r="J33" s="3">
-        <v>283900</v>
+        <v>275300</v>
       </c>
       <c r="K33" s="3">
         <v>274700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>540200</v>
+        <v>523800</v>
       </c>
       <c r="E35" s="3">
-        <v>524600</v>
+        <v>508600</v>
       </c>
       <c r="F35" s="3">
-        <v>426000</v>
+        <v>413100</v>
       </c>
       <c r="G35" s="3">
-        <v>398300</v>
+        <v>386200</v>
       </c>
       <c r="H35" s="3">
-        <v>378800</v>
+        <v>367300</v>
       </c>
       <c r="I35" s="3">
-        <v>324400</v>
+        <v>314500</v>
       </c>
       <c r="J35" s="3">
-        <v>283900</v>
+        <v>275300</v>
       </c>
       <c r="K35" s="3">
         <v>274700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>947700</v>
+        <v>919000</v>
       </c>
       <c r="E41" s="3">
-        <v>1152000</v>
+        <v>1117000</v>
       </c>
       <c r="F41" s="3">
-        <v>744700</v>
+        <v>722200</v>
       </c>
       <c r="G41" s="3">
-        <v>582700</v>
+        <v>565100</v>
       </c>
       <c r="H41" s="3">
-        <v>407000</v>
+        <v>394600</v>
       </c>
       <c r="I41" s="3">
-        <v>344500</v>
+        <v>334100</v>
       </c>
       <c r="J41" s="3">
-        <v>343800</v>
+        <v>333300</v>
       </c>
       <c r="K41" s="3">
         <v>367400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1649500</v>
+        <v>1599500</v>
       </c>
       <c r="E43" s="3">
-        <v>1593600</v>
+        <v>1545200</v>
       </c>
       <c r="F43" s="3">
-        <v>1452300</v>
+        <v>1408200</v>
       </c>
       <c r="G43" s="3">
-        <v>1536800</v>
+        <v>1490200</v>
       </c>
       <c r="H43" s="3">
-        <v>1450300</v>
+        <v>1406300</v>
       </c>
       <c r="I43" s="3">
-        <v>1340800</v>
+        <v>1300100</v>
       </c>
       <c r="J43" s="3">
-        <v>1081400</v>
+        <v>1048600</v>
       </c>
       <c r="K43" s="3">
         <v>1155600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1798100</v>
+        <v>1743600</v>
       </c>
       <c r="E44" s="3">
-        <v>1747100</v>
+        <v>1694100</v>
       </c>
       <c r="F44" s="3">
-        <v>1436100</v>
+        <v>1392500</v>
       </c>
       <c r="G44" s="3">
-        <v>1480500</v>
+        <v>1435600</v>
       </c>
       <c r="H44" s="3">
-        <v>1299100</v>
+        <v>1259700</v>
       </c>
       <c r="I44" s="3">
-        <v>1172200</v>
+        <v>1136600</v>
       </c>
       <c r="J44" s="3">
-        <v>1937700</v>
+        <v>1878900</v>
       </c>
       <c r="K44" s="3">
         <v>2070600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>124100</v>
+        <v>120300</v>
       </c>
       <c r="E45" s="3">
-        <v>132600</v>
+        <v>128600</v>
       </c>
       <c r="F45" s="3">
-        <v>89900</v>
+        <v>87200</v>
       </c>
       <c r="G45" s="3">
-        <v>105900</v>
+        <v>102700</v>
       </c>
       <c r="H45" s="3">
-        <v>136500</v>
+        <v>132400</v>
       </c>
       <c r="I45" s="3">
-        <v>93400</v>
+        <v>90600</v>
       </c>
       <c r="J45" s="3">
-        <v>334600</v>
+        <v>324500</v>
       </c>
       <c r="K45" s="3">
         <v>357600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4519500</v>
+        <v>4382400</v>
       </c>
       <c r="E46" s="3">
-        <v>4625300</v>
+        <v>4485000</v>
       </c>
       <c r="F46" s="3">
-        <v>3723000</v>
+        <v>3610100</v>
       </c>
       <c r="G46" s="3">
-        <v>3705900</v>
+        <v>3593500</v>
       </c>
       <c r="H46" s="3">
-        <v>3292900</v>
+        <v>3193000</v>
       </c>
       <c r="I46" s="3">
-        <v>2950900</v>
+        <v>2861400</v>
       </c>
       <c r="J46" s="3">
-        <v>2490300</v>
+        <v>2414800</v>
       </c>
       <c r="K46" s="3">
         <v>2661100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>694400</v>
+        <v>673300</v>
       </c>
       <c r="E48" s="3">
-        <v>702800</v>
+        <v>681500</v>
       </c>
       <c r="F48" s="3">
-        <v>672400</v>
+        <v>652000</v>
       </c>
       <c r="G48" s="3">
-        <v>149300</v>
+        <v>144800</v>
       </c>
       <c r="H48" s="3">
-        <v>152700</v>
+        <v>148100</v>
       </c>
       <c r="I48" s="3">
-        <v>150400</v>
+        <v>145900</v>
       </c>
       <c r="J48" s="3">
-        <v>137400</v>
+        <v>133200</v>
       </c>
       <c r="K48" s="3">
         <v>146800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3375200</v>
+        <v>3272800</v>
       </c>
       <c r="E49" s="3">
-        <v>2978900</v>
+        <v>2888500</v>
       </c>
       <c r="F49" s="3">
-        <v>2794700</v>
+        <v>2709900</v>
       </c>
       <c r="G49" s="3">
-        <v>2906400</v>
+        <v>2818300</v>
       </c>
       <c r="H49" s="3">
-        <v>2868800</v>
+        <v>2781800</v>
       </c>
       <c r="I49" s="3">
-        <v>2375900</v>
+        <v>2303800</v>
       </c>
       <c r="J49" s="3">
-        <v>2008100</v>
+        <v>1947200</v>
       </c>
       <c r="K49" s="3">
         <v>2145800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89400</v>
+        <v>86700</v>
       </c>
       <c r="E52" s="3">
-        <v>24300</v>
+        <v>23500</v>
       </c>
       <c r="F52" s="3">
-        <v>31700</v>
+        <v>30800</v>
       </c>
       <c r="G52" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="H52" s="3">
-        <v>16300</v>
+        <v>15900</v>
       </c>
       <c r="I52" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="J52" s="3">
-        <v>26700</v>
+        <v>25900</v>
       </c>
       <c r="K52" s="3">
         <v>28500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8678500</v>
+        <v>8415300</v>
       </c>
       <c r="E54" s="3">
-        <v>8331200</v>
+        <v>8078500</v>
       </c>
       <c r="F54" s="3">
-        <v>7221800</v>
+        <v>7002800</v>
       </c>
       <c r="G54" s="3">
-        <v>6777900</v>
+        <v>6572300</v>
       </c>
       <c r="H54" s="3">
-        <v>6330800</v>
+        <v>6138800</v>
       </c>
       <c r="I54" s="3">
-        <v>5498200</v>
+        <v>5331400</v>
       </c>
       <c r="J54" s="3">
-        <v>4662500</v>
+        <v>4521000</v>
       </c>
       <c r="K54" s="3">
         <v>4982300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1484100</v>
+        <v>1439100</v>
       </c>
       <c r="E57" s="3">
-        <v>1318000</v>
+        <v>1278000</v>
       </c>
       <c r="F57" s="3">
-        <v>1302700</v>
+        <v>1263200</v>
       </c>
       <c r="G57" s="3">
-        <v>1395400</v>
+        <v>1353100</v>
       </c>
       <c r="H57" s="3">
-        <v>1259100</v>
+        <v>1220900</v>
       </c>
       <c r="I57" s="3">
-        <v>1112300</v>
+        <v>1078600</v>
       </c>
       <c r="J57" s="3">
-        <v>897100</v>
+        <v>869900</v>
       </c>
       <c r="K57" s="3">
         <v>958700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>966900</v>
+        <v>937600</v>
       </c>
       <c r="E58" s="3">
-        <v>882700</v>
+        <v>855900</v>
       </c>
       <c r="F58" s="3">
-        <v>823700</v>
+        <v>798700</v>
       </c>
       <c r="G58" s="3">
-        <v>498200</v>
+        <v>483100</v>
       </c>
       <c r="H58" s="3">
-        <v>447000</v>
+        <v>433400</v>
       </c>
       <c r="I58" s="3">
-        <v>294800</v>
+        <v>285900</v>
       </c>
       <c r="J58" s="3">
-        <v>429300</v>
+        <v>416300</v>
       </c>
       <c r="K58" s="3">
         <v>458700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>934100</v>
+        <v>905700</v>
       </c>
       <c r="E59" s="3">
-        <v>1053600</v>
+        <v>1021700</v>
       </c>
       <c r="F59" s="3">
-        <v>646700</v>
+        <v>627100</v>
       </c>
       <c r="G59" s="3">
-        <v>706000</v>
+        <v>684500</v>
       </c>
       <c r="H59" s="3">
-        <v>684000</v>
+        <v>663300</v>
       </c>
       <c r="I59" s="3">
-        <v>592000</v>
+        <v>574100</v>
       </c>
       <c r="J59" s="3">
-        <v>555400</v>
+        <v>538600</v>
       </c>
       <c r="K59" s="3">
         <v>593500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3385100</v>
+        <v>3282400</v>
       </c>
       <c r="E60" s="3">
-        <v>3254300</v>
+        <v>3155600</v>
       </c>
       <c r="F60" s="3">
-        <v>2773100</v>
+        <v>2689000</v>
       </c>
       <c r="G60" s="3">
-        <v>2599600</v>
+        <v>2520800</v>
       </c>
       <c r="H60" s="3">
-        <v>2390000</v>
+        <v>2317500</v>
       </c>
       <c r="I60" s="3">
-        <v>1999200</v>
+        <v>1938500</v>
       </c>
       <c r="J60" s="3">
-        <v>1881800</v>
+        <v>1824700</v>
       </c>
       <c r="K60" s="3">
         <v>2010900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2187600</v>
+        <v>2121300</v>
       </c>
       <c r="E61" s="3">
-        <v>2419800</v>
+        <v>2346400</v>
       </c>
       <c r="F61" s="3">
-        <v>2040200</v>
+        <v>1978300</v>
       </c>
       <c r="G61" s="3">
-        <v>1776500</v>
+        <v>1722700</v>
       </c>
       <c r="H61" s="3">
-        <v>1828900</v>
+        <v>1773400</v>
       </c>
       <c r="I61" s="3">
-        <v>1565900</v>
+        <v>1518400</v>
       </c>
       <c r="J61" s="3">
-        <v>1291600</v>
+        <v>1252500</v>
       </c>
       <c r="K61" s="3">
         <v>1380200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>417200</v>
+        <v>404600</v>
       </c>
       <c r="E62" s="3">
-        <v>316000</v>
+        <v>306400</v>
       </c>
       <c r="F62" s="3">
-        <v>280700</v>
+        <v>272200</v>
       </c>
       <c r="G62" s="3">
-        <v>334600</v>
+        <v>324500</v>
       </c>
       <c r="H62" s="3">
-        <v>344700</v>
+        <v>334300</v>
       </c>
       <c r="I62" s="3">
-        <v>332100</v>
+        <v>322000</v>
       </c>
       <c r="J62" s="3">
-        <v>249200</v>
+        <v>241700</v>
       </c>
       <c r="K62" s="3">
         <v>266300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5990000</v>
+        <v>5808300</v>
       </c>
       <c r="E66" s="3">
-        <v>5990100</v>
+        <v>5808400</v>
       </c>
       <c r="F66" s="3">
-        <v>5093900</v>
+        <v>4939400</v>
       </c>
       <c r="G66" s="3">
-        <v>4710800</v>
+        <v>4567900</v>
       </c>
       <c r="H66" s="3">
-        <v>4563600</v>
+        <v>4425200</v>
       </c>
       <c r="I66" s="3">
-        <v>3897100</v>
+        <v>3778900</v>
       </c>
       <c r="J66" s="3">
-        <v>3422700</v>
+        <v>3318900</v>
       </c>
       <c r="K66" s="3">
         <v>3657500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2647300</v>
+        <v>2567000</v>
       </c>
       <c r="E72" s="3">
-        <v>2218100</v>
+        <v>2150900</v>
       </c>
       <c r="F72" s="3">
-        <v>1910600</v>
+        <v>1852700</v>
       </c>
       <c r="G72" s="3">
-        <v>1745600</v>
+        <v>1692600</v>
       </c>
       <c r="H72" s="3">
-        <v>1449700</v>
+        <v>1405800</v>
       </c>
       <c r="I72" s="3">
-        <v>1228300</v>
+        <v>1191100</v>
       </c>
       <c r="J72" s="3">
-        <v>1125000</v>
+        <v>1090900</v>
       </c>
       <c r="K72" s="3">
         <v>1202200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2688500</v>
+        <v>2607000</v>
       </c>
       <c r="E76" s="3">
-        <v>2341100</v>
+        <v>2270100</v>
       </c>
       <c r="F76" s="3">
-        <v>2127900</v>
+        <v>2063300</v>
       </c>
       <c r="G76" s="3">
-        <v>2067100</v>
+        <v>2004400</v>
       </c>
       <c r="H76" s="3">
-        <v>1767100</v>
+        <v>1713500</v>
       </c>
       <c r="I76" s="3">
-        <v>1601100</v>
+        <v>1552600</v>
       </c>
       <c r="J76" s="3">
-        <v>1239800</v>
+        <v>1202200</v>
       </c>
       <c r="K76" s="3">
         <v>1324800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>540200</v>
+        <v>523800</v>
       </c>
       <c r="E81" s="3">
-        <v>524600</v>
+        <v>508600</v>
       </c>
       <c r="F81" s="3">
-        <v>426000</v>
+        <v>413100</v>
       </c>
       <c r="G81" s="3">
-        <v>398300</v>
+        <v>386200</v>
       </c>
       <c r="H81" s="3">
-        <v>378800</v>
+        <v>367300</v>
       </c>
       <c r="I81" s="3">
-        <v>324400</v>
+        <v>314500</v>
       </c>
       <c r="J81" s="3">
-        <v>283900</v>
+        <v>275300</v>
       </c>
       <c r="K81" s="3">
         <v>274700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>338800</v>
+        <v>328500</v>
       </c>
       <c r="E83" s="3">
-        <v>331900</v>
+        <v>321900</v>
       </c>
       <c r="F83" s="3">
-        <v>326100</v>
+        <v>316200</v>
       </c>
       <c r="G83" s="3">
-        <v>175300</v>
+        <v>170000</v>
       </c>
       <c r="H83" s="3">
-        <v>156000</v>
+        <v>151300</v>
       </c>
       <c r="I83" s="3">
-        <v>132600</v>
+        <v>128600</v>
       </c>
       <c r="J83" s="3">
-        <v>110900</v>
+        <v>107500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>894300</v>
+        <v>867200</v>
       </c>
       <c r="E89" s="3">
-        <v>964000</v>
+        <v>934700</v>
       </c>
       <c r="F89" s="3">
-        <v>816500</v>
+        <v>791700</v>
       </c>
       <c r="G89" s="3">
-        <v>585600</v>
+        <v>567800</v>
       </c>
       <c r="H89" s="3">
-        <v>580200</v>
+        <v>562600</v>
       </c>
       <c r="I89" s="3">
-        <v>495900</v>
+        <v>480800</v>
       </c>
       <c r="J89" s="3">
-        <v>402300</v>
+        <v>390100</v>
       </c>
       <c r="K89" s="3">
         <v>427300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39900</v>
+        <v>-38700</v>
       </c>
       <c r="E91" s="3">
-        <v>-40400</v>
+        <v>-39200</v>
       </c>
       <c r="F91" s="3">
-        <v>-45000</v>
+        <v>-43600</v>
       </c>
       <c r="G91" s="3">
-        <v>-37900</v>
+        <v>-36800</v>
       </c>
       <c r="H91" s="3">
-        <v>-41200</v>
+        <v>-40000</v>
       </c>
       <c r="I91" s="3">
-        <v>-31000</v>
+        <v>-30000</v>
       </c>
       <c r="J91" s="3">
-        <v>-30300</v>
+        <v>-29300</v>
       </c>
       <c r="K91" s="3">
         <v>-32700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-558700</v>
+        <v>-541800</v>
       </c>
       <c r="E94" s="3">
-        <v>-463600</v>
+        <v>-449500</v>
       </c>
       <c r="F94" s="3">
-        <v>-198400</v>
+        <v>-192300</v>
       </c>
       <c r="G94" s="3">
-        <v>-173000</v>
+        <v>-167700</v>
       </c>
       <c r="H94" s="3">
-        <v>-738300</v>
+        <v>-715900</v>
       </c>
       <c r="I94" s="3">
-        <v>-217800</v>
+        <v>-211100</v>
       </c>
       <c r="J94" s="3">
-        <v>-424600</v>
+        <v>-411800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-220100</v>
+        <v>-213400</v>
       </c>
       <c r="E96" s="3">
-        <v>-209200</v>
+        <v>-202900</v>
       </c>
       <c r="F96" s="3">
-        <v>-204100</v>
+        <v>-197900</v>
       </c>
       <c r="G96" s="3">
-        <v>-185700</v>
+        <v>-180000</v>
       </c>
       <c r="H96" s="3">
-        <v>-168600</v>
+        <v>-163500</v>
       </c>
       <c r="I96" s="3">
-        <v>-153000</v>
+        <v>-148300</v>
       </c>
       <c r="J96" s="3">
-        <v>-141600</v>
+        <v>-137300</v>
       </c>
       <c r="K96" s="3">
         <v>-137700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-559600</v>
+        <v>-542600</v>
       </c>
       <c r="E100" s="3">
-        <v>-149100</v>
+        <v>-144600</v>
       </c>
       <c r="F100" s="3">
-        <v>-600400</v>
+        <v>-582200</v>
       </c>
       <c r="G100" s="3">
-        <v>-374400</v>
+        <v>-363000</v>
       </c>
       <c r="H100" s="3">
-        <v>142500</v>
+        <v>138200</v>
       </c>
       <c r="I100" s="3">
-        <v>-236100</v>
+        <v>-228900</v>
       </c>
       <c r="J100" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-25400</v>
+        <v>-24600</v>
       </c>
       <c r="E101" s="3">
         <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>-21800</v>
+        <v>-21200</v>
       </c>
       <c r="G101" s="3">
         <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>50600</v>
+        <v>49100</v>
       </c>
       <c r="J101" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-249300</v>
+        <v>-241800</v>
       </c>
       <c r="E102" s="3">
-        <v>352400</v>
+        <v>341700</v>
       </c>
       <c r="F102" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="G102" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="H102" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="I102" s="3">
-        <v>92700</v>
+        <v>89900</v>
       </c>
       <c r="J102" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="K102" s="3">
         <v>9800</v>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12166200</v>
+        <v>12046900</v>
       </c>
       <c r="E8" s="3">
-        <v>11960400</v>
+        <v>11843100</v>
       </c>
       <c r="F8" s="3">
-        <v>11032600</v>
+        <v>10924400</v>
       </c>
       <c r="G8" s="3">
-        <v>10740000</v>
+        <v>10634700</v>
       </c>
       <c r="H8" s="3">
-        <v>10150300</v>
+        <v>10050800</v>
       </c>
       <c r="I8" s="3">
-        <v>8787900</v>
+        <v>8701700</v>
       </c>
       <c r="J8" s="3">
-        <v>7676700</v>
+        <v>7601400</v>
       </c>
       <c r="K8" s="3">
         <v>8025600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9182300</v>
+        <v>9092200</v>
       </c>
       <c r="E9" s="3">
-        <v>8902900</v>
+        <v>8815600</v>
       </c>
       <c r="F9" s="3">
-        <v>8319600</v>
+        <v>8238000</v>
       </c>
       <c r="G9" s="3">
-        <v>8105000</v>
+        <v>8025500</v>
       </c>
       <c r="H9" s="3">
-        <v>7677700</v>
+        <v>7602400</v>
       </c>
       <c r="I9" s="3">
-        <v>6648000</v>
+        <v>6582800</v>
       </c>
       <c r="J9" s="3">
-        <v>5828400</v>
+        <v>5771200</v>
       </c>
       <c r="K9" s="3">
         <v>6073700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2984000</v>
+        <v>2954700</v>
       </c>
       <c r="E10" s="3">
-        <v>3057600</v>
+        <v>3027600</v>
       </c>
       <c r="F10" s="3">
-        <v>2713000</v>
+        <v>2686400</v>
       </c>
       <c r="G10" s="3">
-        <v>2635000</v>
+        <v>2609200</v>
       </c>
       <c r="H10" s="3">
-        <v>2472600</v>
+        <v>2448400</v>
       </c>
       <c r="I10" s="3">
-        <v>2139900</v>
+        <v>2118900</v>
       </c>
       <c r="J10" s="3">
-        <v>1848300</v>
+        <v>1830200</v>
       </c>
       <c r="K10" s="3">
         <v>1951900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="E14" s="3">
-        <v>70400</v>
+        <v>69700</v>
       </c>
       <c r="F14" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="G14" s="3">
-        <v>27300</v>
+        <v>27100</v>
       </c>
       <c r="H14" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="I14" s="3">
-        <v>40200</v>
+        <v>39800</v>
       </c>
       <c r="J14" s="3">
-        <v>25700</v>
+        <v>25400</v>
       </c>
       <c r="K14" s="3">
         <v>34000</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>328500</v>
+        <v>325300</v>
       </c>
       <c r="E15" s="3">
-        <v>321900</v>
+        <v>318700</v>
       </c>
       <c r="F15" s="3">
-        <v>316200</v>
+        <v>313100</v>
       </c>
       <c r="G15" s="3">
-        <v>170000</v>
+        <v>168300</v>
       </c>
       <c r="H15" s="3">
-        <v>151300</v>
+        <v>149800</v>
       </c>
       <c r="I15" s="3">
-        <v>128600</v>
+        <v>127300</v>
       </c>
       <c r="J15" s="3">
-        <v>107500</v>
+        <v>106500</v>
       </c>
       <c r="K15" s="3">
         <v>112500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11428900</v>
+        <v>11316900</v>
       </c>
       <c r="E17" s="3">
-        <v>11228800</v>
+        <v>11118700</v>
       </c>
       <c r="F17" s="3">
-        <v>10407500</v>
+        <v>10305400</v>
       </c>
       <c r="G17" s="3">
-        <v>10172500</v>
+        <v>10072700</v>
       </c>
       <c r="H17" s="3">
-        <v>9610900</v>
+        <v>9516700</v>
       </c>
       <c r="I17" s="3">
-        <v>8303200</v>
+        <v>8221800</v>
       </c>
       <c r="J17" s="3">
-        <v>7243100</v>
+        <v>7172100</v>
       </c>
       <c r="K17" s="3">
         <v>7580000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>737300</v>
+        <v>730100</v>
       </c>
       <c r="E18" s="3">
-        <v>731600</v>
+        <v>724400</v>
       </c>
       <c r="F18" s="3">
-        <v>625000</v>
+        <v>618900</v>
       </c>
       <c r="G18" s="3">
-        <v>567600</v>
+        <v>562000</v>
       </c>
       <c r="H18" s="3">
-        <v>539400</v>
+        <v>534100</v>
       </c>
       <c r="I18" s="3">
-        <v>484600</v>
+        <v>479900</v>
       </c>
       <c r="J18" s="3">
-        <v>433500</v>
+        <v>429300</v>
       </c>
       <c r="K18" s="3">
         <v>445600</v>
@@ -1122,19 +1122,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E20" s="3">
         <v>4600</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="G20" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="H20" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
         <v>3400</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1072500</v>
+        <v>1052900</v>
       </c>
       <c r="E21" s="3">
-        <v>1057200</v>
+        <v>1038000</v>
       </c>
       <c r="F21" s="3">
-        <v>946100</v>
+        <v>928100</v>
       </c>
       <c r="G21" s="3">
-        <v>742800</v>
+        <v>730800</v>
       </c>
       <c r="H21" s="3">
-        <v>695300</v>
+        <v>684300</v>
       </c>
       <c r="I21" s="3">
-        <v>616300</v>
+        <v>606700</v>
       </c>
       <c r="J21" s="3">
-        <v>540200</v>
+        <v>531900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72200</v>
+        <v>71400</v>
       </c>
       <c r="E22" s="3">
-        <v>78900</v>
+        <v>78100</v>
       </c>
       <c r="F22" s="3">
-        <v>94500</v>
+        <v>93600</v>
       </c>
       <c r="G22" s="3">
-        <v>70700</v>
+        <v>70000</v>
       </c>
       <c r="H22" s="3">
-        <v>60200</v>
+        <v>59600</v>
       </c>
       <c r="I22" s="3">
-        <v>58800</v>
+        <v>58200</v>
       </c>
       <c r="J22" s="3">
-        <v>51200</v>
+        <v>50700</v>
       </c>
       <c r="K22" s="3">
         <v>54000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>672700</v>
+        <v>666100</v>
       </c>
       <c r="E23" s="3">
-        <v>657300</v>
+        <v>650900</v>
       </c>
       <c r="F23" s="3">
-        <v>536200</v>
+        <v>531000</v>
       </c>
       <c r="G23" s="3">
-        <v>502500</v>
+        <v>497600</v>
       </c>
       <c r="H23" s="3">
-        <v>484200</v>
+        <v>479400</v>
       </c>
       <c r="I23" s="3">
-        <v>429300</v>
+        <v>425100</v>
       </c>
       <c r="J23" s="3">
-        <v>381700</v>
+        <v>378000</v>
       </c>
       <c r="K23" s="3">
         <v>390800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>148900</v>
+        <v>147500</v>
       </c>
       <c r="E24" s="3">
-        <v>148700</v>
+        <v>147200</v>
       </c>
       <c r="F24" s="3">
-        <v>123100</v>
+        <v>121900</v>
       </c>
       <c r="G24" s="3">
-        <v>116300</v>
+        <v>115100</v>
       </c>
       <c r="H24" s="3">
-        <v>116900</v>
+        <v>115700</v>
       </c>
       <c r="I24" s="3">
-        <v>114700</v>
+        <v>113600</v>
       </c>
       <c r="J24" s="3">
-        <v>106500</v>
+        <v>105400</v>
       </c>
       <c r="K24" s="3">
         <v>116100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>523800</v>
+        <v>518700</v>
       </c>
       <c r="E26" s="3">
-        <v>508600</v>
+        <v>503700</v>
       </c>
       <c r="F26" s="3">
-        <v>413100</v>
+        <v>409000</v>
       </c>
       <c r="G26" s="3">
-        <v>386200</v>
+        <v>382400</v>
       </c>
       <c r="H26" s="3">
-        <v>367300</v>
+        <v>363700</v>
       </c>
       <c r="I26" s="3">
-        <v>314500</v>
+        <v>311400</v>
       </c>
       <c r="J26" s="3">
-        <v>275300</v>
+        <v>272600</v>
       </c>
       <c r="K26" s="3">
         <v>274700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>523800</v>
+        <v>518700</v>
       </c>
       <c r="E27" s="3">
-        <v>508600</v>
+        <v>503700</v>
       </c>
       <c r="F27" s="3">
-        <v>413100</v>
+        <v>409000</v>
       </c>
       <c r="G27" s="3">
-        <v>386200</v>
+        <v>382400</v>
       </c>
       <c r="H27" s="3">
-        <v>367300</v>
+        <v>363700</v>
       </c>
       <c r="I27" s="3">
-        <v>314500</v>
+        <v>311400</v>
       </c>
       <c r="J27" s="3">
-        <v>275300</v>
+        <v>272600</v>
       </c>
       <c r="K27" s="3">
         <v>274700</v>
@@ -1590,19 +1590,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="E32" s="3">
         <v>-4600</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="G32" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="H32" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
         <v>-3400</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>523800</v>
+        <v>518700</v>
       </c>
       <c r="E33" s="3">
-        <v>508600</v>
+        <v>503700</v>
       </c>
       <c r="F33" s="3">
-        <v>413100</v>
+        <v>409000</v>
       </c>
       <c r="G33" s="3">
-        <v>386200</v>
+        <v>382400</v>
       </c>
       <c r="H33" s="3">
-        <v>367300</v>
+        <v>363700</v>
       </c>
       <c r="I33" s="3">
-        <v>314500</v>
+        <v>311400</v>
       </c>
       <c r="J33" s="3">
-        <v>275300</v>
+        <v>272600</v>
       </c>
       <c r="K33" s="3">
         <v>274700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>523800</v>
+        <v>518700</v>
       </c>
       <c r="E35" s="3">
-        <v>508600</v>
+        <v>503700</v>
       </c>
       <c r="F35" s="3">
-        <v>413100</v>
+        <v>409000</v>
       </c>
       <c r="G35" s="3">
-        <v>386200</v>
+        <v>382400</v>
       </c>
       <c r="H35" s="3">
-        <v>367300</v>
+        <v>363700</v>
       </c>
       <c r="I35" s="3">
-        <v>314500</v>
+        <v>311400</v>
       </c>
       <c r="J35" s="3">
-        <v>275300</v>
+        <v>272600</v>
       </c>
       <c r="K35" s="3">
         <v>274700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>919000</v>
+        <v>910000</v>
       </c>
       <c r="E41" s="3">
-        <v>1117000</v>
+        <v>1106100</v>
       </c>
       <c r="F41" s="3">
-        <v>722200</v>
+        <v>715100</v>
       </c>
       <c r="G41" s="3">
-        <v>565100</v>
+        <v>559500</v>
       </c>
       <c r="H41" s="3">
-        <v>394600</v>
+        <v>390700</v>
       </c>
       <c r="I41" s="3">
-        <v>334100</v>
+        <v>330800</v>
       </c>
       <c r="J41" s="3">
-        <v>333300</v>
+        <v>330100</v>
       </c>
       <c r="K41" s="3">
         <v>367400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1599500</v>
+        <v>1583800</v>
       </c>
       <c r="E43" s="3">
-        <v>1545200</v>
+        <v>1530100</v>
       </c>
       <c r="F43" s="3">
-        <v>1408200</v>
+        <v>1394400</v>
       </c>
       <c r="G43" s="3">
-        <v>1490200</v>
+        <v>1475600</v>
       </c>
       <c r="H43" s="3">
-        <v>1406300</v>
+        <v>1392600</v>
       </c>
       <c r="I43" s="3">
-        <v>1300100</v>
+        <v>1287400</v>
       </c>
       <c r="J43" s="3">
-        <v>1048600</v>
+        <v>1038400</v>
       </c>
       <c r="K43" s="3">
         <v>1155600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1743600</v>
+        <v>1726500</v>
       </c>
       <c r="E44" s="3">
-        <v>1694100</v>
+        <v>1677500</v>
       </c>
       <c r="F44" s="3">
-        <v>1392500</v>
+        <v>1378900</v>
       </c>
       <c r="G44" s="3">
-        <v>1435600</v>
+        <v>1421500</v>
       </c>
       <c r="H44" s="3">
-        <v>1259700</v>
+        <v>1247300</v>
       </c>
       <c r="I44" s="3">
-        <v>1136600</v>
+        <v>1125500</v>
       </c>
       <c r="J44" s="3">
-        <v>1878900</v>
+        <v>1860500</v>
       </c>
       <c r="K44" s="3">
         <v>2070600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>120300</v>
+        <v>119100</v>
       </c>
       <c r="E45" s="3">
-        <v>128600</v>
+        <v>127300</v>
       </c>
       <c r="F45" s="3">
-        <v>87200</v>
+        <v>86300</v>
       </c>
       <c r="G45" s="3">
-        <v>102700</v>
+        <v>101700</v>
       </c>
       <c r="H45" s="3">
-        <v>132400</v>
+        <v>131100</v>
       </c>
       <c r="I45" s="3">
-        <v>90600</v>
+        <v>89700</v>
       </c>
       <c r="J45" s="3">
-        <v>324500</v>
+        <v>321300</v>
       </c>
       <c r="K45" s="3">
         <v>357600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4382400</v>
+        <v>4339400</v>
       </c>
       <c r="E46" s="3">
-        <v>4485000</v>
+        <v>4441000</v>
       </c>
       <c r="F46" s="3">
-        <v>3610100</v>
+        <v>3574700</v>
       </c>
       <c r="G46" s="3">
-        <v>3593500</v>
+        <v>3558300</v>
       </c>
       <c r="H46" s="3">
-        <v>3193000</v>
+        <v>3161700</v>
       </c>
       <c r="I46" s="3">
-        <v>2861400</v>
+        <v>2833400</v>
       </c>
       <c r="J46" s="3">
-        <v>2414800</v>
+        <v>2391100</v>
       </c>
       <c r="K46" s="3">
         <v>2661100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>673300</v>
+        <v>666700</v>
       </c>
       <c r="E48" s="3">
-        <v>681500</v>
+        <v>674800</v>
       </c>
       <c r="F48" s="3">
-        <v>652000</v>
+        <v>645600</v>
       </c>
       <c r="G48" s="3">
-        <v>144800</v>
+        <v>143400</v>
       </c>
       <c r="H48" s="3">
-        <v>148100</v>
+        <v>146600</v>
       </c>
       <c r="I48" s="3">
-        <v>145900</v>
+        <v>144400</v>
       </c>
       <c r="J48" s="3">
-        <v>133200</v>
+        <v>131900</v>
       </c>
       <c r="K48" s="3">
         <v>146800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3272800</v>
+        <v>3240800</v>
       </c>
       <c r="E49" s="3">
-        <v>2888500</v>
+        <v>2860200</v>
       </c>
       <c r="F49" s="3">
-        <v>2709900</v>
+        <v>2683300</v>
       </c>
       <c r="G49" s="3">
-        <v>2818300</v>
+        <v>2790600</v>
       </c>
       <c r="H49" s="3">
-        <v>2781800</v>
+        <v>2754500</v>
       </c>
       <c r="I49" s="3">
-        <v>2303800</v>
+        <v>2281200</v>
       </c>
       <c r="J49" s="3">
-        <v>1947200</v>
+        <v>1928100</v>
       </c>
       <c r="K49" s="3">
         <v>2145800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>86700</v>
+        <v>85900</v>
       </c>
       <c r="E52" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="F52" s="3">
-        <v>30800</v>
+        <v>30500</v>
       </c>
       <c r="G52" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H52" s="3">
         <v>15700</v>
       </c>
-      <c r="H52" s="3">
-        <v>15900</v>
-      </c>
       <c r="I52" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="J52" s="3">
-        <v>25900</v>
+        <v>25700</v>
       </c>
       <c r="K52" s="3">
         <v>28500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8415300</v>
+        <v>8332700</v>
       </c>
       <c r="E54" s="3">
-        <v>8078500</v>
+        <v>7999300</v>
       </c>
       <c r="F54" s="3">
-        <v>7002800</v>
+        <v>6934100</v>
       </c>
       <c r="G54" s="3">
-        <v>6572300</v>
+        <v>6507900</v>
       </c>
       <c r="H54" s="3">
-        <v>6138800</v>
+        <v>6078600</v>
       </c>
       <c r="I54" s="3">
-        <v>5331400</v>
+        <v>5279200</v>
       </c>
       <c r="J54" s="3">
-        <v>4521000</v>
+        <v>4476700</v>
       </c>
       <c r="K54" s="3">
         <v>4982300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1439100</v>
+        <v>1425000</v>
       </c>
       <c r="E57" s="3">
-        <v>1278000</v>
+        <v>1265500</v>
       </c>
       <c r="F57" s="3">
-        <v>1263200</v>
+        <v>1250800</v>
       </c>
       <c r="G57" s="3">
-        <v>1353100</v>
+        <v>1339900</v>
       </c>
       <c r="H57" s="3">
-        <v>1220900</v>
+        <v>1208900</v>
       </c>
       <c r="I57" s="3">
-        <v>1078600</v>
+        <v>1068000</v>
       </c>
       <c r="J57" s="3">
-        <v>869900</v>
+        <v>861400</v>
       </c>
       <c r="K57" s="3">
         <v>958700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>937600</v>
+        <v>928400</v>
       </c>
       <c r="E58" s="3">
-        <v>855900</v>
+        <v>847600</v>
       </c>
       <c r="F58" s="3">
-        <v>798700</v>
+        <v>790900</v>
       </c>
       <c r="G58" s="3">
-        <v>483100</v>
+        <v>478400</v>
       </c>
       <c r="H58" s="3">
-        <v>433400</v>
+        <v>429200</v>
       </c>
       <c r="I58" s="3">
-        <v>285900</v>
+        <v>283100</v>
       </c>
       <c r="J58" s="3">
-        <v>416300</v>
+        <v>412200</v>
       </c>
       <c r="K58" s="3">
         <v>458700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>905700</v>
+        <v>896900</v>
       </c>
       <c r="E59" s="3">
-        <v>1021700</v>
+        <v>1011700</v>
       </c>
       <c r="F59" s="3">
-        <v>627100</v>
+        <v>620900</v>
       </c>
       <c r="G59" s="3">
-        <v>684500</v>
+        <v>677800</v>
       </c>
       <c r="H59" s="3">
-        <v>663300</v>
+        <v>656700</v>
       </c>
       <c r="I59" s="3">
-        <v>574100</v>
+        <v>568400</v>
       </c>
       <c r="J59" s="3">
-        <v>538600</v>
+        <v>533300</v>
       </c>
       <c r="K59" s="3">
         <v>593500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3282400</v>
+        <v>3250200</v>
       </c>
       <c r="E60" s="3">
-        <v>3155600</v>
+        <v>3124700</v>
       </c>
       <c r="F60" s="3">
-        <v>2689000</v>
+        <v>2662600</v>
       </c>
       <c r="G60" s="3">
-        <v>2520800</v>
+        <v>2496000</v>
       </c>
       <c r="H60" s="3">
-        <v>2317500</v>
+        <v>2294800</v>
       </c>
       <c r="I60" s="3">
-        <v>1938500</v>
+        <v>1919500</v>
       </c>
       <c r="J60" s="3">
-        <v>1824700</v>
+        <v>1806800</v>
       </c>
       <c r="K60" s="3">
         <v>2010900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2121300</v>
+        <v>2100500</v>
       </c>
       <c r="E61" s="3">
-        <v>2346400</v>
+        <v>2323400</v>
       </c>
       <c r="F61" s="3">
-        <v>1978300</v>
+        <v>1958900</v>
       </c>
       <c r="G61" s="3">
-        <v>1722700</v>
+        <v>1705800</v>
       </c>
       <c r="H61" s="3">
-        <v>1773400</v>
+        <v>1756000</v>
       </c>
       <c r="I61" s="3">
-        <v>1518400</v>
+        <v>1503500</v>
       </c>
       <c r="J61" s="3">
-        <v>1252500</v>
+        <v>1240200</v>
       </c>
       <c r="K61" s="3">
         <v>1380200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>404600</v>
+        <v>400600</v>
       </c>
       <c r="E62" s="3">
-        <v>306400</v>
+        <v>303400</v>
       </c>
       <c r="F62" s="3">
-        <v>272200</v>
+        <v>269500</v>
       </c>
       <c r="G62" s="3">
-        <v>324500</v>
+        <v>321300</v>
       </c>
       <c r="H62" s="3">
-        <v>334300</v>
+        <v>331000</v>
       </c>
       <c r="I62" s="3">
-        <v>322000</v>
+        <v>318800</v>
       </c>
       <c r="J62" s="3">
-        <v>241700</v>
+        <v>239300</v>
       </c>
       <c r="K62" s="3">
         <v>266300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5808300</v>
+        <v>5751300</v>
       </c>
       <c r="E66" s="3">
-        <v>5808400</v>
+        <v>5751400</v>
       </c>
       <c r="F66" s="3">
-        <v>4939400</v>
+        <v>4891000</v>
       </c>
       <c r="G66" s="3">
-        <v>4567900</v>
+        <v>4523100</v>
       </c>
       <c r="H66" s="3">
-        <v>4425200</v>
+        <v>4381800</v>
       </c>
       <c r="I66" s="3">
-        <v>3778900</v>
+        <v>3741800</v>
       </c>
       <c r="J66" s="3">
-        <v>3318900</v>
+        <v>3286300</v>
       </c>
       <c r="K66" s="3">
         <v>3657500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2567000</v>
+        <v>2541800</v>
       </c>
       <c r="E72" s="3">
-        <v>2150900</v>
+        <v>2129800</v>
       </c>
       <c r="F72" s="3">
-        <v>1852700</v>
+        <v>1834500</v>
       </c>
       <c r="G72" s="3">
-        <v>1692600</v>
+        <v>1676000</v>
       </c>
       <c r="H72" s="3">
-        <v>1405800</v>
+        <v>1392000</v>
       </c>
       <c r="I72" s="3">
-        <v>1191100</v>
+        <v>1179400</v>
       </c>
       <c r="J72" s="3">
-        <v>1090900</v>
+        <v>1080200</v>
       </c>
       <c r="K72" s="3">
         <v>1202200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2607000</v>
+        <v>2581400</v>
       </c>
       <c r="E76" s="3">
-        <v>2270100</v>
+        <v>2247800</v>
       </c>
       <c r="F76" s="3">
-        <v>2063300</v>
+        <v>2043100</v>
       </c>
       <c r="G76" s="3">
-        <v>2004400</v>
+        <v>1984800</v>
       </c>
       <c r="H76" s="3">
-        <v>1713500</v>
+        <v>1696700</v>
       </c>
       <c r="I76" s="3">
-        <v>1552600</v>
+        <v>1537300</v>
       </c>
       <c r="J76" s="3">
-        <v>1202200</v>
+        <v>1190400</v>
       </c>
       <c r="K76" s="3">
         <v>1324800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>523800</v>
+        <v>518700</v>
       </c>
       <c r="E81" s="3">
-        <v>508600</v>
+        <v>503700</v>
       </c>
       <c r="F81" s="3">
-        <v>413100</v>
+        <v>409000</v>
       </c>
       <c r="G81" s="3">
-        <v>386200</v>
+        <v>382400</v>
       </c>
       <c r="H81" s="3">
-        <v>367300</v>
+        <v>363700</v>
       </c>
       <c r="I81" s="3">
-        <v>314500</v>
+        <v>311400</v>
       </c>
       <c r="J81" s="3">
-        <v>275300</v>
+        <v>272600</v>
       </c>
       <c r="K81" s="3">
         <v>274700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>328500</v>
+        <v>325300</v>
       </c>
       <c r="E83" s="3">
-        <v>321900</v>
+        <v>318700</v>
       </c>
       <c r="F83" s="3">
-        <v>316200</v>
+        <v>313100</v>
       </c>
       <c r="G83" s="3">
-        <v>170000</v>
+        <v>168300</v>
       </c>
       <c r="H83" s="3">
-        <v>151300</v>
+        <v>149800</v>
       </c>
       <c r="I83" s="3">
-        <v>128600</v>
+        <v>127300</v>
       </c>
       <c r="J83" s="3">
-        <v>107500</v>
+        <v>106500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>867200</v>
+        <v>858700</v>
       </c>
       <c r="E89" s="3">
-        <v>934700</v>
+        <v>925600</v>
       </c>
       <c r="F89" s="3">
-        <v>791700</v>
+        <v>784000</v>
       </c>
       <c r="G89" s="3">
-        <v>567800</v>
+        <v>562200</v>
       </c>
       <c r="H89" s="3">
-        <v>562600</v>
+        <v>557100</v>
       </c>
       <c r="I89" s="3">
-        <v>480800</v>
+        <v>476100</v>
       </c>
       <c r="J89" s="3">
-        <v>390100</v>
+        <v>386300</v>
       </c>
       <c r="K89" s="3">
         <v>427300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38700</v>
+        <v>-38300</v>
       </c>
       <c r="E91" s="3">
-        <v>-39200</v>
+        <v>-38800</v>
       </c>
       <c r="F91" s="3">
-        <v>-43600</v>
+        <v>-43200</v>
       </c>
       <c r="G91" s="3">
-        <v>-36800</v>
+        <v>-36400</v>
       </c>
       <c r="H91" s="3">
-        <v>-40000</v>
+        <v>-39600</v>
       </c>
       <c r="I91" s="3">
-        <v>-30000</v>
+        <v>-29800</v>
       </c>
       <c r="J91" s="3">
-        <v>-29300</v>
+        <v>-29000</v>
       </c>
       <c r="K91" s="3">
         <v>-32700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-541800</v>
+        <v>-536500</v>
       </c>
       <c r="E94" s="3">
-        <v>-449500</v>
+        <v>-445100</v>
       </c>
       <c r="F94" s="3">
-        <v>-192300</v>
+        <v>-190500</v>
       </c>
       <c r="G94" s="3">
-        <v>-167700</v>
+        <v>-166100</v>
       </c>
       <c r="H94" s="3">
-        <v>-715900</v>
+        <v>-708900</v>
       </c>
       <c r="I94" s="3">
-        <v>-211100</v>
+        <v>-209100</v>
       </c>
       <c r="J94" s="3">
-        <v>-411800</v>
+        <v>-407700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-213400</v>
+        <v>-211300</v>
       </c>
       <c r="E96" s="3">
-        <v>-202900</v>
+        <v>-200900</v>
       </c>
       <c r="F96" s="3">
-        <v>-197900</v>
+        <v>-196000</v>
       </c>
       <c r="G96" s="3">
-        <v>-180000</v>
+        <v>-178300</v>
       </c>
       <c r="H96" s="3">
-        <v>-163500</v>
+        <v>-161900</v>
       </c>
       <c r="I96" s="3">
-        <v>-148300</v>
+        <v>-146900</v>
       </c>
       <c r="J96" s="3">
-        <v>-137300</v>
+        <v>-136000</v>
       </c>
       <c r="K96" s="3">
         <v>-137700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-542600</v>
+        <v>-537300</v>
       </c>
       <c r="E100" s="3">
-        <v>-144600</v>
+        <v>-143100</v>
       </c>
       <c r="F100" s="3">
-        <v>-582200</v>
+        <v>-576500</v>
       </c>
       <c r="G100" s="3">
-        <v>-363000</v>
+        <v>-359500</v>
       </c>
       <c r="H100" s="3">
-        <v>138200</v>
+        <v>136800</v>
       </c>
       <c r="I100" s="3">
-        <v>-228900</v>
+        <v>-226600</v>
       </c>
       <c r="J100" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,13 +3959,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24600</v>
+        <v>-24400</v>
       </c>
       <c r="E101" s="3">
         <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G101" s="3">
         <v>700</v>
@@ -3974,10 +3974,10 @@
         <v>-1900</v>
       </c>
       <c r="I101" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="J101" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-241800</v>
+        <v>-239400</v>
       </c>
       <c r="E102" s="3">
-        <v>341700</v>
+        <v>338400</v>
       </c>
       <c r="F102" s="3">
         <v>-4000</v>
       </c>
       <c r="G102" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="H102" s="3">
-        <v>-17000</v>
+        <v>-16900</v>
       </c>
       <c r="I102" s="3">
-        <v>89900</v>
+        <v>89000</v>
       </c>
       <c r="J102" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="K102" s="3">
         <v>9800</v>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>BZLFY</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12046900</v>
+        <v>12265100</v>
       </c>
       <c r="E8" s="3">
-        <v>11843100</v>
+        <v>12057600</v>
       </c>
       <c r="F8" s="3">
-        <v>10924400</v>
+        <v>11122200</v>
       </c>
       <c r="G8" s="3">
-        <v>10634700</v>
+        <v>10827300</v>
       </c>
       <c r="H8" s="3">
-        <v>10050800</v>
+        <v>10232800</v>
       </c>
       <c r="I8" s="3">
-        <v>8701700</v>
+        <v>8859300</v>
       </c>
       <c r="J8" s="3">
-        <v>7601400</v>
+        <v>7739000</v>
       </c>
       <c r="K8" s="3">
         <v>8025600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9092200</v>
+        <v>9256900</v>
       </c>
       <c r="E9" s="3">
-        <v>8815600</v>
+        <v>8975200</v>
       </c>
       <c r="F9" s="3">
-        <v>8238000</v>
+        <v>8387200</v>
       </c>
       <c r="G9" s="3">
-        <v>8025500</v>
+        <v>8170800</v>
       </c>
       <c r="H9" s="3">
-        <v>7602400</v>
+        <v>7740100</v>
       </c>
       <c r="I9" s="3">
-        <v>6582800</v>
+        <v>6702000</v>
       </c>
       <c r="J9" s="3">
-        <v>5771200</v>
+        <v>5875700</v>
       </c>
       <c r="K9" s="3">
         <v>6073700</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2954700</v>
+        <v>3008200</v>
       </c>
       <c r="E10" s="3">
-        <v>3027600</v>
+        <v>3082400</v>
       </c>
       <c r="F10" s="3">
-        <v>2686400</v>
+        <v>2735000</v>
       </c>
       <c r="G10" s="3">
-        <v>2609200</v>
+        <v>2656400</v>
       </c>
       <c r="H10" s="3">
-        <v>2448400</v>
+        <v>2492700</v>
       </c>
       <c r="I10" s="3">
-        <v>2118900</v>
+        <v>2157300</v>
       </c>
       <c r="J10" s="3">
-        <v>1830200</v>
+        <v>1863300</v>
       </c>
       <c r="K10" s="3">
         <v>1951900</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="E14" s="3">
-        <v>69700</v>
+        <v>71000</v>
       </c>
       <c r="F14" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="G14" s="3">
-        <v>27100</v>
+        <v>27500</v>
       </c>
       <c r="H14" s="3">
-        <v>43000</v>
+        <v>43800</v>
       </c>
       <c r="I14" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="J14" s="3">
-        <v>25400</v>
+        <v>25900</v>
       </c>
       <c r="K14" s="3">
         <v>34000</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>325300</v>
+        <v>331200</v>
       </c>
       <c r="E15" s="3">
-        <v>318700</v>
+        <v>324500</v>
       </c>
       <c r="F15" s="3">
-        <v>313100</v>
+        <v>318800</v>
       </c>
       <c r="G15" s="3">
-        <v>168300</v>
+        <v>171400</v>
       </c>
       <c r="H15" s="3">
-        <v>149800</v>
+        <v>152500</v>
       </c>
       <c r="I15" s="3">
-        <v>127300</v>
+        <v>129600</v>
       </c>
       <c r="J15" s="3">
-        <v>106500</v>
+        <v>108400</v>
       </c>
       <c r="K15" s="3">
         <v>112500</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11316900</v>
+        <v>11521800</v>
       </c>
       <c r="E17" s="3">
-        <v>11118700</v>
+        <v>11320000</v>
       </c>
       <c r="F17" s="3">
-        <v>10305400</v>
+        <v>10492100</v>
       </c>
       <c r="G17" s="3">
-        <v>10072700</v>
+        <v>10255100</v>
       </c>
       <c r="H17" s="3">
-        <v>9516700</v>
+        <v>9689000</v>
       </c>
       <c r="I17" s="3">
-        <v>8221800</v>
+        <v>8370700</v>
       </c>
       <c r="J17" s="3">
-        <v>7172100</v>
+        <v>7302000</v>
       </c>
       <c r="K17" s="3">
         <v>7580000</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>730100</v>
+        <v>743300</v>
       </c>
       <c r="E18" s="3">
-        <v>724400</v>
+        <v>737600</v>
       </c>
       <c r="F18" s="3">
-        <v>618900</v>
+        <v>630100</v>
       </c>
       <c r="G18" s="3">
-        <v>562000</v>
+        <v>572200</v>
       </c>
       <c r="H18" s="3">
-        <v>534100</v>
+        <v>543800</v>
       </c>
       <c r="I18" s="3">
-        <v>479900</v>
+        <v>488600</v>
       </c>
       <c r="J18" s="3">
-        <v>429300</v>
+        <v>437100</v>
       </c>
       <c r="K18" s="3">
         <v>445600</v>
@@ -1122,22 +1122,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="E20" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F20" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="G20" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="H20" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I20" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J20" s="3">
         <v>-600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1052900</v>
+        <v>1073100</v>
       </c>
       <c r="E21" s="3">
-        <v>1038000</v>
+        <v>1058800</v>
       </c>
       <c r="F21" s="3">
-        <v>928100</v>
+        <v>806000</v>
       </c>
       <c r="G21" s="3">
-        <v>730800</v>
+        <v>729300</v>
       </c>
       <c r="H21" s="3">
-        <v>684300</v>
+        <v>677500</v>
       </c>
       <c r="I21" s="3">
-        <v>606700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>531900</v>
+        <v>599700</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>71400</v>
+        <v>72700</v>
       </c>
       <c r="E22" s="3">
-        <v>78100</v>
+        <v>79500</v>
       </c>
       <c r="F22" s="3">
-        <v>93600</v>
+        <v>95300</v>
       </c>
       <c r="G22" s="3">
-        <v>70000</v>
+        <v>71300</v>
       </c>
       <c r="H22" s="3">
-        <v>59600</v>
+        <v>60700</v>
       </c>
       <c r="I22" s="3">
-        <v>58200</v>
+        <v>59300</v>
       </c>
       <c r="J22" s="3">
-        <v>50700</v>
+        <v>51600</v>
       </c>
       <c r="K22" s="3">
         <v>54000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>666100</v>
+        <v>678200</v>
       </c>
       <c r="E23" s="3">
-        <v>650900</v>
+        <v>662700</v>
       </c>
       <c r="F23" s="3">
-        <v>531000</v>
+        <v>540600</v>
       </c>
       <c r="G23" s="3">
-        <v>497600</v>
+        <v>506600</v>
       </c>
       <c r="H23" s="3">
-        <v>479400</v>
+        <v>488100</v>
       </c>
       <c r="I23" s="3">
-        <v>425100</v>
+        <v>432800</v>
       </c>
       <c r="J23" s="3">
-        <v>378000</v>
+        <v>384800</v>
       </c>
       <c r="K23" s="3">
         <v>390800</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>147500</v>
+        <v>150100</v>
       </c>
       <c r="E24" s="3">
-        <v>147200</v>
+        <v>149900</v>
       </c>
       <c r="F24" s="3">
-        <v>121900</v>
+        <v>124100</v>
       </c>
       <c r="G24" s="3">
-        <v>115100</v>
+        <v>117200</v>
       </c>
       <c r="H24" s="3">
+        <v>117800</v>
+      </c>
+      <c r="I24" s="3">
         <v>115700</v>
       </c>
-      <c r="I24" s="3">
-        <v>113600</v>
-      </c>
       <c r="J24" s="3">
-        <v>105400</v>
+        <v>107300</v>
       </c>
       <c r="K24" s="3">
         <v>116100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>518700</v>
+        <v>528000</v>
       </c>
       <c r="E26" s="3">
-        <v>503700</v>
+        <v>512800</v>
       </c>
       <c r="F26" s="3">
-        <v>409000</v>
+        <v>416400</v>
       </c>
       <c r="G26" s="3">
-        <v>382400</v>
+        <v>389400</v>
       </c>
       <c r="H26" s="3">
-        <v>363700</v>
+        <v>370300</v>
       </c>
       <c r="I26" s="3">
-        <v>311400</v>
+        <v>317100</v>
       </c>
       <c r="J26" s="3">
-        <v>272600</v>
+        <v>277500</v>
       </c>
       <c r="K26" s="3">
         <v>274700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>518700</v>
+        <v>528000</v>
       </c>
       <c r="E27" s="3">
-        <v>503700</v>
+        <v>512800</v>
       </c>
       <c r="F27" s="3">
-        <v>409000</v>
+        <v>416400</v>
       </c>
       <c r="G27" s="3">
-        <v>382400</v>
+        <v>389400</v>
       </c>
       <c r="H27" s="3">
-        <v>363700</v>
+        <v>370300</v>
       </c>
       <c r="I27" s="3">
-        <v>311400</v>
+        <v>317100</v>
       </c>
       <c r="J27" s="3">
-        <v>272600</v>
+        <v>277500</v>
       </c>
       <c r="K27" s="3">
         <v>274700</v>
@@ -1590,22 +1590,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="F32" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="H32" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I32" s="3">
-        <v>-3400</v>
+        <v>-3500</v>
       </c>
       <c r="J32" s="3">
         <v>600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>518700</v>
+        <v>528000</v>
       </c>
       <c r="E33" s="3">
-        <v>503700</v>
+        <v>512800</v>
       </c>
       <c r="F33" s="3">
-        <v>409000</v>
+        <v>416400</v>
       </c>
       <c r="G33" s="3">
-        <v>382400</v>
+        <v>389400</v>
       </c>
       <c r="H33" s="3">
-        <v>363700</v>
+        <v>370300</v>
       </c>
       <c r="I33" s="3">
-        <v>311400</v>
+        <v>317100</v>
       </c>
       <c r="J33" s="3">
-        <v>272600</v>
+        <v>277500</v>
       </c>
       <c r="K33" s="3">
         <v>274700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>518700</v>
+        <v>528000</v>
       </c>
       <c r="E35" s="3">
-        <v>503700</v>
+        <v>512800</v>
       </c>
       <c r="F35" s="3">
-        <v>409000</v>
+        <v>416400</v>
       </c>
       <c r="G35" s="3">
-        <v>382400</v>
+        <v>389400</v>
       </c>
       <c r="H35" s="3">
-        <v>363700</v>
+        <v>370300</v>
       </c>
       <c r="I35" s="3">
-        <v>311400</v>
+        <v>317100</v>
       </c>
       <c r="J35" s="3">
-        <v>272600</v>
+        <v>277500</v>
       </c>
       <c r="K35" s="3">
         <v>274700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>910000</v>
+        <v>926500</v>
       </c>
       <c r="E41" s="3">
-        <v>1106100</v>
+        <v>1126100</v>
       </c>
       <c r="F41" s="3">
-        <v>715100</v>
+        <v>728000</v>
       </c>
       <c r="G41" s="3">
-        <v>559500</v>
+        <v>569700</v>
       </c>
       <c r="H41" s="3">
-        <v>390700</v>
+        <v>397800</v>
       </c>
       <c r="I41" s="3">
-        <v>330800</v>
+        <v>336800</v>
       </c>
       <c r="J41" s="3">
-        <v>330100</v>
+        <v>336000</v>
       </c>
       <c r="K41" s="3">
         <v>367400</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1583800</v>
+        <v>1612500</v>
       </c>
       <c r="E43" s="3">
-        <v>1530100</v>
+        <v>1557800</v>
       </c>
       <c r="F43" s="3">
-        <v>1394400</v>
+        <v>1419700</v>
       </c>
       <c r="G43" s="3">
-        <v>1475600</v>
+        <v>1502300</v>
       </c>
       <c r="H43" s="3">
-        <v>1392600</v>
+        <v>1417800</v>
       </c>
       <c r="I43" s="3">
-        <v>1287400</v>
+        <v>1310700</v>
       </c>
       <c r="J43" s="3">
-        <v>1038400</v>
+        <v>1057200</v>
       </c>
       <c r="K43" s="3">
         <v>1155600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1726500</v>
+        <v>1757800</v>
       </c>
       <c r="E44" s="3">
-        <v>1677500</v>
+        <v>1707900</v>
       </c>
       <c r="F44" s="3">
-        <v>1378900</v>
+        <v>1403800</v>
       </c>
       <c r="G44" s="3">
-        <v>1421500</v>
+        <v>1447200</v>
       </c>
       <c r="H44" s="3">
-        <v>1247300</v>
+        <v>1269900</v>
       </c>
       <c r="I44" s="3">
-        <v>1125500</v>
+        <v>1145900</v>
       </c>
       <c r="J44" s="3">
-        <v>1860500</v>
+        <v>1894200</v>
       </c>
       <c r="K44" s="3">
         <v>2070600</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>119100</v>
+        <v>121300</v>
       </c>
       <c r="E45" s="3">
-        <v>127300</v>
+        <v>129600</v>
       </c>
       <c r="F45" s="3">
-        <v>86300</v>
+        <v>87900</v>
       </c>
       <c r="G45" s="3">
-        <v>101700</v>
+        <v>103500</v>
       </c>
       <c r="H45" s="3">
-        <v>131100</v>
+        <v>133400</v>
       </c>
       <c r="I45" s="3">
-        <v>89700</v>
+        <v>91300</v>
       </c>
       <c r="J45" s="3">
-        <v>321300</v>
+        <v>327100</v>
       </c>
       <c r="K45" s="3">
         <v>357600</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4339400</v>
+        <v>4418000</v>
       </c>
       <c r="E46" s="3">
-        <v>4441000</v>
+        <v>4521400</v>
       </c>
       <c r="F46" s="3">
-        <v>3574700</v>
+        <v>3639400</v>
       </c>
       <c r="G46" s="3">
-        <v>3558300</v>
+        <v>3622700</v>
       </c>
       <c r="H46" s="3">
-        <v>3161700</v>
+        <v>3218900</v>
       </c>
       <c r="I46" s="3">
-        <v>2833400</v>
+        <v>2884700</v>
       </c>
       <c r="J46" s="3">
-        <v>2391100</v>
+        <v>2434400</v>
       </c>
       <c r="K46" s="3">
         <v>2661100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>666700</v>
+        <v>678800</v>
       </c>
       <c r="E48" s="3">
-        <v>674800</v>
+        <v>687000</v>
       </c>
       <c r="F48" s="3">
-        <v>645600</v>
+        <v>657300</v>
       </c>
       <c r="G48" s="3">
-        <v>143400</v>
+        <v>146000</v>
       </c>
       <c r="H48" s="3">
-        <v>146600</v>
+        <v>149300</v>
       </c>
       <c r="I48" s="3">
-        <v>144400</v>
+        <v>147000</v>
       </c>
       <c r="J48" s="3">
-        <v>131900</v>
+        <v>134300</v>
       </c>
       <c r="K48" s="3">
         <v>146800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3240800</v>
+        <v>3299400</v>
       </c>
       <c r="E49" s="3">
-        <v>2860200</v>
+        <v>2912000</v>
       </c>
       <c r="F49" s="3">
-        <v>2683300</v>
+        <v>2731900</v>
       </c>
       <c r="G49" s="3">
-        <v>2790600</v>
+        <v>2841200</v>
       </c>
       <c r="H49" s="3">
-        <v>2754500</v>
+        <v>2804400</v>
       </c>
       <c r="I49" s="3">
-        <v>2281200</v>
+        <v>2322500</v>
       </c>
       <c r="J49" s="3">
-        <v>1928100</v>
+        <v>1963000</v>
       </c>
       <c r="K49" s="3">
         <v>2145800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85900</v>
+        <v>87400</v>
       </c>
       <c r="E52" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="F52" s="3">
-        <v>30500</v>
+        <v>31000</v>
       </c>
       <c r="G52" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="H52" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="I52" s="3">
-        <v>20100</v>
+        <v>20500</v>
       </c>
       <c r="J52" s="3">
-        <v>25700</v>
+        <v>26100</v>
       </c>
       <c r="K52" s="3">
         <v>28500</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8332700</v>
+        <v>8483600</v>
       </c>
       <c r="E54" s="3">
-        <v>7999300</v>
+        <v>8144100</v>
       </c>
       <c r="F54" s="3">
-        <v>6934100</v>
+        <v>7059700</v>
       </c>
       <c r="G54" s="3">
-        <v>6507900</v>
+        <v>6625700</v>
       </c>
       <c r="H54" s="3">
-        <v>6078600</v>
+        <v>6188600</v>
       </c>
       <c r="I54" s="3">
-        <v>5279200</v>
+        <v>5374800</v>
       </c>
       <c r="J54" s="3">
-        <v>4476700</v>
+        <v>4557800</v>
       </c>
       <c r="K54" s="3">
         <v>4982300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1425000</v>
+        <v>1450800</v>
       </c>
       <c r="E57" s="3">
-        <v>1265500</v>
+        <v>1288400</v>
       </c>
       <c r="F57" s="3">
-        <v>1250800</v>
+        <v>1273500</v>
       </c>
       <c r="G57" s="3">
-        <v>1339900</v>
+        <v>1364100</v>
       </c>
       <c r="H57" s="3">
-        <v>1208900</v>
+        <v>1230800</v>
       </c>
       <c r="I57" s="3">
-        <v>1068000</v>
+        <v>1087300</v>
       </c>
       <c r="J57" s="3">
-        <v>861400</v>
+        <v>877000</v>
       </c>
       <c r="K57" s="3">
         <v>958700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>928400</v>
+        <v>945200</v>
       </c>
       <c r="E58" s="3">
-        <v>847600</v>
+        <v>862900</v>
       </c>
       <c r="F58" s="3">
-        <v>790900</v>
+        <v>805200</v>
       </c>
       <c r="G58" s="3">
-        <v>478400</v>
+        <v>487000</v>
       </c>
       <c r="H58" s="3">
-        <v>429200</v>
+        <v>436900</v>
       </c>
       <c r="I58" s="3">
-        <v>283100</v>
+        <v>288200</v>
       </c>
       <c r="J58" s="3">
-        <v>412200</v>
+        <v>419600</v>
       </c>
       <c r="K58" s="3">
         <v>458700</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>896900</v>
+        <v>913100</v>
       </c>
       <c r="E59" s="3">
-        <v>1011700</v>
+        <v>1030000</v>
       </c>
       <c r="F59" s="3">
-        <v>620900</v>
+        <v>632100</v>
       </c>
       <c r="G59" s="3">
-        <v>677800</v>
+        <v>690100</v>
       </c>
       <c r="H59" s="3">
-        <v>656700</v>
+        <v>668600</v>
       </c>
       <c r="I59" s="3">
-        <v>568400</v>
+        <v>578700</v>
       </c>
       <c r="J59" s="3">
-        <v>533300</v>
+        <v>542900</v>
       </c>
       <c r="K59" s="3">
         <v>593500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3250200</v>
+        <v>3309100</v>
       </c>
       <c r="E60" s="3">
-        <v>3124700</v>
+        <v>3181300</v>
       </c>
       <c r="F60" s="3">
-        <v>2662600</v>
+        <v>2710800</v>
       </c>
       <c r="G60" s="3">
-        <v>2496000</v>
+        <v>2541200</v>
       </c>
       <c r="H60" s="3">
-        <v>2294800</v>
+        <v>2336400</v>
       </c>
       <c r="I60" s="3">
-        <v>1919500</v>
+        <v>1954300</v>
       </c>
       <c r="J60" s="3">
-        <v>1806800</v>
+        <v>1839600</v>
       </c>
       <c r="K60" s="3">
         <v>2010900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2100500</v>
+        <v>2138500</v>
       </c>
       <c r="E61" s="3">
-        <v>2323400</v>
+        <v>2365500</v>
       </c>
       <c r="F61" s="3">
-        <v>1958900</v>
+        <v>1994400</v>
       </c>
       <c r="G61" s="3">
-        <v>1705800</v>
+        <v>1736700</v>
       </c>
       <c r="H61" s="3">
-        <v>1756000</v>
+        <v>1787800</v>
       </c>
       <c r="I61" s="3">
-        <v>1503500</v>
+        <v>1530700</v>
       </c>
       <c r="J61" s="3">
-        <v>1240200</v>
+        <v>1262600</v>
       </c>
       <c r="K61" s="3">
         <v>1380200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400600</v>
+        <v>407800</v>
       </c>
       <c r="E62" s="3">
-        <v>303400</v>
+        <v>308900</v>
       </c>
       <c r="F62" s="3">
-        <v>269500</v>
+        <v>274400</v>
       </c>
       <c r="G62" s="3">
-        <v>321300</v>
+        <v>327100</v>
       </c>
       <c r="H62" s="3">
-        <v>331000</v>
+        <v>337000</v>
       </c>
       <c r="I62" s="3">
-        <v>318800</v>
+        <v>324600</v>
       </c>
       <c r="J62" s="3">
-        <v>239300</v>
+        <v>243600</v>
       </c>
       <c r="K62" s="3">
         <v>266300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5751300</v>
+        <v>5855500</v>
       </c>
       <c r="E66" s="3">
-        <v>5751400</v>
+        <v>5855600</v>
       </c>
       <c r="F66" s="3">
-        <v>4891000</v>
+        <v>4979600</v>
       </c>
       <c r="G66" s="3">
-        <v>4523100</v>
+        <v>4605000</v>
       </c>
       <c r="H66" s="3">
-        <v>4381800</v>
+        <v>4461200</v>
       </c>
       <c r="I66" s="3">
-        <v>3741800</v>
+        <v>3809600</v>
       </c>
       <c r="J66" s="3">
-        <v>3286300</v>
+        <v>3345800</v>
       </c>
       <c r="K66" s="3">
         <v>3657500</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2541800</v>
+        <v>2587900</v>
       </c>
       <c r="E72" s="3">
-        <v>2129800</v>
+        <v>2168300</v>
       </c>
       <c r="F72" s="3">
-        <v>1834500</v>
+        <v>1867700</v>
       </c>
       <c r="G72" s="3">
-        <v>1676000</v>
+        <v>1706400</v>
       </c>
       <c r="H72" s="3">
-        <v>1392000</v>
+        <v>1417200</v>
       </c>
       <c r="I72" s="3">
-        <v>1179400</v>
+        <v>1200700</v>
       </c>
       <c r="J72" s="3">
-        <v>1080200</v>
+        <v>1099700</v>
       </c>
       <c r="K72" s="3">
         <v>1202200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2581400</v>
+        <v>2628200</v>
       </c>
       <c r="E76" s="3">
-        <v>2247800</v>
+        <v>2288500</v>
       </c>
       <c r="F76" s="3">
-        <v>2043100</v>
+        <v>2080100</v>
       </c>
       <c r="G76" s="3">
-        <v>1984800</v>
+        <v>2020700</v>
       </c>
       <c r="H76" s="3">
-        <v>1696700</v>
+        <v>1727500</v>
       </c>
       <c r="I76" s="3">
-        <v>1537300</v>
+        <v>1565200</v>
       </c>
       <c r="J76" s="3">
-        <v>1190400</v>
+        <v>1211900</v>
       </c>
       <c r="K76" s="3">
         <v>1324800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>518700</v>
+        <v>528000</v>
       </c>
       <c r="E81" s="3">
-        <v>503700</v>
+        <v>512800</v>
       </c>
       <c r="F81" s="3">
-        <v>409000</v>
+        <v>416400</v>
       </c>
       <c r="G81" s="3">
-        <v>382400</v>
+        <v>389400</v>
       </c>
       <c r="H81" s="3">
-        <v>363700</v>
+        <v>370300</v>
       </c>
       <c r="I81" s="3">
-        <v>311400</v>
+        <v>317100</v>
       </c>
       <c r="J81" s="3">
-        <v>272600</v>
+        <v>277500</v>
       </c>
       <c r="K81" s="3">
         <v>274700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>325300</v>
+        <v>324500</v>
       </c>
       <c r="E83" s="3">
-        <v>318700</v>
+        <v>318800</v>
       </c>
       <c r="F83" s="3">
-        <v>313100</v>
+        <v>171400</v>
       </c>
       <c r="G83" s="3">
-        <v>168300</v>
+        <v>152500</v>
       </c>
       <c r="H83" s="3">
-        <v>149800</v>
+        <v>129600</v>
       </c>
       <c r="I83" s="3">
-        <v>127300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>106500</v>
+        <v>108400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>858700</v>
+        <v>942300</v>
       </c>
       <c r="E89" s="3">
-        <v>925600</v>
+        <v>798100</v>
       </c>
       <c r="F89" s="3">
-        <v>784000</v>
+        <v>572400</v>
       </c>
       <c r="G89" s="3">
-        <v>562200</v>
+        <v>567200</v>
       </c>
       <c r="H89" s="3">
-        <v>557100</v>
+        <v>484800</v>
       </c>
       <c r="I89" s="3">
-        <v>476100</v>
+        <v>393300</v>
       </c>
       <c r="J89" s="3">
-        <v>386300</v>
+        <v>390900</v>
       </c>
       <c r="K89" s="3">
         <v>427300</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-38300</v>
+        <v>-39500</v>
       </c>
       <c r="E91" s="3">
-        <v>-38800</v>
+        <v>-44000</v>
       </c>
       <c r="F91" s="3">
-        <v>-43200</v>
+        <v>-37100</v>
       </c>
       <c r="G91" s="3">
-        <v>-36400</v>
+        <v>-40300</v>
       </c>
       <c r="H91" s="3">
-        <v>-39600</v>
+        <v>-30300</v>
       </c>
       <c r="I91" s="3">
-        <v>-29800</v>
+        <v>-29600</v>
       </c>
       <c r="J91" s="3">
-        <v>-29000</v>
+        <v>-29900</v>
       </c>
       <c r="K91" s="3">
         <v>-32700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-536500</v>
+        <v>-453200</v>
       </c>
       <c r="E94" s="3">
-        <v>-445100</v>
+        <v>-193900</v>
       </c>
       <c r="F94" s="3">
-        <v>-190500</v>
+        <v>-169100</v>
       </c>
       <c r="G94" s="3">
-        <v>-166100</v>
+        <v>-721700</v>
       </c>
       <c r="H94" s="3">
-        <v>-708900</v>
+        <v>-212900</v>
       </c>
       <c r="I94" s="3">
-        <v>-209100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-407700</v>
+        <v>-415100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-211300</v>
+        <v>-204500</v>
       </c>
       <c r="E96" s="3">
-        <v>-200900</v>
+        <v>-199500</v>
       </c>
       <c r="F96" s="3">
-        <v>-196000</v>
+        <v>-181500</v>
       </c>
       <c r="G96" s="3">
-        <v>-178300</v>
+        <v>-164800</v>
       </c>
       <c r="H96" s="3">
-        <v>-161900</v>
+        <v>-149500</v>
       </c>
       <c r="I96" s="3">
-        <v>-146900</v>
+        <v>-138500</v>
       </c>
       <c r="J96" s="3">
-        <v>-136000</v>
+        <v>-125900</v>
       </c>
       <c r="K96" s="3">
         <v>-137700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-537300</v>
+        <v>-145700</v>
       </c>
       <c r="E100" s="3">
-        <v>-143100</v>
+        <v>-587000</v>
       </c>
       <c r="F100" s="3">
-        <v>-576500</v>
+        <v>-366000</v>
       </c>
       <c r="G100" s="3">
-        <v>-359500</v>
+        <v>139300</v>
       </c>
       <c r="H100" s="3">
-        <v>136800</v>
+        <v>-230800</v>
       </c>
       <c r="I100" s="3">
-        <v>-226600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>25500</v>
+        <v>26000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24400</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
-        <v>1100</v>
+        <v>-21300</v>
       </c>
       <c r="F101" s="3">
-        <v>-21000</v>
+        <v>700</v>
       </c>
       <c r="G101" s="3">
-        <v>700</v>
+        <v>-1900</v>
       </c>
       <c r="H101" s="3">
-        <v>-1900</v>
+        <v>49500</v>
       </c>
       <c r="I101" s="3">
-        <v>48600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-239400</v>
+        <v>344500</v>
       </c>
       <c r="E102" s="3">
-        <v>338400</v>
+        <v>-4100</v>
       </c>
       <c r="F102" s="3">
-        <v>-4000</v>
+        <v>38000</v>
       </c>
       <c r="G102" s="3">
-        <v>37400</v>
+        <v>-17200</v>
       </c>
       <c r="H102" s="3">
-        <v>-16900</v>
+        <v>90600</v>
       </c>
       <c r="I102" s="3">
-        <v>89000</v>
+        <v>-4300</v>
       </c>
       <c r="J102" s="3">
-        <v>-4200</v>
+        <v>8900</v>
       </c>
       <c r="K102" s="3">
         <v>9800</v>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>BZLFY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12265100</v>
+        <v>14938600</v>
       </c>
       <c r="E8" s="3">
-        <v>12057600</v>
+        <v>12761800</v>
       </c>
       <c r="F8" s="3">
-        <v>11122200</v>
+        <v>12545900</v>
       </c>
       <c r="G8" s="3">
-        <v>10827300</v>
+        <v>11572600</v>
       </c>
       <c r="H8" s="3">
-        <v>10232800</v>
+        <v>11265700</v>
       </c>
       <c r="I8" s="3">
-        <v>8859300</v>
+        <v>10647200</v>
       </c>
       <c r="J8" s="3">
+        <v>9218000</v>
+      </c>
+      <c r="K8" s="3">
         <v>7739000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8025600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8118500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6928400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6728100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9256900</v>
+        <v>11185800</v>
       </c>
       <c r="E9" s="3">
-        <v>8975200</v>
+        <v>9631700</v>
       </c>
       <c r="F9" s="3">
-        <v>8387200</v>
+        <v>9338600</v>
       </c>
       <c r="G9" s="3">
-        <v>8170800</v>
+        <v>8726800</v>
       </c>
       <c r="H9" s="3">
-        <v>7740100</v>
+        <v>8501700</v>
       </c>
       <c r="I9" s="3">
-        <v>6702000</v>
+        <v>8053500</v>
       </c>
       <c r="J9" s="3">
+        <v>6973400</v>
+      </c>
+      <c r="K9" s="3">
         <v>5875700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6073700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6175400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5324100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5143000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3008200</v>
+        <v>3752800</v>
       </c>
       <c r="E10" s="3">
-        <v>3082400</v>
+        <v>3130000</v>
       </c>
       <c r="F10" s="3">
-        <v>2735000</v>
+        <v>3207200</v>
       </c>
       <c r="G10" s="3">
-        <v>2656400</v>
+        <v>2845800</v>
       </c>
       <c r="H10" s="3">
-        <v>2492700</v>
+        <v>2764000</v>
       </c>
       <c r="I10" s="3">
-        <v>2157300</v>
+        <v>2593600</v>
       </c>
       <c r="J10" s="3">
+        <v>2244600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1863300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1951900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1943000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1604400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1585200</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27400</v>
+        <v>68200</v>
       </c>
       <c r="E14" s="3">
-        <v>71000</v>
+        <v>28500</v>
       </c>
       <c r="F14" s="3">
-        <v>21000</v>
+        <v>73800</v>
       </c>
       <c r="G14" s="3">
-        <v>27500</v>
+        <v>21800</v>
       </c>
       <c r="H14" s="3">
-        <v>43800</v>
+        <v>28700</v>
       </c>
       <c r="I14" s="3">
-        <v>40500</v>
+        <v>45500</v>
       </c>
       <c r="J14" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K14" s="3">
         <v>25900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>32000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>331200</v>
+        <v>394500</v>
       </c>
       <c r="E15" s="3">
-        <v>324500</v>
+        <v>344600</v>
       </c>
       <c r="F15" s="3">
-        <v>318800</v>
+        <v>337600</v>
       </c>
       <c r="G15" s="3">
-        <v>171400</v>
+        <v>331700</v>
       </c>
       <c r="H15" s="3">
-        <v>152500</v>
+        <v>178300</v>
       </c>
       <c r="I15" s="3">
-        <v>129600</v>
+        <v>158700</v>
       </c>
       <c r="J15" s="3">
+        <v>134900</v>
+      </c>
+      <c r="K15" s="3">
         <v>108400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>112500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>112100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>91400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>94700</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11521800</v>
+        <v>14066900</v>
       </c>
       <c r="E17" s="3">
-        <v>11320000</v>
+        <v>11988400</v>
       </c>
       <c r="F17" s="3">
-        <v>10492100</v>
+        <v>11778400</v>
       </c>
       <c r="G17" s="3">
-        <v>10255100</v>
+        <v>10916900</v>
       </c>
       <c r="H17" s="3">
-        <v>9689000</v>
+        <v>10670400</v>
       </c>
       <c r="I17" s="3">
-        <v>8370700</v>
+        <v>10081400</v>
       </c>
       <c r="J17" s="3">
+        <v>8709700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7302000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7580000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7691000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6537100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6360400</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>743300</v>
+        <v>871700</v>
       </c>
       <c r="E18" s="3">
-        <v>737600</v>
+        <v>773400</v>
       </c>
       <c r="F18" s="3">
-        <v>630100</v>
+        <v>767400</v>
       </c>
       <c r="G18" s="3">
-        <v>572200</v>
+        <v>655600</v>
       </c>
       <c r="H18" s="3">
-        <v>543800</v>
+        <v>595300</v>
       </c>
       <c r="I18" s="3">
-        <v>488600</v>
+        <v>565800</v>
       </c>
       <c r="J18" s="3">
+        <v>508400</v>
+      </c>
+      <c r="K18" s="3">
         <v>437100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>445600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>427500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>391300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>367800</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7600</v>
+        <v>15600</v>
       </c>
       <c r="E20" s="3">
-        <v>4700</v>
+        <v>7900</v>
       </c>
       <c r="F20" s="3">
-        <v>5700</v>
+        <v>4800</v>
       </c>
       <c r="G20" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="H20" s="3">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I20" s="3">
-        <v>3500</v>
+        <v>5200</v>
       </c>
       <c r="J20" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-69800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1073100</v>
+        <v>1284200</v>
       </c>
       <c r="E21" s="3">
-        <v>1058800</v>
+        <v>1128100</v>
       </c>
       <c r="F21" s="3">
-        <v>806000</v>
+        <v>1112000</v>
       </c>
       <c r="G21" s="3">
-        <v>729300</v>
+        <v>995300</v>
       </c>
       <c r="H21" s="3">
-        <v>677500</v>
+        <v>780700</v>
       </c>
       <c r="I21" s="3">
-        <v>599700</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>730700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>647700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>551500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>491300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>405300</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>72700</v>
+        <v>99900</v>
       </c>
       <c r="E22" s="3">
-        <v>79500</v>
+        <v>75700</v>
       </c>
       <c r="F22" s="3">
-        <v>95300</v>
+        <v>82800</v>
       </c>
       <c r="G22" s="3">
-        <v>71300</v>
+        <v>99100</v>
       </c>
       <c r="H22" s="3">
-        <v>60700</v>
+        <v>74200</v>
       </c>
       <c r="I22" s="3">
-        <v>59300</v>
+        <v>63200</v>
       </c>
       <c r="J22" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K22" s="3">
         <v>51600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>42900</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>678200</v>
+        <v>787400</v>
       </c>
       <c r="E23" s="3">
-        <v>662700</v>
+        <v>705600</v>
       </c>
       <c r="F23" s="3">
-        <v>540600</v>
+        <v>689500</v>
       </c>
       <c r="G23" s="3">
-        <v>506600</v>
+        <v>562500</v>
       </c>
       <c r="H23" s="3">
-        <v>488100</v>
+        <v>527100</v>
       </c>
       <c r="I23" s="3">
-        <v>432800</v>
+        <v>507900</v>
       </c>
       <c r="J23" s="3">
+        <v>450300</v>
+      </c>
+      <c r="K23" s="3">
         <v>384800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>390800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>386000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>341000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>255100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>150100</v>
+        <v>198800</v>
       </c>
       <c r="E24" s="3">
-        <v>149900</v>
+        <v>156200</v>
       </c>
       <c r="F24" s="3">
-        <v>124100</v>
+        <v>156000</v>
       </c>
       <c r="G24" s="3">
-        <v>117200</v>
+        <v>129200</v>
       </c>
       <c r="H24" s="3">
-        <v>117800</v>
+        <v>122000</v>
       </c>
       <c r="I24" s="3">
-        <v>115700</v>
+        <v>122600</v>
       </c>
       <c r="J24" s="3">
+        <v>120400</v>
+      </c>
+      <c r="K24" s="3">
         <v>107300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>110600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>93700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>92000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>528000</v>
+        <v>588600</v>
       </c>
       <c r="E26" s="3">
-        <v>512800</v>
+        <v>549400</v>
       </c>
       <c r="F26" s="3">
-        <v>416400</v>
+        <v>533500</v>
       </c>
       <c r="G26" s="3">
-        <v>389400</v>
+        <v>433300</v>
       </c>
       <c r="H26" s="3">
-        <v>370300</v>
+        <v>405100</v>
       </c>
       <c r="I26" s="3">
-        <v>317100</v>
+        <v>385300</v>
       </c>
       <c r="J26" s="3">
+        <v>329900</v>
+      </c>
+      <c r="K26" s="3">
         <v>277500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>274700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>275300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>247300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>163000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>528000</v>
+        <v>588600</v>
       </c>
       <c r="E27" s="3">
-        <v>512800</v>
+        <v>549400</v>
       </c>
       <c r="F27" s="3">
-        <v>416400</v>
+        <v>533500</v>
       </c>
       <c r="G27" s="3">
-        <v>389400</v>
+        <v>433300</v>
       </c>
       <c r="H27" s="3">
-        <v>370300</v>
+        <v>405100</v>
       </c>
       <c r="I27" s="3">
-        <v>317100</v>
+        <v>385300</v>
       </c>
       <c r="J27" s="3">
+        <v>329900</v>
+      </c>
+      <c r="K27" s="3">
         <v>277500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>274700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>275300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>247300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>163000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7600</v>
+        <v>-15600</v>
       </c>
       <c r="E32" s="3">
-        <v>-4700</v>
+        <v>-7900</v>
       </c>
       <c r="F32" s="3">
-        <v>-5700</v>
+        <v>-4800</v>
       </c>
       <c r="G32" s="3">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="H32" s="3">
-        <v>-5000</v>
+        <v>-6000</v>
       </c>
       <c r="I32" s="3">
-        <v>-3500</v>
+        <v>-5200</v>
       </c>
       <c r="J32" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>69800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>528000</v>
+        <v>588600</v>
       </c>
       <c r="E33" s="3">
-        <v>512800</v>
+        <v>549400</v>
       </c>
       <c r="F33" s="3">
-        <v>416400</v>
+        <v>533500</v>
       </c>
       <c r="G33" s="3">
-        <v>389400</v>
+        <v>433300</v>
       </c>
       <c r="H33" s="3">
-        <v>370300</v>
+        <v>405100</v>
       </c>
       <c r="I33" s="3">
-        <v>317100</v>
+        <v>385300</v>
       </c>
       <c r="J33" s="3">
+        <v>329900</v>
+      </c>
+      <c r="K33" s="3">
         <v>277500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>274700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>275300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>247300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>163000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>528000</v>
+        <v>588600</v>
       </c>
       <c r="E35" s="3">
-        <v>512800</v>
+        <v>549400</v>
       </c>
       <c r="F35" s="3">
-        <v>416400</v>
+        <v>533500</v>
       </c>
       <c r="G35" s="3">
-        <v>389400</v>
+        <v>433300</v>
       </c>
       <c r="H35" s="3">
-        <v>370300</v>
+        <v>405100</v>
       </c>
       <c r="I35" s="3">
-        <v>317100</v>
+        <v>385300</v>
       </c>
       <c r="J35" s="3">
+        <v>329900</v>
+      </c>
+      <c r="K35" s="3">
         <v>277500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>274700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>275300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>247300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>163000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>926500</v>
+        <v>1866200</v>
       </c>
       <c r="E41" s="3">
-        <v>1126100</v>
+        <v>964000</v>
       </c>
       <c r="F41" s="3">
-        <v>728000</v>
+        <v>1171700</v>
       </c>
       <c r="G41" s="3">
-        <v>569700</v>
+        <v>757500</v>
       </c>
       <c r="H41" s="3">
-        <v>397800</v>
+        <v>592700</v>
       </c>
       <c r="I41" s="3">
-        <v>336800</v>
+        <v>413900</v>
       </c>
       <c r="J41" s="3">
+        <v>350400</v>
+      </c>
+      <c r="K41" s="3">
         <v>336000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>367400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>97300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>204500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>83700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1890,170 +1979,185 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>5400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1612500</v>
+        <v>1839000</v>
       </c>
       <c r="E43" s="3">
-        <v>1557800</v>
+        <v>1677800</v>
       </c>
       <c r="F43" s="3">
-        <v>1419700</v>
+        <v>1620900</v>
       </c>
       <c r="G43" s="3">
-        <v>1502300</v>
+        <v>1477200</v>
       </c>
       <c r="H43" s="3">
-        <v>1417800</v>
+        <v>1563200</v>
       </c>
       <c r="I43" s="3">
-        <v>1310700</v>
+        <v>1475200</v>
       </c>
       <c r="J43" s="3">
+        <v>1363800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1057200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1155600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1852100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2783800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>803800</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1757800</v>
+        <v>2169700</v>
       </c>
       <c r="E44" s="3">
-        <v>1707900</v>
+        <v>1828900</v>
       </c>
       <c r="F44" s="3">
-        <v>1403800</v>
+        <v>1777100</v>
       </c>
       <c r="G44" s="3">
-        <v>1447200</v>
+        <v>1460700</v>
       </c>
       <c r="H44" s="3">
-        <v>1269900</v>
+        <v>1505800</v>
       </c>
       <c r="I44" s="3">
-        <v>1145900</v>
+        <v>1321300</v>
       </c>
       <c r="J44" s="3">
+        <v>1192300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1894200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2070600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>858900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2263200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>696100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>121300</v>
+        <v>132600</v>
       </c>
       <c r="E45" s="3">
-        <v>129600</v>
+        <v>126200</v>
       </c>
       <c r="F45" s="3">
-        <v>87900</v>
+        <v>134900</v>
       </c>
       <c r="G45" s="3">
-        <v>103500</v>
+        <v>91400</v>
       </c>
       <c r="H45" s="3">
-        <v>133400</v>
+        <v>107700</v>
       </c>
       <c r="I45" s="3">
-        <v>91300</v>
+        <v>138800</v>
       </c>
       <c r="J45" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K45" s="3">
         <v>327100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>357600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>229300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>399000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>171600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4418000</v>
+        <v>6007500</v>
       </c>
       <c r="E46" s="3">
-        <v>4521400</v>
+        <v>4596900</v>
       </c>
       <c r="F46" s="3">
-        <v>3639400</v>
+        <v>4704500</v>
       </c>
       <c r="G46" s="3">
-        <v>3622700</v>
+        <v>3786800</v>
       </c>
       <c r="H46" s="3">
-        <v>3218900</v>
+        <v>3769400</v>
       </c>
       <c r="I46" s="3">
-        <v>2884700</v>
+        <v>3349300</v>
       </c>
       <c r="J46" s="3">
+        <v>3001500</v>
+      </c>
+      <c r="K46" s="3">
         <v>2434400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2661100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2112000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1918400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1769100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2088,89 +2192,98 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>700</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>678800</v>
+        <v>827400</v>
       </c>
       <c r="E48" s="3">
-        <v>687000</v>
+        <v>706300</v>
       </c>
       <c r="F48" s="3">
-        <v>657300</v>
+        <v>714800</v>
       </c>
       <c r="G48" s="3">
-        <v>146000</v>
+        <v>683900</v>
       </c>
       <c r="H48" s="3">
-        <v>149300</v>
+        <v>151900</v>
       </c>
       <c r="I48" s="3">
-        <v>147000</v>
+        <v>155300</v>
       </c>
       <c r="J48" s="3">
+        <v>153000</v>
+      </c>
+      <c r="K48" s="3">
         <v>134300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>146800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>158200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>431300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>143500</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3299400</v>
+        <v>3838900</v>
       </c>
       <c r="E49" s="3">
-        <v>2912000</v>
+        <v>3433000</v>
       </c>
       <c r="F49" s="3">
-        <v>2731900</v>
+        <v>3029900</v>
       </c>
       <c r="G49" s="3">
-        <v>2841200</v>
+        <v>2842500</v>
       </c>
       <c r="H49" s="3">
-        <v>2804400</v>
+        <v>2956200</v>
       </c>
       <c r="I49" s="3">
-        <v>2322500</v>
+        <v>2918000</v>
       </c>
       <c r="J49" s="3">
+        <v>2416600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1963000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2145800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1939700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3466300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1654900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87400</v>
+        <v>80000</v>
       </c>
       <c r="E52" s="3">
-        <v>23700</v>
+        <v>91000</v>
       </c>
       <c r="F52" s="3">
-        <v>31000</v>
+        <v>24700</v>
       </c>
       <c r="G52" s="3">
-        <v>15900</v>
+        <v>32300</v>
       </c>
       <c r="H52" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="I52" s="3">
-        <v>20500</v>
+        <v>16600</v>
       </c>
       <c r="J52" s="3">
+        <v>21300</v>
+      </c>
+      <c r="K52" s="3">
         <v>26100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>28500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>18200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>41600</v>
       </c>
       <c r="N52" s="3">
         <v>41600</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>41600</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8483600</v>
+        <v>10753800</v>
       </c>
       <c r="E54" s="3">
-        <v>8144100</v>
+        <v>8827200</v>
       </c>
       <c r="F54" s="3">
-        <v>7059700</v>
+        <v>8473900</v>
       </c>
       <c r="G54" s="3">
-        <v>6625700</v>
+        <v>7345500</v>
       </c>
       <c r="H54" s="3">
-        <v>6188600</v>
+        <v>6894000</v>
       </c>
       <c r="I54" s="3">
-        <v>5374800</v>
+        <v>6439300</v>
       </c>
       <c r="J54" s="3">
+        <v>5592400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4557800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4982300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4228100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3816000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3609800</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1450800</v>
+        <v>1787900</v>
       </c>
       <c r="E57" s="3">
-        <v>1288400</v>
+        <v>1509600</v>
       </c>
       <c r="F57" s="3">
-        <v>1273500</v>
+        <v>1340600</v>
       </c>
       <c r="G57" s="3">
-        <v>1364100</v>
+        <v>1325100</v>
       </c>
       <c r="H57" s="3">
-        <v>1230800</v>
+        <v>1419400</v>
       </c>
       <c r="I57" s="3">
-        <v>1087300</v>
+        <v>1280600</v>
       </c>
       <c r="J57" s="3">
+        <v>1131400</v>
+      </c>
+      <c r="K57" s="3">
         <v>877000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>958700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>909200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2013400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>846300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>945200</v>
+        <v>1405600</v>
       </c>
       <c r="E58" s="3">
-        <v>862900</v>
+        <v>983500</v>
       </c>
       <c r="F58" s="3">
-        <v>805200</v>
+        <v>897800</v>
       </c>
       <c r="G58" s="3">
-        <v>487000</v>
+        <v>837800</v>
       </c>
       <c r="H58" s="3">
-        <v>436900</v>
+        <v>506700</v>
       </c>
       <c r="I58" s="3">
-        <v>288200</v>
+        <v>454600</v>
       </c>
       <c r="J58" s="3">
+        <v>299900</v>
+      </c>
+      <c r="K58" s="3">
         <v>419600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>458700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>90900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>595500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>87800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>913100</v>
+        <v>1106300</v>
       </c>
       <c r="E59" s="3">
-        <v>1030000</v>
+        <v>950100</v>
       </c>
       <c r="F59" s="3">
-        <v>632100</v>
+        <v>1071700</v>
       </c>
       <c r="G59" s="3">
-        <v>690100</v>
+        <v>657700</v>
       </c>
       <c r="H59" s="3">
-        <v>668600</v>
+        <v>718100</v>
       </c>
       <c r="I59" s="3">
-        <v>578700</v>
+        <v>695700</v>
       </c>
       <c r="J59" s="3">
+        <v>602200</v>
+      </c>
+      <c r="K59" s="3">
         <v>542900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>593500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>539500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>869000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>376700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3309100</v>
+        <v>4299700</v>
       </c>
       <c r="E60" s="3">
-        <v>3181300</v>
+        <v>3443100</v>
       </c>
       <c r="F60" s="3">
-        <v>2710800</v>
+        <v>3310100</v>
       </c>
       <c r="G60" s="3">
-        <v>2541200</v>
+        <v>2820600</v>
       </c>
       <c r="H60" s="3">
-        <v>2336400</v>
+        <v>2644100</v>
       </c>
       <c r="I60" s="3">
-        <v>1954300</v>
+        <v>2431000</v>
       </c>
       <c r="J60" s="3">
+        <v>2033400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1839600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2010900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1539600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1571700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1310900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2138500</v>
+        <v>2479100</v>
       </c>
       <c r="E61" s="3">
-        <v>2365500</v>
+        <v>2225100</v>
       </c>
       <c r="F61" s="3">
-        <v>1994400</v>
+        <v>2461300</v>
       </c>
       <c r="G61" s="3">
-        <v>1736700</v>
+        <v>2075100</v>
       </c>
       <c r="H61" s="3">
-        <v>1787800</v>
+        <v>1807000</v>
       </c>
       <c r="I61" s="3">
-        <v>1530700</v>
+        <v>1860200</v>
       </c>
       <c r="J61" s="3">
+        <v>1592700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1262600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1380200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1134100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>774700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>893800</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>407800</v>
+        <v>598800</v>
       </c>
       <c r="E62" s="3">
-        <v>308900</v>
+        <v>424400</v>
       </c>
       <c r="F62" s="3">
-        <v>274400</v>
+        <v>321400</v>
       </c>
       <c r="G62" s="3">
-        <v>327100</v>
+        <v>285500</v>
       </c>
       <c r="H62" s="3">
-        <v>337000</v>
+        <v>340400</v>
       </c>
       <c r="I62" s="3">
-        <v>324600</v>
+        <v>350700</v>
       </c>
       <c r="J62" s="3">
+        <v>337700</v>
+      </c>
+      <c r="K62" s="3">
         <v>243600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>266300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>303000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>649800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>342900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5855500</v>
+        <v>7377700</v>
       </c>
       <c r="E66" s="3">
-        <v>5855600</v>
+        <v>6092600</v>
       </c>
       <c r="F66" s="3">
-        <v>4979600</v>
+        <v>6092700</v>
       </c>
       <c r="G66" s="3">
-        <v>4605000</v>
+        <v>5181200</v>
       </c>
       <c r="H66" s="3">
-        <v>4461200</v>
+        <v>4791500</v>
       </c>
       <c r="I66" s="3">
-        <v>3809600</v>
+        <v>4641800</v>
       </c>
       <c r="J66" s="3">
+        <v>3963900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3345800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3657500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2976700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2671200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2547600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2587900</v>
+        <v>3087200</v>
       </c>
       <c r="E72" s="3">
-        <v>2168300</v>
+        <v>2692700</v>
       </c>
       <c r="F72" s="3">
-        <v>1867700</v>
+        <v>2256100</v>
       </c>
       <c r="G72" s="3">
-        <v>1706400</v>
+        <v>1943300</v>
       </c>
       <c r="H72" s="3">
-        <v>1417200</v>
+        <v>1775500</v>
       </c>
       <c r="I72" s="3">
-        <v>1200700</v>
+        <v>1474600</v>
       </c>
       <c r="J72" s="3">
+        <v>1249400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1099700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1202200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1099600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1894000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>683700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2628200</v>
+        <v>3376100</v>
       </c>
       <c r="E76" s="3">
-        <v>2288500</v>
+        <v>2734600</v>
       </c>
       <c r="F76" s="3">
-        <v>2080100</v>
+        <v>2381200</v>
       </c>
       <c r="G76" s="3">
-        <v>2020700</v>
+        <v>2164300</v>
       </c>
       <c r="H76" s="3">
-        <v>1727500</v>
+        <v>2102500</v>
       </c>
       <c r="I76" s="3">
-        <v>1565200</v>
+        <v>1797400</v>
       </c>
       <c r="J76" s="3">
+        <v>1628500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1211900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1324800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1251400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1144800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1062300</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>528000</v>
+        <v>588600</v>
       </c>
       <c r="E81" s="3">
-        <v>512800</v>
+        <v>549400</v>
       </c>
       <c r="F81" s="3">
-        <v>416400</v>
+        <v>533500</v>
       </c>
       <c r="G81" s="3">
-        <v>389400</v>
+        <v>433300</v>
       </c>
       <c r="H81" s="3">
-        <v>370300</v>
+        <v>405100</v>
       </c>
       <c r="I81" s="3">
-        <v>317100</v>
+        <v>385300</v>
       </c>
       <c r="J81" s="3">
+        <v>329900</v>
+      </c>
+      <c r="K81" s="3">
         <v>277500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>274700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>275300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>247300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>163000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>324500</v>
+        <v>394500</v>
       </c>
       <c r="E83" s="3">
-        <v>318800</v>
+        <v>344600</v>
       </c>
       <c r="F83" s="3">
-        <v>171400</v>
+        <v>337600</v>
       </c>
       <c r="G83" s="3">
-        <v>152500</v>
+        <v>331700</v>
       </c>
       <c r="H83" s="3">
-        <v>129600</v>
+        <v>178300</v>
       </c>
       <c r="I83" s="3">
-        <v>108400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>158700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>134900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>112100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>105500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>107700</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>942300</v>
+        <v>1180700</v>
       </c>
       <c r="E89" s="3">
-        <v>798100</v>
+        <v>909600</v>
       </c>
       <c r="F89" s="3">
-        <v>572400</v>
+        <v>980500</v>
       </c>
       <c r="G89" s="3">
-        <v>567200</v>
+        <v>830500</v>
       </c>
       <c r="H89" s="3">
-        <v>484800</v>
+        <v>595600</v>
       </c>
       <c r="I89" s="3">
-        <v>393300</v>
+        <v>590100</v>
       </c>
       <c r="J89" s="3">
+        <v>504400</v>
+      </c>
+      <c r="K89" s="3">
         <v>390900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>427300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>452700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>343000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>414300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39500</v>
+        <v>-57900</v>
       </c>
       <c r="E91" s="3">
-        <v>-44000</v>
+        <v>-40600</v>
       </c>
       <c r="F91" s="3">
-        <v>-37100</v>
+        <v>-41100</v>
       </c>
       <c r="G91" s="3">
-        <v>-40300</v>
+        <v>-45800</v>
       </c>
       <c r="H91" s="3">
-        <v>-30300</v>
+        <v>-38600</v>
       </c>
       <c r="I91" s="3">
-        <v>-29600</v>
+        <v>-41900</v>
       </c>
       <c r="J91" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-29900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-453200</v>
+        <v>-276900</v>
       </c>
       <c r="E94" s="3">
-        <v>-193900</v>
+        <v>-568300</v>
       </c>
       <c r="F94" s="3">
-        <v>-169100</v>
+        <v>-471500</v>
       </c>
       <c r="G94" s="3">
-        <v>-721700</v>
+        <v>-201800</v>
       </c>
       <c r="H94" s="3">
-        <v>-212900</v>
+        <v>-175900</v>
       </c>
       <c r="I94" s="3">
-        <v>-415100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-750900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-221500</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-369600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-326400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-179900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-204500</v>
+        <v>-236400</v>
       </c>
       <c r="E96" s="3">
-        <v>-199500</v>
+        <v>-223800</v>
       </c>
       <c r="F96" s="3">
-        <v>-181500</v>
+        <v>-212800</v>
       </c>
       <c r="G96" s="3">
-        <v>-164800</v>
+        <v>-207600</v>
       </c>
       <c r="H96" s="3">
-        <v>-149500</v>
+        <v>-188800</v>
       </c>
       <c r="I96" s="3">
-        <v>-138500</v>
+        <v>-171500</v>
       </c>
       <c r="J96" s="3">
+        <v>-155600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-125900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-137700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-122200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-110800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-90700</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-145700</v>
+        <v>-410700</v>
       </c>
       <c r="E100" s="3">
-        <v>-587000</v>
+        <v>-569200</v>
       </c>
       <c r="F100" s="3">
-        <v>-366000</v>
+        <v>-151600</v>
       </c>
       <c r="G100" s="3">
-        <v>139300</v>
+        <v>-610700</v>
       </c>
       <c r="H100" s="3">
-        <v>-230800</v>
+        <v>-380800</v>
       </c>
       <c r="I100" s="3">
-        <v>26000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>144900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-240100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-91900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-270600</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>49500</v>
-      </c>
       <c r="I101" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>-2000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>51500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-3200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>344500</v>
+        <v>561800</v>
       </c>
       <c r="E102" s="3">
-        <v>-4100</v>
+        <v>-253600</v>
       </c>
       <c r="F102" s="3">
-        <v>38000</v>
+        <v>358500</v>
       </c>
       <c r="G102" s="3">
-        <v>-17200</v>
+        <v>-4200</v>
       </c>
       <c r="H102" s="3">
-        <v>90600</v>
+        <v>39600</v>
       </c>
       <c r="I102" s="3">
-        <v>-4300</v>
+        <v>-17900</v>
       </c>
       <c r="J102" s="3">
+        <v>94300</v>
+      </c>
+      <c r="K102" s="3">
         <v>8900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39400</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14938600</v>
+        <v>15257700</v>
       </c>
       <c r="E8" s="3">
-        <v>12761800</v>
+        <v>13034300</v>
       </c>
       <c r="F8" s="3">
-        <v>12545900</v>
+        <v>12813800</v>
       </c>
       <c r="G8" s="3">
-        <v>11572600</v>
+        <v>11819700</v>
       </c>
       <c r="H8" s="3">
-        <v>11265700</v>
+        <v>11506300</v>
       </c>
       <c r="I8" s="3">
-        <v>10647200</v>
+        <v>10874600</v>
       </c>
       <c r="J8" s="3">
-        <v>9218000</v>
+        <v>9414900</v>
       </c>
       <c r="K8" s="3">
         <v>7739000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11185800</v>
+        <v>11424700</v>
       </c>
       <c r="E9" s="3">
-        <v>9631700</v>
+        <v>9837400</v>
       </c>
       <c r="F9" s="3">
-        <v>9338600</v>
+        <v>9538100</v>
       </c>
       <c r="G9" s="3">
-        <v>8726800</v>
+        <v>8913200</v>
       </c>
       <c r="H9" s="3">
-        <v>8501700</v>
+        <v>8683300</v>
       </c>
       <c r="I9" s="3">
-        <v>8053500</v>
+        <v>8225500</v>
       </c>
       <c r="J9" s="3">
-        <v>6973400</v>
+        <v>7122400</v>
       </c>
       <c r="K9" s="3">
         <v>5875700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3752800</v>
+        <v>3832900</v>
       </c>
       <c r="E10" s="3">
-        <v>3130000</v>
+        <v>3196900</v>
       </c>
       <c r="F10" s="3">
-        <v>3207200</v>
+        <v>3275700</v>
       </c>
       <c r="G10" s="3">
-        <v>2845800</v>
+        <v>2906600</v>
       </c>
       <c r="H10" s="3">
-        <v>2764000</v>
+        <v>2823000</v>
       </c>
       <c r="I10" s="3">
-        <v>2593600</v>
+        <v>2649000</v>
       </c>
       <c r="J10" s="3">
-        <v>2244600</v>
+        <v>2292500</v>
       </c>
       <c r="K10" s="3">
         <v>1863300</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>68200</v>
+        <v>69700</v>
       </c>
       <c r="E14" s="3">
-        <v>28500</v>
+        <v>29100</v>
       </c>
       <c r="F14" s="3">
-        <v>73800</v>
+        <v>75400</v>
       </c>
       <c r="G14" s="3">
-        <v>21800</v>
+        <v>22300</v>
       </c>
       <c r="H14" s="3">
-        <v>28700</v>
+        <v>29300</v>
       </c>
       <c r="I14" s="3">
-        <v>45500</v>
+        <v>46500</v>
       </c>
       <c r="J14" s="3">
-        <v>42200</v>
+        <v>43100</v>
       </c>
       <c r="K14" s="3">
         <v>25900</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>394500</v>
+        <v>402900</v>
       </c>
       <c r="E15" s="3">
-        <v>344600</v>
+        <v>351900</v>
       </c>
       <c r="F15" s="3">
-        <v>337600</v>
+        <v>344800</v>
       </c>
       <c r="G15" s="3">
-        <v>331700</v>
+        <v>338700</v>
       </c>
       <c r="H15" s="3">
-        <v>178300</v>
+        <v>182100</v>
       </c>
       <c r="I15" s="3">
-        <v>158700</v>
+        <v>162100</v>
       </c>
       <c r="J15" s="3">
-        <v>134900</v>
+        <v>137800</v>
       </c>
       <c r="K15" s="3">
         <v>108400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14066900</v>
+        <v>14367400</v>
       </c>
       <c r="E17" s="3">
-        <v>11988400</v>
+        <v>12244400</v>
       </c>
       <c r="F17" s="3">
-        <v>11778400</v>
+        <v>12030000</v>
       </c>
       <c r="G17" s="3">
-        <v>10916900</v>
+        <v>11150100</v>
       </c>
       <c r="H17" s="3">
-        <v>10670400</v>
+        <v>10898300</v>
       </c>
       <c r="I17" s="3">
-        <v>10081400</v>
+        <v>10296700</v>
       </c>
       <c r="J17" s="3">
-        <v>8709700</v>
+        <v>8895700</v>
       </c>
       <c r="K17" s="3">
         <v>7302000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>871700</v>
+        <v>890300</v>
       </c>
       <c r="E18" s="3">
-        <v>773400</v>
+        <v>789900</v>
       </c>
       <c r="F18" s="3">
-        <v>767400</v>
+        <v>783800</v>
       </c>
       <c r="G18" s="3">
-        <v>655600</v>
+        <v>669600</v>
       </c>
       <c r="H18" s="3">
-        <v>595300</v>
+        <v>608100</v>
       </c>
       <c r="I18" s="3">
-        <v>565800</v>
+        <v>577900</v>
       </c>
       <c r="J18" s="3">
-        <v>508400</v>
+        <v>519200</v>
       </c>
       <c r="K18" s="3">
         <v>437100</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="E20" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="F20" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G20" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H20" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I20" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J20" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K20" s="3">
         <v>-600</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1284200</v>
+        <v>1309100</v>
       </c>
       <c r="E21" s="3">
-        <v>1128100</v>
+        <v>1149900</v>
       </c>
       <c r="F21" s="3">
-        <v>1112000</v>
+        <v>1133600</v>
       </c>
       <c r="G21" s="3">
-        <v>995300</v>
+        <v>1014500</v>
       </c>
       <c r="H21" s="3">
-        <v>780700</v>
+        <v>796200</v>
       </c>
       <c r="I21" s="3">
-        <v>730700</v>
+        <v>745300</v>
       </c>
       <c r="J21" s="3">
-        <v>647700</v>
+        <v>660600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>99900</v>
+        <v>102000</v>
       </c>
       <c r="E22" s="3">
-        <v>75700</v>
+        <v>77300</v>
       </c>
       <c r="F22" s="3">
-        <v>82800</v>
+        <v>84500</v>
       </c>
       <c r="G22" s="3">
-        <v>99100</v>
+        <v>101300</v>
       </c>
       <c r="H22" s="3">
-        <v>74200</v>
+        <v>75800</v>
       </c>
       <c r="I22" s="3">
-        <v>63200</v>
+        <v>64500</v>
       </c>
       <c r="J22" s="3">
-        <v>61700</v>
+        <v>63000</v>
       </c>
       <c r="K22" s="3">
         <v>51600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>787400</v>
+        <v>804200</v>
       </c>
       <c r="E23" s="3">
-        <v>705600</v>
+        <v>720700</v>
       </c>
       <c r="F23" s="3">
-        <v>689500</v>
+        <v>704200</v>
       </c>
       <c r="G23" s="3">
-        <v>562500</v>
+        <v>574500</v>
       </c>
       <c r="H23" s="3">
-        <v>527100</v>
+        <v>538300</v>
       </c>
       <c r="I23" s="3">
-        <v>507900</v>
+        <v>518700</v>
       </c>
       <c r="J23" s="3">
-        <v>450300</v>
+        <v>459900</v>
       </c>
       <c r="K23" s="3">
         <v>384800</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>198800</v>
+        <v>203000</v>
       </c>
       <c r="E24" s="3">
-        <v>156200</v>
+        <v>159600</v>
       </c>
       <c r="F24" s="3">
-        <v>156000</v>
+        <v>159300</v>
       </c>
       <c r="G24" s="3">
-        <v>129200</v>
+        <v>131900</v>
       </c>
       <c r="H24" s="3">
-        <v>122000</v>
+        <v>124600</v>
       </c>
       <c r="I24" s="3">
-        <v>122600</v>
+        <v>125200</v>
       </c>
       <c r="J24" s="3">
-        <v>120400</v>
+        <v>122900</v>
       </c>
       <c r="K24" s="3">
         <v>107300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>588600</v>
+        <v>601200</v>
       </c>
       <c r="E26" s="3">
-        <v>549400</v>
+        <v>561200</v>
       </c>
       <c r="F26" s="3">
-        <v>533500</v>
+        <v>544900</v>
       </c>
       <c r="G26" s="3">
-        <v>433300</v>
+        <v>442500</v>
       </c>
       <c r="H26" s="3">
-        <v>405100</v>
+        <v>413800</v>
       </c>
       <c r="I26" s="3">
-        <v>385300</v>
+        <v>393500</v>
       </c>
       <c r="J26" s="3">
-        <v>329900</v>
+        <v>337000</v>
       </c>
       <c r="K26" s="3">
         <v>277500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>588600</v>
+        <v>601200</v>
       </c>
       <c r="E27" s="3">
-        <v>549400</v>
+        <v>561200</v>
       </c>
       <c r="F27" s="3">
-        <v>533500</v>
+        <v>544900</v>
       </c>
       <c r="G27" s="3">
-        <v>433300</v>
+        <v>442500</v>
       </c>
       <c r="H27" s="3">
-        <v>405100</v>
+        <v>413800</v>
       </c>
       <c r="I27" s="3">
-        <v>385300</v>
+        <v>393500</v>
       </c>
       <c r="J27" s="3">
-        <v>329900</v>
+        <v>337000</v>
       </c>
       <c r="K27" s="3">
         <v>277500</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15600</v>
+        <v>-16000</v>
       </c>
       <c r="E32" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="F32" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="G32" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="H32" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="I32" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="J32" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="K32" s="3">
         <v>600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>588600</v>
+        <v>601200</v>
       </c>
       <c r="E33" s="3">
-        <v>549400</v>
+        <v>561200</v>
       </c>
       <c r="F33" s="3">
-        <v>533500</v>
+        <v>544900</v>
       </c>
       <c r="G33" s="3">
-        <v>433300</v>
+        <v>442500</v>
       </c>
       <c r="H33" s="3">
-        <v>405100</v>
+        <v>413800</v>
       </c>
       <c r="I33" s="3">
-        <v>385300</v>
+        <v>393500</v>
       </c>
       <c r="J33" s="3">
-        <v>329900</v>
+        <v>337000</v>
       </c>
       <c r="K33" s="3">
         <v>277500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>588600</v>
+        <v>601200</v>
       </c>
       <c r="E35" s="3">
-        <v>549400</v>
+        <v>561200</v>
       </c>
       <c r="F35" s="3">
-        <v>533500</v>
+        <v>544900</v>
       </c>
       <c r="G35" s="3">
-        <v>433300</v>
+        <v>442500</v>
       </c>
       <c r="H35" s="3">
-        <v>405100</v>
+        <v>413800</v>
       </c>
       <c r="I35" s="3">
-        <v>385300</v>
+        <v>393500</v>
       </c>
       <c r="J35" s="3">
-        <v>329900</v>
+        <v>337000</v>
       </c>
       <c r="K35" s="3">
         <v>277500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1866200</v>
+        <v>1906000</v>
       </c>
       <c r="E41" s="3">
-        <v>964000</v>
+        <v>984600</v>
       </c>
       <c r="F41" s="3">
-        <v>1171700</v>
+        <v>1196700</v>
       </c>
       <c r="G41" s="3">
-        <v>757500</v>
+        <v>773700</v>
       </c>
       <c r="H41" s="3">
-        <v>592700</v>
+        <v>605400</v>
       </c>
       <c r="I41" s="3">
-        <v>413900</v>
+        <v>422800</v>
       </c>
       <c r="J41" s="3">
-        <v>350400</v>
+        <v>357900</v>
       </c>
       <c r="K41" s="3">
         <v>336000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1839000</v>
+        <v>1878300</v>
       </c>
       <c r="E43" s="3">
-        <v>1677800</v>
+        <v>1713600</v>
       </c>
       <c r="F43" s="3">
-        <v>1620900</v>
+        <v>1655500</v>
       </c>
       <c r="G43" s="3">
-        <v>1477200</v>
+        <v>1508700</v>
       </c>
       <c r="H43" s="3">
-        <v>1563200</v>
+        <v>1596500</v>
       </c>
       <c r="I43" s="3">
-        <v>1475200</v>
+        <v>1506700</v>
       </c>
       <c r="J43" s="3">
-        <v>1363800</v>
+        <v>1392900</v>
       </c>
       <c r="K43" s="3">
         <v>1057200</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2169700</v>
+        <v>2216000</v>
       </c>
       <c r="E44" s="3">
-        <v>1828900</v>
+        <v>1868000</v>
       </c>
       <c r="F44" s="3">
-        <v>1777100</v>
+        <v>1815000</v>
       </c>
       <c r="G44" s="3">
-        <v>1460700</v>
+        <v>1491900</v>
       </c>
       <c r="H44" s="3">
-        <v>1505800</v>
+        <v>1538000</v>
       </c>
       <c r="I44" s="3">
-        <v>1321300</v>
+        <v>1349500</v>
       </c>
       <c r="J44" s="3">
-        <v>1192300</v>
+        <v>1217700</v>
       </c>
       <c r="K44" s="3">
         <v>1894200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>132600</v>
+        <v>135500</v>
       </c>
       <c r="E45" s="3">
-        <v>126200</v>
+        <v>128900</v>
       </c>
       <c r="F45" s="3">
-        <v>134900</v>
+        <v>137800</v>
       </c>
       <c r="G45" s="3">
-        <v>91400</v>
+        <v>93400</v>
       </c>
       <c r="H45" s="3">
-        <v>107700</v>
+        <v>110000</v>
       </c>
       <c r="I45" s="3">
-        <v>138800</v>
+        <v>141800</v>
       </c>
       <c r="J45" s="3">
-        <v>95000</v>
+        <v>97100</v>
       </c>
       <c r="K45" s="3">
         <v>327100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6007500</v>
+        <v>6135800</v>
       </c>
       <c r="E46" s="3">
-        <v>4596900</v>
+        <v>4695100</v>
       </c>
       <c r="F46" s="3">
-        <v>4704500</v>
+        <v>4805000</v>
       </c>
       <c r="G46" s="3">
-        <v>3786800</v>
+        <v>3867700</v>
       </c>
       <c r="H46" s="3">
-        <v>3769400</v>
+        <v>3849900</v>
       </c>
       <c r="I46" s="3">
-        <v>3349300</v>
+        <v>3420800</v>
       </c>
       <c r="J46" s="3">
-        <v>3001500</v>
+        <v>3065600</v>
       </c>
       <c r="K46" s="3">
         <v>2434400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>827400</v>
+        <v>845000</v>
       </c>
       <c r="E48" s="3">
-        <v>706300</v>
+        <v>721300</v>
       </c>
       <c r="F48" s="3">
-        <v>714800</v>
+        <v>730100</v>
       </c>
       <c r="G48" s="3">
-        <v>683900</v>
+        <v>698500</v>
       </c>
       <c r="H48" s="3">
-        <v>151900</v>
+        <v>155100</v>
       </c>
       <c r="I48" s="3">
-        <v>155300</v>
+        <v>158700</v>
       </c>
       <c r="J48" s="3">
-        <v>153000</v>
+        <v>156300</v>
       </c>
       <c r="K48" s="3">
         <v>134300</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3838900</v>
+        <v>3920900</v>
       </c>
       <c r="E49" s="3">
-        <v>3433000</v>
+        <v>3506400</v>
       </c>
       <c r="F49" s="3">
-        <v>3029900</v>
+        <v>3094600</v>
       </c>
       <c r="G49" s="3">
-        <v>2842500</v>
+        <v>2903300</v>
       </c>
       <c r="H49" s="3">
-        <v>2956200</v>
+        <v>3019300</v>
       </c>
       <c r="I49" s="3">
-        <v>2918000</v>
+        <v>2980300</v>
       </c>
       <c r="J49" s="3">
-        <v>2416600</v>
+        <v>2468200</v>
       </c>
       <c r="K49" s="3">
         <v>1963000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>80000</v>
+        <v>81700</v>
       </c>
       <c r="E52" s="3">
-        <v>91000</v>
+        <v>92900</v>
       </c>
       <c r="F52" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="G52" s="3">
-        <v>32300</v>
+        <v>32900</v>
       </c>
       <c r="H52" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="I52" s="3">
-        <v>16600</v>
+        <v>17000</v>
       </c>
       <c r="J52" s="3">
-        <v>21300</v>
+        <v>21800</v>
       </c>
       <c r="K52" s="3">
         <v>26100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10753800</v>
+        <v>10983400</v>
       </c>
       <c r="E54" s="3">
-        <v>8827200</v>
+        <v>9015700</v>
       </c>
       <c r="F54" s="3">
-        <v>8473900</v>
+        <v>8654900</v>
       </c>
       <c r="G54" s="3">
-        <v>7345500</v>
+        <v>7502400</v>
       </c>
       <c r="H54" s="3">
-        <v>6894000</v>
+        <v>7041200</v>
       </c>
       <c r="I54" s="3">
-        <v>6439300</v>
+        <v>6576800</v>
       </c>
       <c r="J54" s="3">
-        <v>5592400</v>
+        <v>5711800</v>
       </c>
       <c r="K54" s="3">
         <v>4557800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1787900</v>
+        <v>1826100</v>
       </c>
       <c r="E57" s="3">
-        <v>1509600</v>
+        <v>1541800</v>
       </c>
       <c r="F57" s="3">
-        <v>1340600</v>
+        <v>1369200</v>
       </c>
       <c r="G57" s="3">
-        <v>1325100</v>
+        <v>1353300</v>
       </c>
       <c r="H57" s="3">
-        <v>1419400</v>
+        <v>1449700</v>
       </c>
       <c r="I57" s="3">
-        <v>1280600</v>
+        <v>1308000</v>
       </c>
       <c r="J57" s="3">
-        <v>1131400</v>
+        <v>1155500</v>
       </c>
       <c r="K57" s="3">
         <v>877000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1405600</v>
+        <v>1435600</v>
       </c>
       <c r="E58" s="3">
-        <v>983500</v>
+        <v>1004500</v>
       </c>
       <c r="F58" s="3">
-        <v>897800</v>
+        <v>917000</v>
       </c>
       <c r="G58" s="3">
-        <v>837800</v>
+        <v>855700</v>
       </c>
       <c r="H58" s="3">
-        <v>506700</v>
+        <v>517600</v>
       </c>
       <c r="I58" s="3">
-        <v>454600</v>
+        <v>464300</v>
       </c>
       <c r="J58" s="3">
-        <v>299900</v>
+        <v>306300</v>
       </c>
       <c r="K58" s="3">
         <v>419600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1106300</v>
+        <v>1129900</v>
       </c>
       <c r="E59" s="3">
-        <v>950100</v>
+        <v>970400</v>
       </c>
       <c r="F59" s="3">
-        <v>1071700</v>
+        <v>1094600</v>
       </c>
       <c r="G59" s="3">
-        <v>657700</v>
+        <v>671800</v>
       </c>
       <c r="H59" s="3">
-        <v>718100</v>
+        <v>733400</v>
       </c>
       <c r="I59" s="3">
-        <v>695700</v>
+        <v>710600</v>
       </c>
       <c r="J59" s="3">
-        <v>602200</v>
+        <v>615000</v>
       </c>
       <c r="K59" s="3">
         <v>542900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4299700</v>
+        <v>4391600</v>
       </c>
       <c r="E60" s="3">
-        <v>3443100</v>
+        <v>3516600</v>
       </c>
       <c r="F60" s="3">
-        <v>3310100</v>
+        <v>3380800</v>
       </c>
       <c r="G60" s="3">
-        <v>2820600</v>
+        <v>2880800</v>
       </c>
       <c r="H60" s="3">
-        <v>2644100</v>
+        <v>2700600</v>
       </c>
       <c r="I60" s="3">
-        <v>2431000</v>
+        <v>2482900</v>
       </c>
       <c r="J60" s="3">
-        <v>2033400</v>
+        <v>2076900</v>
       </c>
       <c r="K60" s="3">
         <v>1839600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2479100</v>
+        <v>2532100</v>
       </c>
       <c r="E61" s="3">
-        <v>2225100</v>
+        <v>2272600</v>
       </c>
       <c r="F61" s="3">
-        <v>2461300</v>
+        <v>2513800</v>
       </c>
       <c r="G61" s="3">
-        <v>2075100</v>
+        <v>2119400</v>
       </c>
       <c r="H61" s="3">
-        <v>1807000</v>
+        <v>1845600</v>
       </c>
       <c r="I61" s="3">
-        <v>1860200</v>
+        <v>1899900</v>
       </c>
       <c r="J61" s="3">
-        <v>1592700</v>
+        <v>1626700</v>
       </c>
       <c r="K61" s="3">
         <v>1262600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>598800</v>
+        <v>611600</v>
       </c>
       <c r="E62" s="3">
-        <v>424400</v>
+        <v>433400</v>
       </c>
       <c r="F62" s="3">
-        <v>321400</v>
+        <v>328200</v>
       </c>
       <c r="G62" s="3">
-        <v>285500</v>
+        <v>291600</v>
       </c>
       <c r="H62" s="3">
-        <v>340400</v>
+        <v>347600</v>
       </c>
       <c r="I62" s="3">
-        <v>350700</v>
+        <v>358100</v>
       </c>
       <c r="J62" s="3">
-        <v>337700</v>
+        <v>345000</v>
       </c>
       <c r="K62" s="3">
         <v>243600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7377700</v>
+        <v>7535200</v>
       </c>
       <c r="E66" s="3">
-        <v>6092600</v>
+        <v>6222700</v>
       </c>
       <c r="F66" s="3">
-        <v>6092700</v>
+        <v>6222800</v>
       </c>
       <c r="G66" s="3">
-        <v>5181200</v>
+        <v>5291900</v>
       </c>
       <c r="H66" s="3">
-        <v>4791500</v>
+        <v>4893800</v>
       </c>
       <c r="I66" s="3">
-        <v>4641800</v>
+        <v>4741000</v>
       </c>
       <c r="J66" s="3">
-        <v>3963900</v>
+        <v>4048500</v>
       </c>
       <c r="K66" s="3">
         <v>3345800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3087200</v>
+        <v>3153200</v>
       </c>
       <c r="E72" s="3">
-        <v>2692700</v>
+        <v>2750200</v>
       </c>
       <c r="F72" s="3">
-        <v>2256100</v>
+        <v>2304300</v>
       </c>
       <c r="G72" s="3">
-        <v>1943300</v>
+        <v>1984800</v>
       </c>
       <c r="H72" s="3">
-        <v>1775500</v>
+        <v>1813400</v>
       </c>
       <c r="I72" s="3">
-        <v>1474600</v>
+        <v>1506100</v>
       </c>
       <c r="J72" s="3">
-        <v>1249400</v>
+        <v>1276000</v>
       </c>
       <c r="K72" s="3">
         <v>1099700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3376100</v>
+        <v>3448200</v>
       </c>
       <c r="E76" s="3">
-        <v>2734600</v>
+        <v>2793000</v>
       </c>
       <c r="F76" s="3">
-        <v>2381200</v>
+        <v>2432100</v>
       </c>
       <c r="G76" s="3">
-        <v>2164300</v>
+        <v>2210600</v>
       </c>
       <c r="H76" s="3">
-        <v>2102500</v>
+        <v>2147400</v>
       </c>
       <c r="I76" s="3">
-        <v>1797400</v>
+        <v>1835800</v>
       </c>
       <c r="J76" s="3">
-        <v>1628500</v>
+        <v>1663300</v>
       </c>
       <c r="K76" s="3">
         <v>1211900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>588600</v>
+        <v>601200</v>
       </c>
       <c r="E81" s="3">
-        <v>549400</v>
+        <v>561200</v>
       </c>
       <c r="F81" s="3">
-        <v>533500</v>
+        <v>544900</v>
       </c>
       <c r="G81" s="3">
-        <v>433300</v>
+        <v>442500</v>
       </c>
       <c r="H81" s="3">
-        <v>405100</v>
+        <v>413800</v>
       </c>
       <c r="I81" s="3">
-        <v>385300</v>
+        <v>393500</v>
       </c>
       <c r="J81" s="3">
-        <v>329900</v>
+        <v>337000</v>
       </c>
       <c r="K81" s="3">
         <v>277500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>394500</v>
+        <v>402900</v>
       </c>
       <c r="E83" s="3">
-        <v>344600</v>
+        <v>351900</v>
       </c>
       <c r="F83" s="3">
-        <v>337600</v>
+        <v>344800</v>
       </c>
       <c r="G83" s="3">
-        <v>331700</v>
+        <v>338700</v>
       </c>
       <c r="H83" s="3">
-        <v>178300</v>
+        <v>182100</v>
       </c>
       <c r="I83" s="3">
-        <v>158700</v>
+        <v>162100</v>
       </c>
       <c r="J83" s="3">
-        <v>134900</v>
+        <v>137800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1180700</v>
+        <v>1206000</v>
       </c>
       <c r="E89" s="3">
-        <v>909600</v>
+        <v>929100</v>
       </c>
       <c r="F89" s="3">
-        <v>980500</v>
+        <v>1001400</v>
       </c>
       <c r="G89" s="3">
-        <v>830500</v>
+        <v>848200</v>
       </c>
       <c r="H89" s="3">
-        <v>595600</v>
+        <v>608300</v>
       </c>
       <c r="I89" s="3">
-        <v>590100</v>
+        <v>602700</v>
       </c>
       <c r="J89" s="3">
-        <v>504400</v>
+        <v>515200</v>
       </c>
       <c r="K89" s="3">
         <v>390900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-57900</v>
+        <v>-59200</v>
       </c>
       <c r="E91" s="3">
-        <v>-40600</v>
+        <v>-41400</v>
       </c>
       <c r="F91" s="3">
-        <v>-41100</v>
+        <v>-41900</v>
       </c>
       <c r="G91" s="3">
-        <v>-45800</v>
+        <v>-46800</v>
       </c>
       <c r="H91" s="3">
-        <v>-38600</v>
+        <v>-39400</v>
       </c>
       <c r="I91" s="3">
-        <v>-41900</v>
+        <v>-42800</v>
       </c>
       <c r="J91" s="3">
-        <v>-31500</v>
+        <v>-32200</v>
       </c>
       <c r="K91" s="3">
         <v>-29900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-276900</v>
+        <v>-282900</v>
       </c>
       <c r="E94" s="3">
-        <v>-568300</v>
+        <v>-580400</v>
       </c>
       <c r="F94" s="3">
-        <v>-471500</v>
+        <v>-481600</v>
       </c>
       <c r="G94" s="3">
-        <v>-201800</v>
+        <v>-206100</v>
       </c>
       <c r="H94" s="3">
-        <v>-175900</v>
+        <v>-179700</v>
       </c>
       <c r="I94" s="3">
-        <v>-750900</v>
+        <v>-767000</v>
       </c>
       <c r="J94" s="3">
-        <v>-221500</v>
+        <v>-226200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-236400</v>
+        <v>-241400</v>
       </c>
       <c r="E96" s="3">
-        <v>-223800</v>
+        <v>-228600</v>
       </c>
       <c r="F96" s="3">
-        <v>-212800</v>
+        <v>-217300</v>
       </c>
       <c r="G96" s="3">
-        <v>-207600</v>
+        <v>-212000</v>
       </c>
       <c r="H96" s="3">
-        <v>-188800</v>
+        <v>-192900</v>
       </c>
       <c r="I96" s="3">
-        <v>-171500</v>
+        <v>-175100</v>
       </c>
       <c r="J96" s="3">
-        <v>-155600</v>
+        <v>-158900</v>
       </c>
       <c r="K96" s="3">
         <v>-125900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-410700</v>
+        <v>-419500</v>
       </c>
       <c r="E100" s="3">
-        <v>-569200</v>
+        <v>-581300</v>
       </c>
       <c r="F100" s="3">
-        <v>-151600</v>
+        <v>-154900</v>
       </c>
       <c r="G100" s="3">
-        <v>-610700</v>
+        <v>-623800</v>
       </c>
       <c r="H100" s="3">
-        <v>-380800</v>
+        <v>-388900</v>
       </c>
       <c r="I100" s="3">
-        <v>144900</v>
+        <v>148000</v>
       </c>
       <c r="J100" s="3">
-        <v>-240100</v>
+        <v>-245200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>68700</v>
+        <v>70200</v>
       </c>
       <c r="E101" s="3">
-        <v>-25800</v>
+        <v>-26400</v>
       </c>
       <c r="F101" s="3">
         <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>-22200</v>
+        <v>-22700</v>
       </c>
       <c r="H101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I101" s="3">
         <v>-2000</v>
       </c>
       <c r="J101" s="3">
-        <v>51500</v>
+        <v>52600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>561800</v>
+        <v>573800</v>
       </c>
       <c r="E102" s="3">
-        <v>-253600</v>
+        <v>-259000</v>
       </c>
       <c r="F102" s="3">
-        <v>358500</v>
+        <v>366100</v>
       </c>
       <c r="G102" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="H102" s="3">
-        <v>39600</v>
+        <v>40400</v>
       </c>
       <c r="I102" s="3">
-        <v>-17900</v>
+        <v>-18200</v>
       </c>
       <c r="J102" s="3">
-        <v>94300</v>
+        <v>96300</v>
       </c>
       <c r="K102" s="3">
         <v>8900</v>

--- a/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BZLFY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15257700</v>
+        <v>14936200</v>
       </c>
       <c r="E8" s="3">
-        <v>13034300</v>
+        <v>12759700</v>
       </c>
       <c r="F8" s="3">
-        <v>12813800</v>
+        <v>12543800</v>
       </c>
       <c r="G8" s="3">
-        <v>11819700</v>
+        <v>11570700</v>
       </c>
       <c r="H8" s="3">
-        <v>11506300</v>
+        <v>11263900</v>
       </c>
       <c r="I8" s="3">
-        <v>10874600</v>
+        <v>10645500</v>
       </c>
       <c r="J8" s="3">
-        <v>9414900</v>
+        <v>9216500</v>
       </c>
       <c r="K8" s="3">
         <v>7739000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11424700</v>
+        <v>11184000</v>
       </c>
       <c r="E9" s="3">
-        <v>9837400</v>
+        <v>9630200</v>
       </c>
       <c r="F9" s="3">
-        <v>9538100</v>
+        <v>9337100</v>
       </c>
       <c r="G9" s="3">
-        <v>8913200</v>
+        <v>8725400</v>
       </c>
       <c r="H9" s="3">
-        <v>8683300</v>
+        <v>8500300</v>
       </c>
       <c r="I9" s="3">
-        <v>8225500</v>
+        <v>8052200</v>
       </c>
       <c r="J9" s="3">
-        <v>7122400</v>
+        <v>6972300</v>
       </c>
       <c r="K9" s="3">
         <v>5875700</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3832900</v>
+        <v>3752200</v>
       </c>
       <c r="E10" s="3">
-        <v>3196900</v>
+        <v>3129500</v>
       </c>
       <c r="F10" s="3">
-        <v>3275700</v>
+        <v>3206700</v>
       </c>
       <c r="G10" s="3">
-        <v>2906600</v>
+        <v>2845300</v>
       </c>
       <c r="H10" s="3">
-        <v>2823000</v>
+        <v>2763600</v>
       </c>
       <c r="I10" s="3">
-        <v>2649000</v>
+        <v>2593200</v>
       </c>
       <c r="J10" s="3">
-        <v>2292500</v>
+        <v>2244200</v>
       </c>
       <c r="K10" s="3">
         <v>1863300</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>69700</v>
+        <v>68200</v>
       </c>
       <c r="E14" s="3">
-        <v>29100</v>
+        <v>28500</v>
       </c>
       <c r="F14" s="3">
-        <v>75400</v>
+        <v>73800</v>
       </c>
       <c r="G14" s="3">
-        <v>22300</v>
+        <v>21800</v>
       </c>
       <c r="H14" s="3">
-        <v>29300</v>
+        <v>28700</v>
       </c>
       <c r="I14" s="3">
-        <v>46500</v>
+        <v>45500</v>
       </c>
       <c r="J14" s="3">
-        <v>43100</v>
+        <v>42200</v>
       </c>
       <c r="K14" s="3">
         <v>25900</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>402900</v>
+        <v>394400</v>
       </c>
       <c r="E15" s="3">
-        <v>351900</v>
+        <v>344500</v>
       </c>
       <c r="F15" s="3">
-        <v>344800</v>
+        <v>337600</v>
       </c>
       <c r="G15" s="3">
-        <v>338700</v>
+        <v>331600</v>
       </c>
       <c r="H15" s="3">
-        <v>182100</v>
+        <v>178300</v>
       </c>
       <c r="I15" s="3">
-        <v>162100</v>
+        <v>158700</v>
       </c>
       <c r="J15" s="3">
-        <v>137800</v>
+        <v>134900</v>
       </c>
       <c r="K15" s="3">
         <v>108400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14367400</v>
+        <v>14064700</v>
       </c>
       <c r="E17" s="3">
-        <v>12244400</v>
+        <v>11986400</v>
       </c>
       <c r="F17" s="3">
-        <v>12030000</v>
+        <v>11776500</v>
       </c>
       <c r="G17" s="3">
-        <v>11150100</v>
+        <v>10915200</v>
       </c>
       <c r="H17" s="3">
-        <v>10898300</v>
+        <v>10668700</v>
       </c>
       <c r="I17" s="3">
-        <v>10296700</v>
+        <v>10079800</v>
       </c>
       <c r="J17" s="3">
-        <v>8895700</v>
+        <v>8708300</v>
       </c>
       <c r="K17" s="3">
         <v>7302000</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>890300</v>
+        <v>871500</v>
       </c>
       <c r="E18" s="3">
-        <v>789900</v>
+        <v>773300</v>
       </c>
       <c r="F18" s="3">
-        <v>783800</v>
+        <v>767300</v>
       </c>
       <c r="G18" s="3">
-        <v>669600</v>
+        <v>655500</v>
       </c>
       <c r="H18" s="3">
-        <v>608100</v>
+        <v>595200</v>
       </c>
       <c r="I18" s="3">
-        <v>577900</v>
+        <v>565700</v>
       </c>
       <c r="J18" s="3">
-        <v>519200</v>
+        <v>508300</v>
       </c>
       <c r="K18" s="3">
         <v>437100</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16000</v>
+        <v>15600</v>
       </c>
       <c r="E20" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="F20" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G20" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="H20" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="I20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="J20" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K20" s="3">
         <v>-600</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1309100</v>
+        <v>1281900</v>
       </c>
       <c r="E21" s="3">
-        <v>1149900</v>
+        <v>1126100</v>
       </c>
       <c r="F21" s="3">
-        <v>1133600</v>
+        <v>1110000</v>
       </c>
       <c r="G21" s="3">
-        <v>1014500</v>
+        <v>993400</v>
       </c>
       <c r="H21" s="3">
-        <v>796200</v>
+        <v>779600</v>
       </c>
       <c r="I21" s="3">
-        <v>745300</v>
+        <v>729800</v>
       </c>
       <c r="J21" s="3">
-        <v>660600</v>
+        <v>646900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>102000</v>
+        <v>99900</v>
       </c>
       <c r="E22" s="3">
-        <v>77300</v>
+        <v>75700</v>
       </c>
       <c r="F22" s="3">
-        <v>84500</v>
+        <v>82700</v>
       </c>
       <c r="G22" s="3">
-        <v>101300</v>
+        <v>99100</v>
       </c>
       <c r="H22" s="3">
-        <v>75800</v>
+        <v>74200</v>
       </c>
       <c r="I22" s="3">
-        <v>64500</v>
+        <v>63100</v>
       </c>
       <c r="J22" s="3">
-        <v>63000</v>
+        <v>61700</v>
       </c>
       <c r="K22" s="3">
         <v>51600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>804200</v>
+        <v>787300</v>
       </c>
       <c r="E23" s="3">
-        <v>720700</v>
+        <v>705500</v>
       </c>
       <c r="F23" s="3">
-        <v>704200</v>
+        <v>689400</v>
       </c>
       <c r="G23" s="3">
-        <v>574500</v>
+        <v>562400</v>
       </c>
       <c r="H23" s="3">
-        <v>538300</v>
+        <v>527000</v>
       </c>
       <c r="I23" s="3">
-        <v>518700</v>
+        <v>507800</v>
       </c>
       <c r="J23" s="3">
-        <v>459900</v>
+        <v>450200</v>
       </c>
       <c r="K23" s="3">
         <v>384800</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>203000</v>
+        <v>198700</v>
       </c>
       <c r="E24" s="3">
-        <v>159600</v>
+        <v>156200</v>
       </c>
       <c r="F24" s="3">
-        <v>159300</v>
+        <v>155900</v>
       </c>
       <c r="G24" s="3">
-        <v>131900</v>
+        <v>129100</v>
       </c>
       <c r="H24" s="3">
-        <v>124600</v>
+        <v>122000</v>
       </c>
       <c r="I24" s="3">
-        <v>125200</v>
+        <v>122600</v>
       </c>
       <c r="J24" s="3">
-        <v>122900</v>
+        <v>120300</v>
       </c>
       <c r="K24" s="3">
         <v>107300</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>601200</v>
+        <v>588500</v>
       </c>
       <c r="E26" s="3">
-        <v>561200</v>
+        <v>549300</v>
       </c>
       <c r="F26" s="3">
-        <v>544900</v>
+        <v>533500</v>
       </c>
       <c r="G26" s="3">
-        <v>442500</v>
+        <v>433200</v>
       </c>
       <c r="H26" s="3">
-        <v>413800</v>
+        <v>405100</v>
       </c>
       <c r="I26" s="3">
-        <v>393500</v>
+        <v>385200</v>
       </c>
       <c r="J26" s="3">
-        <v>337000</v>
+        <v>329900</v>
       </c>
       <c r="K26" s="3">
         <v>277500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>601200</v>
+        <v>588500</v>
       </c>
       <c r="E27" s="3">
-        <v>561200</v>
+        <v>549300</v>
       </c>
       <c r="F27" s="3">
-        <v>544900</v>
+        <v>533500</v>
       </c>
       <c r="G27" s="3">
-        <v>442500</v>
+        <v>433200</v>
       </c>
       <c r="H27" s="3">
-        <v>413800</v>
+        <v>405100</v>
       </c>
       <c r="I27" s="3">
-        <v>393500</v>
+        <v>385200</v>
       </c>
       <c r="J27" s="3">
-        <v>337000</v>
+        <v>329900</v>
       </c>
       <c r="K27" s="3">
         <v>277500</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16000</v>
+        <v>-15600</v>
       </c>
       <c r="E32" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="F32" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="G32" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="H32" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="I32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J32" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="K32" s="3">
         <v>600</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>601200</v>
+        <v>588500</v>
       </c>
       <c r="E33" s="3">
-        <v>561200</v>
+        <v>549300</v>
       </c>
       <c r="F33" s="3">
-        <v>544900</v>
+        <v>533500</v>
       </c>
       <c r="G33" s="3">
-        <v>442500</v>
+        <v>433200</v>
       </c>
       <c r="H33" s="3">
-        <v>413800</v>
+        <v>405100</v>
       </c>
       <c r="I33" s="3">
-        <v>393500</v>
+        <v>385200</v>
       </c>
       <c r="J33" s="3">
-        <v>337000</v>
+        <v>329900</v>
       </c>
       <c r="K33" s="3">
         <v>277500</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>601200</v>
+        <v>588500</v>
       </c>
       <c r="E35" s="3">
-        <v>561200</v>
+        <v>549300</v>
       </c>
       <c r="F35" s="3">
-        <v>544900</v>
+        <v>533500</v>
       </c>
       <c r="G35" s="3">
-        <v>442500</v>
+        <v>433200</v>
       </c>
       <c r="H35" s="3">
-        <v>413800</v>
+        <v>405100</v>
       </c>
       <c r="I35" s="3">
-        <v>393500</v>
+        <v>385200</v>
       </c>
       <c r="J35" s="3">
-        <v>337000</v>
+        <v>329900</v>
       </c>
       <c r="K35" s="3">
         <v>277500</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1906000</v>
+        <v>1865900</v>
       </c>
       <c r="E41" s="3">
-        <v>984600</v>
+        <v>963800</v>
       </c>
       <c r="F41" s="3">
-        <v>1196700</v>
+        <v>1171500</v>
       </c>
       <c r="G41" s="3">
-        <v>773700</v>
+        <v>757400</v>
       </c>
       <c r="H41" s="3">
-        <v>605400</v>
+        <v>592600</v>
       </c>
       <c r="I41" s="3">
-        <v>422800</v>
+        <v>413900</v>
       </c>
       <c r="J41" s="3">
-        <v>357900</v>
+        <v>350300</v>
       </c>
       <c r="K41" s="3">
         <v>336000</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1878300</v>
+        <v>1838700</v>
       </c>
       <c r="E43" s="3">
-        <v>1713600</v>
+        <v>1677500</v>
       </c>
       <c r="F43" s="3">
-        <v>1655500</v>
+        <v>1620600</v>
       </c>
       <c r="G43" s="3">
-        <v>1508700</v>
+        <v>1476900</v>
       </c>
       <c r="H43" s="3">
-        <v>1596500</v>
+        <v>1562900</v>
       </c>
       <c r="I43" s="3">
-        <v>1506700</v>
+        <v>1474900</v>
       </c>
       <c r="J43" s="3">
-        <v>1392900</v>
+        <v>1363500</v>
       </c>
       <c r="K43" s="3">
         <v>1057200</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2216000</v>
+        <v>2169300</v>
       </c>
       <c r="E44" s="3">
-        <v>1868000</v>
+        <v>1828600</v>
       </c>
       <c r="F44" s="3">
-        <v>1815000</v>
+        <v>1776800</v>
       </c>
       <c r="G44" s="3">
-        <v>1491900</v>
+        <v>1460400</v>
       </c>
       <c r="H44" s="3">
-        <v>1538000</v>
+        <v>1505600</v>
       </c>
       <c r="I44" s="3">
-        <v>1349500</v>
+        <v>1321100</v>
       </c>
       <c r="J44" s="3">
-        <v>1217700</v>
+        <v>1192100</v>
       </c>
       <c r="K44" s="3">
         <v>1894200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>135500</v>
+        <v>132600</v>
       </c>
       <c r="E45" s="3">
-        <v>128900</v>
+        <v>126200</v>
       </c>
       <c r="F45" s="3">
-        <v>137800</v>
+        <v>134900</v>
       </c>
       <c r="G45" s="3">
-        <v>93400</v>
+        <v>91400</v>
       </c>
       <c r="H45" s="3">
-        <v>110000</v>
+        <v>107700</v>
       </c>
       <c r="I45" s="3">
-        <v>141800</v>
+        <v>138800</v>
       </c>
       <c r="J45" s="3">
-        <v>97100</v>
+        <v>95000</v>
       </c>
       <c r="K45" s="3">
         <v>327100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6135800</v>
+        <v>6006500</v>
       </c>
       <c r="E46" s="3">
-        <v>4695100</v>
+        <v>4596200</v>
       </c>
       <c r="F46" s="3">
-        <v>4805000</v>
+        <v>4703700</v>
       </c>
       <c r="G46" s="3">
-        <v>3867700</v>
+        <v>3786200</v>
       </c>
       <c r="H46" s="3">
-        <v>3849900</v>
+        <v>3768800</v>
       </c>
       <c r="I46" s="3">
-        <v>3420800</v>
+        <v>3348800</v>
       </c>
       <c r="J46" s="3">
-        <v>3065600</v>
+        <v>3001000</v>
       </c>
       <c r="K46" s="3">
         <v>2434400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>845000</v>
+        <v>827200</v>
       </c>
       <c r="E48" s="3">
-        <v>721300</v>
+        <v>706100</v>
       </c>
       <c r="F48" s="3">
-        <v>730100</v>
+        <v>714700</v>
       </c>
       <c r="G48" s="3">
-        <v>698500</v>
+        <v>683800</v>
       </c>
       <c r="H48" s="3">
-        <v>155100</v>
+        <v>151800</v>
       </c>
       <c r="I48" s="3">
-        <v>158700</v>
+        <v>155300</v>
       </c>
       <c r="J48" s="3">
-        <v>156300</v>
+        <v>153000</v>
       </c>
       <c r="K48" s="3">
         <v>134300</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3920900</v>
+        <v>3838300</v>
       </c>
       <c r="E49" s="3">
-        <v>3506400</v>
+        <v>3432500</v>
       </c>
       <c r="F49" s="3">
-        <v>3094600</v>
+        <v>3029400</v>
       </c>
       <c r="G49" s="3">
-        <v>2903300</v>
+        <v>2842100</v>
       </c>
       <c r="H49" s="3">
-        <v>3019300</v>
+        <v>2955700</v>
       </c>
       <c r="I49" s="3">
-        <v>2980300</v>
+        <v>2917500</v>
       </c>
       <c r="J49" s="3">
-        <v>2468200</v>
+        <v>2416200</v>
       </c>
       <c r="K49" s="3">
         <v>1963000</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>81700</v>
+        <v>80000</v>
       </c>
       <c r="E52" s="3">
-        <v>92900</v>
+        <v>90900</v>
       </c>
       <c r="F52" s="3">
-        <v>25200</v>
+        <v>24700</v>
       </c>
       <c r="G52" s="3">
-        <v>32900</v>
+        <v>32300</v>
       </c>
       <c r="H52" s="3">
-        <v>16900</v>
+        <v>16500</v>
       </c>
       <c r="I52" s="3">
-        <v>17000</v>
+        <v>16600</v>
       </c>
       <c r="J52" s="3">
-        <v>21800</v>
+        <v>21300</v>
       </c>
       <c r="K52" s="3">
         <v>26100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10983400</v>
+        <v>10752000</v>
       </c>
       <c r="E54" s="3">
-        <v>9015700</v>
+        <v>8825800</v>
       </c>
       <c r="F54" s="3">
-        <v>8654900</v>
+        <v>8472600</v>
       </c>
       <c r="G54" s="3">
-        <v>7502400</v>
+        <v>7344400</v>
       </c>
       <c r="H54" s="3">
-        <v>7041200</v>
+        <v>6892900</v>
       </c>
       <c r="I54" s="3">
-        <v>6576800</v>
+        <v>6438200</v>
       </c>
       <c r="J54" s="3">
-        <v>5711800</v>
+        <v>5591500</v>
       </c>
       <c r="K54" s="3">
         <v>4557800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1826100</v>
+        <v>1787600</v>
       </c>
       <c r="E57" s="3">
-        <v>1541800</v>
+        <v>1509300</v>
       </c>
       <c r="F57" s="3">
-        <v>1369200</v>
+        <v>1340300</v>
       </c>
       <c r="G57" s="3">
-        <v>1353300</v>
+        <v>1324800</v>
       </c>
       <c r="H57" s="3">
-        <v>1449700</v>
+        <v>1419100</v>
       </c>
       <c r="I57" s="3">
-        <v>1308000</v>
+        <v>1280400</v>
       </c>
       <c r="J57" s="3">
-        <v>1155500</v>
+        <v>1131200</v>
       </c>
       <c r="K57" s="3">
         <v>877000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1435600</v>
+        <v>1405400</v>
       </c>
       <c r="E58" s="3">
-        <v>1004500</v>
+        <v>983300</v>
       </c>
       <c r="F58" s="3">
-        <v>917000</v>
+        <v>897700</v>
       </c>
       <c r="G58" s="3">
-        <v>855700</v>
+        <v>837700</v>
       </c>
       <c r="H58" s="3">
-        <v>517600</v>
+        <v>506700</v>
       </c>
       <c r="I58" s="3">
-        <v>464300</v>
+        <v>454600</v>
       </c>
       <c r="J58" s="3">
-        <v>306300</v>
+        <v>299900</v>
       </c>
       <c r="K58" s="3">
         <v>419600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1129900</v>
+        <v>1106100</v>
       </c>
       <c r="E59" s="3">
-        <v>970400</v>
+        <v>949900</v>
       </c>
       <c r="F59" s="3">
-        <v>1094600</v>
+        <v>1071500</v>
       </c>
       <c r="G59" s="3">
-        <v>671800</v>
+        <v>657600</v>
       </c>
       <c r="H59" s="3">
-        <v>733400</v>
+        <v>717900</v>
       </c>
       <c r="I59" s="3">
-        <v>710600</v>
+        <v>695600</v>
       </c>
       <c r="J59" s="3">
-        <v>615000</v>
+        <v>602100</v>
       </c>
       <c r="K59" s="3">
         <v>542900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4391600</v>
+        <v>4299100</v>
       </c>
       <c r="E60" s="3">
-        <v>3516600</v>
+        <v>3442500</v>
       </c>
       <c r="F60" s="3">
-        <v>3380800</v>
+        <v>3309500</v>
       </c>
       <c r="G60" s="3">
-        <v>2880800</v>
+        <v>2820100</v>
       </c>
       <c r="H60" s="3">
-        <v>2700600</v>
+        <v>2643700</v>
       </c>
       <c r="I60" s="3">
-        <v>2482900</v>
+        <v>2430600</v>
       </c>
       <c r="J60" s="3">
-        <v>2076900</v>
+        <v>2033100</v>
       </c>
       <c r="K60" s="3">
         <v>1839600</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2532100</v>
+        <v>2478700</v>
       </c>
       <c r="E61" s="3">
-        <v>2272600</v>
+        <v>2224800</v>
       </c>
       <c r="F61" s="3">
-        <v>2513800</v>
+        <v>2460900</v>
       </c>
       <c r="G61" s="3">
-        <v>2119400</v>
+        <v>2074800</v>
       </c>
       <c r="H61" s="3">
-        <v>1845600</v>
+        <v>1806700</v>
       </c>
       <c r="I61" s="3">
-        <v>1899900</v>
+        <v>1859900</v>
       </c>
       <c r="J61" s="3">
-        <v>1626700</v>
+        <v>1592400</v>
       </c>
       <c r="K61" s="3">
         <v>1262600</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>611600</v>
+        <v>598700</v>
       </c>
       <c r="E62" s="3">
-        <v>433400</v>
+        <v>424300</v>
       </c>
       <c r="F62" s="3">
-        <v>328200</v>
+        <v>321300</v>
       </c>
       <c r="G62" s="3">
-        <v>291600</v>
+        <v>285500</v>
       </c>
       <c r="H62" s="3">
-        <v>347600</v>
+        <v>340300</v>
       </c>
       <c r="I62" s="3">
-        <v>358100</v>
+        <v>350600</v>
       </c>
       <c r="J62" s="3">
-        <v>345000</v>
+        <v>337700</v>
       </c>
       <c r="K62" s="3">
         <v>243600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7535200</v>
+        <v>7376500</v>
       </c>
       <c r="E66" s="3">
-        <v>6222700</v>
+        <v>6091600</v>
       </c>
       <c r="F66" s="3">
-        <v>6222800</v>
+        <v>6091700</v>
       </c>
       <c r="G66" s="3">
-        <v>5291900</v>
+        <v>5180400</v>
       </c>
       <c r="H66" s="3">
-        <v>4893800</v>
+        <v>4790700</v>
       </c>
       <c r="I66" s="3">
-        <v>4741000</v>
+        <v>4641100</v>
       </c>
       <c r="J66" s="3">
-        <v>4048500</v>
+        <v>3963200</v>
       </c>
       <c r="K66" s="3">
         <v>3345800</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3153200</v>
+        <v>3086700</v>
       </c>
       <c r="E72" s="3">
-        <v>2750200</v>
+        <v>2692200</v>
       </c>
       <c r="F72" s="3">
-        <v>2304300</v>
+        <v>2255800</v>
       </c>
       <c r="G72" s="3">
-        <v>1984800</v>
+        <v>1943000</v>
       </c>
       <c r="H72" s="3">
-        <v>1813400</v>
+        <v>1775200</v>
       </c>
       <c r="I72" s="3">
-        <v>1506100</v>
+        <v>1474300</v>
       </c>
       <c r="J72" s="3">
-        <v>1276000</v>
+        <v>1249200</v>
       </c>
       <c r="K72" s="3">
         <v>1099700</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3448200</v>
+        <v>3375500</v>
       </c>
       <c r="E76" s="3">
-        <v>2793000</v>
+        <v>2734200</v>
       </c>
       <c r="F76" s="3">
-        <v>2432100</v>
+        <v>2380800</v>
       </c>
       <c r="G76" s="3">
-        <v>2210600</v>
+        <v>2164000</v>
       </c>
       <c r="H76" s="3">
-        <v>2147400</v>
+        <v>2102200</v>
       </c>
       <c r="I76" s="3">
-        <v>1835800</v>
+        <v>1797100</v>
       </c>
       <c r="J76" s="3">
-        <v>1663300</v>
+        <v>1628300</v>
       </c>
       <c r="K76" s="3">
         <v>1211900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>601200</v>
+        <v>588500</v>
       </c>
       <c r="E81" s="3">
-        <v>561200</v>
+        <v>549300</v>
       </c>
       <c r="F81" s="3">
-        <v>544900</v>
+        <v>533500</v>
       </c>
       <c r="G81" s="3">
-        <v>442500</v>
+        <v>433200</v>
       </c>
       <c r="H81" s="3">
-        <v>413800</v>
+        <v>405100</v>
       </c>
       <c r="I81" s="3">
-        <v>393500</v>
+        <v>385200</v>
       </c>
       <c r="J81" s="3">
-        <v>337000</v>
+        <v>329900</v>
       </c>
       <c r="K81" s="3">
         <v>277500</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>402900</v>
+        <v>394400</v>
       </c>
       <c r="E83" s="3">
-        <v>351900</v>
+        <v>344500</v>
       </c>
       <c r="F83" s="3">
-        <v>344800</v>
+        <v>337600</v>
       </c>
       <c r="G83" s="3">
-        <v>338700</v>
+        <v>331600</v>
       </c>
       <c r="H83" s="3">
-        <v>182100</v>
+        <v>178300</v>
       </c>
       <c r="I83" s="3">
-        <v>162100</v>
+        <v>158700</v>
       </c>
       <c r="J83" s="3">
-        <v>137800</v>
+        <v>134900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1206000</v>
+        <v>1180600</v>
       </c>
       <c r="E89" s="3">
-        <v>929100</v>
+        <v>909500</v>
       </c>
       <c r="F89" s="3">
-        <v>1001400</v>
+        <v>980300</v>
       </c>
       <c r="G89" s="3">
-        <v>848200</v>
+        <v>830300</v>
       </c>
       <c r="H89" s="3">
-        <v>608300</v>
+        <v>595500</v>
       </c>
       <c r="I89" s="3">
-        <v>602700</v>
+        <v>590000</v>
       </c>
       <c r="J89" s="3">
-        <v>515200</v>
+        <v>504300</v>
       </c>
       <c r="K89" s="3">
         <v>390900</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-59200</v>
+        <v>-57900</v>
       </c>
       <c r="E91" s="3">
-        <v>-41400</v>
+        <v>-40600</v>
       </c>
       <c r="F91" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-41900</v>
       </c>
-      <c r="G91" s="3">
-        <v>-46800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-39400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-42800</v>
-      </c>
       <c r="J91" s="3">
-        <v>-32200</v>
+        <v>-31500</v>
       </c>
       <c r="K91" s="3">
         <v>-29900</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-282900</v>
+        <v>-276900</v>
       </c>
       <c r="E94" s="3">
-        <v>-580400</v>
+        <v>-568200</v>
       </c>
       <c r="F94" s="3">
-        <v>-481600</v>
+        <v>-471400</v>
       </c>
       <c r="G94" s="3">
-        <v>-206100</v>
+        <v>-201700</v>
       </c>
       <c r="H94" s="3">
-        <v>-179700</v>
+        <v>-175900</v>
       </c>
       <c r="I94" s="3">
-        <v>-767000</v>
+        <v>-750800</v>
       </c>
       <c r="J94" s="3">
-        <v>-226200</v>
+        <v>-221400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-241400</v>
+        <v>-236300</v>
       </c>
       <c r="E96" s="3">
-        <v>-228600</v>
+        <v>-223800</v>
       </c>
       <c r="F96" s="3">
-        <v>-217300</v>
+        <v>-212800</v>
       </c>
       <c r="G96" s="3">
-        <v>-212000</v>
+        <v>-207600</v>
       </c>
       <c r="H96" s="3">
-        <v>-192900</v>
+        <v>-188800</v>
       </c>
       <c r="I96" s="3">
-        <v>-175100</v>
+        <v>-171500</v>
       </c>
       <c r="J96" s="3">
-        <v>-158900</v>
+        <v>-155600</v>
       </c>
       <c r="K96" s="3">
         <v>-125900</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-419500</v>
+        <v>-410600</v>
       </c>
       <c r="E100" s="3">
-        <v>-581300</v>
+        <v>-569100</v>
       </c>
       <c r="F100" s="3">
-        <v>-154900</v>
+        <v>-151600</v>
       </c>
       <c r="G100" s="3">
-        <v>-623800</v>
+        <v>-610600</v>
       </c>
       <c r="H100" s="3">
-        <v>-388900</v>
+        <v>-380700</v>
       </c>
       <c r="I100" s="3">
-        <v>148000</v>
+        <v>144900</v>
       </c>
       <c r="J100" s="3">
-        <v>-245200</v>
+        <v>-240100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>70200</v>
+        <v>68700</v>
       </c>
       <c r="E101" s="3">
-        <v>-26400</v>
+        <v>-25800</v>
       </c>
       <c r="F101" s="3">
         <v>1100</v>
       </c>
       <c r="G101" s="3">
-        <v>-22700</v>
+        <v>-22200</v>
       </c>
       <c r="H101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I101" s="3">
         <v>-2000</v>
       </c>
       <c r="J101" s="3">
-        <v>52600</v>
+        <v>51500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>573800</v>
+        <v>561700</v>
       </c>
       <c r="E102" s="3">
-        <v>-259000</v>
+        <v>-253600</v>
       </c>
       <c r="F102" s="3">
-        <v>366100</v>
+        <v>358400</v>
       </c>
       <c r="G102" s="3">
-        <v>-4300</v>
+        <v>-4200</v>
       </c>
       <c r="H102" s="3">
-        <v>40400</v>
+        <v>39600</v>
       </c>
       <c r="I102" s="3">
-        <v>-18200</v>
+        <v>-17900</v>
       </c>
       <c r="J102" s="3">
-        <v>96300</v>
+        <v>94300</v>
       </c>
       <c r="K102" s="3">
         <v>8900</v>
